--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB2E13-839B-2D43-9A0E-2B07AB1FCD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2860" yWindow="5300" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="pilottotalparticipant_list" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="pilotcompletedparticipantlist_o" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="totalparticipantlist_online" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="completedparticipantlist_online" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="totalparticipantlist_inperson" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="completedparticipantlist_inpers" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="combined_completedparticipantli" sheetId="7" r:id="rId10"/>
+    <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="pilotcompletedparticipantlist_o" sheetId="2" r:id="rId3"/>
+    <sheet name="totalparticipantlist_online" sheetId="3" r:id="rId4"/>
+    <sheet name="completedparticipantlist_online" sheetId="4" r:id="rId5"/>
+    <sheet name="totalparticipantlist_inperson" sheetId="5" r:id="rId6"/>
+    <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
+    <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>sub_id</t>
   </si>
   <si>
-    <t>photo_upload</t>
-  </si>
-  <si>
     <t>qualtrics_selfreport</t>
   </si>
   <si>
@@ -55,132 +62,203 @@
     <t>total_incomplete</t>
   </si>
   <si>
-    <t>R_2YR12REVpak1pUs</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
     <t>na</t>
   </si>
   <si>
-    <t>R_1QfKCII0MPcPQEB</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
-    <t>R_3jZ4uVvlcxoHLxa</t>
-  </si>
-  <si>
-    <t>R_1NrJNgK6q4hb04o</t>
+    <t>PROLIFIC_ID</t>
+  </si>
+  <si>
+    <t>R_3dVcKBzOcklMArn</t>
+  </si>
+  <si>
+    <t>R_1C3X72CelwWyHnx</t>
+  </si>
+  <si>
+    <t>R_1FncDXAnM91nMT6</t>
+  </si>
+  <si>
+    <t>R_2QJv0FhR7FkBg5i</t>
+  </si>
+  <si>
+    <t>R_2ygsR5Qdz7XQTMu</t>
+  </si>
+  <si>
+    <t>sarah1</t>
+  </si>
+  <si>
+    <t>jordan1</t>
+  </si>
+  <si>
+    <t>unknown3</t>
+  </si>
+  <si>
+    <t>unknown2</t>
+  </si>
+  <si>
+    <t>unknown4</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>JSD</t>
+  </si>
+  <si>
+    <t>pretasksub_id</t>
+  </si>
+  <si>
+    <t>R_2wieTt2vepP7fRw</t>
+  </si>
+  <si>
+    <t>61006614d4c56450afce3a6b</t>
+  </si>
+  <si>
+    <t>R_3L748yrkqTpAf6g</t>
+  </si>
+  <si>
+    <t>5eefc651cb94ad4c4d017b86</t>
+  </si>
+  <si>
+    <t>R_10VrT1bZzlTkiIS</t>
+  </si>
+  <si>
+    <t>R_2ruLGk6ZRCzhMoR</t>
+  </si>
+  <si>
+    <t>datedatacleaned</t>
+  </si>
+  <si>
+    <t>photouploadsub_id</t>
+  </si>
+  <si>
+    <t>PhotosUploaded? (y/n)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -370,275 +448,398 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="4" max="4" width="25.63"/>
-    <col customWidth="1" min="5" max="5" width="25.5"/>
-    <col customWidth="1" min="6" max="6" width="25.63"/>
-    <col customWidth="1" min="8" max="8" width="25.88"/>
+    <col min="2" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11">
+        <f>COUNTA(B2:B999)</f>
+        <v>7</v>
+      </c>
+      <c r="O2" s="11">
+        <f>COUNTIF(M2:M999, "y")</f>
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="P2" s="11">
+        <f>COUNTIF(M2:M999, "n")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18">
+        <v>44873</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="20">
+        <v>44872</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44873</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13">
+        <v>44872</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <f>COUNTA(A2:A1000)</f>
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
-        <f>COUNTIF(I2:I1000, "y")</f>
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <f>COUNTIF(I2:I1000, "n")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44777.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44777.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44777.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C54368-7267-714C-B261-8D4D6164F801}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.88"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(pilottotalparticipant_list!A:A,pilottotalparticipant_list!I:I = ""y"")"),"R_1QfKCII0MPcPQEB")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("FILTER(pilottotalparticipant_list!A:A,pilottotalparticipant_list!I:I = ""y"")"),"R_1QfKCII0MPcPQEB")</f>
         <v>R_1QfKCII0MPcPQEB</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
         <v>R_3jZ4uVvlcxoHLxa</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
         <v>R_1NrJNgK6q4hb04o</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB2E13-839B-2D43-9A0E-2B07AB1FCD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E94FF-3319-DC43-A5D7-DDBF9DBF2D88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5300" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="1940" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>sub_id</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>PhotosUploaded? (y/n)</t>
+  </si>
+  <si>
+    <t>Sent extra photo survey due to 1 duplicate photo. Extra photo was replaced in Photo 5</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -240,6 +243,18 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +476,10 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -513,7 +528,7 @@
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -551,7 +566,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11">
         <f>COUNTA(B2:B999)</f>
@@ -586,7 +601,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="1"/>
@@ -611,6 +626,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="K4" s="1"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -628,6 +644,7 @@
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -644,8 +661,9 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
@@ -675,7 +693,9 @@
       <c r="K7" s="22">
         <v>2</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -709,6 +729,7 @@
       <c r="K8">
         <v>3</v>
       </c>
+      <c r="L8" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E94FF-3319-DC43-A5D7-DDBF9DBF2D88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04968C59-6DE1-BE4A-827E-CED6DC30EFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1940" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18040" yWindow="3860" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>sub_id</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>Sent extra photo survey due to 1 duplicate photo. Extra photo was replaced in Photo 5</t>
+  </si>
+  <si>
+    <t>SJG</t>
+  </si>
+  <si>
+    <t>R_1CxZjSlFZTBZ86C</t>
+  </si>
+  <si>
+    <t>R_21uGMYuYgud3Qpz</t>
+  </si>
+  <si>
+    <t>R_2D1TDg6TyXirTdV</t>
+  </si>
+  <si>
+    <t>5a4636c92f91ec0001dcba07</t>
+  </si>
+  <si>
+    <t>5ff27bb4ad8fba794c1b96fa</t>
+  </si>
+  <si>
+    <t>5ec75df0d799ae1c11a8115c</t>
+  </si>
+  <si>
+    <t>R_31oPWsgogTcHoMm</t>
+  </si>
+  <si>
+    <t>R_3hGglvkYjPnHFT7</t>
+  </si>
+  <si>
+    <t>R_3n1os511nFW2keh</t>
   </si>
 </sst>
 </file>
@@ -473,13 +503,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -570,7 +600,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11">
         <f>COUNTA(B2:B999)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O2" s="11">
         <f>COUNTIF(M2:M999, "y")</f>
@@ -680,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>13</v>
@@ -718,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -730,6 +760,93 @@
         <v>3</v>
       </c>
       <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44881</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="20">
+        <v>44879</v>
+      </c>
+      <c r="K9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44881</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13">
+        <v>44879</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44881</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13">
+        <v>44879</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Library/CloudStorage/GoogleDrive-mruiz@adelphi.edu/My Drive/02_01_23 -- Rejection study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04968C59-6DE1-BE4A-827E-CED6DC30EFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E8B4-5588-B14E-93E9-D84F3B3DF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="3860" windowWidth="25880" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36260" yWindow="500" windowWidth="27960" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,25 @@
     <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
     <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>sub_id</t>
   </si>
@@ -35,9 +48,6 @@
     <t>qualtrics_selfreport</t>
   </si>
   <si>
-    <t>date part 1 completed</t>
-  </si>
-  <si>
     <t>pavlovia_task</t>
   </si>
   <si>
@@ -47,9 +57,6 @@
     <t>attention_checks</t>
   </si>
   <si>
-    <t>other notes</t>
-  </si>
-  <si>
     <t>total_completed</t>
   </si>
   <si>
@@ -131,9 +138,6 @@
     <t>R_2ruLGk6ZRCzhMoR</t>
   </si>
   <si>
-    <t>datedatacleaned</t>
-  </si>
-  <si>
     <t>photouploadsub_id</t>
   </si>
   <si>
@@ -171,13 +175,49 @@
   </si>
   <si>
     <t>R_3n1os511nFW2keh</t>
+  </si>
+  <si>
+    <t>6111234ac8cfa49e38acbfb4</t>
+  </si>
+  <si>
+    <t>610024bfd6e1038ba3b1601d</t>
+  </si>
+  <si>
+    <t>5dee8ee31255595293a9906b</t>
+  </si>
+  <si>
+    <t>60bff9298f56d55c8ecd9adf</t>
+  </si>
+  <si>
+    <t>61338374ecef87bfdfd1c7bb</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>part1_completiondate</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>R_SHpA8cSv3Dc4QrD</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>R_2334rkyNnn7vCXL</t>
+  </si>
+  <si>
+    <t>PhotosOk?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,8 +252,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,13 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,46 +295,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,349 +538,435 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="2" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
+        <f>COUNTA(B2:B999)</f>
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <f>COUNTIF(N2:N999, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>COUNTIF(N2:N999, "n")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44873</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44872</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44873</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44872</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44881</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44879</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44881</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44879</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44881</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44879</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44958</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
-        <f>COUNTA(B2:B999)</f>
-        <v>10</v>
-      </c>
-      <c r="O2" s="11">
-        <f>COUNTIF(M2:M999, "y")</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <f>COUNTIF(M2:M999, "n")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="18">
-        <v>44873</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="20">
-        <v>44872</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22">
-        <v>2</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="15">
-        <v>44873</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13">
-        <v>44872</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="15">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="15">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="20">
-        <v>44881</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="20">
-        <v>44879</v>
-      </c>
-      <c r="K9" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="13">
-        <v>44881</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13">
-        <v>44879</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13">
-        <v>44881</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13">
-        <v>44879</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
+      <c r="F16" s="15">
+        <v>44958</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +1012,13 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
         <v>R_3jZ4uVvlcxoHLxa</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
         <v>R_1NrJNgK6q4hb04o</v>
       </c>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Library/CloudStorage/GoogleDrive-mruiz@adelphi.edu/My Drive/02_01_23 -- Rejection study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E8B4-5588-B14E-93E9-D84F3B3DF2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D67749-F388-CE4F-895D-BAB76FC36755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36260" yWindow="500" windowWidth="27960" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="760" windowWidth="27960" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Library/CloudStorage/GoogleDrive-mruiz@adelphi.edu/My Drive/02_01_23 -- Rejection study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D67749-F388-CE4F-895D-BAB76FC36755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D020DC7E-5AAC-2C48-917A-7E87DC0D87D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="27960" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="16700" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -22,25 +22,12 @@
     <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
     <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>sub_id</t>
   </si>
@@ -211,6 +198,39 @@
   </si>
   <si>
     <t>PhotosOk?</t>
+  </si>
+  <si>
+    <t>SG CL</t>
+  </si>
+  <si>
+    <t>SjG CL</t>
+  </si>
+  <si>
+    <t>R_28Bb6hdQifdwUe3</t>
+  </si>
+  <si>
+    <t>R_3egauI2rSYbPy5n</t>
+  </si>
+  <si>
+    <t>R_1lyImuXLsx47Lxy</t>
+  </si>
+  <si>
+    <t>R_r8rt58WUNKnvwxb</t>
+  </si>
+  <si>
+    <t>R_C1ZxSPKXCBt8DwR</t>
+  </si>
+  <si>
+    <t>R_10OtJnlwnJhdfSI</t>
+  </si>
+  <si>
+    <t>R_suw4fTn8n68AfN7</t>
+  </si>
+  <si>
+    <t>R_0IgzIzI6JtST84x</t>
+  </si>
+  <si>
+    <t>Questionable photos submitted</t>
   </si>
 </sst>
 </file>
@@ -278,7 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,8 +338,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +564,10 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -639,7 +662,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1">
         <f>COUNTA(B2:B999)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1">
         <f>COUNTIF(N2:N999, "y")</f>
@@ -937,36 +960,123 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="14" t="s">
+    <row r="13" spans="1:17" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="15">
-        <v>44958</v>
+      <c r="F13" s="17">
+        <v>44959</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="16">
+        <v>3</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="15">
-        <v>44958</v>
+      <c r="F14" s="18">
+        <v>44959</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="15">
-        <v>44958</v>
+      <c r="F15" s="18">
+        <v>44959</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
       <c r="E16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="15">
-        <v>44958</v>
+      <c r="F16" s="18">
+        <v>44959</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D020DC7E-5AAC-2C48-917A-7E87DC0D87D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A87C8-99B3-8F4B-8A41-A9BE036E558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="16700" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="29480" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,25 @@
     <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
     <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>sub_id</t>
   </si>
@@ -231,13 +244,31 @@
   </si>
   <si>
     <t>Questionable photos submitted</t>
+  </si>
+  <si>
+    <t>611118b967515e93dcf141f1</t>
+  </si>
+  <si>
+    <t>5f16f559325a640008bb9a07</t>
+  </si>
+  <si>
+    <t>60fcebba7345a976efc9c080</t>
+  </si>
+  <si>
+    <t>5adef850eb60400001539109</t>
+  </si>
+  <si>
+    <t>63d1b0363f9bd5a6062dfb1c</t>
+  </si>
+  <si>
+    <t>5ad2c8334d061300011b1985</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,19 +319,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,34 +346,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,522 +590,572 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9"/>
+    <col min="2" max="4" width="21.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="12.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1">
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
         <f>COUNTA(B2:B999)</f>
         <v>15</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="7">
         <f>COUNTIF(N2:N999, "y")</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="7">
         <f>COUNTIF(N2:N999, "n")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="14">
         <v>44873</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="14">
         <v>44872</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="15">
         <v>2</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>44873</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>44872</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8">
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="9">
         <v>3</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="14">
         <v>44881</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="14">
         <v>44879</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="14">
         <v>44881</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="14">
         <v>44879</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10">
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="14">
         <v>44881</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="14">
         <v>44879</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11">
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="14">
         <v>44958</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="14">
         <v>44958</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>44959</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="9">
         <v>3</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="14">
         <v>44959</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="14">
         <v>44959</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <v>44959</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="14">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="14">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="14">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="14">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="14">
+        <v>44967</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A87C8-99B3-8F4B-8A41-A9BE036E558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301E873-87F4-5048-952E-5F5A255FE4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="29480" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,12 +326,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,32 +352,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,22 +601,20 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9"/>
-    <col min="2" max="4" width="21.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="12.6640625" style="9"/>
+    <col min="2" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -679,27 +682,27 @@
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7">
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
         <f>COUNTA(B2:B999)</f>
         <v>15</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="1">
         <f>COUNTIF(N2:N999, "y")</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="1">
         <f>COUNTIF(N2:N999, "n")</f>
         <v>0</v>
       </c>
@@ -716,21 +719,21 @@
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -741,22 +744,22 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -770,13 +773,13 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="10"/>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -790,46 +793,46 @@
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="10"/>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>44873</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>44872</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="13">
         <v>2</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -840,61 +843,61 @@
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>44873</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>44872</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>44881</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>44879</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
     </row>
@@ -902,31 +905,31 @@
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>44881</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>44879</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
     </row>
@@ -934,31 +937,31 @@
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>44881</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>44879</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
     </row>
@@ -966,28 +969,28 @@
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>44958</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>44958</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -995,16 +998,16 @@
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>44959</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1016,7 +1019,7 @@
       <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -1027,28 +1030,28 @@
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>44959</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14">
         <v>3</v>
       </c>
     </row>
@@ -1056,28 +1059,28 @@
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>44959</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15">
         <v>3</v>
       </c>
     </row>
@@ -1085,76 +1088,76 @@
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>44959</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="15">
         <v>44967</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <v>44967</v>
       </c>
     </row>
     <row r="19" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="15">
         <v>44967</v>
       </c>
     </row>
     <row r="20" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="15">
         <v>44967</v>
       </c>
     </row>
     <row r="21" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>44967</v>
       </c>
     </row>
     <row r="22" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <v>44967</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,46 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2301E873-87F4-5048-952E-5F5A255FE4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33835F-7736-DA4C-BF4C-E0EEB22DEDB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="29480" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="3160" windowWidth="30860" windowHeight="18020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="pilotcompletedparticipantlist_o" sheetId="2" r:id="rId3"/>
+    <sheet name="pilotcompletedparticipantlist_o" sheetId="2" r:id="rId1"/>
+    <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
     <sheet name="totalparticipantlist_online" sheetId="3" r:id="rId4"/>
     <sheet name="completedparticipantlist_online" sheetId="4" r:id="rId5"/>
     <sheet name="totalparticipantlist_inperson" sheetId="5" r:id="rId6"/>
     <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
     <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>sub_id</t>
   </si>
@@ -216,9 +203,6 @@
     <t>SG CL</t>
   </si>
   <si>
-    <t>SjG CL</t>
-  </si>
-  <si>
     <t>R_28Bb6hdQifdwUe3</t>
   </si>
   <si>
@@ -262,6 +246,58 @@
   </si>
   <si>
     <t>5ad2c8334d061300011b1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCS responses to items 1-6 were the same - thoughts? Also did not answer SRQ item 2
+</t>
+  </si>
+  <si>
+    <t>ERQ_16-19 same; AQ_8-12 same</t>
+  </si>
+  <si>
+    <t>AQ_11-20 same; AQ_2-6 same; percieved stress all are same except item 3</t>
+  </si>
+  <si>
+    <t>R_2wyvCnmrBb5A2Us</t>
+  </si>
+  <si>
+    <t>R_2CD10Jlc9GaVYwm</t>
+  </si>
+  <si>
+    <t>R_1llYplkXFJbis2f</t>
+  </si>
+  <si>
+    <t>R_240keg0XIv1Apbh</t>
+  </si>
+  <si>
+    <t>R_Wj1AqUFRO5TzLJD</t>
+  </si>
+  <si>
+    <t>R_xg3XTfbdkPY00Uh</t>
+  </si>
+  <si>
+    <t>SJG CL</t>
+  </si>
+  <si>
+    <t>R_C7DzUG7F5c59TdT</t>
+  </si>
+  <si>
+    <t>R_3jTcFaoXdGyJII6</t>
+  </si>
+  <si>
+    <t>R_1kH5pc9TioLBroe</t>
+  </si>
+  <si>
+    <t>R_2xA9wnR30xhb9aV</t>
+  </si>
+  <si>
+    <t>R_1C3J1A2DE2CFCSm</t>
+  </si>
+  <si>
+    <t>R_3dX5YSGyHAGiLIA</t>
+  </si>
+  <si>
+    <t>RSQ_4a-6a same responses; SCS_1-6 all the same; SRQ_18-23 all the same… photo 30 is a llittle sus</t>
   </si>
 </sst>
 </file>
@@ -335,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,8 +411,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,17 +635,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("FILTER(pilottotalparticipant_list!A:A,pilottotalparticipant_list!I:I = ""y"")"),"R_1QfKCII0MPcPQEB")</f>
+        <v>R_1QfKCII0MPcPQEB</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
+        <v>R_3jZ4uVvlcxoHLxa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
+        <v>R_1NrJNgK6q4hb04o</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -696,7 +782,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1">
         <f>COUNTA(B2:B999)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1">
         <f>COUNTIF(N2:N999, "y")</f>
@@ -996,13 +1082,13 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -1017,13 +1103,13 @@
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,10 +1117,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1049,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1060,10 +1146,10 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -1078,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -1089,10 +1175,10 @@
         <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -1107,66 +1193,259 @@
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="14" t="s">
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="18">
+        <v>44967</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="22">
         <v>44967</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="14" t="s">
+      <c r="G18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="22">
         <v>44967</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="14" t="s">
+      <c r="G19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="22">
         <v>44967</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="14" t="s">
+      <c r="G20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="22">
         <v>44967</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="14" t="s">
+      <c r="G21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="22">
         <v>44967</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="15">
-        <v>44967</v>
-      </c>
+      <c r="G22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C54368-7267-714C-B261-8D4D6164F801}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1174,48 +1453,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("FILTER(pilottotalparticipant_list!A:A,pilottotalparticipant_list!I:I = ""y"")"),"R_1QfKCII0MPcPQEB")</f>
-        <v>R_1QfKCII0MPcPQEB</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
-        <v>R_3jZ4uVvlcxoHLxa</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
-        <v>R_1NrJNgK6q4hb04o</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,36 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33835F-7736-DA4C-BF4C-E0EEB22DEDB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAC27F-3616-B642-BE44-AB490222B7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="3160" windowWidth="30860" windowHeight="18020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34180" yWindow="420" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pilotcompletedparticipantlist_o" sheetId="2" r:id="rId1"/>
-    <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="totalparticipantlist_online" sheetId="3" r:id="rId4"/>
-    <sheet name="completedparticipantlist_online" sheetId="4" r:id="rId5"/>
-    <sheet name="totalparticipantlist_inperson" sheetId="5" r:id="rId6"/>
-    <sheet name="completedparticipantlist_inpers" sheetId="6" r:id="rId7"/>
-    <sheet name="combined_completedparticipantli" sheetId="7" r:id="rId8"/>
+    <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
-  <si>
-    <t>sub_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -298,24 +301,20 @@
   </si>
   <si>
     <t>RSQ_4a-6a same responses; SCS_1-6 all the same; SRQ_18-23 all the same… photo 30 is a llittle sus</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,15 +387,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,21 +404,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,59 +629,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("FILTER(pilottotalparticipant_list!A:A,pilottotalparticipant_list!I:I = ""y"")"),"R_1QfKCII0MPcPQEB")</f>
-        <v>R_1QfKCII0MPcPQEB</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_3jZ4uVvlcxoHLxa")</f>
-        <v>R_3jZ4uVvlcxoHLxa</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"R_1NrJNgK6q4hb04o")</f>
-        <v>R_1NrJNgK6q4hb04o</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -705,80 +657,80 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1">
         <f>COUNTA(B2:B999)</f>
@@ -795,193 +747,193 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="10" t="s">
-        <v>10</v>
+      <c r="M3" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44873</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="12">
-        <v>44873</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>44872</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12">
         <v>2</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>34</v>
+      <c r="M7" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44873</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12">
-        <v>44873</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>44872</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44881</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12">
-        <v>44881</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="12">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11">
         <v>44879</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -989,31 +941,31 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11">
         <v>44881</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="12">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11">
         <v>44879</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1021,31 +973,31 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12">
+        <v>43</v>
+      </c>
+      <c r="C11" s="11">
         <v>44881</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="12">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11">
         <v>44879</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1053,89 +1005,89 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="12">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11">
         <v>44958</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="12">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11">
         <v>44958</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11">
         <v>44959</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="12">
+        <v>46</v>
+      </c>
+      <c r="F14" s="11">
         <v>44959</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1143,28 +1095,28 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="12">
+        <v>47</v>
+      </c>
+      <c r="F15" s="11">
         <v>44959</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -1172,362 +1124,220 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="12">
+        <v>44</v>
+      </c>
+      <c r="F16" s="11">
         <v>44959</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="16">
+        <v>44967</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="14">
+        <v>3</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11">
+        <v>44967</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11">
+        <v>44967</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="11">
         <v>44967</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="16">
-        <v>3</v>
-      </c>
-      <c r="M17" s="16" t="s">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="22">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="11">
         <v>44967</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="11">
         <v>44967</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="22">
-        <v>44967</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="22">
-        <v>44967</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="22">
-        <v>44967</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>11</v>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C54368-7267-714C-B261-8D4D6164F801}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFAC27F-3616-B642-BE44-AB490222B7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31681C4-9CE5-A542-8DD3-95AC3DEB305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34180" yWindow="420" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>no task data</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1174,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="L17" s="14">
         <v>3</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31681C4-9CE5-A542-8DD3-95AC3DEB305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA331B7-D6EF-CF40-A8CA-49AC8B576949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="420" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37880" yWindow="-1640" windowWidth="18400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -307,13 +307,55 @@
   </si>
   <si>
     <t>no task data</t>
+  </si>
+  <si>
+    <t>5d55d562e04e1c0001f5e682</t>
+  </si>
+  <si>
+    <t>63d5bb0d1cc3800ad1e343dc</t>
+  </si>
+  <si>
+    <t>60dbf4d94a3b5564b68881e8</t>
+  </si>
+  <si>
+    <t>630386f64c5bbd56ab1c3b0f</t>
+  </si>
+  <si>
+    <t>62da97c1d0ea5d209bdef664</t>
+  </si>
+  <si>
+    <t>63e551100b466874066088d1</t>
+  </si>
+  <si>
+    <t>63e52399159a69bf0ea848c6</t>
+  </si>
+  <si>
+    <t>5dcb685070d51c8275d7bd54</t>
+  </si>
+  <si>
+    <t>6168a697ae9f4d8dcfada29b</t>
+  </si>
+  <si>
+    <t>631f3abc8826b6e7e8982648</t>
+  </si>
+  <si>
+    <t>60ef2700e476748689a999f7</t>
+  </si>
+  <si>
+    <t>5d16d17119d2ed0015e21360</t>
+  </si>
+  <si>
+    <t>5f55761d9254dc143b167d4e</t>
+  </si>
+  <si>
+    <t>63235c5bf70d8e4f79b205cd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -363,6 +405,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -373,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,12 +460,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,13 +687,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1154,35 +1205,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="20">
         <v>44967</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="G17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="18">
         <v>3</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1196,7 +1247,7 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="11">
@@ -1228,7 +1279,7 @@
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="11">
@@ -1257,7 +1308,7 @@
       <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="11">
@@ -1289,7 +1340,7 @@
       <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="11">
@@ -1321,7 +1372,7 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="13" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="11">
@@ -1338,6 +1389,118 @@
       </c>
       <c r="L22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="15">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="15">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA331B7-D6EF-CF40-A8CA-49AC8B576949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E2016-CFE7-BB46-91DB-413B80759961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37880" yWindow="-1640" windowWidth="18400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>63235c5bf70d8e4f79b205cd</t>
+  </si>
+  <si>
+    <t>63e51e528df11f83a1aacab8</t>
+  </si>
+  <si>
+    <t>6105619fd55674bb2c2f0f74</t>
+  </si>
+  <si>
+    <t>5f32bc368853aa03df112fc6</t>
+  </si>
+  <si>
+    <t>6154a88b71a7f4347658b0f7</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,18 +474,64 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -687,13 +745,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1205,35 +1263,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="11">
         <v>44967</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="21" t="s">
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1395,7 +1453,7 @@
       <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1403,7 +1461,7 @@
       <c r="E24" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1411,7 +1469,7 @@
       <c r="E25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1419,7 +1477,7 @@
       <c r="E26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1427,23 +1485,23 @@
       <c r="E27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="16">
         <v>44977</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="16">
         <v>44977</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1451,7 +1509,7 @@
       <c r="E30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1459,7 +1517,7 @@
       <c r="E31" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1467,7 +1525,7 @@
       <c r="E32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1475,7 +1533,7 @@
       <c r="E33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1483,7 +1541,7 @@
       <c r="E34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1491,7 +1549,7 @@
       <c r="E35" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="16">
         <v>44977</v>
       </c>
     </row>
@@ -1499,11 +1557,46 @@
       <c r="E36" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="16">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="16">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="16">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="16">
         <v>44977</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E23:E40">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E2016-CFE7-BB46-91DB-413B80759961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACA1AF-390D-C94C-9DA7-487884BA7302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="35680" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -361,6 +348,147 @@
   </si>
   <si>
     <t>6154a88b71a7f4347658b0f7</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>7 in a row,, AQ50 + SCS1-6</t>
+  </si>
+  <si>
+    <t>7 in a row,, AQ50 + SCS1-6 same</t>
+  </si>
+  <si>
+    <t>AQ 14-21 same; AQ27-36</t>
+  </si>
+  <si>
+    <t>SCS1-6</t>
+  </si>
+  <si>
+    <t>AQ18-24 same</t>
+  </si>
+  <si>
+    <t>AQ8-14 same</t>
+  </si>
+  <si>
+    <t>R_27UnjKFdSmEKqX0</t>
+  </si>
+  <si>
+    <t>R_25zNkPFoSI685YB</t>
+  </si>
+  <si>
+    <t>R_3dWzYn06gxSl9ZJ</t>
+  </si>
+  <si>
+    <t>R_2EiyNuT8WYLPSkP</t>
+  </si>
+  <si>
+    <t>R_qXjGptYiyC9fq9j</t>
+  </si>
+  <si>
+    <t>R_2QYYTMCtfwNr9hL</t>
+  </si>
+  <si>
+    <t>R_2w4zWlzJY7YDQbl</t>
+  </si>
+  <si>
+    <t>R_1OqxPn1yqPRiwKa</t>
+  </si>
+  <si>
+    <t>R_2uUMv8SIYAExMx1</t>
+  </si>
+  <si>
+    <t>R_3LXQQLGUZsE6Cmu</t>
+  </si>
+  <si>
+    <t>R_290Jb2cbUou4aBM</t>
+  </si>
+  <si>
+    <t>R_1zx3lrxiSu2aAP7</t>
+  </si>
+  <si>
+    <t>R_2xxD4qlB1NebdGL</t>
+  </si>
+  <si>
+    <t>R_3KxRDxlnztCmwCD</t>
+  </si>
+  <si>
+    <t>R_3IaduwDzOz6KXV2</t>
+  </si>
+  <si>
+    <t>R_22FXnOfbxPKXlRl</t>
+  </si>
+  <si>
+    <t>R_1SvxeGoigabkgPn</t>
+  </si>
+  <si>
+    <t>R_217AzZ1ByzBjunj</t>
+  </si>
+  <si>
+    <t>R_1NtaKJBXKNtW3O2</t>
+  </si>
+  <si>
+    <t>R_xz4gZasBjTlcxrz</t>
+  </si>
+  <si>
+    <t>R_2E5zt09L9MtHiHf</t>
+  </si>
+  <si>
+    <t>R_1l9kSCUXcEygvBc</t>
+  </si>
+  <si>
+    <t>R_1nMGDwbDyPRMqgg</t>
+  </si>
+  <si>
+    <t>R_2P1lYRAqJTaYZae</t>
+  </si>
+  <si>
+    <t>R_2fksNJ78V5GcQZE</t>
+  </si>
+  <si>
+    <t>R_2s7rPCRc3OhB3Aw</t>
+  </si>
+  <si>
+    <t>R_YWXXKJto7n9c4P7</t>
+  </si>
+  <si>
+    <t>R_2CDEqvWGGLLYbQq</t>
+  </si>
+  <si>
+    <t>R_2aLDxzx85uU6D3S</t>
+  </si>
+  <si>
+    <t>R_1r24chXfhZmfluf</t>
+  </si>
+  <si>
+    <t>R_3esFhlHqPJDw7Kh</t>
+  </si>
+  <si>
+    <t>R_yQoQpE7kSWpAaQh</t>
+  </si>
+  <si>
+    <t>R_3MSD6FNwT12cYPu</t>
+  </si>
+  <si>
+    <t>R_YQY009MqGWl2bo5</t>
+  </si>
+  <si>
+    <t>R_2dEKnbNt9C819ki</t>
+  </si>
+  <si>
+    <t>R_1DCtlsksnm1XzF5</t>
+  </si>
+  <si>
+    <t>AQ9-14 ; AQ18-23 same; animation guy/many screenshots of videos/&lt;5 photos of self</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2nd attnchk wrong; AQ27-31 same; submitted photo from eminem for photo 4; the extra photos are fro victorias secret instagram</t>
+  </si>
+  <si>
+    <t>images not valid</t>
+  </si>
+  <si>
+    <t>all same response for percieved stress; numerous screenshots of videos</t>
   </si>
 </sst>
 </file>
@@ -424,7 +552,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,51 +610,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -745,13 +841,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -846,7 +942,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1">
         <f>COUNTA(B2:B999)</f>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1">
         <f>COUNTIF(N2:N999, "y")</f>
@@ -1450,148 +1546,460 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="16">
         <v>44977</v>
       </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="E24" s="14" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="16">
         <v>44977</v>
       </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="14" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="16">
         <v>44977</v>
       </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="E26" s="14" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="16">
         <v>44977</v>
       </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="E27" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="16">
         <v>44977</v>
       </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="E28" s="15" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="16">
         <v>44977</v>
       </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="E29" s="15" t="s">
         <v>97</v>
       </c>
       <c r="F29" s="16">
         <v>44977</v>
       </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="E30" s="14" t="s">
         <v>98</v>
       </c>
       <c r="F30" s="16">
         <v>44977</v>
       </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="E31" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F31" s="16">
         <v>44977</v>
       </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="E32" s="14" t="s">
         <v>100</v>
       </c>
       <c r="F32" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="E33" s="14" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="E34" s="14" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="E35" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="36" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="E36" s="14" t="s">
         <v>104</v>
       </c>
       <c r="F36" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="E37" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F37" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="38" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="E38" s="14" t="s">
         <v>106</v>
       </c>
       <c r="F38" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="39" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="E39" s="14" t="s">
         <v>107</v>
       </c>
       <c r="F39" s="16">
         <v>44977</v>
       </c>
-    </row>
-    <row r="40" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="E40" s="14" t="s">
         <v>108</v>
       </c>
       <c r="F40" s="16">
         <v>44977</v>
       </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23:E40">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACA1AF-390D-C94C-9DA7-487884BA7302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846A763-03BF-0A4C-B6BD-A272DDC96556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="35680" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="300" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>qualtrics_selfreport</t>
   </si>
@@ -356,18 +369,9 @@
     <t>7 in a row,, AQ50 + SCS1-6</t>
   </si>
   <si>
-    <t>7 in a row,, AQ50 + SCS1-6 same</t>
-  </si>
-  <si>
-    <t>AQ 14-21 same; AQ27-36</t>
-  </si>
-  <si>
     <t>SCS1-6</t>
   </si>
   <si>
-    <t>AQ18-24 same</t>
-  </si>
-  <si>
     <t>AQ8-14 same</t>
   </si>
   <si>
@@ -489,6 +493,30 @@
   </si>
   <si>
     <t>all same response for percieved stress; numerous screenshots of videos</t>
+  </si>
+  <si>
+    <t>duplicate photo 16 and 15?, not exact duplicate but close…will check extras, swapped for photo 30</t>
+  </si>
+  <si>
+    <t>Duplicate photo in photo 16 with Photo 15, swapped photo 31 for photo 16, same duplicate in 17, swapped with photo 32</t>
+  </si>
+  <si>
+    <t>maybe duplicate of 16 and 17, drinking alcohol photo 20 - swapped for photo 31</t>
+  </si>
+  <si>
+    <t>images not valid, screen shots of videos, recently uploaded photos, not enough photos of the participant themselves</t>
+  </si>
+  <si>
+    <t>AQ 14-21 same; AQ27-36; photo 24 and 28 are duplcate, swapped for photo 31</t>
+  </si>
+  <si>
+    <t>AQ18-24 same,photo 28 duplicate with photo</t>
+  </si>
+  <si>
+    <t>7 in a row, AQ50 + SCS1-6 same</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -584,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,7 +638,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -843,11 +870,11 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1549,14 +1576,14 @@
       <c r="A23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>151</v>
+      <c r="B23" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="C23" s="11">
         <v>44977</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>117</v>
+      <c r="D23" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>91</v>
@@ -1566,6 +1593,9 @@
       </c>
       <c r="G23" t="s">
         <v>10</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="M23" t="s">
         <v>110</v>
@@ -1575,14 +1605,14 @@
       <c r="A24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>134</v>
+      <c r="B24" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C24" s="11">
         <v>44977</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>118</v>
+      <c r="D24" t="s">
+        <v>115</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>92</v>
@@ -1592,20 +1622,23 @@
       </c>
       <c r="G24" t="s">
         <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>135</v>
+      <c r="B25" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C25" s="11">
         <v>44977</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>119</v>
+      <c r="D25" t="s">
+        <v>116</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>93</v>
@@ -1616,22 +1649,25 @@
       <c r="G25" t="s">
         <v>10</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="M25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>136</v>
+      <c r="B26" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C26" s="11">
         <v>44977</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>120</v>
+      <c r="D26" t="s">
+        <v>117</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>94</v>
@@ -1642,22 +1678,25 @@
       <c r="G26" t="s">
         <v>10</v>
       </c>
-      <c r="M26" t="s">
-        <v>112</v>
+      <c r="I26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>137</v>
+      <c r="B27" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="C27" s="11">
         <v>44977</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>121</v>
+      <c r="D27" t="s">
+        <v>118</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>95</v>
@@ -1668,25 +1707,28 @@
       <c r="G27" t="s">
         <v>10</v>
       </c>
+      <c r="H27" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>138</v>
+      <c r="B28" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="C28" s="11">
         <v>44977</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>122</v>
+      <c r="D28" t="s">
+        <v>119</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>96</v>
@@ -1697,25 +1739,28 @@
       <c r="G28" t="s">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
-        <v>154</v>
+      <c r="H28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="M28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>139</v>
+      <c r="B29" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="11">
         <v>44977</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>123</v>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>97</v>
@@ -1726,22 +1771,25 @@
       <c r="G29" t="s">
         <v>10</v>
       </c>
+      <c r="H29" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>140</v>
+      <c r="B30" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C30" s="11">
         <v>44977</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>124</v>
+      <c r="D30" t="s">
+        <v>121</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>98</v>
@@ -1751,20 +1799,26 @@
       </c>
       <c r="G30" t="s">
         <v>10</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>141</v>
+      <c r="B31" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C31" s="11">
         <v>44977</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>125</v>
+      <c r="D31" t="s">
+        <v>122</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>99</v>
@@ -1774,20 +1828,23 @@
       </c>
       <c r="G31" t="s">
         <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>142</v>
+      <c r="B32" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C32" s="11">
         <v>44977</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>126</v>
+      <c r="D32" t="s">
+        <v>123</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>100</v>
@@ -1797,20 +1854,23 @@
       </c>
       <c r="G32" t="s">
         <v>10</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>143</v>
+      <c r="B33" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="11">
         <v>44977</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>127</v>
+      <c r="D33" t="s">
+        <v>124</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>101</v>
@@ -1821,22 +1881,25 @@
       <c r="G33" t="s">
         <v>10</v>
       </c>
-      <c r="M33" t="s">
-        <v>111</v>
+      <c r="I33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>144</v>
+      <c r="B34" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C34" s="11">
         <v>44977</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>128</v>
+      <c r="D34" t="s">
+        <v>125</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>102</v>
@@ -1846,20 +1909,26 @@
       </c>
       <c r="G34" t="s">
         <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>145</v>
+      <c r="B35" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="C35" s="11">
         <v>44977</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>116</v>
+      <c r="D35" t="s">
+        <v>113</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>103</v>
@@ -1870,25 +1939,28 @@
       <c r="G35" t="s">
         <v>10</v>
       </c>
+      <c r="H35" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>146</v>
+      <c r="B36" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="C36" s="11">
         <v>44977</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>129</v>
+      <c r="D36" t="s">
+        <v>126</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>104</v>
@@ -1899,22 +1971,25 @@
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="M36" t="s">
-        <v>114</v>
+      <c r="I36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>147</v>
+      <c r="B37" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="C37" s="11">
         <v>44977</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>130</v>
+      <c r="D37" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>105</v>
@@ -1924,20 +1999,23 @@
       </c>
       <c r="G37" t="s">
         <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>148</v>
+      <c r="B38" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="C38" s="11">
         <v>44977</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>131</v>
+      <c r="D38" t="s">
+        <v>128</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>106</v>
@@ -1947,20 +2025,23 @@
       </c>
       <c r="G38" t="s">
         <v>10</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>149</v>
+      <c r="B39" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C39" s="11">
         <v>44977</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>132</v>
+      <c r="D39" t="s">
+        <v>129</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>107</v>
@@ -1970,20 +2051,26 @@
       </c>
       <c r="G39" t="s">
         <v>10</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>150</v>
+      <c r="B40" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="C40" s="11">
         <v>44977</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>133</v>
+      <c r="D40" t="s">
+        <v>130</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>108</v>
@@ -1994,8 +2081,11 @@
       <c r="G40" t="s">
         <v>10</v>
       </c>
+      <c r="I40" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846A763-03BF-0A4C-B6BD-A272DDC96556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83077F79-7F33-444C-85EF-CD4E6CF51266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="300" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="280" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -871,10 +871,10 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1774,8 +1774,8 @@
       <c r="H29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I29" t="s">
-        <v>151</v>
+      <c r="I29" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83077F79-7F33-444C-85EF-CD4E6CF51266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0FA86-79AB-794A-806E-4A4836E2A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="280" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
-  <si>
-    <t>qualtrics_selfreport</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -504,9 +501,6 @@
     <t>maybe duplicate of 16 and 17, drinking alcohol photo 20 - swapped for photo 31</t>
   </si>
   <si>
-    <t>images not valid, screen shots of videos, recently uploaded photos, not enough photos of the participant themselves</t>
-  </si>
-  <si>
     <t>AQ 14-21 same; AQ27-36; photo 24 and 28 are duplcate, swapped for photo 31</t>
   </si>
   <si>
@@ -516,7 +510,22 @@
     <t>7 in a row, AQ50 + SCS1-6 same</t>
   </si>
   <si>
-    <t>h</t>
+    <t>poetry, 2 attempts, not complete</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>error message, sent link, send reminder 2/24</t>
+  </si>
+  <si>
+    <t>started but returned, sent a new link, reminded 2/24</t>
+  </si>
+  <si>
+    <t>qualtrics_selfreportpre</t>
+  </si>
+  <si>
+    <t>qualtrics_selfreportpost</t>
   </si>
 </sst>
 </file>
@@ -868,1227 +877,1483 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
         <f>COUNTA(B2:B999)</f>
         <v>39</v>
       </c>
-      <c r="P2" s="1">
-        <f>COUNTIF(N2:N999, "y")</f>
+      <c r="Q2" s="1">
+        <f>COUNTIF(O2:O999, "y")</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
-        <f>COUNTIF(N2:N999, "n")</f>
+      <c r="R2" s="1">
+        <f>COUNTIF(O2:O999, "n")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11">
         <v>44873</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="11">
         <v>44872</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="12">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="12">
         <v>2</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11">
         <v>44873</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="11">
         <v>44872</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11">
         <v>44881</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="11">
         <v>44879</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11">
         <v>44881</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11">
         <v>44879</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11">
         <v>44881</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="11">
         <v>44879</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="11">
         <v>44958</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="11">
         <v>44958</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="11">
         <v>44959</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="11">
         <v>44959</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="11">
         <v>44959</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="11">
         <v>44959</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="11">
         <v>44967</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="11">
         <v>44967</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="11">
         <v>44967</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="11">
         <v>44967</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="M20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="11">
         <v>44967</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="M21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="11">
         <v>44967</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N28" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" t="s">
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="16">
+        <v>44977</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="16">
-        <v>44977</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="11"/>
     </row>
   </sheetData>
@@ -2096,5 +2361,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0FA86-79AB-794A-806E-4A4836E2A692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5702FCE-E3CC-4A49-8DF3-921FA566C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="360" windowWidth="28760" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="184">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -510,9 +510,6 @@
     <t>7 in a row, AQ50 + SCS1-6 same</t>
   </si>
   <si>
-    <t>poetry, 2 attempts, not complete</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -526,6 +523,69 @@
   </si>
   <si>
     <t>qualtrics_selfreportpost</t>
+  </si>
+  <si>
+    <t>invalid submission</t>
+  </si>
+  <si>
+    <t>poetry, 2 attempts, did not make any choices</t>
+  </si>
+  <si>
+    <t>6056bcf1cee7a41435889255</t>
+  </si>
+  <si>
+    <t>63d40481d12fc9cc4c1adab0</t>
+  </si>
+  <si>
+    <t>62a885d5b6af18b3d4579e1b</t>
+  </si>
+  <si>
+    <t>63ced670c8d001d1d5057140</t>
+  </si>
+  <si>
+    <t>63eac31811a6da58d4f32d76</t>
+  </si>
+  <si>
+    <t>60fd80b85dd6b22f66d16822</t>
+  </si>
+  <si>
+    <t>63d13e2a6dd3ec4a5f6bff7b</t>
+  </si>
+  <si>
+    <t>63ea54cae81a2baf10a14930</t>
+  </si>
+  <si>
+    <t>6112dccad39227e361c13866</t>
+  </si>
+  <si>
+    <t>62fb84322433c8d7e890a145</t>
+  </si>
+  <si>
+    <t>60ff33eea57872b7188f12e2</t>
+  </si>
+  <si>
+    <t>**participants from here on have the updated stress rating question</t>
+  </si>
+  <si>
+    <t>60fd5a99c4e4ead0c9a6fff4 ( this person may not have data because they timed out so we will just need to check)</t>
+  </si>
+  <si>
+    <t>608209b96e955ba5201eff25</t>
+  </si>
+  <si>
+    <t>63d7c5cbacd85e95302f3a62</t>
+  </si>
+  <si>
+    <t>60fdb9ec6c3006abe82e5182</t>
+  </si>
+  <si>
+    <t>605b5b5feff0e95f2cd60834</t>
+  </si>
+  <si>
+    <t>5b6c312fa1fda800015fe165</t>
+  </si>
+  <si>
+    <t>63ddc6baab6a2130b8a41bf7</t>
   </si>
 </sst>
 </file>
@@ -589,7 +649,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,12 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,14 +699,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -877,13 +941,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -920,10 +984,10 @@
         <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>54</v>
@@ -1691,7 +1755,7 @@
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="11">
@@ -1700,10 +1764,10 @@
       <c r="D23" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="8">
         <v>44977</v>
       </c>
       <c r="G23" t="s">
@@ -1729,7 +1793,7 @@
       <c r="A24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="11">
@@ -1738,10 +1802,10 @@
       <c r="D24" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="8">
         <v>44977</v>
       </c>
       <c r="G24" t="s">
@@ -1764,7 +1828,7 @@
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="11">
@@ -1773,10 +1837,10 @@
       <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="8">
         <v>44977</v>
       </c>
       <c r="G25" t="s">
@@ -1802,7 +1866,7 @@
       <c r="A26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" t="s">
         <v>132</v>
       </c>
       <c r="C26" s="11">
@@ -1811,10 +1875,10 @@
       <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="8">
         <v>44977</v>
       </c>
       <c r="G26" t="s">
@@ -1840,7 +1904,7 @@
       <c r="A27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="11">
@@ -1849,10 +1913,10 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="8">
         <v>44977</v>
       </c>
       <c r="G27" t="s">
@@ -1868,7 +1932,7 @@
         <v>150</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s">
         <v>149</v>
@@ -1878,7 +1942,7 @@
       <c r="A28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="11">
@@ -1887,10 +1951,10 @@
       <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="8">
         <v>44977</v>
       </c>
       <c r="G28" t="s">
@@ -1906,7 +1970,7 @@
         <v>150</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N28" t="s">
         <v>148</v>
@@ -1916,7 +1980,7 @@
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="11">
@@ -1925,10 +1989,10 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="8">
         <v>44977</v>
       </c>
       <c r="G29" t="s">
@@ -1951,7 +2015,7 @@
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" t="s">
         <v>136</v>
       </c>
       <c r="C30" s="11">
@@ -1960,10 +2024,10 @@
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="8">
         <v>44977</v>
       </c>
       <c r="G30" t="s">
@@ -1989,7 +2053,7 @@
       <c r="A31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="11">
@@ -1998,10 +2062,10 @@
       <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="8">
         <v>44977</v>
       </c>
       <c r="G31" t="s">
@@ -2017,14 +2081,14 @@
         <v>89</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" t="s">
         <v>138</v>
       </c>
       <c r="C32" s="11">
@@ -2033,10 +2097,10 @@
       <c r="D32" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="8">
         <v>44977</v>
       </c>
       <c r="G32" t="s">
@@ -2059,7 +2123,7 @@
       <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" t="s">
         <v>139</v>
       </c>
       <c r="C33" s="11">
@@ -2068,10 +2132,10 @@
       <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="8">
         <v>44977</v>
       </c>
       <c r="G33" t="s">
@@ -2097,7 +2161,7 @@
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="11">
@@ -2106,10 +2170,10 @@
       <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="8">
         <v>44977</v>
       </c>
       <c r="G34" t="s">
@@ -2122,10 +2186,10 @@
         <v>9</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>154</v>
@@ -2135,7 +2199,7 @@
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="11">
@@ -2144,10 +2208,10 @@
       <c r="D35" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="8">
         <v>44977</v>
       </c>
       <c r="G35" t="s">
@@ -2163,7 +2227,7 @@
         <v>150</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N35" t="s">
         <v>151</v>
@@ -2173,7 +2237,7 @@
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="11">
@@ -2182,10 +2246,10 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="8">
         <v>44977</v>
       </c>
       <c r="G36" t="s">
@@ -2211,7 +2275,7 @@
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="11">
@@ -2220,10 +2284,10 @@
       <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="8">
         <v>44977</v>
       </c>
       <c r="G37" t="s">
@@ -2246,7 +2310,7 @@
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" t="s">
         <v>144</v>
       </c>
       <c r="C38" s="11">
@@ -2255,10 +2319,10 @@
       <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="8">
         <v>44977</v>
       </c>
       <c r="G38" t="s">
@@ -2274,14 +2338,14 @@
         <v>89</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" t="s">
         <v>145</v>
       </c>
       <c r="C39" s="11">
@@ -2290,10 +2354,10 @@
       <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="8">
         <v>44977</v>
       </c>
       <c r="G39" t="s">
@@ -2319,7 +2383,7 @@
       <c r="A40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" t="s">
         <v>146</v>
       </c>
       <c r="C40" s="11">
@@ -2328,10 +2392,10 @@
       <c r="D40" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="8">
         <v>44977</v>
       </c>
       <c r="G40" t="s">
@@ -2355,9 +2419,157 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="11"/>
+      <c r="E41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="17">
+        <v>44993</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="17">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E56" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="11">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="11">
+        <v>44993</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23:E40">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54 E41 E51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5702FCE-E3CC-4A49-8DF3-921FA566C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3905A-7531-454D-9BC9-D7A2D289CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="360" windowWidth="28760" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35620" yWindow="-340" windowWidth="26020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -552,9 +552,6 @@
     <t>63d13e2a6dd3ec4a5f6bff7b</t>
   </si>
   <si>
-    <t>63ea54cae81a2baf10a14930</t>
-  </si>
-  <si>
     <t>6112dccad39227e361c13866</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>**participants from here on have the updated stress rating question</t>
   </si>
   <si>
-    <t>60fd5a99c4e4ead0c9a6fff4 ( this person may not have data because they timed out so we will just need to check)</t>
-  </si>
-  <si>
     <t>608209b96e955ba5201eff25</t>
   </si>
   <si>
@@ -586,6 +580,123 @@
   </si>
   <si>
     <t>63ddc6baab6a2130b8a41bf7</t>
+  </si>
+  <si>
+    <t>R_2U48RhlFblhknK6</t>
+  </si>
+  <si>
+    <t>R_10pFvHMfqMJ65a3</t>
+  </si>
+  <si>
+    <t>R_1Ii5P072lpKglk3</t>
+  </si>
+  <si>
+    <t>R_qvXtpYbnYqffgDn</t>
+  </si>
+  <si>
+    <t>R_2P4GaNHF5vYbyPq</t>
+  </si>
+  <si>
+    <t>R_2uqWqhEA8fY5mNR</t>
+  </si>
+  <si>
+    <t>R_4Uep0EeQ86if5zb</t>
+  </si>
+  <si>
+    <t>R_tS9VjJVi3SNvNf3</t>
+  </si>
+  <si>
+    <t>R_3nNn1pvEN0kMKXF</t>
+  </si>
+  <si>
+    <t>R_3MhvOig1fJPGQOy</t>
+  </si>
+  <si>
+    <t>R_SPmKo3WvnFu93fr</t>
+  </si>
+  <si>
+    <t>R_BAfSHFYSmRbu2Ax</t>
+  </si>
+  <si>
+    <t>R_2pRcOSLt1lBKQHy</t>
+  </si>
+  <si>
+    <t>SCS - some repeating</t>
+  </si>
+  <si>
+    <t>R_246PF2tjoa6kPI9</t>
+  </si>
+  <si>
+    <t>R_1DJh0pOIF6POPuI</t>
+  </si>
+  <si>
+    <t>R_1luUxv4PMms7ahx</t>
+  </si>
+  <si>
+    <t>R_2zMRPZMkWgFYUEV</t>
+  </si>
+  <si>
+    <t>AQ - stretch of 1's (34-45), PSS all the same</t>
+  </si>
+  <si>
+    <t>R_2ceK7zBpMRe9MEy</t>
+  </si>
+  <si>
+    <t>R_beogCNJ6PG7HA9H</t>
+  </si>
+  <si>
+    <t>R_2150u3aQv32iudg</t>
+  </si>
+  <si>
+    <t>R_2YtR2p9lQxsWl4r</t>
+  </si>
+  <si>
+    <t>R_3RlSwiMpcP4H3B0</t>
+  </si>
+  <si>
+    <t>R_3EmzG6sohgFMHbO</t>
+  </si>
+  <si>
+    <t>R_OqC9ut9vO5EC6E9</t>
+  </si>
+  <si>
+    <t>R_2xzqfjT3mx5R22U</t>
+  </si>
+  <si>
+    <t>R_1254IVX0nC3UorY</t>
+  </si>
+  <si>
+    <t>R_dpuGO1pxKxPTbB7</t>
+  </si>
+  <si>
+    <t>R_2V9jftdbkC5RTnY</t>
+  </si>
+  <si>
+    <t>R_2aK79x3tXmmp0Xr</t>
+  </si>
+  <si>
+    <t>R_2uU3jEtvSPEF6KU</t>
+  </si>
+  <si>
+    <t>R_1rAKfqAs0Fel3Bh</t>
+  </si>
+  <si>
+    <t>R_3DhXC97MZVS8514</t>
+  </si>
+  <si>
+    <t>R_BzvczFtnQMaL1At</t>
+  </si>
+  <si>
+    <t>R_8pFkF4s0JvSfn7H</t>
+  </si>
+  <si>
+    <t>60fd5a99c4e4ead0c9a6fff4</t>
+  </si>
+  <si>
+    <t>JD/CL/SJG</t>
+  </si>
+  <si>
+    <t>2 possible duplicate photos (same captions) friends wedding/kayak</t>
   </si>
 </sst>
 </file>
@@ -649,7 +760,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -702,6 +819,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,13 +1066,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1048,15 +1173,15 @@
       <c r="N2" s="7"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <f>COUNTA(B2:B999)</f>
-        <v>39</v>
+        <f>COUNTA(B2:B997)</f>
+        <v>56</v>
       </c>
       <c r="Q2" s="1">
-        <f>COUNTIF(O2:O999, "y")</f>
+        <f>COUNTIF(O2:O997, "y")</f>
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>COUNTIF(O2:O999, "n")</f>
+        <f>COUNTIF(O2:O997, "n")</f>
         <v>0</v>
       </c>
     </row>
@@ -2417,159 +2542,420 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="11"/>
-      <c r="E41" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="17">
+    <row r="41" spans="1:14" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="21">
+        <v>44994</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="23">
         <v>44993</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>176</v>
+      <c r="J41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="E42" s="14" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="17">
         <v>44993</v>
       </c>
+      <c r="J42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>184</v>
+      </c>
       <c r="E43" s="14" t="s">
         <v>166</v>
       </c>
       <c r="F43" s="17">
         <v>44993</v>
       </c>
+      <c r="J43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E44" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44" s="17">
         <v>44993</v>
       </c>
+      <c r="J44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="E45" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F45" s="17">
         <v>44993</v>
       </c>
+      <c r="J45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E46" s="14" t="s">
         <v>168</v>
       </c>
       <c r="F46" s="17">
         <v>44993</v>
       </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="E47" s="14" t="s">
         <v>169</v>
       </c>
       <c r="F47" s="17">
         <v>44993</v>
       </c>
+      <c r="J47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="E48" s="14" t="s">
         <v>170</v>
       </c>
       <c r="F48" s="17">
         <v>44993</v>
       </c>
-    </row>
-    <row r="49" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="E49" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F49" s="17">
         <v>44993</v>
       </c>
-    </row>
-    <row r="50" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E50" s="14" t="s">
         <v>172</v>
       </c>
       <c r="F50" s="17">
         <v>44993</v>
       </c>
-    </row>
-    <row r="51" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>192</v>
+      </c>
       <c r="E51" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="52" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="E52" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F52" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="53" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="E53" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F53" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="54" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="E54" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F54" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="55" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E55" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F55" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="56" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="E56" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F56" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="57" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="E57" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F57" s="11">
         <v>44993</v>
       </c>
-    </row>
-    <row r="58" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F58" s="11">
-        <v>44993</v>
+      <c r="J57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23:E40">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54 E41 E51">
+  <conditionalFormatting sqref="E53 E41 E50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3905A-7531-454D-9BC9-D7A2D289CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B1AE7-129F-3B4A-B90E-A8C0111B8B97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35620" yWindow="-340" windowWidth="26020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22180" yWindow="2040" windowWidth="26020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="224">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -636,9 +623,6 @@
     <t>R_2zMRPZMkWgFYUEV</t>
   </si>
   <si>
-    <t>AQ - stretch of 1's (34-45), PSS all the same</t>
-  </si>
-  <si>
     <t>R_2ceK7zBpMRe9MEy</t>
   </si>
   <si>
@@ -697,6 +681,18 @@
   </si>
   <si>
     <t>2 possible duplicate photos (same captions) friends wedding/kayak</t>
+  </si>
+  <si>
+    <t>Photos 7 and 8 are very similar</t>
+  </si>
+  <si>
+    <t>Photos 4 and 6 are pics of the same plate of pasta; photos 7 and 8 are similar pics of sunset from diff angles</t>
+  </si>
+  <si>
+    <t>AQ - stretch of 1's (34-45), PSS all the same; {hotos 12. and 13 are of same plant</t>
+  </si>
+  <si>
+    <t>Swapped photo 13 out for photo 31</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1065,10 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2544,10 +2540,10 @@
     </row>
     <row r="41" spans="1:14" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="21">
         <v>44994</v>
@@ -2556,7 +2552,7 @@
         <v>182</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41" s="23">
         <v>44993</v>
@@ -2573,10 +2569,10 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>183</v>
@@ -2596,10 +2592,10 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>184</v>
@@ -2622,10 +2618,10 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>185</v>
@@ -2645,10 +2641,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>186</v>
@@ -2666,15 +2662,15 @@
         <v>9</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>187</v>
@@ -2691,13 +2687,16 @@
       <c r="M46" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="N46" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>188</v>
@@ -2714,13 +2713,16 @@
       <c r="M47" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="N47" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>189</v>
@@ -2740,10 +2742,10 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>190</v>
@@ -2763,10 +2765,10 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>191</v>
@@ -2786,10 +2788,10 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>192</v>
@@ -2809,10 +2811,10 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>193</v>
@@ -2829,13 +2831,16 @@
       <c r="M52" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="N52" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>194</v>
@@ -2858,10 +2863,10 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>196</v>
@@ -2881,10 +2886,10 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>197</v>
@@ -2904,10 +2909,10 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>198</v>
@@ -2927,10 +2932,10 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>199</v>
@@ -2948,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B1AE7-129F-3B4A-B90E-A8C0111B8B97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F0CC8-A15E-C844-9A13-0B528B4321F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22180" yWindow="2040" windowWidth="26020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36900" yWindow="-1060" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="225">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -686,13 +699,16 @@
     <t>Photos 7 and 8 are very similar</t>
   </si>
   <si>
-    <t>Photos 4 and 6 are pics of the same plate of pasta; photos 7 and 8 are similar pics of sunset from diff angles</t>
-  </si>
-  <si>
     <t>AQ - stretch of 1's (34-45), PSS all the same; {hotos 12. and 13 are of same plant</t>
   </si>
   <si>
-    <t>Swapped photo 13 out for photo 31</t>
+    <t>SCS - some repeating, does not have 5 photos of themselves only their artwork</t>
+  </si>
+  <si>
+    <t>Swapped photo 13 out for photo 31, not 5 photos of themselves</t>
+  </si>
+  <si>
+    <t>Photos 4 and 6 are pics of the same plate of pasta; photos 7 and 8 are similar pics of sunset from diff angles (resolved JD)</t>
   </si>
 </sst>
 </file>
@@ -788,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,14 +831,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1078,10 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2538,43 +2551,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:14" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="19">
         <v>44994</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="21">
         <v>44993</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="24" t="s">
+      <c r="M41" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="14" t="s">
@@ -2591,13 +2604,13 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B43" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" t="s">
         <v>184</v>
       </c>
       <c r="E43" s="14" t="s">
@@ -2617,13 +2630,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" t="s">
         <v>185</v>
       </c>
       <c r="E44" s="14" t="s">
@@ -2640,13 +2653,13 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B45" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" t="s">
         <v>186</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -2666,13 +2679,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B46" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" t="s">
         <v>187</v>
       </c>
       <c r="E46" s="14" t="s">
@@ -2688,17 +2701,17 @@
         <v>9</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B47" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" t="s">
         <v>188</v>
       </c>
       <c r="E47" s="14" t="s">
@@ -2708,7 +2721,7 @@
         <v>44993</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>9</v>
@@ -2718,13 +2731,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B48" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="14" t="s">
@@ -2741,13 +2754,13 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B49" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="14" t="s">
@@ -2764,13 +2777,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" t="s">
         <v>191</v>
       </c>
       <c r="E50" s="14" t="s">
@@ -2787,13 +2800,13 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B51" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" t="s">
         <v>192</v>
       </c>
       <c r="E51" s="14" t="s">
@@ -2810,13 +2823,13 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B52" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" t="s">
         <v>193</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -2836,13 +2849,13 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B53" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" t="s">
         <v>194</v>
       </c>
       <c r="E53" s="14" t="s">
@@ -2852,23 +2865,23 @@
         <v>44993</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B54" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" t="s">
         <v>196</v>
       </c>
       <c r="E54" s="14" t="s">
@@ -2885,13 +2898,13 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B55" t="s">
         <v>214</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" t="s">
         <v>197</v>
       </c>
       <c r="E55" s="14" t="s">
@@ -2908,13 +2921,13 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B56" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" t="s">
         <v>198</v>
       </c>
       <c r="E56" s="14" t="s">
@@ -2931,13 +2944,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B57" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" t="s">
         <v>199</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -2953,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F0CC8-A15E-C844-9A13-0B528B4321F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF74C6F-5A0F-CF40-AFB1-0D9E5347C728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36900" yWindow="-1060" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24520" yWindow="2180" windowWidth="17920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="225">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -772,7 +772,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +791,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -804,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +842,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1085,7 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
@@ -2571,7 +2578,10 @@
         <v>44993</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="M41" s="22" t="s">
         <v>9</v>
@@ -2597,7 +2607,10 @@
         <v>44993</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>9</v>
@@ -2620,7 +2633,10 @@
         <v>44993</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>9</v>
@@ -2646,7 +2662,7 @@
         <v>44993</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>9</v>
@@ -2669,7 +2685,10 @@
         <v>44993</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>9</v>
@@ -2695,7 +2714,10 @@
         <v>44993</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>9</v>
@@ -2747,7 +2769,10 @@
         <v>44993</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>9</v>
@@ -2770,7 +2795,10 @@
         <v>44993</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>9</v>
@@ -2793,7 +2821,7 @@
         <v>44993</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>9</v>
@@ -2816,7 +2844,10 @@
         <v>44993</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>9</v>
@@ -2832,14 +2863,14 @@
       <c r="D52" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="23" t="s">
         <v>176</v>
       </c>
       <c r="F52" s="11">
         <v>44993</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>9</v>
@@ -2865,7 +2896,7 @@
         <v>44993</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>9</v>
@@ -2891,7 +2922,10 @@
         <v>44993</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>9</v>
@@ -2914,7 +2948,10 @@
         <v>44993</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>9</v>
@@ -2937,7 +2974,10 @@
         <v>44993</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>9</v>
@@ -2960,7 +3000,7 @@
         <v>44993</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>9</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF74C6F-5A0F-CF40-AFB1-0D9E5347C728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3ABC5-3601-5145-8E4B-E2FA0D1CD630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24520" yWindow="2180" windowWidth="17920" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="5900" windowWidth="28900" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="225">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1085,10 +1085,10 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1406,7 +1406,7 @@
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -2664,6 +2664,9 @@
       <c r="J44" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K44" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="M44" s="5" t="s">
         <v>9</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>44993</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>9</v>
@@ -2896,7 +2899,10 @@
         <v>44993</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>9</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3ABC5-3601-5145-8E4B-E2FA0D1CD630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD04EAB-742F-1F4C-9507-56CBE11BE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="5900" windowWidth="28900" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24400" yWindow="580" windowWidth="22200" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="229">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -252,9 +252,6 @@
 </t>
   </si>
   <si>
-    <t>ERQ_16-19 same; AQ_8-12 same</t>
-  </si>
-  <si>
     <t>AQ_11-20 same; AQ_2-6 same; percieved stress all are same except item 3</t>
   </si>
   <si>
@@ -513,12 +510,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>error message, sent link, send reminder 2/24</t>
-  </si>
-  <si>
-    <t>started but returned, sent a new link, reminded 2/24</t>
-  </si>
-  <si>
     <t>qualtrics_selfreportpre</t>
   </si>
   <si>
@@ -709,6 +700,27 @@
   </si>
   <si>
     <t>Photos 4 and 6 are pics of the same plate of pasta; photos 7 and 8 are similar pics of sunset from diff angles (resolved JD)</t>
+  </si>
+  <si>
+    <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID</t>
+  </si>
+  <si>
+    <t>error message, sent link, send reminder 2/24, returned submission</t>
+  </si>
+  <si>
+    <t>started but returned, sent a new link, reminded 2/24, returned submission</t>
+  </si>
+  <si>
+    <t>60fd56db5fe37ebeca00bc83</t>
+  </si>
+  <si>
+    <t>63d3f98237a95683bfa381e3</t>
+  </si>
+  <si>
+    <t>63fac97f0d4e8f6bfd753d90</t>
+  </si>
+  <si>
+    <t>61006248544105dd7a6ede47</t>
   </si>
 </sst>
 </file>
@@ -772,7 +784,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,18 +794,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -833,16 +833,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,13 +1077,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1125,10 +1120,10 @@
         <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>54</v>
@@ -1178,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="1"/>
@@ -1218,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
@@ -1249,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="7"/>
@@ -1277,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7"/>
     </row>
@@ -1297,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7"/>
     </row>
@@ -1529,7 +1524,7 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -1672,13 +1667,13 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>65</v>
@@ -1696,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>9</v>
@@ -1704,19 +1699,19 @@
       <c r="M17">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
-        <v>72</v>
+      <c r="N17" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>66</v>
@@ -1748,13 +1743,13 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>67</v>
@@ -1783,13 +1778,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>68</v>
@@ -1816,18 +1811,18 @@
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>69</v>
@@ -1854,18 +1849,18 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>70</v>
@@ -1894,57 +1889,57 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="8">
+        <v>44977</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
         <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="11">
-        <v>44977</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="8">
-        <v>44977</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="11">
         <v>44977</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="F24" s="8">
         <v>44977</v>
@@ -1967,19 +1962,19 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="11">
         <v>44977</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="F25" s="8">
         <v>44977</v>
@@ -2000,24 +1995,24 @@
         <v>9</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="11">
         <v>44977</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="F26" s="8">
         <v>44977</v>
@@ -2038,24 +2033,24 @@
         <v>9</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="11">
         <v>44977</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>94</v>
+        <v>116</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F27" s="8">
         <v>44977</v>
@@ -2070,30 +2065,30 @@
         <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="11">
         <v>44977</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>95</v>
+        <v>117</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="F28" s="8">
         <v>44977</v>
@@ -2108,30 +2103,30 @@
         <v>7</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="11">
         <v>44977</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F29" s="8">
         <v>44977</v>
@@ -2154,19 +2149,19 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="11">
         <v>44977</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>97</v>
+        <v>119</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="F30" s="8">
         <v>44977</v>
@@ -2187,24 +2182,24 @@
         <v>9</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="11">
         <v>44977</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F31" s="8">
         <v>44977</v>
@@ -2219,27 +2214,27 @@
         <v>9</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="11">
         <v>44977</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>99</v>
+        <v>121</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="F32" s="8">
         <v>44977</v>
@@ -2262,19 +2257,19 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="11">
         <v>44977</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F33" s="8">
         <v>44977</v>
@@ -2295,24 +2290,24 @@
         <v>9</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="11">
         <v>44977</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>101</v>
+        <v>123</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="F34" s="8">
         <v>44977</v>
@@ -2327,30 +2322,30 @@
         <v>9</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="11">
         <v>44977</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="F35" s="8">
         <v>44977</v>
@@ -2365,30 +2360,30 @@
         <v>7</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" t="s">
         <v>150</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N35" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="11">
         <v>44977</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>103</v>
+        <v>124</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="F36" s="8">
         <v>44977</v>
@@ -2409,24 +2404,24 @@
         <v>9</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="11">
         <v>44977</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="F37" s="8">
         <v>44977</v>
@@ -2449,19 +2444,19 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="11">
         <v>44977</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="F38" s="8">
         <v>44977</v>
@@ -2476,27 +2471,27 @@
         <v>9</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="11">
         <v>44977</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="F39" s="8">
         <v>44977</v>
@@ -2517,24 +2512,24 @@
         <v>9</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="11">
         <v>44977</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="F40" s="8">
         <v>44977</v>
@@ -2555,55 +2550,58 @@
         <v>9</v>
       </c>
       <c r="N40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="11">
         <v>44994</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="16">
         <v>44993</v>
       </c>
-      <c r="J41" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="22" t="s">
-        <v>175</v>
+      <c r="J41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="C42" s="11">
+        <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="17">
+        <v>162</v>
+      </c>
+      <c r="F42" s="16">
         <v>44993</v>
       </c>
       <c r="J42" s="5" t="s">
@@ -2618,18 +2616,21 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C43" s="11">
+        <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="17">
+        <v>163</v>
+      </c>
+      <c r="F43" s="16">
         <v>44993</v>
       </c>
       <c r="J43" s="5" t="s">
@@ -2642,23 +2643,26 @@
         <v>9</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="C44" s="11">
+        <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="17">
+        <v>171</v>
+      </c>
+      <c r="F44" s="16">
         <v>44993</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -2673,18 +2677,21 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C45" s="11">
+        <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="17">
+        <v>164</v>
+      </c>
+      <c r="F45" s="16">
         <v>44993</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -2697,23 +2704,26 @@
         <v>9</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C46" s="11">
+        <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="17">
+        <v>165</v>
+      </c>
+      <c r="F46" s="16">
         <v>44993</v>
       </c>
       <c r="J46" s="5" t="s">
@@ -2726,49 +2736,58 @@
         <v>9</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C47" s="11">
+        <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="17">
+        <v>166</v>
+      </c>
+      <c r="F47" s="16">
         <v>44993</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="C48" s="11">
+        <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="17">
+        <v>167</v>
+      </c>
+      <c r="F48" s="16">
         <v>44993</v>
       </c>
       <c r="J48" s="5" t="s">
@@ -2783,18 +2802,21 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C49" s="11">
+        <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="17">
+        <v>168</v>
+      </c>
+      <c r="F49" s="16">
         <v>44993</v>
       </c>
       <c r="J49" s="5" t="s">
@@ -2809,21 +2831,27 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C50" s="11">
+        <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50" s="17">
+        <v>169</v>
+      </c>
+      <c r="F50" s="16">
         <v>44993</v>
       </c>
       <c r="J50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -2832,16 +2860,19 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="C51" s="11">
+        <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F51" s="11">
         <v>44993</v>
@@ -2858,16 +2889,19 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="C52" s="11">
+        <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>176</v>
+        <v>190</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F52" s="11">
         <v>44993</v>
@@ -2875,25 +2909,31 @@
       <c r="J52" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K52" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="M52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N52" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C53" s="11">
+        <v>44994</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F53" s="11">
         <v>44993</v>
@@ -2908,21 +2948,24 @@
         <v>9</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="C54" s="11">
+        <v>44994</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F54" s="11">
         <v>44993</v>
@@ -2939,16 +2982,19 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C55" s="11">
+        <v>44994</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F55" s="11">
         <v>44993</v>
@@ -2965,16 +3011,19 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="C56" s="11">
+        <v>44994</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F56" s="11">
         <v>44993</v>
@@ -2991,16 +3040,19 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C57" s="11">
+        <v>44994</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F57" s="11">
         <v>44993</v>
@@ -3008,11 +3060,80 @@
       <c r="J57" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K57" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="M57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="18">
+        <v>45004</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" s="18">
+        <v>45004</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E60" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="18">
+        <v>37334</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="18">
+        <v>37334</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="18">
+        <v>37334</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="18">
+        <v>37334</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD04EAB-742F-1F4C-9507-56CBE11BE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D2761-4615-D149-9ADD-667F62A706D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24400" yWindow="580" windowWidth="22200" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15380" yWindow="2220" windowWidth="18220" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="232">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -721,6 +721,15 @@
   </si>
   <si>
     <t>61006248544105dd7a6ede47</t>
+  </si>
+  <si>
+    <t>631f5fde77cfcb3ff222df57</t>
+  </si>
+  <si>
+    <t>*this person did not submit photos, trying to sort out how to get them the ability to complete it…</t>
+  </si>
+  <si>
+    <t>628f827eeb876ed2617881e7</t>
   </si>
 </sst>
 </file>
@@ -784,7 +793,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +853,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,13 +1094,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3126,13 +3143,27 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" s="18">
+      <c r="E63" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="20">
         <v>37334</v>
       </c>
       <c r="J63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="18">
+        <v>45005</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D2761-4615-D149-9ADD-667F62A706D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DF577-15C6-1146-BA9E-977B912F90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15380" yWindow="2220" windowWidth="18220" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="233">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>628f827eeb876ed2617881e7</t>
+  </si>
+  <si>
+    <t>63d3f9d0ab6c170778b0d3d1</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1097,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3167,6 +3170,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="65" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="18">
+        <v>45005</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E23:E40">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DF577-15C6-1146-BA9E-977B912F90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BEAB9-126C-954B-B04B-ECB8B589FEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="2220" windowWidth="18220" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="7520" windowWidth="27260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="249">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -733,6 +720,54 @@
   </si>
   <si>
     <t>63d3f9d0ab6c170778b0d3d1</t>
+  </si>
+  <si>
+    <t>R_2QExv1g6dvjRMke</t>
+  </si>
+  <si>
+    <t>R_UJEhAz5iOnOyjTP</t>
+  </si>
+  <si>
+    <t>R_vVsPcJt6EDCLi4V</t>
+  </si>
+  <si>
+    <t>R_2Y35aAqduHrrEjL</t>
+  </si>
+  <si>
+    <t>R_2SBjWAJX0eT5hBq</t>
+  </si>
+  <si>
+    <t>R_1LnWi5er1jgd0Lv</t>
+  </si>
+  <si>
+    <t>5f9873550513db147c9d2958</t>
+  </si>
+  <si>
+    <t>R_2U2W3Vvh1KEmDzZ</t>
+  </si>
+  <si>
+    <t>R_1Eiko4Q50RoYWXC</t>
+  </si>
+  <si>
+    <t>R_1lzTN904vtzWuo8</t>
+  </si>
+  <si>
+    <t>R_3CPCo6Sful0zVrP</t>
+  </si>
+  <si>
+    <t>R_1KxL7wBTylWcwUg</t>
+  </si>
+  <si>
+    <t>R_s86Bev2u6a5Epbz</t>
+  </si>
+  <si>
+    <t>R_2fCWCItlqU1GEIz</t>
+  </si>
+  <si>
+    <t>R_1f7YiumSDVoSvk8</t>
+  </si>
+  <si>
+    <t>didn’t have images</t>
   </si>
 </sst>
 </file>
@@ -796,7 +831,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +850,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -828,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,6 +905,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,19 +1148,21 @@
   </sheetPr>
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E63:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="9" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" customWidth="1"/>
@@ -1205,7 +1256,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1">
         <f>COUNTA(B2:B997)</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="1">
         <f>COUNTIF(O2:O997, "y")</f>
@@ -3091,91 +3142,203 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E58" s="17" t="s">
+      <c r="A58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>225</v>
       </c>
       <c r="F58" s="18">
         <v>45004</v>
       </c>
+      <c r="I58" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J58" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="E59" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" s="18">
-        <v>45004</v>
+        <v>37334</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="E60" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F60" s="18">
         <v>37334</v>
       </c>
+      <c r="I60" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J60" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>236</v>
+      </c>
       <c r="E61" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F61" s="18">
         <v>37334</v>
       </c>
+      <c r="I61" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="E62" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="20">
+        <v>37334</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="18">
-        <v>37334</v>
-      </c>
       <c r="J62" s="5" t="s">
-        <v>7</v>
+        <v>248</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E63" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="20">
-        <v>37334</v>
+      <c r="A63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="18">
+        <v>45005</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>238</v>
+      </c>
       <c r="E64" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" s="18">
         <v>45005</v>
       </c>
+      <c r="I64" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J64" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="E65" s="17" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F65" s="18">
-        <v>45005</v>
+        <v>45004</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036BEAB9-126C-954B-B04B-ECB8B589FEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC18F8-F9F3-B04A-8875-2F618243B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="7520" windowWidth="27260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13900" yWindow="1260" windowWidth="13420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="250">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -768,6 +781,9 @@
   </si>
   <si>
     <t>didn’t have images</t>
+  </si>
+  <si>
+    <t>did not do task</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1164,11 @@
   </sheetPr>
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="132" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E63:E64"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3166,6 +3182,9 @@
       <c r="J58" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K58" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
@@ -3192,6 +3211,9 @@
       <c r="J59" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K59" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
@@ -3218,6 +3240,9 @@
       <c r="J60" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K60" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
@@ -3242,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3288,6 +3313,9 @@
       <c r="J63" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
@@ -3314,6 +3342,9 @@
       <c r="J64" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K64" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
@@ -3338,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC18F8-F9F3-B04A-8875-2F618243B668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA2277-2B0B-6042-9079-76F10550EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="1260" windowWidth="13420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1140" windowWidth="25280" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="249">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -507,9 +507,6 @@
     <t>7 in a row, AQ50 + SCS1-6 same</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>qualtrics_selfreportpre</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
     <t>invalid submission</t>
   </si>
   <si>
-    <t>poetry, 2 attempts, did not make any choices</t>
-  </si>
-  <si>
     <t>6056bcf1cee7a41435889255</t>
   </si>
   <si>
@@ -702,15 +696,6 @@
     <t>Photos 4 and 6 are pics of the same plate of pasta; photos 7 and 8 are similar pics of sunset from diff angles (resolved JD)</t>
   </si>
   <si>
-    <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID</t>
-  </si>
-  <si>
-    <t>error message, sent link, send reminder 2/24, returned submission</t>
-  </si>
-  <si>
-    <t>started but returned, sent a new link, reminded 2/24, returned submission</t>
-  </si>
-  <si>
     <t>60fd56db5fe37ebeca00bc83</t>
   </si>
   <si>
@@ -784,6 +769,18 @@
   </si>
   <si>
     <t>did not do task</t>
+  </si>
+  <si>
+    <t>post-task survey</t>
+  </si>
+  <si>
+    <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID, may have done pavlovia task very delayed</t>
+  </si>
+  <si>
+    <t>surveys_missing</t>
+  </si>
+  <si>
+    <t>[RR, LSAS, MSPSS, DAST, DII]</t>
   </si>
 </sst>
 </file>
@@ -1162,13 +1159,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1180,14 +1177,14 @@
     <col min="7" max="8" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="11" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1207,10 +1204,10 @@
         <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>54</v>
@@ -1222,28 +1219,34 @@
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1268,22 +1271,28 @@
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
         <f>COUNTA(B2:B997)</f>
         <v>63</v>
       </c>
-      <c r="Q2" s="1">
-        <f>COUNTIF(O2:O997, "y")</f>
+      <c r="S2" s="1">
+        <f>COUNTIF(Q2:Q997, "y")</f>
         <v>0</v>
       </c>
-      <c r="R2" s="1">
-        <f>COUNTIF(O2:O997, "n")</f>
+      <c r="T2" s="1">
+        <f>COUNTIF(Q2:Q997, "n")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1308,13 +1317,19 @@
       <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="9" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1339,11 +1354,17 @@
       <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="7"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1361,9 +1382,15 @@
       <c r="J5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1381,9 +1408,15 @@
       <c r="J6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1414,14 +1447,20 @@
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="12">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
         <v>2</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1452,15 +1491,19 @@
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1491,14 +1534,18 @@
       <c r="J9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9">
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1529,14 +1576,18 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1567,14 +1618,18 @@
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1605,11 +1660,15 @@
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -1637,17 +1696,21 @@
       <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1675,14 +1738,18 @@
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1710,14 +1777,18 @@
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -1745,14 +1816,18 @@
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1780,17 +1855,21 @@
       <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P17" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -1818,17 +1897,21 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>3</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -1856,14 +1939,18 @@
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -1891,17 +1978,21 @@
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1929,17 +2020,24 @@
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -1967,14 +2065,18 @@
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
@@ -2005,14 +2107,18 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
@@ -2043,11 +2149,15 @@
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>107</v>
       </c>
@@ -2078,14 +2188,18 @@
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
@@ -2116,14 +2230,18 @@
       <c r="J26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="5" t="s">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2154,14 +2272,18 @@
       <c r="J27" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
@@ -2192,14 +2314,18 @@
       <c r="J28" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>107</v>
       </c>
@@ -2230,11 +2356,15 @@
       <c r="J29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -2265,14 +2395,18 @@
       <c r="J30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
@@ -2303,11 +2437,15 @@
       <c r="J31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
@@ -2338,11 +2476,15 @@
       <c r="J32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
@@ -2373,14 +2515,18 @@
       <c r="J33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="5" t="s">
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -2409,16 +2555,20 @@
         <v>9</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N34" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2449,14 +2599,18 @@
       <c r="J35" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
@@ -2487,14 +2641,18 @@
       <c r="J36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="5" t="s">
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -2525,11 +2683,15 @@
       <c r="J37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
@@ -2560,11 +2722,15 @@
       <c r="J38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
@@ -2595,14 +2761,18 @@
       <c r="J39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="5" t="s">
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="P39" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>107</v>
       </c>
@@ -2633,28 +2803,32 @@
       <c r="J40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="11">
         <v>44994</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F41" s="16">
         <v>44993</v>
@@ -2662,31 +2836,35 @@
       <c r="J41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C42" s="11">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F42" s="16">
         <v>44993</v>
@@ -2694,28 +2872,32 @@
       <c r="J42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" s="11">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F43" s="16">
         <v>44993</v>
@@ -2723,31 +2905,35 @@
       <c r="J43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="11">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F44" s="16">
         <v>44993</v>
@@ -2755,28 +2941,32 @@
       <c r="J44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C45" s="11">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F45" s="16">
         <v>44993</v>
@@ -2784,31 +2974,35 @@
       <c r="J45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C46" s="11">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F46" s="16">
         <v>44993</v>
@@ -2816,31 +3010,35 @@
       <c r="J46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="11">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F47" s="16">
         <v>44993</v>
@@ -2848,31 +3046,35 @@
       <c r="J47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C48" s="11">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F48" s="16">
         <v>44993</v>
@@ -2880,28 +3082,32 @@
       <c r="J48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" s="11">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F49" s="16">
         <v>44993</v>
@@ -2909,28 +3115,32 @@
       <c r="J49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C50" s="11">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F50" s="16">
         <v>44993</v>
@@ -2938,28 +3148,32 @@
       <c r="J50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51" s="11">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" s="11">
         <v>44993</v>
@@ -2967,28 +3181,32 @@
       <c r="J51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" s="11">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F52" s="11">
         <v>44993</v>
@@ -2996,31 +3214,35 @@
       <c r="J52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="11">
         <v>44994</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F53" s="11">
         <v>44993</v>
@@ -3028,31 +3250,35 @@
       <c r="J53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C54" s="11">
         <v>44994</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F54" s="11">
         <v>44993</v>
@@ -3060,28 +3286,32 @@
       <c r="J54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C55" s="11">
         <v>44994</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F55" s="11">
         <v>44993</v>
@@ -3089,28 +3319,32 @@
       <c r="J55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" s="11">
         <v>44994</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F56" s="11">
         <v>44993</v>
@@ -3118,28 +3352,32 @@
       <c r="J56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C57" s="11">
         <v>44994</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F57" s="11">
         <v>44993</v>
@@ -3147,31 +3385,35 @@
       <c r="J57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C58" s="11">
         <v>45005</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F58" s="18">
         <v>45004</v>
@@ -3182,25 +3424,29 @@
       <c r="J58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C59" s="11">
         <v>45005</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F59" s="18">
         <v>37334</v>
@@ -3211,25 +3457,29 @@
       <c r="J59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C60" s="11">
         <v>45005</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F60" s="18">
         <v>37334</v>
@@ -3240,25 +3490,29 @@
       <c r="J60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K60" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C61" s="11">
         <v>45005</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F61" s="18">
         <v>37334</v>
@@ -3267,13 +3521,20 @@
         <v>9</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="E62" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F62" s="20">
         <v>37334</v>
@@ -3282,27 +3543,34 @@
         <v>7</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C63" s="11">
         <v>45005</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F63" s="18">
         <v>45005</v>
@@ -3313,25 +3581,29 @@
       <c r="J63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K63" s="5">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C64" s="11">
         <v>45005</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F64" s="18">
         <v>45005</v>
@@ -3342,25 +3614,29 @@
       <c r="J64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K64" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K64" s="5">
+        <v>1</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C65" s="11">
         <v>45005</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F65" s="18">
         <v>45004</v>
@@ -3369,7 +3645,24 @@
         <v>9</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K67">
+        <f>SUM(K2:K65)</f>
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <f>SUM(M2:M65)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DA2277-2B0B-6042-9079-76F10550EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9B99-8CA3-C84E-8DE1-A676E51D5578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1140" windowWidth="25280" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18460" yWindow="-1980" windowWidth="12740" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="250">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>[RR, LSAS, MSPSS, DAST, DII]</t>
+  </si>
+  <si>
+    <t>afterstresschange</t>
   </si>
 </sst>
 </file>
@@ -1159,13 +1162,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1180,11 +1183,12 @@
     <col min="11" max="13" width="25.5" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" customWidth="1"/>
     <col min="15" max="15" width="19.83203125" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="25.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1230,23 +1234,26 @@
       <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1271,28 +1278,25 @@
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1">
+      <c r="P2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1">
         <f>COUNTA(B2:B997)</f>
         <v>63</v>
       </c>
-      <c r="S2" s="1">
-        <f>COUNTIF(Q2:Q997, "y")</f>
-        <v>0</v>
-      </c>
       <c r="T2" s="1">
-        <f>COUNTIF(Q2:Q997, "n")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>COUNTIF(R2:R997, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>COUNTIF(R2:R997, "n")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1317,19 +1321,16 @@
       <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1354,17 +1355,14 @@
       <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1382,15 +1380,12 @@
       <c r="J5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1408,15 +1403,12 @@
       <c r="J6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1456,11 +1448,14 @@
       <c r="O7" s="12">
         <v>2</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1501,9 +1496,12 @@
       <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1544,8 +1542,11 @@
       <c r="O9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1586,8 +1587,11 @@
       <c r="O10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1628,8 +1632,11 @@
       <c r="O11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1667,8 +1674,11 @@
       <c r="M12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -1706,11 +1716,14 @@
       <c r="O13">
         <v>3</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1748,8 +1761,11 @@
       <c r="O14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1787,8 +1803,11 @@
       <c r="O15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -1821,13 +1840,16 @@
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1853,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5">
@@ -1865,11 +1887,14 @@
       <c r="O17">
         <v>3</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -1907,11 +1932,14 @@
       <c r="O18">
         <v>3</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -1949,8 +1977,11 @@
       <c r="O19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -1988,11 +2019,14 @@
       <c r="O20">
         <v>3</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -2033,11 +2067,14 @@
       <c r="O21">
         <v>3</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -2075,8 +2112,11 @@
       <c r="O22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
@@ -2114,11 +2154,14 @@
       <c r="M23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
@@ -2156,8 +2199,11 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>107</v>
       </c>
@@ -2195,11 +2241,14 @@
       <c r="M25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
@@ -2237,11 +2286,14 @@
       <c r="M26" s="5">
         <v>1</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
@@ -2279,11 +2331,14 @@
       <c r="M27" s="5">
         <v>0</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
@@ -2321,11 +2376,14 @@
       <c r="M28" s="5">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>107</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="M29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
@@ -2402,11 +2463,14 @@
       <c r="M30" s="5">
         <v>1</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
@@ -2444,8 +2508,11 @@
       <c r="M31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
@@ -2483,8 +2550,11 @@
       <c r="M32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
@@ -2522,11 +2592,14 @@
       <c r="M33" s="5">
         <v>1</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -2564,11 +2637,14 @@
       <c r="M34" s="5">
         <v>0</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2606,11 +2682,14 @@
       <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
@@ -2648,11 +2727,14 @@
       <c r="M36" s="5">
         <v>1</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -2690,8 +2772,11 @@
       <c r="M37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
@@ -2729,8 +2814,11 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
@@ -2768,11 +2856,14 @@
       <c r="M39" s="5">
         <v>1</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>107</v>
       </c>
@@ -2810,11 +2901,14 @@
       <c r="M40" s="5">
         <v>1</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>213</v>
       </c>
@@ -2846,11 +2940,14 @@
       <c r="O41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>213</v>
       </c>
@@ -2882,8 +2979,11 @@
       <c r="O42" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>213</v>
       </c>
@@ -2915,11 +3015,14 @@
       <c r="O43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>213</v>
       </c>
@@ -2951,8 +3054,11 @@
       <c r="O44" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>213</v>
       </c>
@@ -2984,11 +3090,14 @@
       <c r="O45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
@@ -3020,11 +3129,14 @@
       <c r="O46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>213</v>
       </c>
@@ -3056,11 +3168,14 @@
       <c r="O47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>213</v>
       </c>
@@ -3092,8 +3207,11 @@
       <c r="O48" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>213</v>
       </c>
@@ -3125,8 +3243,11 @@
       <c r="O49" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>213</v>
       </c>
@@ -3158,8 +3279,11 @@
       <c r="O50" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>213</v>
       </c>
@@ -3191,8 +3315,11 @@
       <c r="O51" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>213</v>
       </c>
@@ -3224,11 +3351,14 @@
       <c r="O52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>213</v>
       </c>
@@ -3260,11 +3390,14 @@
       <c r="O53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>213</v>
       </c>
@@ -3296,8 +3429,11 @@
       <c r="O54" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>213</v>
       </c>
@@ -3329,8 +3465,11 @@
       <c r="O55" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>213</v>
       </c>
@@ -3362,8 +3501,11 @@
       <c r="O56" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>213</v>
       </c>
@@ -3395,11 +3537,14 @@
       <c r="O57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
@@ -3431,8 +3576,11 @@
       <c r="M58" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
@@ -3464,8 +3612,11 @@
       <c r="M59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>107</v>
       </c>
@@ -3497,8 +3648,11 @@
       <c r="M60" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
@@ -3530,8 +3684,11 @@
       <c r="M61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="E62" s="19" t="s">
         <v>224</v>
@@ -3552,11 +3709,14 @@
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="P62" s="5" t="s">
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>107</v>
       </c>
@@ -3588,8 +3748,11 @@
       <c r="M63" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
@@ -3621,8 +3784,11 @@
       <c r="M64" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
@@ -3648,14 +3814,17 @@
         <v>244</v>
       </c>
       <c r="K65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K67">
         <f>SUM(K2:K65)</f>
         <v>50</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9B99-8CA3-C84E-8DE1-A676E51D5578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7522A-F576-164C-818C-EB72DBBC9B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18460" yWindow="-1980" windowWidth="12740" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24780" yWindow="-1980" windowWidth="24240" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1165,10 +1165,10 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7522A-F576-164C-818C-EB72DBBC9B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905C0CA-4863-5B41-9105-6F900EFCC828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24780" yWindow="-1980" windowWidth="24240" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="880" windowWidth="19020" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="300">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -784,6 +784,156 @@
   </si>
   <si>
     <t>afterstresschange</t>
+  </si>
+  <si>
+    <t>610367ad785ce86ceb8d201c</t>
+  </si>
+  <si>
+    <t>60d2b326161a622cd363268a</t>
+  </si>
+  <si>
+    <t>641361334c91a0c6ff4c5b79</t>
+  </si>
+  <si>
+    <t>568d286ab5a2c2000cb6a91c</t>
+  </si>
+  <si>
+    <t>60f4e3ab507bbb123f866e88</t>
+  </si>
+  <si>
+    <t>632a2b88ee7ba45758fde30b</t>
+  </si>
+  <si>
+    <t>5bcc60b95c2b810001dc68e2</t>
+  </si>
+  <si>
+    <t>5aec7e89ae13140001fc0cdf</t>
+  </si>
+  <si>
+    <t>64010a38650fe3a1a2de05a9</t>
+  </si>
+  <si>
+    <t>641a3df3c874807a1a8734bc</t>
+  </si>
+  <si>
+    <t>5e646abe244a7f1feb0f6321</t>
+  </si>
+  <si>
+    <t>63d4d112aa36fa1b09ce7c50</t>
+  </si>
+  <si>
+    <t>61005a9bfd2f14f18ef7ec7d</t>
+  </si>
+  <si>
+    <t>5f8eef372ace000b7ce1dca4</t>
+  </si>
+  <si>
+    <t>5bdfb648484288000130dad0</t>
+  </si>
+  <si>
+    <t>R_ALFBdVrhqpmFrcR</t>
+  </si>
+  <si>
+    <t>R_2rYbuyGf8VvMkmd</t>
+  </si>
+  <si>
+    <t>R_2q30HlmwQ0hIR4e</t>
+  </si>
+  <si>
+    <t>2 of 3</t>
+  </si>
+  <si>
+    <t>R_ebxVVG0z3Vxu013</t>
+  </si>
+  <si>
+    <t>R_6VuW1hyqpMy0R9v</t>
+  </si>
+  <si>
+    <t>R_3RjU7RHXomCcJ7G</t>
+  </si>
+  <si>
+    <t>R_3nSLdjcGcE0NnVp</t>
+  </si>
+  <si>
+    <t>R_3I6JRWmWbPhFWhG</t>
+  </si>
+  <si>
+    <t>R_306NKbThwjJ8Lbh</t>
+  </si>
+  <si>
+    <t>R_33qyy3r6DdjvMn1</t>
+  </si>
+  <si>
+    <t>R_01kQiIgKK6hopgJ</t>
+  </si>
+  <si>
+    <t>R_2VI0ArXZSFG2gmz</t>
+  </si>
+  <si>
+    <t>R_3iKHHBfCnDpVnjt</t>
+  </si>
+  <si>
+    <t>R_1jILu1pwRLb7swU</t>
+  </si>
+  <si>
+    <t>R_306GH0C9Xu5Pokq</t>
+  </si>
+  <si>
+    <t>63d7f2b15b4a5938642f3a7b</t>
+  </si>
+  <si>
+    <t>R_2waVrZTUty6MZ1B</t>
+  </si>
+  <si>
+    <t>R_3HOkjgJXzK2fzgM</t>
+  </si>
+  <si>
+    <t>R_110VgIa7J6ePq2R</t>
+  </si>
+  <si>
+    <t>R_27fbBpMpu27dHNU</t>
+  </si>
+  <si>
+    <t>R_3h0ICMjLjFnZblQ</t>
+  </si>
+  <si>
+    <t>R_2XmmgE3Yoevhye6</t>
+  </si>
+  <si>
+    <t>R_u49xmRjq43vUnm1</t>
+  </si>
+  <si>
+    <t>R_1cSxz4xQEDSko33</t>
+  </si>
+  <si>
+    <t>R_3sBUYOIDkt9P9We</t>
+  </si>
+  <si>
+    <t>R_3sn01MT9P2EQNwS</t>
+  </si>
+  <si>
+    <t>R_1rPnENhylzJaRHd</t>
+  </si>
+  <si>
+    <t>R_3I0sL2pAjs7pKHk</t>
+  </si>
+  <si>
+    <t>R_2B9tWros5m9PJE0</t>
+  </si>
+  <si>
+    <t>R_2EBqMD7gckzG53i</t>
+  </si>
+  <si>
+    <t>R_vJoeAH39hvKA5Et</t>
+  </si>
+  <si>
+    <t>R_vUK75OIkTN5HGdr</t>
+  </si>
+  <si>
+    <t>R_SIAdBDtbnZh30Vr</t>
+  </si>
+  <si>
+    <t>JD +</t>
   </si>
 </sst>
 </file>
@@ -847,7 +997,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,24 +1007,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,11 +1050,13 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,13 +1296,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1285,7 +1419,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1">
         <f>COUNTA(B2:B997)</f>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1">
         <f>COUNTIF(R2:R997, "y")</f>
@@ -3544,294 +3678,649 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="20">
         <v>45005</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="20">
         <v>45004</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="5">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="I58" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="18">
+        <v>1</v>
+      </c>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18">
+        <v>1</v>
+      </c>
+      <c r="P58" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="20">
         <v>45005</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="20">
         <v>37334</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+      <c r="I59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
+      <c r="P59" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="20">
         <v>45005</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="20">
         <v>37334</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="I60" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1</v>
+      </c>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18">
+        <v>1</v>
+      </c>
+      <c r="P60" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="20">
         <v>45005</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="20">
         <v>37334</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="5" t="s">
+      <c r="I61" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="K61" s="5">
-        <v>0</v>
-      </c>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
+      <c r="K61" s="18">
+        <v>0</v>
+      </c>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="18"/>
       <c r="E62" s="19" t="s">
         <v>224</v>
       </c>
       <c r="F62" s="20">
         <v>37334</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="K62" s="5">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="5" t="s">
+      <c r="K62" s="18">
+        <v>0</v>
+      </c>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+      <c r="P62" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="20">
         <v>45005</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="20">
         <v>45005</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="5">
-        <v>1</v>
-      </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="I63" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="18">
+        <v>1</v>
+      </c>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18">
+        <v>1</v>
+      </c>
+      <c r="P63" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="20">
         <v>45005</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="20">
         <v>45005</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="5">
-        <v>1</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="I64" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="18">
+        <v>1</v>
+      </c>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18">
+        <v>1</v>
+      </c>
+      <c r="P64" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="20">
         <v>45005</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="20">
         <v>45004</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="5" t="s">
+      <c r="I65" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="K65" s="5">
-        <v>1</v>
-      </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
+      <c r="K65" s="18">
+        <v>1</v>
+      </c>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18">
+        <v>1</v>
+      </c>
+      <c r="P65" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K67">
-        <f>SUM(K2:K65)</f>
-        <v>50</v>
-      </c>
-      <c r="M67">
-        <f>SUM(M2:M65)</f>
-        <v>49</v>
+      <c r="A67" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F68" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O68" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" s="11">
+        <v>45014</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905C0CA-4863-5B41-9105-6F900EFCC828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760ACD4-E6C1-D34E-B2DE-673094531530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="880" windowWidth="19020" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="303">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -933,7 +920,16 @@
     <t>R_SIAdBDtbnZh30Vr</t>
   </si>
   <si>
-    <t>JD +</t>
+    <t>covered face in all pictures with people in them</t>
+  </si>
+  <si>
+    <t>not in folder??</t>
+  </si>
+  <si>
+    <t>no images</t>
+  </si>
+  <si>
+    <t>did not upload pictures of themselves showing their face</t>
   </si>
 </sst>
 </file>
@@ -997,7 +993,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1003,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1057,6 +1059,10 @@
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,10 +1305,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3922,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
         <v>107</v>
       </c>
@@ -3958,34 +3964,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" spans="1:17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="28">
         <v>45014</v>
       </c>
-      <c r="J66" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="I66" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O66" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>284</v>
       </c>
       <c r="D67" s="23" t="s">
@@ -3997,18 +4006,21 @@
       <c r="F67" s="11">
         <v>45014</v>
       </c>
+      <c r="I67" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J67" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D68" s="23" t="s">
@@ -4020,18 +4032,21 @@
       <c r="F68" s="11">
         <v>45014</v>
       </c>
+      <c r="I68" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J68" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O68" s="24" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>286</v>
       </c>
       <c r="D69" s="23" t="s">
@@ -4043,18 +4058,21 @@
       <c r="F69" s="11">
         <v>45014</v>
       </c>
+      <c r="I69" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J69" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O69" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>287</v>
       </c>
       <c r="D70" s="23" t="s">
@@ -4066,18 +4084,21 @@
       <c r="F70" s="11">
         <v>45014</v>
       </c>
+      <c r="I70" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J70" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O70" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -4089,18 +4110,21 @@
       <c r="F71" s="11">
         <v>45014</v>
       </c>
+      <c r="I71" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J71" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O71" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>289</v>
       </c>
       <c r="D72" s="23" t="s">
@@ -4112,18 +4136,21 @@
       <c r="F72" s="11">
         <v>45014</v>
       </c>
+      <c r="I72" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J72" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O72" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>290</v>
       </c>
       <c r="D73" s="23" t="s">
@@ -4135,18 +4162,21 @@
       <c r="F73" s="11">
         <v>45014</v>
       </c>
+      <c r="I73" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J73" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O73" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>291</v>
       </c>
       <c r="D74" s="23" t="s">
@@ -4158,18 +4188,21 @@
       <c r="F74" s="11">
         <v>45014</v>
       </c>
+      <c r="I74" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J74" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O74" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>292</v>
       </c>
       <c r="D75" s="23" t="s">
@@ -4181,18 +4214,21 @@
       <c r="F75" s="11">
         <v>45014</v>
       </c>
+      <c r="I75" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J75" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O75" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="19" t="s">
         <v>293</v>
       </c>
       <c r="D76" s="23" t="s">
@@ -4204,18 +4240,24 @@
       <c r="F76" s="11">
         <v>45014</v>
       </c>
+      <c r="I76" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="J76" s="18" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="O76" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="Q76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D77" s="23" t="s">
@@ -4227,18 +4269,21 @@
       <c r="F77" s="11">
         <v>45014</v>
       </c>
+      <c r="I77" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="J77" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O77" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="19" t="s">
         <v>295</v>
       </c>
       <c r="D78" s="23" t="s">
@@ -4250,18 +4295,24 @@
       <c r="F78" s="11">
         <v>45014</v>
       </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
       <c r="J78" s="18" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="O78" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18" t="s">
+      <c r="Q78" t="s">
         <v>299</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>296</v>
       </c>
       <c r="D79" s="23" t="s">
@@ -4273,18 +4324,21 @@
       <c r="F79" s="11">
         <v>45014</v>
       </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
       <c r="J79" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O79" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>297</v>
       </c>
       <c r="D80" s="23" t="s">
@@ -4296,18 +4350,24 @@
       <c r="F80" s="11">
         <v>45014</v>
       </c>
+      <c r="I80" t="s">
+        <v>7</v>
+      </c>
       <c r="J80" s="18" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="O80" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="Q80" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="23" t="s">
@@ -4316,8 +4376,11 @@
       <c r="E81" s="23" t="s">
         <v>281</v>
       </c>
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
       <c r="J81" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O81" s="5" t="s">
         <v>9</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760ACD4-E6C1-D34E-B2DE-673094531530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012CD15-3FC2-8647-8E3C-4C09BBCF4EFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,7 +1308,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9760ACD4-E6C1-D34E-B2DE-673094531530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CB093-157E-5C44-BDE4-D9240A6AA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="360" windowWidth="28380" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -993,7 +1006,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1025,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1025,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1052,10 +1071,6 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1063,6 +1078,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1322,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3684,309 +3701,309 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="11">
         <v>45005</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" t="s">
         <v>228</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="11">
         <v>45004</v>
       </c>
-      <c r="I58" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="18">
-        <v>1</v>
-      </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18">
-        <v>1</v>
-      </c>
-      <c r="P58" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="18" t="s">
+      <c r="I58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="11">
         <v>45005</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="11">
         <v>37334</v>
       </c>
-      <c r="I59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="18">
-        <v>1</v>
-      </c>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18">
-        <v>1</v>
-      </c>
-      <c r="P59" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="18" t="s">
+      <c r="I59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="11">
         <v>45005</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="11">
         <v>37334</v>
       </c>
-      <c r="I60" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="18">
-        <v>1</v>
-      </c>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18">
-        <v>1</v>
-      </c>
-      <c r="P60" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="18" t="s">
+      <c r="I60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="5">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="11">
         <v>45005</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="11">
         <v>37334</v>
       </c>
-      <c r="I61" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="18" t="s">
+      <c r="I61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K61" s="18">
-        <v>0</v>
-      </c>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18">
-        <v>0</v>
-      </c>
-      <c r="P61" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="E62" s="19" t="s">
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="E62" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="11">
         <v>37334</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K62" s="18">
-        <v>0</v>
-      </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18">
-        <v>0</v>
-      </c>
-      <c r="P62" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="18" t="s">
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
+    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="11">
         <v>45005</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="11">
         <v>45005</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="18">
-        <v>1</v>
-      </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18">
-        <v>1</v>
-      </c>
-      <c r="P63" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
+      <c r="I63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="11">
         <v>45005</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="11">
         <v>45005</v>
       </c>
-      <c r="I64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="18">
-        <v>1</v>
-      </c>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18">
-        <v>1</v>
-      </c>
-      <c r="P64" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="18" t="s">
+      <c r="I64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="11">
         <v>45005</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="11">
         <v>45004</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="18" t="s">
+      <c r="I65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K65" s="18">
-        <v>1</v>
-      </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18">
-        <v>1</v>
-      </c>
-      <c r="P65" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="25" t="s">
+      <c r="K65" s="5">
+        <v>1</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="24">
         <v>45014</v>
       </c>
-      <c r="I66" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O66" s="25" t="s">
+      <c r="I66" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O66" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3994,10 +4011,10 @@
       <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" t="s">
         <v>284</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E67" s="17" t="s">
@@ -4006,10 +4023,10 @@
       <c r="F67" s="11">
         <v>45014</v>
       </c>
-      <c r="I67" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="18" t="s">
+      <c r="I67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O67" s="5" t="s">
@@ -4020,10 +4037,10 @@
       <c r="A68" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" t="s">
         <v>285</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="19" t="s">
         <v>267</v>
       </c>
       <c r="E68" s="17" t="s">
@@ -4032,13 +4049,13 @@
       <c r="F68" s="11">
         <v>45014</v>
       </c>
-      <c r="I68" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O68" s="24" t="s">
+      <c r="I68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O68" s="20" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4046,10 +4063,10 @@
       <c r="A69" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E69" s="17" t="s">
@@ -4058,10 +4075,10 @@
       <c r="F69" s="11">
         <v>45014</v>
       </c>
-      <c r="I69" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" s="18" t="s">
+      <c r="I69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O69" s="5" t="s">
@@ -4072,10 +4089,10 @@
       <c r="A70" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" t="s">
         <v>287</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="19" t="s">
         <v>270</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -4084,10 +4101,10 @@
       <c r="F70" s="11">
         <v>45014</v>
       </c>
-      <c r="I70" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" s="18" t="s">
+      <c r="I70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O70" s="5" t="s">
@@ -4098,10 +4115,10 @@
       <c r="A71" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="19" t="s">
         <v>271</v>
       </c>
       <c r="E71" s="17" t="s">
@@ -4110,10 +4127,10 @@
       <c r="F71" s="11">
         <v>45014</v>
       </c>
-      <c r="I71" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" s="18" t="s">
+      <c r="I71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O71" s="5" t="s">
@@ -4124,10 +4141,10 @@
       <c r="A72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" t="s">
         <v>289</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="19" t="s">
         <v>272</v>
       </c>
       <c r="E72" s="17" t="s">
@@ -4136,10 +4153,10 @@
       <c r="F72" s="11">
         <v>45014</v>
       </c>
-      <c r="I72" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" s="18" t="s">
+      <c r="I72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O72" s="5" t="s">
@@ -4150,10 +4167,10 @@
       <c r="A73" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="19" t="s">
         <v>273</v>
       </c>
       <c r="E73" s="17" t="s">
@@ -4162,10 +4179,10 @@
       <c r="F73" s="11">
         <v>45014</v>
       </c>
-      <c r="I73" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J73" s="18" t="s">
+      <c r="I73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O73" s="5" t="s">
@@ -4176,10 +4193,10 @@
       <c r="A74" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" t="s">
         <v>291</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="19" t="s">
         <v>274</v>
       </c>
       <c r="E74" s="17" t="s">
@@ -4188,10 +4205,10 @@
       <c r="F74" s="11">
         <v>45014</v>
       </c>
-      <c r="I74" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J74" s="18" t="s">
+      <c r="I74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O74" s="5" t="s">
@@ -4202,10 +4219,10 @@
       <c r="A75" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" t="s">
         <v>292</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="19" t="s">
         <v>275</v>
       </c>
       <c r="E75" s="17" t="s">
@@ -4214,10 +4231,10 @@
       <c r="F75" s="11">
         <v>45014</v>
       </c>
-      <c r="I75" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J75" s="18" t="s">
+      <c r="I75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O75" s="5" t="s">
@@ -4228,22 +4245,22 @@
       <c r="A76" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="18" t="s">
         <v>260</v>
       </c>
       <c r="F76" s="11">
         <v>45014</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="5" t="s">
         <v>159</v>
       </c>
       <c r="O76" s="5" t="s">
@@ -4257,22 +4274,22 @@
       <c r="A77" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" t="s">
         <v>294</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="26" t="s">
         <v>261</v>
       </c>
       <c r="F77" s="11">
         <v>45014</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J77" s="18" t="s">
+      <c r="I77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O77" s="5" t="s">
@@ -4283,10 +4300,10 @@
       <c r="A78" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" t="s">
         <v>295</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="19" t="s">
         <v>278</v>
       </c>
       <c r="E78" s="17" t="s">
@@ -4298,7 +4315,7 @@
       <c r="I78" t="s">
         <v>7</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="5" t="s">
         <v>159</v>
       </c>
       <c r="O78" s="5" t="s">
@@ -4312,10 +4329,10 @@
       <c r="A79" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" t="s">
         <v>296</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>279</v>
       </c>
       <c r="E79" s="17" t="s">
@@ -4327,7 +4344,7 @@
       <c r="I79" t="s">
         <v>9</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O79" s="5" t="s">
@@ -4338,10 +4355,10 @@
       <c r="A80" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" t="s">
         <v>297</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="19" t="s">
         <v>280</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -4353,7 +4370,7 @@
       <c r="I80" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="18" t="s">
+      <c r="J80" s="5" t="s">
         <v>301</v>
       </c>
       <c r="O80" s="5" t="s">
@@ -4367,19 +4384,22 @@
       <c r="A81" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" t="s">
         <v>298</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="25" t="s">
         <v>281</v>
       </c>
+      <c r="F81" s="11">
+        <v>45014</v>
+      </c>
       <c r="I81" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="O81" s="5" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CB093-157E-5C44-BDE4-D9240A6AA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF329B86-9E05-3643-9B9D-77C82BB0A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="360" windowWidth="28380" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1322,10 +1322,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF329B86-9E05-3643-9B9D-77C82BB0A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985D22D-5D19-1746-8A62-1E8C24E805FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="22280" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1322,10 +1322,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4345,7 +4345,7 @@
         <v>9</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O79" s="5" t="s">
         <v>9</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/Rejection_Choice-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985D22D-5D19-1746-8A62-1E8C24E805FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C12066-0340-9C49-AA5D-0A8A7AAC8625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="22280" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-740" yWindow="760" windowWidth="26800" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="304">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>did not upload pictures of themselves showing their face</t>
+  </si>
+  <si>
+    <t>filter_directory?</t>
   </si>
 </sst>
 </file>
@@ -1319,13 +1322,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="132" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1336,16 +1339,17 @@
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="8" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
-    <col min="11" max="13" width="25.5" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="25.83203125" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+    <col min="12" max="14" width="25.5" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1374,43 +1378,46 @@
         <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1433,27 +1440,30 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1">
-        <f>COUNTA(B2:B997)</f>
+      <c r="R2" s="7"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <f>COUNTA(B2:B998)</f>
         <v>79</v>
       </c>
-      <c r="T2" s="1">
-        <f>COUNTIF(R2:R997, "y")</f>
-        <v>0</v>
-      </c>
       <c r="U2" s="1">
-        <f>COUNTIF(R2:R997, "n")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>COUNTIF(S2:S998, "y")</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>COUNTIF(S2:S998, "n")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1476,18 +1486,21 @@
         <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1510,16 +1523,19 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R4" s="7"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1535,60 +1551,47 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11">
-        <v>44873</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44872</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
@@ -1596,37 +1599,29 @@
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="12">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="11">
         <v>44873</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="11">
         <v>44872</v>
@@ -1643,89 +1638,97 @@
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44873</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11">
+        <v>44872</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11">
-        <v>44881</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="11">
-        <v>44879</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11">
         <v>44881</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="11">
         <v>44879</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1734,35 +1737,38 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11">
         <v>44881</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11">
         <v>44879</v>
@@ -1779,119 +1785,128 @@
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="K11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44881</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11">
+        <v>44879</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>44958</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>44958</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="11">
-        <v>44959</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="11">
         <v>44959</v>
@@ -1902,38 +1917,44 @@
       <c r="H14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="K14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="11">
         <v>44959</v>
@@ -1950,32 +1971,35 @@
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="K15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F16" s="11">
         <v>44959</v>
@@ -1992,35 +2016,38 @@
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="K16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="11">
-        <v>44967</v>
+        <v>44959</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>9</v>
@@ -2032,37 +2059,37 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11">
         <v>44967</v>
@@ -2079,40 +2106,43 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="K18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>3</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="11">
         <v>44967</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2124,32 +2154,38 @@
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="K19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19">
         <v>3</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="11">
         <v>44967</v>
@@ -2166,35 +2202,35 @@
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="K20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="11">
         <v>44967</v>
@@ -2211,38 +2247,38 @@
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21">
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="11">
         <v>44967</v>
@@ -2259,38 +2295,44 @@
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22">
         <v>3</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="11">
-        <v>44977</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="8">
-        <v>44977</v>
+        <v>78</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="11">
+        <v>44967</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -2304,35 +2346,38 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5">
+      <c r="K23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
         <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C24" s="11">
         <v>44977</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="8">
         <v>44977</v>
@@ -2349,32 +2394,38 @@
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="11">
         <v>44977</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="8">
         <v>44977</v>
@@ -2391,35 +2442,35 @@
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="11">
         <v>44977</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="8">
         <v>44977</v>
@@ -2433,38 +2484,41 @@
       <c r="I26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="11">
         <v>44977</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="8">
         <v>44977</v>
@@ -2473,43 +2527,46 @@
         <v>9</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="11">
         <v>44977</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>94</v>
+        <v>116</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F28" s="8">
         <v>44977</v>
@@ -2523,38 +2580,41 @@
       <c r="I28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="11">
         <v>44977</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="8">
         <v>44977</v>
@@ -2568,35 +2628,41 @@
       <c r="I29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="11">
         <v>44977</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="8">
         <v>44977</v>
@@ -2605,43 +2671,43 @@
         <v>9</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="11">
         <v>44977</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="8">
         <v>44977</v>
@@ -2650,40 +2716,46 @@
         <v>9</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="11">
         <v>44977</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="8">
         <v>44977</v>
@@ -2692,40 +2764,43 @@
         <v>9</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="5">
-        <v>1</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="11">
         <v>44977</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="8">
         <v>44977</v>
@@ -2739,38 +2814,38 @@
       <c r="I33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" s="11">
         <v>44977</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="8">
         <v>44977</v>
@@ -2779,43 +2854,46 @@
         <v>9</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="11">
         <v>44977</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="8">
         <v>44977</v>
@@ -2827,40 +2905,43 @@
         <v>7</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="11">
         <v>44977</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="8">
         <v>44977</v>
@@ -2869,43 +2950,46 @@
         <v>9</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="11">
         <v>44977</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="8">
         <v>44977</v>
@@ -2919,35 +3003,41 @@
       <c r="I37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="11">
         <v>44977</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="8">
         <v>44977</v>
@@ -2956,40 +3046,43 @@
         <v>9</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="11">
         <v>44977</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="8">
         <v>44977</v>
@@ -2998,43 +3091,43 @@
         <v>9</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="11">
         <v>44977</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8">
         <v>44977</v>
@@ -3048,746 +3141,815 @@
       <c r="I40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="J40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="11">
+        <v>44977</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44977</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="11">
-        <v>44994</v>
-      </c>
-      <c r="D41" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="16">
-        <v>44993</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="5">
-        <v>1</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="11">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="F42" s="16">
         <v>44993</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="5">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5">
-        <v>1</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="11">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="16">
         <v>44993</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="5">
-        <v>1</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="11">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F44" s="16">
         <v>44993</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="5">
-        <v>1</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="11">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F45" s="16">
         <v>44993</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5">
-        <v>1</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="11">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="16">
         <v>44993</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5">
-        <v>1</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="11">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="16">
         <v>44993</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="5">
-        <v>1</v>
-      </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5">
-        <v>1</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C48" s="11">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="16">
         <v>44993</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="5">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5">
-        <v>1</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="11">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" s="16">
         <v>44993</v>
       </c>
-      <c r="J49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="5">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5">
-        <v>1</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50" s="11">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="16">
         <v>44993</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="5">
-        <v>1</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5">
-        <v>1</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C51" s="11">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="11">
+        <v>167</v>
+      </c>
+      <c r="F51" s="16">
         <v>44993</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="5">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5">
-        <v>1</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="11">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F52" s="11">
         <v>44993</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="5">
-        <v>1</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5">
-        <v>1</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C53" s="11">
         <v>44994</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F53" s="11">
         <v>44993</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="11">
         <v>44994</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F54" s="11">
         <v>44993</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="5">
-        <v>1</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5">
-        <v>1</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="11">
         <v>44994</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F55" s="11">
         <v>44993</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="5">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="11">
         <v>44994</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F56" s="11">
         <v>44993</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="5">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5">
-        <v>1</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C57" s="11">
         <v>44994</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F57" s="11">
         <v>44993</v>
       </c>
-      <c r="J57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="5">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5">
-        <v>1</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="5" t="s">
+      <c r="J57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="11">
+        <v>44994</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="11">
+        <v>44993</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>241</v>
-      </c>
-      <c r="C58" s="11">
-        <v>45005</v>
-      </c>
-      <c r="D58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F58" s="11">
-        <v>45004</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="5">
-        <v>1</v>
-      </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C59" s="11">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F59" s="11">
-        <v>37334</v>
+        <v>45004</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C60" s="11">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" s="11">
         <v>37334</v>
@@ -3795,35 +3957,38 @@
       <c r="I60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C61" s="11">
         <v>45005</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" s="11">
         <v>37334</v>
@@ -3831,99 +3996,108 @@
       <c r="I61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="K61" s="5">
-        <v>0</v>
-      </c>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="E62" t="s">
-        <v>224</v>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="F62" s="11">
         <v>37334</v>
       </c>
       <c r="I62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="K62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="E63" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="11">
+        <v>37334</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K62" s="5">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="5" t="s">
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="11">
-        <v>45005</v>
-      </c>
-      <c r="D63" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="11">
-        <v>45005</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="5">
-        <v>1</v>
-      </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B64" t="s">
-        <v>242</v>
+      <c r="B64" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C64" s="11">
         <v>45005</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F64" s="11">
         <v>45005</v>
@@ -3931,120 +4105,142 @@
       <c r="I64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="5">
-        <v>1</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C65" s="11">
         <v>45005</v>
       </c>
       <c r="D65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="11">
+        <v>45005</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="5">
+        <v>1</v>
+      </c>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="11">
+        <v>45005</v>
+      </c>
+      <c r="D66" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E66" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>45004</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="5" t="s">
+      <c r="I66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K65" s="5">
-        <v>1</v>
-      </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B67" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D67" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E67" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F67" s="24">
         <v>45014</v>
       </c>
-      <c r="I66" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" t="s">
-        <v>284</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="11">
-        <v>45014</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I67" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F68" s="11">
         <v>45014</v>
@@ -4052,25 +4248,28 @@
       <c r="I68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O68" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F69" s="11">
         <v>45014</v>
@@ -4078,25 +4277,28 @@
       <c r="I69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F70" s="11">
         <v>45014</v>
@@ -4104,25 +4306,28 @@
       <c r="I70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F71" s="11">
         <v>45014</v>
@@ -4130,25 +4335,28 @@
       <c r="I71" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F72" s="11">
         <v>45014</v>
@@ -4156,25 +4364,28 @@
       <c r="I72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" s="11">
         <v>45014</v>
@@ -4182,25 +4393,28 @@
       <c r="I73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F74" s="11">
         <v>45014</v>
@@ -4208,25 +4422,28 @@
       <c r="I74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F75" s="11">
         <v>45014</v>
@@ -4234,183 +4451,233 @@
       <c r="I75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>260</v>
+        <v>275</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="F76" s="11">
         <v>45014</v>
       </c>
       <c r="I76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J76" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F77" s="11">
         <v>45014</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O77" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>262</v>
+        <v>277</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="F78" s="11">
         <v>45014</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J78" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F79" s="11">
         <v>45014</v>
       </c>
       <c r="I79" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R79" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F80" s="11">
         <v>45014</v>
       </c>
       <c r="I80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="F81" s="11">
         <v>45014</v>
       </c>
       <c r="I81" t="s">
-        <v>9</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R81" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F82" s="11">
+        <v>45014</v>
+      </c>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P82" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E23:E40">
+  <conditionalFormatting sqref="E24:E41">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53 E41 E50">
+  <conditionalFormatting sqref="E54 E42 E51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/Rejection_Choice-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/Rejection_Choice-main 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C12066-0340-9C49-AA5D-0A8A7AAC8625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E3645-5FA1-FE4D-9289-4A2494E5CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-740" yWindow="760" windowWidth="26800" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="24320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="322">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -946,6 +946,60 @@
   </si>
   <si>
     <t>filter_directory?</t>
+  </si>
+  <si>
+    <t>5/11/23 - completed via cloned repo</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>63d457e6518149adae9202cd</t>
+  </si>
+  <si>
+    <t>63ea4ab1ce4168cbe9f63775</t>
+  </si>
+  <si>
+    <t>60fd89617258b322c92fdd03</t>
+  </si>
+  <si>
+    <t>64023a98627b1116180dff0b</t>
+  </si>
+  <si>
+    <t>6321d7404a95a42175d1243d</t>
+  </si>
+  <si>
+    <t>R_2awMpgFmv539awy</t>
+  </si>
+  <si>
+    <t>R_3KAyhl3zMK3hkcw</t>
+  </si>
+  <si>
+    <t>R_ONhwZ5WeRdGr5VT</t>
+  </si>
+  <si>
+    <t>R_3e2bPex5zjc46N7</t>
+  </si>
+  <si>
+    <t>R_3MhWtOQUQrSR7pc</t>
+  </si>
+  <si>
+    <t>R_1IKkrbBTKkaUEgy</t>
+  </si>
+  <si>
+    <t>R_XIiN3EYLAEONxwB</t>
+  </si>
+  <si>
+    <t>R_2VEC6DSWGNIzB6H</t>
+  </si>
+  <si>
+    <t>R_xFrE8uSoqAWmGRj</t>
+  </si>
+  <si>
+    <t>R_PSa8dbyC520Hu1z</t>
+  </si>
+  <si>
+    <t>need to contact for 3 new photos of self; only uploaded 2 pics of self</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1063,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,12 +1082,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1047,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1073,21 +1121,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1322,13 +1414,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1452,7 +1544,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f>COUNTA(B2:B998)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U2" s="1">
         <f>COUNTIF(S2:S998, "y")</f>
@@ -2106,9 +2198,7 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="5">
         <v>0</v>
       </c>
@@ -4200,32 +4290,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" t="s">
         <v>283</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="11">
         <v>45014</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P67" s="21" t="s">
+      <c r="K67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4236,10 +4326,10 @@
       <c r="B68" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="14" t="s">
         <v>251</v>
       </c>
       <c r="F68" s="11">
@@ -4265,10 +4355,10 @@
       <c r="B69" t="s">
         <v>285</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="14" t="s">
         <v>252</v>
       </c>
       <c r="F69" s="11">
@@ -4283,7 +4373,7 @@
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P69" s="20" t="s">
+      <c r="P69" s="18" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4294,10 +4384,10 @@
       <c r="B70" t="s">
         <v>286</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" t="s">
         <v>269</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="14" t="s">
         <v>253</v>
       </c>
       <c r="F70" s="11">
@@ -4323,10 +4413,10 @@
       <c r="B71" t="s">
         <v>287</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="14" t="s">
         <v>254</v>
       </c>
       <c r="F71" s="11">
@@ -4352,10 +4442,10 @@
       <c r="B72" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="14" t="s">
         <v>255</v>
       </c>
       <c r="F72" s="11">
@@ -4381,10 +4471,10 @@
       <c r="B73" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="14" t="s">
         <v>256</v>
       </c>
       <c r="F73" s="11">
@@ -4410,10 +4500,10 @@
       <c r="B74" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="14" t="s">
         <v>257</v>
       </c>
       <c r="F74" s="11">
@@ -4439,10 +4529,10 @@
       <c r="B75" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="14" t="s">
         <v>258</v>
       </c>
       <c r="F75" s="11">
@@ -4468,10 +4558,10 @@
       <c r="B76" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="14" t="s">
         <v>259</v>
       </c>
       <c r="F76" s="11">
@@ -4497,10 +4587,10 @@
       <c r="B77" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="15" t="s">
         <v>260</v>
       </c>
       <c r="F77" s="11">
@@ -4529,10 +4619,10 @@
       <c r="B78" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" t="s">
         <v>277</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="14" t="s">
         <v>261</v>
       </c>
       <c r="F78" s="11">
@@ -4558,10 +4648,10 @@
       <c r="B79" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="14" t="s">
         <v>262</v>
       </c>
       <c r="F79" s="11">
@@ -4590,10 +4680,10 @@
       <c r="B80" t="s">
         <v>296</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" t="s">
         <v>279</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="14" t="s">
         <v>263</v>
       </c>
       <c r="F80" s="11">
@@ -4605,9 +4695,7 @@
       <c r="J80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="K80" s="5"/>
       <c r="P80" s="5" t="s">
         <v>9</v>
       </c>
@@ -4619,10 +4707,10 @@
       <c r="B81" t="s">
         <v>297</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" t="s">
         <v>280</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="14" t="s">
         <v>264</v>
       </c>
       <c r="F81" s="11">
@@ -4651,10 +4739,10 @@
       <c r="B82" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" t="s">
         <v>282</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" t="s">
         <v>281</v>
       </c>
       <c r="F82" s="11">
@@ -4669,15 +4757,198 @@
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
       <c r="P82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D83" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="11">
+        <v>45009</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F84" s="11">
+        <v>45009</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B85" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D85" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85" s="11">
+        <v>45009</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="11">
+        <v>45009</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="11">
+        <v>45010</v>
+      </c>
+      <c r="D87" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" s="11">
+        <v>45009</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="P88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P89" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P90" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P91" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P92" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E24:E41">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54 E42 E51">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54 E42 E51">
+  <conditionalFormatting sqref="B87">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/Rejection_Choice-main 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E3645-5FA1-FE4D-9289-4A2494E5CBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82245C38-7AAE-0849-B665-30B47338628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="24320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="16300" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="339">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1000,6 +1000,57 @@
   </si>
   <si>
     <t>need to contact for 3 new photos of self; only uploaded 2 pics of self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missed 11 trials </t>
+  </si>
+  <si>
+    <t>60ff1a1450c5e5c8fe6922d1</t>
+  </si>
+  <si>
+    <t>5fd18d125e1f92195b1717bc</t>
+  </si>
+  <si>
+    <t>61006f43a84b82fb439d7cba</t>
+  </si>
+  <si>
+    <t>6129cc7a565c9c03752802fa</t>
+  </si>
+  <si>
+    <t>62f13dc95cf68f5d1182f495</t>
+  </si>
+  <si>
+    <t>595727bd7c76640001aa8f6e</t>
+  </si>
+  <si>
+    <t>62a1ed3d1357f3e033ae44f9</t>
+  </si>
+  <si>
+    <t>63d5e3bf4a739d1158b9ce64</t>
+  </si>
+  <si>
+    <t>612e6569f68929afb886fb5c</t>
+  </si>
+  <si>
+    <t>615a084387075364a7462335</t>
+  </si>
+  <si>
+    <t>61084dbab48ab21fce452554</t>
+  </si>
+  <si>
+    <t>605e52035e8254058df590fa</t>
+  </si>
+  <si>
+    <t>610745dee13497549c9d6fba</t>
+  </si>
+  <si>
+    <t>602c1f715e466a4985a5776f</t>
+  </si>
+  <si>
+    <t>5d8e64ab4e055600157a3d90</t>
+  </si>
+  <si>
+    <t>61002b174a64f106fb46f6a0</t>
   </si>
 </sst>
 </file>
@@ -1095,23 +1146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1124,6 +1166,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,13 +1469,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1428,15 +1483,14 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="8" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
-    <col min="12" max="14" width="25.5" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" style="20" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="25.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.83203125" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
   </cols>
@@ -1472,7 +1526,7 @@
       <c r="J1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1493,7 +1547,7 @@
       <c r="Q1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -1510,15 +1564,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1"/>
@@ -1534,13 +1588,12 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="7"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f>COUNTA(B2:B998)</f>
@@ -1556,18 +1609,18 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1580,31 +1633,31 @@
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="18" t="s">
         <v>87</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1617,26 +1670,25 @@
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="18" t="s">
         <v>87</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="7"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1645,20 +1697,19 @@
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1667,22 +1718,21 @@
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1691,37 +1741,36 @@
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>44873</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>44872</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1730,7 +1779,7 @@
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L8">
@@ -1739,39 +1788,39 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <v>2</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>44873</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>44872</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1780,14 +1829,14 @@
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="K9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="P9">
@@ -1796,16 +1845,15 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>44881</v>
       </c>
       <c r="D10" t="s">
@@ -1814,7 +1862,7 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>44879</v>
       </c>
       <c r="G10" t="s">
@@ -1829,14 +1877,14 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="K10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
       <c r="P10">
@@ -1847,13 +1895,13 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>44881</v>
       </c>
       <c r="D11" t="s">
@@ -1862,13 +1910,13 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>44879</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1877,14 +1925,14 @@
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
+      <c r="K11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
       <c r="P11">
@@ -1895,13 +1943,13 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>44881</v>
       </c>
       <c r="D12" t="s">
@@ -1910,13 +1958,13 @@
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>44879</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1925,14 +1973,14 @@
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
+      <c r="K12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
       <c r="P12">
@@ -1943,13 +1991,13 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>44958</v>
       </c>
       <c r="D13" t="s">
@@ -1958,13 +2006,13 @@
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>44958</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1973,14 +2021,14 @@
       <c r="J13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
+      <c r="K13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
       <c r="Q13">
@@ -1988,7 +2036,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B14" t="s">
@@ -2000,29 +2048,29 @@
       <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>44959</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
+      <c r="K14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>1</v>
       </c>
       <c r="P14">
@@ -2031,12 +2079,12 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
@@ -2048,13 +2096,13 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>44959</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2063,14 +2111,14 @@
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="K15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>1</v>
       </c>
       <c r="P15">
@@ -2081,7 +2129,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
@@ -2093,13 +2141,13 @@
       <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>44959</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2108,14 +2156,14 @@
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="K16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>1</v>
       </c>
       <c r="P16">
@@ -2126,7 +2174,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
@@ -2138,13 +2186,13 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>44959</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -2153,14 +2201,14 @@
       <c r="J17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5">
+      <c r="K17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="P17">
@@ -2171,7 +2219,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B18" t="s">
@@ -2180,16 +2228,16 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>44967</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2198,12 +2246,12 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
+      <c r="K18" s="18"/>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>1</v>
       </c>
       <c r="P18">
@@ -2212,12 +2260,12 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B19" t="s">
@@ -2226,16 +2274,16 @@
       <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>44967</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2244,14 +2292,14 @@
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5">
+      <c r="K19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>1</v>
       </c>
       <c r="P19">
@@ -2260,12 +2308,12 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B20" t="s">
@@ -2274,16 +2322,16 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>44967</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2292,14 +2340,14 @@
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
+      <c r="K20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="P20">
@@ -2310,7 +2358,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B21" t="s">
@@ -2319,16 +2367,16 @@
       <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>44967</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2337,14 +2385,14 @@
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5">
+      <c r="K21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>1</v>
       </c>
       <c r="P21">
@@ -2358,7 +2406,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
@@ -2367,16 +2415,16 @@
       <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>44967</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2385,19 +2433,19 @@
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="s">
+      <c r="K22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="5"/>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4"/>
       <c r="P22">
         <v>3</v>
       </c>
@@ -2409,7 +2457,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B23" t="s">
@@ -2418,16 +2466,16 @@
       <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>44967</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2436,14 +2484,14 @@
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5">
+      <c r="K23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
         <v>1</v>
       </c>
       <c r="P23">
@@ -2454,28 +2502,28 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>44977</v>
       </c>
       <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>44977</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2484,14 +2532,14 @@
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5">
+      <c r="K24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>1</v>
       </c>
       <c r="Q24">
@@ -2502,28 +2550,28 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>44977</v>
       </c>
       <c r="D25" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>44977</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2532,14 +2580,14 @@
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5">
+      <c r="K25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>1</v>
       </c>
       <c r="Q25">
@@ -2547,28 +2595,28 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>44977</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>44977</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2577,14 +2625,14 @@
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5">
+      <c r="K26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
         <v>1</v>
       </c>
       <c r="Q26">
@@ -2595,28 +2643,28 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>44977</v>
       </c>
       <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>44977</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2625,62 +2673,62 @@
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="K27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>44977</v>
       </c>
       <c r="D28" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>44977</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5">
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="Q28">
@@ -2691,44 +2739,44 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>44977</v>
       </c>
       <c r="D29" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>44977</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5">
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="Q29">
@@ -2739,44 +2787,44 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>44977</v>
       </c>
       <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>44977</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="K30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>1</v>
       </c>
       <c r="Q30">
@@ -2784,92 +2832,92 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>44977</v>
       </c>
       <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>44977</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5">
+      <c r="K31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>1</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>44977</v>
       </c>
       <c r="D32" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>44977</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5">
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="Q32">
@@ -2877,44 +2925,44 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>44977</v>
       </c>
       <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>44977</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="H33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5">
+      <c r="K33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>1</v>
       </c>
       <c r="Q33">
@@ -2922,140 +2970,140 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>44977</v>
       </c>
       <c r="D34" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>44977</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="H34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5">
+      <c r="K34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
         <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>44977</v>
       </c>
       <c r="D35" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>44977</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5">
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>44977</v>
       </c>
       <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>44977</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5">
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="Q36">
@@ -3066,92 +3114,92 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>44977</v>
       </c>
       <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>44977</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="H37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="K37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>44977</v>
       </c>
       <c r="D38" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>44977</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="H38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="5">
-        <v>1</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5">
+      <c r="K38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>1</v>
       </c>
       <c r="Q38">
@@ -3159,44 +3207,44 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>44977</v>
       </c>
       <c r="D39" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>44977</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <v>0</v>
       </c>
       <c r="Q39">
@@ -3204,92 +3252,92 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>44977</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <v>44977</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="H40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5">
+      <c r="K40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
         <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>44977</v>
       </c>
       <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>44977</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="5" t="s">
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="5">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5">
+      <c r="K41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>1</v>
       </c>
       <c r="Q41">
@@ -3300,80 +3348,80 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B42" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <v>44993</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5">
-        <v>1</v>
-      </c>
-      <c r="P42" s="5" t="s">
+      <c r="K42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B43" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>44993</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="P43" s="5" t="s">
+      <c r="K43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q43">
@@ -3381,80 +3429,80 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B44" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="8">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="13">
         <v>44993</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5" t="s">
+      <c r="K44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B45" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="13">
         <v>44993</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5">
-        <v>1</v>
-      </c>
-      <c r="P45" s="5" t="s">
+      <c r="K45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q45">
@@ -3462,164 +3510,164 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B46" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>44993</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
-        <v>1</v>
-      </c>
-      <c r="P46" s="5" t="s">
+      <c r="K46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B47" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="13">
         <v>44993</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5">
-        <v>1</v>
-      </c>
-      <c r="P47" s="5" t="s">
+      <c r="K47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B48" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
         <v>183</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="13">
         <v>44993</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5">
-        <v>1</v>
-      </c>
-      <c r="P48" s="5" t="s">
+      <c r="K48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B49" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="8">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
         <v>184</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="13">
         <v>44993</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="5">
-        <v>1</v>
-      </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5">
-        <v>1</v>
-      </c>
-      <c r="P49" s="5" t="s">
+      <c r="K49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q49">
@@ -3627,38 +3675,38 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
         <v>185</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="13">
         <v>44993</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5">
-        <v>1</v>
-      </c>
-      <c r="P50" s="5" t="s">
+      <c r="K50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q50">
@@ -3666,38 +3714,38 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B51" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="13">
         <v>44993</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="5">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5">
-        <v>1</v>
-      </c>
-      <c r="P51" s="5" t="s">
+      <c r="K51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q51">
@@ -3705,38 +3753,38 @@
       </c>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="8">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="8">
         <v>44993</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="5">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5">
-        <v>1</v>
-      </c>
-      <c r="P52" s="5" t="s">
+      <c r="K52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q52">
@@ -3744,38 +3792,38 @@
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B53" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="8">
         <v>44994</v>
       </c>
       <c r="D53" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="8">
         <v>44993</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="5">
-        <v>1</v>
-      </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5" t="s">
+      <c r="K53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q53">
@@ -3786,80 +3834,80 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B54" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="8">
         <v>44994</v>
       </c>
       <c r="D54" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="8">
         <v>44993</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1</v>
-      </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5">
-        <v>1</v>
-      </c>
-      <c r="P54" s="5" t="s">
+      <c r="K54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
-      <c r="R54" s="5" t="s">
+      <c r="R54" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B55" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="8">
         <v>44994</v>
       </c>
       <c r="D55" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="8">
         <v>44993</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1</v>
-      </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5" t="s">
+      <c r="K55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q55">
@@ -3867,38 +3915,38 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B56" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="8">
         <v>44994</v>
       </c>
       <c r="D56" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="8">
         <v>44993</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="5">
-        <v>1</v>
-      </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5">
-        <v>1</v>
-      </c>
-      <c r="P56" s="5" t="s">
+      <c r="K56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q56">
@@ -3906,38 +3954,38 @@
       </c>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B57" t="s">
         <v>210</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="8">
         <v>44994</v>
       </c>
       <c r="D57" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="8">
         <v>44993</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="5">
-        <v>1</v>
-      </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5">
-        <v>1</v>
-      </c>
-      <c r="P57" s="5" t="s">
+      <c r="K57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q57">
@@ -3945,80 +3993,80 @@
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B58" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="8">
         <v>44994</v>
       </c>
       <c r="D58" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="8">
         <v>44993</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" s="5">
-        <v>1</v>
-      </c>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5">
-        <v>1</v>
-      </c>
-      <c r="P58" s="5" t="s">
+      <c r="K58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q58">
         <v>1</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="R58" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B59" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="8">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="8">
         <v>45004</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="5">
-        <v>1</v>
-      </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5">
+      <c r="K59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>1</v>
       </c>
       <c r="Q59">
@@ -4026,38 +4074,38 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="8">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="8">
         <v>37334</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L60" s="5">
-        <v>1</v>
-      </c>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5">
+      <c r="K60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4">
         <v>1</v>
       </c>
       <c r="Q60">
@@ -4065,38 +4113,38 @@
       </c>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B61" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="8">
         <v>45005</v>
       </c>
       <c r="D61" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="8">
         <v>37334</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61" s="5">
-        <v>1</v>
-      </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5">
+      <c r="K61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
         <v>1</v>
       </c>
       <c r="Q61">
@@ -4104,38 +4152,38 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B62" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="8">
         <v>45005</v>
       </c>
       <c r="D62" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="8">
         <v>37334</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5">
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="Q62">
@@ -4143,69 +4191,69 @@
       </c>
     </row>
     <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
+      <c r="A63" s="4"/>
       <c r="E63" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="8">
         <v>37334</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5">
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <v>0</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="R63" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="8">
         <v>45005</v>
       </c>
       <c r="D64" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="8">
         <v>45005</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="5">
-        <v>1</v>
-      </c>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5">
+      <c r="K64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <v>1</v>
       </c>
       <c r="Q64">
@@ -4213,38 +4261,38 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="8">
         <v>45005</v>
       </c>
       <c r="D65" t="s">
         <v>233</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="8">
         <v>45005</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="5">
-        <v>1</v>
-      </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5">
+      <c r="K65" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>1</v>
       </c>
       <c r="Q65">
@@ -4252,38 +4300,38 @@
       </c>
     </row>
     <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="8">
         <v>45005</v>
       </c>
       <c r="D66" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="8">
         <v>45004</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="L66" s="5">
-        <v>1</v>
-      </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5">
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>1</v>
       </c>
       <c r="Q66">
@@ -4291,7 +4339,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B67" t="s">
@@ -4300,27 +4348,27 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="8">
         <v>45014</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P67" s="5" t="s">
+      <c r="K67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B68" t="s">
@@ -4329,27 +4377,27 @@
       <c r="D68" t="s">
         <v>266</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="8">
         <v>45014</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P68" s="5" t="s">
+      <c r="K68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P68" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B69" t="s">
@@ -4358,27 +4406,27 @@
       <c r="D69" t="s">
         <v>267</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="8">
         <v>45014</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P69" s="18" t="s">
+      <c r="K69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P69" s="15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B70" t="s">
@@ -4387,27 +4435,27 @@
       <c r="D70" t="s">
         <v>269</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="8">
         <v>45014</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P70" s="5" t="s">
+      <c r="K70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B71" t="s">
@@ -4416,27 +4464,27 @@
       <c r="D71" t="s">
         <v>270</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="8">
         <v>45014</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P71" s="5" t="s">
+      <c r="K71" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B72" t="s">
@@ -4445,27 +4493,27 @@
       <c r="D72" t="s">
         <v>271</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="8">
         <v>45014</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P72" s="5" t="s">
+      <c r="K72" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B73" t="s">
@@ -4474,27 +4522,27 @@
       <c r="D73" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="8">
         <v>45014</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P73" s="5" t="s">
+      <c r="K73" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P73" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B74" t="s">
@@ -4503,27 +4551,27 @@
       <c r="D74" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="8">
         <v>45014</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P74" s="5" t="s">
+      <c r="K74" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P74" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B75" t="s">
@@ -4532,27 +4580,27 @@
       <c r="D75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="8">
         <v>45014</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P75" s="5" t="s">
+      <c r="K75" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P75" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B76" t="s">
@@ -4561,27 +4609,27 @@
       <c r="D76" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="8">
         <v>45014</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P76" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
+      <c r="K76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B77" t="s">
@@ -4590,22 +4638,22 @@
       <c r="D77" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="8">
         <v>45014</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="P77" s="5" t="s">
+      <c r="P77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R77" t="s">
@@ -4613,7 +4661,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B78" t="s">
@@ -4622,27 +4670,27 @@
       <c r="D78" t="s">
         <v>277</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="8">
         <v>45014</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P78" s="5" t="s">
+      <c r="K78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P78" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B79" t="s">
@@ -4651,10 +4699,10 @@
       <c r="D79" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="8">
         <v>45014</v>
       </c>
       <c r="I79" t="s">
@@ -4663,18 +4711,18 @@
       <c r="J79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K79" s="5" t="s">
+      <c r="K79" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="P79" s="5" t="s">
+      <c r="P79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R79" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B80" t="s">
@@ -4683,10 +4731,10 @@
       <c r="D80" t="s">
         <v>279</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="8">
         <v>45014</v>
       </c>
       <c r="I80" t="s">
@@ -4695,13 +4743,13 @@
       <c r="J80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="P80" s="5" t="s">
+      <c r="K80" s="19"/>
+      <c r="P80" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B81" t="s">
@@ -4710,10 +4758,10 @@
       <c r="D81" t="s">
         <v>280</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="8">
         <v>45014</v>
       </c>
       <c r="I81" t="s">
@@ -4722,10 +4770,10 @@
       <c r="J81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K81" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="P81" s="5" t="s">
+      <c r="P81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R81" t="s">
@@ -4733,7 +4781,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B82" t="s">
@@ -4745,7 +4793,7 @@
       <c r="E82" t="s">
         <v>281</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="8">
         <v>45014</v>
       </c>
       <c r="I82" t="s">
@@ -4754,7 +4802,7 @@
       <c r="J82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L82">
@@ -4763,170 +4811,308 @@
       <c r="N82">
         <v>1</v>
       </c>
-      <c r="P82" s="5" t="s">
+      <c r="P82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q82">
         <v>1</v>
       </c>
-      <c r="R82" s="5" t="s">
+      <c r="R82" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="19" t="s">
+    <row r="83" spans="1:18" ht="42" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="11">
-        <v>45010</v>
+      <c r="C83" s="8">
+        <v>45070</v>
       </c>
       <c r="D83" t="s">
         <v>311</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="8">
         <v>45009</v>
       </c>
-      <c r="K83" s="5" t="s">
+      <c r="K83" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="P83" s="5" t="s">
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B84" t="s">
         <v>317</v>
       </c>
-      <c r="C84" s="11">
-        <v>45010</v>
+      <c r="C84" s="8">
+        <v>45070</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="8">
         <v>45009</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P84" s="5" t="s">
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B85" t="s">
         <v>318</v>
       </c>
-      <c r="C85" s="11">
-        <v>45010</v>
+      <c r="C85" s="8">
+        <v>45070</v>
       </c>
       <c r="D85" t="s">
         <v>313</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="8">
         <v>45009</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K85" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P85" s="5" t="s">
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B86" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="11">
-        <v>45010</v>
+      <c r="C86" s="8">
+        <v>45070</v>
       </c>
       <c r="D86" t="s">
         <v>314</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="8">
         <v>45009</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P86" s="5" t="s">
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="P86" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B87" t="s">
         <v>320</v>
       </c>
-      <c r="C87" s="11">
-        <v>45010</v>
+      <c r="C87" s="8">
+        <v>45070</v>
       </c>
       <c r="D87" t="s">
         <v>315</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="8">
         <v>45009</v>
       </c>
-      <c r="K87" s="5" t="s">
+      <c r="K87" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="P87" s="5" t="s">
-        <v>9</v>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
-      <c r="P88" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="C88" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E88" t="s">
+        <v>323</v>
+      </c>
+      <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P89" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C89" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E89" t="s">
+        <v>324</v>
+      </c>
+      <c r="P89" s="4"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P90" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C90" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E90" t="s">
+        <v>325</v>
+      </c>
+      <c r="P90" s="4"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P91" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="C91" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E91" t="s">
+        <v>326</v>
+      </c>
+      <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P92" s="5" t="s">
-        <v>9</v>
+      <c r="C92" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E92" t="s">
+        <v>327</v>
+      </c>
+      <c r="P92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E94" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E100" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E101" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E102" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="8">
+        <v>45082</v>
+      </c>
+      <c r="E103" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82245C38-7AAE-0849-B665-30B47338628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2EF13-7EFC-3342-8F96-9E64B62C2828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="760" windowWidth="16300" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16340" yWindow="2340" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="377">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1051,6 +1038,120 @@
   </si>
   <si>
     <t>61002b174a64f106fb46f6a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatlined from AQ_14-18, 33-36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flatlined from AQ_19-22 and SCS_1-6 </t>
+  </si>
+  <si>
+    <t>R_2WI1ZcAhiPZEWJk</t>
+  </si>
+  <si>
+    <t>R_3oLXnNQXyUAtdUv</t>
+  </si>
+  <si>
+    <t>R_11X96cJ5YkT9Idc</t>
+  </si>
+  <si>
+    <t>R_0MMJik8ROrQwjXb</t>
+  </si>
+  <si>
+    <t>R_2f6sBMR0OkLEFdA</t>
+  </si>
+  <si>
+    <t>R_tQiQ8AV4JwpetMd</t>
+  </si>
+  <si>
+    <t>R_5hcgoIAIrdpRnBD</t>
+  </si>
+  <si>
+    <t>R_3ssjJhOCBMamfWm</t>
+  </si>
+  <si>
+    <t>R_OJp63UmMNzYwIdb</t>
+  </si>
+  <si>
+    <t>R_1mrrlYcOiMZT9sP</t>
+  </si>
+  <si>
+    <t>R_1jTyl83cB4leN0y</t>
+  </si>
+  <si>
+    <t>R_3st7HodBVfKBO1W</t>
+  </si>
+  <si>
+    <t>R_21yUVSiJhXD8Nza</t>
+  </si>
+  <si>
+    <t>R_4YGw381UcVbM29X</t>
+  </si>
+  <si>
+    <t>R_3koGtlT5xjYmjKO</t>
+  </si>
+  <si>
+    <t>R_Y0k1eVb9ztdcMUx</t>
+  </si>
+  <si>
+    <t>R_ywoeZRjCIR22WBP</t>
+  </si>
+  <si>
+    <t>R_2wn7Zst2ZACPSmk</t>
+  </si>
+  <si>
+    <t>R_2rMZ4SeGPrJP1Xb</t>
+  </si>
+  <si>
+    <t>R_1dbi2vWUSGEcMVs</t>
+  </si>
+  <si>
+    <t>R_SUmAxY6kPvEaOQh</t>
+  </si>
+  <si>
+    <t>R_1d5p2oBOYtQfFGi</t>
+  </si>
+  <si>
+    <t>R_2WAzx6bnCoRq9o9</t>
+  </si>
+  <si>
+    <t>R_20PybssV5Z3C9iM</t>
+  </si>
+  <si>
+    <t>R_3CIy28bZBKqzn5G</t>
+  </si>
+  <si>
+    <t>R_5A2i31kzQrTUd69</t>
+  </si>
+  <si>
+    <t>R_1FsHAhu9EXQ5TmS</t>
+  </si>
+  <si>
+    <t>R_2tgIK0jKoSmTvqN</t>
+  </si>
+  <si>
+    <t>R_vVSuE0vXYxESpVv</t>
+  </si>
+  <si>
+    <t>R_3khTEPxyDSF9LLU</t>
+  </si>
+  <si>
+    <t>kept first set of responses</t>
+  </si>
+  <si>
+    <t>changed photo17 w/ photo31 - photos were too similar</t>
+  </si>
+  <si>
+    <t>R_OwZntD3wiJ8Iklr</t>
+  </si>
+  <si>
+    <t>no photos of themselves</t>
+  </si>
+  <si>
+    <t>photo2 repalced w/ photo31</t>
+  </si>
+  <si>
+    <t>no photos</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,7 +1279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,10 +1575,10 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomRight" activeCell="C92" sqref="C92:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1483,15 +1586,19 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" style="20" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="25.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1597,7 +1704,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f>COUNTA(B2:B998)</f>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="U2" s="1">
         <f>COUNTIF(S2:S998, "y")</f>
@@ -4822,10 +4929,10 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="42" x14ac:dyDescent="0.15">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="22" t="s">
         <v>316</v>
       </c>
       <c r="C83" s="8">
@@ -4834,7 +4941,7 @@
       <c r="D83" t="s">
         <v>311</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="22" t="s">
         <v>306</v>
       </c>
       <c r="F83" s="8">
@@ -4863,7 +4970,7 @@
       <c r="D84" t="s">
         <v>312</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="22" t="s">
         <v>307</v>
       </c>
       <c r="F84" s="8">
@@ -4895,7 +5002,7 @@
       <c r="D85" t="s">
         <v>313</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="22" t="s">
         <v>308</v>
       </c>
       <c r="F85" s="8">
@@ -4927,7 +5034,7 @@
       <c r="D86" t="s">
         <v>314</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="22" t="s">
         <v>309</v>
       </c>
       <c r="F86" s="8">
@@ -4959,7 +5066,7 @@
       <c r="D87" t="s">
         <v>315</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="22" t="s">
         <v>310</v>
       </c>
       <c r="F87" s="8">
@@ -4982,137 +5089,390 @@
       </c>
     </row>
     <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
+      <c r="A88" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="C88" s="8">
         <v>45082</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="P88" s="4"/>
+      <c r="K88" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R88" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>358</v>
+      </c>
       <c r="C89" s="8">
         <v>45082</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="P89" s="4"/>
+      <c r="K89" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R89" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="C90" s="8">
         <v>45082</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="P90" s="4"/>
+      <c r="K90" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>373</v>
+      </c>
       <c r="C91" s="8">
         <v>45082</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="P91" s="4"/>
+      <c r="K91" t="s">
+        <v>374</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R91" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>360</v>
+      </c>
       <c r="C92" s="8">
         <v>45082</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="P92" s="4"/>
+      <c r="K92" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>361</v>
+      </c>
       <c r="C93" s="8">
         <v>45082</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>328</v>
       </c>
+      <c r="K93" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="C94" s="8">
         <v>45082</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94" s="14" t="s">
         <v>329</v>
       </c>
+      <c r="K94" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R94" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="C95" s="8">
         <v>45082</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>330</v>
       </c>
+      <c r="K95" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R95" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="C96" s="8">
         <v>45082</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="D96" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" s="23" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K96" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="C97" s="8">
         <v>45082</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E97" s="14" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K97" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="C98" s="8">
         <v>45082</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E98" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K98" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="14"/>
       <c r="C99" s="8">
         <v>45082</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="D99" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E99" s="23" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="100" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K99" t="s">
+        <v>376</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="C100" s="8">
         <v>45082</v>
       </c>
-      <c r="E100" t="s">
+      <c r="D100" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" s="14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="101" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K100" t="s">
+        <v>374</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R100" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="C101" s="8">
         <v>45082</v>
       </c>
-      <c r="E101" t="s">
+      <c r="D101" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" s="14" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="102" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K101" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R101" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>369</v>
+      </c>
       <c r="C102" s="8">
         <v>45082</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E102" s="14" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="103" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K102" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="C103" s="8">
         <v>45082</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E103" s="14" t="s">
         <v>338</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2EF13-7EFC-3342-8F96-9E64B62C2828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70164C-7597-E949-AA28-8CCBF78B1D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="2340" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18160" yWindow="0" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="383">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -761,9 +774,6 @@
     <t>post-task survey</t>
   </si>
   <si>
-    <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID, may have done pavlovia task very delayed</t>
-  </si>
-  <si>
     <t>surveys_missing</t>
   </si>
   <si>
@@ -1152,13 +1162,34 @@
   </si>
   <si>
     <t>no photos</t>
+  </si>
+  <si>
+    <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID, may have done pavlovia task very delayed, missing rejection condition</t>
+  </si>
+  <si>
+    <t>n (missed 11 trials)</t>
+  </si>
+  <si>
+    <t>included in analysis</t>
+  </si>
+  <si>
+    <t>twice??</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1214,6 +1245,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1247,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1279,14 +1316,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="4" tint="-0.499984740745262"/>
@@ -1325,26 +1381,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1572,13 +1608,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C92" sqref="C92:F92"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1586,23 +1622,24 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="20" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1631,7 +1668,7 @@
         <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>31</v>
@@ -1640,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>245</v>
@@ -1652,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>50</v>
@@ -1669,8 +1706,14 @@
       <c r="V1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1715,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1752,7 +1795,7 @@
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +1829,7 @@
       </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1830,7 +1873,7 @@
       </c>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1855,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1904,8 +1947,14 @@
       <c r="R8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1952,8 +2001,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2000,8 +2055,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2048,8 +2106,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2096,8 +2157,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -2141,8 +2205,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -2189,8 +2256,11 @@
       <c r="R14" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2234,8 +2304,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -2279,8 +2352,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -2324,8 +2400,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
@@ -2353,7 +2432,9 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
@@ -2368,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2418,8 +2499,11 @@
       <c r="R19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -2463,8 +2547,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -2511,8 +2598,11 @@
       <c r="R21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
@@ -2547,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
@@ -2562,8 +2652,11 @@
       <c r="R22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -2607,8 +2700,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2655,8 +2751,11 @@
       <c r="R24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
@@ -2700,8 +2799,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
@@ -2748,8 +2850,11 @@
       <c r="R26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
@@ -2796,8 +2901,11 @@
       <c r="R27" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
@@ -2845,7 +2953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2893,7 +3001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2937,8 +3045,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -2985,8 +3096,11 @@
       <c r="R31" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -3031,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3075,8 +3189,11 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
@@ -3123,8 +3240,11 @@
       <c r="R34" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
@@ -3172,7 +3292,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
@@ -3220,7 +3340,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
@@ -3267,8 +3387,11 @@
       <c r="R37" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>107</v>
       </c>
@@ -3312,8 +3435,11 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
@@ -3358,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>107</v>
       </c>
@@ -3405,8 +3531,11 @@
       <c r="R40" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -3453,8 +3582,11 @@
       <c r="R41" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>213</v>
       </c>
@@ -3495,8 +3627,11 @@
       <c r="R42" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
@@ -3534,8 +3669,11 @@
       <c r="Q43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W43" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
@@ -3576,8 +3714,11 @@
       <c r="R44" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>213</v>
       </c>
@@ -3615,8 +3756,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>213</v>
       </c>
@@ -3657,8 +3801,11 @@
       <c r="R46" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W46" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>213</v>
       </c>
@@ -3699,8 +3846,11 @@
       <c r="R47" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>213</v>
       </c>
@@ -3741,8 +3891,11 @@
       <c r="R48" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>213</v>
       </c>
@@ -3780,8 +3933,11 @@
       <c r="Q49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>213</v>
       </c>
@@ -3819,8 +3975,11 @@
       <c r="Q50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>213</v>
       </c>
@@ -3858,8 +4017,11 @@
       <c r="Q51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>213</v>
       </c>
@@ -3897,8 +4059,11 @@
       <c r="Q52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>213</v>
       </c>
@@ -3939,8 +4104,11 @@
       <c r="R53" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>213</v>
       </c>
@@ -3981,8 +4149,11 @@
       <c r="R54" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W54" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>213</v>
       </c>
@@ -4020,8 +4191,11 @@
       <c r="Q55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>213</v>
       </c>
@@ -4059,8 +4233,11 @@
       <c r="Q56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>213</v>
       </c>
@@ -4098,8 +4275,11 @@
       <c r="Q57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>213</v>
       </c>
@@ -4140,8 +4320,11 @@
       <c r="R58" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>107</v>
       </c>
@@ -4179,8 +4362,11 @@
       <c r="Q59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W59" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>107</v>
       </c>
@@ -4218,8 +4404,11 @@
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>107</v>
       </c>
@@ -4257,8 +4446,17 @@
       <c r="Q61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>107</v>
       </c>
@@ -4296,8 +4494,11 @@
       <c r="Q62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA62" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="E63" t="s">
         <v>224</v>
@@ -4327,8 +4528,11 @@
       <c r="R63" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA63" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>107</v>
       </c>
@@ -4366,8 +4570,11 @@
       <c r="Q64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W64" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
@@ -4405,8 +4612,11 @@
       <c r="Q65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W65" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>107</v>
       </c>
@@ -4432,7 +4642,7 @@
         <v>7</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="L66" s="4">
         <v>1</v>
@@ -4444,19 +4654,22 @@
       <c r="Q66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W66" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F67" s="8">
         <v>45014</v>
@@ -4473,19 +4686,22 @@
       <c r="P67" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F68" s="8">
         <v>45014</v>
@@ -4502,19 +4718,22 @@
       <c r="P68" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F69" s="8">
         <v>45014</v>
@@ -4529,21 +4748,24 @@
         <v>9</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F70" s="8">
         <v>45014</v>
@@ -4560,19 +4782,22 @@
       <c r="P70" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" s="8">
         <v>45014</v>
@@ -4589,19 +4814,22 @@
       <c r="P71" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F72" s="8">
         <v>45014</v>
@@ -4618,19 +4846,22 @@
       <c r="P72" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F73" s="8">
         <v>45014</v>
@@ -4647,19 +4878,22 @@
       <c r="P73" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" s="8">
         <v>45014</v>
@@ -4676,19 +4910,22 @@
       <c r="P74" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" s="8">
         <v>45014</v>
@@ -4705,19 +4942,22 @@
       <c r="P75" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F76" s="8">
         <v>45014</v>
@@ -4734,19 +4974,22 @@
       <c r="P76" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77" s="8">
         <v>45014</v>
@@ -4763,22 +5006,25 @@
       <c r="P77" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
       <c r="R77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F78" s="8">
         <v>45014</v>
@@ -4795,19 +5041,22 @@
       <c r="P78" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F79" s="8">
         <v>45014</v>
@@ -4824,22 +5073,25 @@
       <c r="P79" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
       <c r="R79" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F80" s="8">
         <v>45014</v>
@@ -4850,23 +5102,28 @@
       <c r="J80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="19"/>
+      <c r="K80" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="P80" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F81" s="8">
         <v>45014</v>
@@ -4878,27 +5135,30 @@
         <v>7</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
       <c r="R81" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F82" s="8">
         <v>45014</v>
@@ -4925,30 +5185,33 @@
         <v>1</v>
       </c>
       <c r="R82" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="42" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="42" x14ac:dyDescent="0.15">
-      <c r="A83" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>316</v>
+      <c r="B83" t="s">
+        <v>315</v>
       </c>
       <c r="C83" s="8">
         <v>45070</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="E83" t="s">
+        <v>305</v>
       </c>
       <c r="F83" s="8">
         <v>45009</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4956,22 +5219,25 @@
       <c r="P83" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C84" s="8">
         <v>45070</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="E84" t="s">
+        <v>306</v>
       </c>
       <c r="F84" s="8">
         <v>45009</v>
@@ -4988,22 +5254,28 @@
       <c r="P84" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C85" s="8">
         <v>45070</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>307</v>
       </c>
       <c r="F85" s="8">
         <v>45009</v>
@@ -5020,22 +5292,28 @@
       <c r="P85" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="W85" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C86" s="8">
         <v>45070</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="E86" t="s">
+        <v>308</v>
       </c>
       <c r="F86" s="8">
         <v>45009</v>
@@ -5052,28 +5330,34 @@
       <c r="P86" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C87" s="8">
         <v>45070</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="E87" t="s">
+        <v>309</v>
       </c>
       <c r="F87" s="8">
         <v>45009</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>7</v>
+        <v>377</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5084,25 +5368,28 @@
       <c r="P87" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
       <c r="R87" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C88" s="8">
         <v>45082</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>348</v>
+      <c r="D88" t="s">
+        <v>347</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K88" s="20" t="s">
         <v>7</v>
@@ -5110,25 +5397,28 @@
       <c r="P88" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
       <c r="R88" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C89" s="8">
         <v>45082</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>349</v>
+      <c r="D89" t="s">
+        <v>348</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K89" s="20" t="s">
         <v>7</v>
@@ -5136,25 +5426,28 @@
       <c r="P89" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
       <c r="R89" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C90" s="8">
         <v>45082</v>
       </c>
-      <c r="D90" s="22" t="s">
-        <v>342</v>
+      <c r="D90" t="s">
+        <v>341</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K90" s="20" t="s">
         <v>7</v>
@@ -5162,48 +5455,54 @@
       <c r="P90" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="21" t="s">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C91" s="8">
         <v>45082</v>
       </c>
-      <c r="D91" s="22" t="s">
-        <v>341</v>
+      <c r="D91" t="s">
+        <v>340</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
       <c r="R91" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C92" s="8">
         <v>45082</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>346</v>
+      <c r="D92" t="s">
+        <v>345</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K92" s="20" t="s">
         <v>7</v>
@@ -5211,22 +5510,25 @@
       <c r="P92" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="21" t="s">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C93" s="8">
         <v>45082</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>345</v>
+      <c r="D93" t="s">
+        <v>344</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K93" s="20" t="s">
         <v>7</v>
@@ -5234,22 +5536,25 @@
       <c r="P93" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="21" t="s">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C94" s="8">
         <v>45082</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>343</v>
+      <c r="D94" t="s">
+        <v>342</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K94" s="20" t="s">
         <v>7</v>
@@ -5257,25 +5562,28 @@
       <c r="P94" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
       <c r="R94" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C95" s="8">
         <v>45082</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>344</v>
+      <c r="D95" t="s">
+        <v>343</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K95" s="20" t="s">
         <v>7</v>
@@ -5283,25 +5591,28 @@
       <c r="P95" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
       <c r="R95" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C96" s="8">
         <v>45082</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>331</v>
+      <c r="D96" t="s">
+        <v>346</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="K96" s="20" t="s">
         <v>7</v>
@@ -5309,22 +5620,25 @@
       <c r="P96" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C97" s="8">
         <v>45082</v>
       </c>
-      <c r="D97" s="22" t="s">
-        <v>350</v>
+      <c r="D97" t="s">
+        <v>349</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K97" s="20" t="s">
         <v>7</v>
@@ -5332,22 +5646,25 @@
       <c r="P97" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C98" s="8">
         <v>45082</v>
       </c>
-      <c r="D98" s="22" t="s">
-        <v>351</v>
+      <c r="D98" t="s">
+        <v>350</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K98" s="20" t="s">
         <v>7</v>
@@ -5355,69 +5672,78 @@
       <c r="P98" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="8">
         <v>45082</v>
       </c>
-      <c r="D99" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>334</v>
+      <c r="D99" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="K99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C100" s="8">
         <v>45082</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>353</v>
+      <c r="D100" t="s">
+        <v>352</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
       <c r="R100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C101" s="8">
         <v>45082</v>
       </c>
-      <c r="D101" s="22" t="s">
-        <v>354</v>
+      <c r="D101" t="s">
+        <v>353</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K101" s="20" t="s">
         <v>7</v>
@@ -5425,25 +5751,28 @@
       <c r="P101" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
       <c r="R101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C102" s="8">
         <v>45082</v>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>355</v>
+      <c r="D102" t="s">
+        <v>354</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K102" s="20" t="s">
         <v>7</v>
@@ -5451,22 +5780,25 @@
       <c r="P102" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C103" s="8">
         <v>45082</v>
       </c>
-      <c r="D103" s="22" t="s">
-        <v>356</v>
+      <c r="D103" t="s">
+        <v>355</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K103" s="20" t="s">
         <v>7</v>
@@ -5474,28 +5806,31 @@
       <c r="P103" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E24:E41">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 E42 E51">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70164C-7597-E949-AA28-8CCBF78B1D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E78F4-3A74-234E-9A19-0E0D60A81FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="0" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11980" yWindow="0" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="382">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1176,13 +1176,10 @@
     <t>twice??</t>
   </si>
   <si>
-    <t>M/F</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>M=1/F=0</t>
   </si>
 </sst>
 </file>
@@ -1610,11 +1607,11 @@
   </sheetPr>
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="Y90" sqref="Y90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1639,7 +1636,7 @@
     <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1710,10 +1707,13 @@
         <v>378</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1757,11 @@
         <f>COUNTIF(S2:S998, "n")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1794,8 +1797,11 @@
         <v>8</v>
       </c>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1828,8 +1834,11 @@
         <v>8</v>
       </c>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1853,8 +1862,11 @@
       <c r="Q5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1872,8 +1884,11 @@
         <v>87</v>
       </c>
       <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1897,8 +1912,11 @@
       <c r="Q7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1950,11 +1968,14 @@
       <c r="W8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2004,11 +2025,14 @@
       <c r="W9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2058,8 +2082,14 @@
       <c r="W10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2109,8 +2139,14 @@
       <c r="W11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2160,8 +2196,14 @@
       <c r="W12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2250,14 @@
       <c r="W13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -2259,8 +2307,14 @@
       <c r="W14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -2307,8 +2361,14 @@
       <c r="W15" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -2355,8 +2415,14 @@
       <c r="W16" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -2403,8 +2469,14 @@
       <c r="W17" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>79</v>
       </c>
@@ -2452,7 +2524,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -2502,8 +2574,14 @@
       <c r="W19" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -2550,8 +2628,14 @@
       <c r="W20" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -2601,8 +2685,14 @@
       <c r="W21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
@@ -2655,8 +2745,14 @@
       <c r="W22" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -2703,8 +2799,14 @@
       <c r="W23" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2754,8 +2856,14 @@
       <c r="W24" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>107</v>
       </c>
@@ -2802,8 +2910,14 @@
       <c r="W25" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
@@ -2853,8 +2967,14 @@
       <c r="W26" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
@@ -2904,8 +3024,14 @@
       <c r="W27" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>107</v>
       </c>
@@ -2952,8 +3078,11 @@
       <c r="R28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -3000,8 +3129,11 @@
       <c r="R29" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>107</v>
       </c>
@@ -3048,8 +3180,14 @@
       <c r="W30" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -3099,8 +3237,14 @@
       <c r="W31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -3144,8 +3288,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3192,8 +3339,14 @@
       <c r="W33" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
@@ -3243,8 +3396,14 @@
       <c r="W34" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
@@ -3291,8 +3450,11 @@
       <c r="R35" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
@@ -3339,8 +3501,11 @@
       <c r="R36" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
@@ -3390,8 +3555,14 @@
       <c r="W37" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>107</v>
       </c>
@@ -3438,8 +3609,14 @@
       <c r="W38" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>107</v>
       </c>
@@ -3483,8 +3660,11 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>107</v>
       </c>
@@ -3534,8 +3714,14 @@
       <c r="W40" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -3585,8 +3771,14 @@
       <c r="W41" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>213</v>
       </c>
@@ -3630,8 +3822,14 @@
       <c r="W42" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>213</v>
       </c>
@@ -3672,8 +3870,14 @@
       <c r="W43" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>213</v>
       </c>
@@ -3717,8 +3921,14 @@
       <c r="W44" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>213</v>
       </c>
@@ -3759,8 +3969,14 @@
       <c r="W45" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>213</v>
       </c>
@@ -3804,8 +4020,14 @@
       <c r="W46" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>213</v>
       </c>
@@ -3849,8 +4071,14 @@
       <c r="W47" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>213</v>
       </c>
@@ -3893,6 +4121,12 @@
       </c>
       <c r="W48" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3936,6 +4170,12 @@
       <c r="W49" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
@@ -3978,6 +4218,12 @@
       <c r="W50" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
@@ -4020,6 +4266,12 @@
       <c r="W51" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>22</v>
+      </c>
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
@@ -4062,6 +4314,12 @@
       <c r="W52" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
@@ -4107,6 +4365,12 @@
       <c r="W53" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>21</v>
+      </c>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
@@ -4152,6 +4416,12 @@
       <c r="W54" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>34</v>
+      </c>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
@@ -4194,6 +4464,12 @@
       <c r="W55" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
@@ -4236,6 +4512,12 @@
       <c r="W56" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
@@ -4278,6 +4560,12 @@
       <c r="W57" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
@@ -4323,6 +4611,12 @@
       <c r="W58" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -4365,6 +4659,12 @@
       <c r="W59" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
@@ -4407,6 +4707,12 @@
       <c r="W60" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
@@ -4449,6 +4755,12 @@
       <c r="W61" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>28</v>
+      </c>
       <c r="AA61" t="s">
         <v>226</v>
       </c>
@@ -4493,6 +4805,9 @@
       </c>
       <c r="Q62">
         <v>1</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="AA62" s="22" t="s">
         <v>25</v>
@@ -4528,6 +4843,9 @@
       <c r="R63" s="4" t="s">
         <v>225</v>
       </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
       <c r="AA63" s="22" t="s">
         <v>44</v>
       </c>
@@ -4573,8 +4891,14 @@
       <c r="W64" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
@@ -4615,8 +4939,14 @@
       <c r="W65" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>107</v>
       </c>
@@ -4657,8 +4987,14 @@
       <c r="W66" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>213</v>
       </c>
@@ -4689,8 +5025,11 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
@@ -4721,8 +5060,11 @@
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>213</v>
       </c>
@@ -4753,8 +5095,11 @@
       <c r="Q69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>213</v>
       </c>
@@ -4785,8 +5130,11 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>213</v>
       </c>
@@ -4817,8 +5165,11 @@
       <c r="Q71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>213</v>
       </c>
@@ -4849,8 +5200,11 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>213</v>
       </c>
@@ -4881,8 +5235,11 @@
       <c r="Q73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>213</v>
       </c>
@@ -4913,8 +5270,11 @@
       <c r="Q74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>213</v>
       </c>
@@ -4945,8 +5305,11 @@
       <c r="Q75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>213</v>
       </c>
@@ -4977,8 +5340,11 @@
       <c r="Q76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>213</v>
       </c>
@@ -5012,8 +5378,11 @@
       <c r="R77" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>213</v>
       </c>
@@ -5044,8 +5413,11 @@
       <c r="Q78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>213</v>
       </c>
@@ -5079,8 +5451,11 @@
       <c r="R79" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>213</v>
       </c>
@@ -5111,8 +5486,11 @@
       <c r="Q80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>213</v>
       </c>
@@ -5146,8 +5524,11 @@
       <c r="R81" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>213</v>
       </c>
@@ -5190,8 +5571,14 @@
       <c r="W82" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="42" x14ac:dyDescent="0.15">
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>304</v>
       </c>
@@ -5223,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>304</v>
       </c>
@@ -5260,8 +5647,14 @@
       <c r="W84" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>304</v>
       </c>
@@ -5298,8 +5691,14 @@
       <c r="W85" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>304</v>
       </c>
@@ -5336,8 +5735,14 @@
       <c r="W86" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>304</v>
       </c>
@@ -5375,7 +5780,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>79</v>
       </c>
@@ -5404,7 +5809,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>79</v>
       </c>
@@ -5433,7 +5838,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>79</v>
       </c>
@@ -5459,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>79</v>
       </c>
@@ -5488,7 +5893,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>79</v>
       </c>
@@ -5514,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>79</v>
       </c>
@@ -5540,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>79</v>
       </c>
@@ -5569,7 +5974,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>79</v>
       </c>
@@ -5598,7 +6003,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>79</v>
       </c>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E78F4-3A74-234E-9A19-0E0D60A81FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DEF30-5081-3541-84F9-4E74CE592FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="0" windowWidth="25000" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35100" yWindow="4560" windowWidth="36620" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="386">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -933,9 +933,6 @@
     <t>covered face in all pictures with people in them</t>
   </si>
   <si>
-    <t>not in folder??</t>
-  </si>
-  <si>
     <t>no images</t>
   </si>
   <si>
@@ -1170,16 +1167,31 @@
     <t>n (missed 11 trials)</t>
   </si>
   <si>
-    <t>included in analysis</t>
-  </si>
-  <si>
-    <t>twice??</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
     <t>M=1/F=0</t>
+  </si>
+  <si>
+    <t>not in folder??/did not complete the task</t>
+  </si>
+  <si>
+    <t>duplicate data, using data from 3/31/23 not 4/7/23</t>
+  </si>
+  <si>
+    <t>no post survey data</t>
+  </si>
+  <si>
+    <t>doesn't have task data…there folder is not being recognized by the task</t>
+  </si>
+  <si>
+    <t>never received a new link, will be generated today 7/6/23</t>
+  </si>
+  <si>
+    <t>didn't do task but has post-survey data</t>
+  </si>
+  <si>
+    <t>included in analysis 6/17/23</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1261,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,6 +1280,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1281,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1315,6 +1357,15 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1608,10 +1659,10 @@
   <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y90" sqref="Y90"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1619,21 +1670,21 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="20" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1665,7 +1716,7 @@
         <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>31</v>
@@ -1704,13 +1755,13 @@
         <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2521,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4761,12 +4812,7 @@
       <c r="Y61" s="4">
         <v>28</v>
       </c>
-      <c r="AA61" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB61" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="AB61" s="4"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -4809,9 +4855,7 @@
       <c r="X62">
         <v>0</v>
       </c>
-      <c r="AA62" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA62" s="22"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -4846,9 +4890,7 @@
       <c r="X63">
         <v>0</v>
       </c>
-      <c r="AA63" s="22" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA63" s="22"/>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
@@ -4995,16 +5037,19 @@
       </c>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="26" t="s">
         <v>249</v>
       </c>
       <c r="F67" s="8">
@@ -5030,16 +5075,19 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="26" t="s">
         <v>250</v>
       </c>
       <c r="F68" s="8">
@@ -5060,21 +5108,27 @@
       <c r="Q68">
         <v>1</v>
       </c>
+      <c r="R68" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="X68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="26" t="s">
         <v>251</v>
       </c>
       <c r="F69" s="8">
@@ -5100,16 +5154,19 @@
       </c>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="26" t="s">
         <v>252</v>
       </c>
       <c r="F70" s="8">
@@ -5135,16 +5192,19 @@
       </c>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="26" t="s">
         <v>253</v>
       </c>
       <c r="F71" s="8">
@@ -5170,16 +5230,19 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="25" t="s">
         <v>254</v>
       </c>
       <c r="F72" s="8">
@@ -5200,21 +5263,27 @@
       <c r="Q72">
         <v>1</v>
       </c>
+      <c r="R72" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="X72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="26" t="s">
         <v>255</v>
       </c>
       <c r="F73" s="8">
@@ -5240,16 +5309,19 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="26" t="s">
         <v>256</v>
       </c>
       <c r="F74" s="8">
@@ -5275,16 +5347,19 @@
       </c>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="26" t="s">
         <v>257</v>
       </c>
       <c r="F75" s="8">
@@ -5310,16 +5385,19 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="26" t="s">
         <v>258</v>
       </c>
       <c r="F76" s="8">
@@ -5340,21 +5418,27 @@
       <c r="Q76">
         <v>1</v>
       </c>
+      <c r="R76" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="X76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="29" t="s">
         <v>259</v>
       </c>
       <c r="F77" s="8">
@@ -5376,23 +5460,26 @@
         <v>1</v>
       </c>
       <c r="R77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D78" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="27" t="s">
         <v>260</v>
       </c>
       <c r="F78" s="8">
@@ -5413,21 +5500,27 @@
       <c r="Q78">
         <v>1</v>
       </c>
+      <c r="R78" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="X78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="28" t="s">
         <v>261</v>
       </c>
       <c r="F79" s="8">
@@ -5456,16 +5549,19 @@
       </c>
     </row>
     <row r="80" spans="1:25" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D80" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="31" t="s">
         <v>262</v>
       </c>
       <c r="F80" s="8">
@@ -5480,27 +5576,36 @@
       <c r="K80" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
       <c r="P80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
+      <c r="R80" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="X80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="28" t="s">
         <v>263</v>
       </c>
       <c r="F81" s="8">
@@ -5513,7 +5618,10 @@
         <v>7</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>9</v>
@@ -5521,24 +5629,27 @@
       <c r="Q81">
         <v>1</v>
       </c>
-      <c r="R81" t="s">
-        <v>299</v>
+      <c r="R81" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" s="8">
+        <v>45014</v>
+      </c>
+      <c r="D82" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="30" t="s">
         <v>280</v>
       </c>
       <c r="F82" s="8">
@@ -5566,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W82" s="4" t="s">
         <v>9</v>
@@ -5580,25 +5691,25 @@
     </row>
     <row r="83" spans="1:25" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C83" s="8">
         <v>45070</v>
       </c>
       <c r="D83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F83" s="8">
-        <v>45009</v>
+        <v>45070</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5612,22 +5723,22 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C84" s="8">
         <v>45070</v>
       </c>
       <c r="D84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84" s="8">
-        <v>45009</v>
+        <v>45070</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>7</v>
@@ -5656,22 +5767,22 @@
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C85" s="8">
         <v>45070</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F85" s="8">
-        <v>45009</v>
+        <v>45070</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>7</v>
@@ -5700,22 +5811,22 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C86" s="8">
         <v>45070</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F86" s="8">
-        <v>45009</v>
+        <v>45070</v>
       </c>
       <c r="K86" s="19" t="s">
         <v>7</v>
@@ -5744,25 +5855,25 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C87" s="8">
         <v>45070</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F87" s="8">
-        <v>45009</v>
+        <v>45070</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5777,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5785,16 +5896,16 @@
         <v>79</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C88" s="8">
         <v>45082</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K88" s="20" t="s">
         <v>7</v>
@@ -5806,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="R88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5814,16 +5925,16 @@
         <v>79</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C89" s="8">
         <v>45082</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K89" s="20" t="s">
         <v>7</v>
@@ -5835,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5843,16 +5954,16 @@
         <v>79</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C90" s="8">
         <v>45082</v>
       </c>
       <c r="D90" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K90" s="20" t="s">
         <v>7</v>
@@ -5869,19 +5980,19 @@
         <v>79</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C91" s="8">
         <v>45082</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>9</v>
@@ -5890,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="R91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,16 +6009,16 @@
         <v>79</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C92" s="8">
         <v>45082</v>
       </c>
       <c r="D92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K92" s="20" t="s">
         <v>7</v>
@@ -5924,16 +6035,16 @@
         <v>79</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C93" s="8">
         <v>45082</v>
       </c>
       <c r="D93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K93" s="20" t="s">
         <v>7</v>
@@ -5950,16 +6061,16 @@
         <v>79</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C94" s="8">
         <v>45082</v>
       </c>
       <c r="D94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K94" s="20" t="s">
         <v>7</v>
@@ -5971,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="R94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,16 +6090,16 @@
         <v>79</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C95" s="8">
         <v>45082</v>
       </c>
       <c r="D95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K95" s="20" t="s">
         <v>7</v>
@@ -6000,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6008,16 +6119,16 @@
         <v>79</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C96" s="8">
         <v>45082</v>
       </c>
       <c r="D96" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K96" s="20" t="s">
         <v>7</v>
@@ -6034,16 +6145,16 @@
         <v>79</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C97" s="8">
         <v>45082</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K97" s="20" t="s">
         <v>7</v>
@@ -6060,16 +6171,16 @@
         <v>79</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C98" s="8">
         <v>45082</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K98" s="20" t="s">
         <v>7</v>
@@ -6090,13 +6201,13 @@
         <v>45082</v>
       </c>
       <c r="D99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>9</v>
@@ -6110,19 +6221,19 @@
         <v>79</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C100" s="8">
         <v>45082</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P100" s="4" t="s">
         <v>9</v>
@@ -6131,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="R100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6139,16 +6250,16 @@
         <v>79</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C101" s="8">
         <v>45082</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K101" s="20" t="s">
         <v>7</v>
@@ -6160,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6168,16 +6279,16 @@
         <v>79</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="8">
         <v>45082</v>
       </c>
       <c r="D102" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K102" s="20" t="s">
         <v>7</v>
@@ -6194,16 +6305,16 @@
         <v>79</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="8">
         <v>45082</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K103" s="20" t="s">
         <v>7</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44BEDA3-3BF0-3942-BCEB-778215F9D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC183D-DCE1-5B4E-914D-119E948A61D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="-1980" windowWidth="34920" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4000" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="435">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1209,14 +1196,143 @@
     <t>6346da55c3bf67b0dbf06272</t>
   </si>
   <si>
-    <t>5f985596be2ea910b23827ed</t>
+    <t>6116f60ae8f48f7d1244e8d3</t>
+  </si>
+  <si>
+    <t>R_3NwvjhunIv9sAoA</t>
+  </si>
+  <si>
+    <t>R_1KwG2p69uSqkC4t</t>
+  </si>
+  <si>
+    <t>R_3hz049QOye9bFge</t>
+  </si>
+  <si>
+    <t>R_1hyRYlxpcvkjDSu</t>
+  </si>
+  <si>
+    <t>R_2rVmk7oujeXh3cI</t>
+  </si>
+  <si>
+    <t>R_1CCQKzXxeuedupa</t>
+  </si>
+  <si>
+    <t>R_2TFbU9INrBHUm4C</t>
+  </si>
+  <si>
+    <t>R_1q9tC2v5npeH1xO</t>
+  </si>
+  <si>
+    <t>R_3hgu9UHSwrog6E9</t>
+  </si>
+  <si>
+    <t>R_3E1I0gFyIab2yaJ</t>
+  </si>
+  <si>
+    <t>R_2vjKzNhxmjccyN3</t>
+  </si>
+  <si>
+    <t>R_1ohGoJvzf121jrF</t>
+  </si>
+  <si>
+    <t>R_3jYzykjpVBcFAnP</t>
+  </si>
+  <si>
+    <t>repeated pre-task survey; two response IDs</t>
+  </si>
+  <si>
+    <t>R_2UXdDJQGXcBhZp4</t>
+  </si>
+  <si>
+    <t>R_vctDRo9N6bsGe0V</t>
+  </si>
+  <si>
+    <t>flatlined AQ_16-20</t>
+  </si>
+  <si>
+    <t>flatlined AQ_8-12, SCS_1-6</t>
+  </si>
+  <si>
+    <t>R_1dn1g0SfrpRKWh8</t>
+  </si>
+  <si>
+    <t>R_3NOn0QkxCpyxzCR</t>
+  </si>
+  <si>
+    <t>R_25zoRiXDlvcciX2</t>
+  </si>
+  <si>
+    <t>R_5hCGmqbWDm66QDf</t>
+  </si>
+  <si>
+    <t>R_V4NIeW5uSlaADLz</t>
+  </si>
+  <si>
+    <t>R_2y94z4ZzIUtlTOj</t>
+  </si>
+  <si>
+    <t>R_XBrzfZGxsFAnHgd</t>
+  </si>
+  <si>
+    <t>R_86NDjrFigVc99x7</t>
+  </si>
+  <si>
+    <t>R_32KsA24yKpyepLv</t>
+  </si>
+  <si>
+    <t>R_C7GNMVg9aFoBfoZ</t>
+  </si>
+  <si>
+    <t>R_27kuP2z6F1UXFWy</t>
+  </si>
+  <si>
+    <t>R_31hDumLhbcMqZzb</t>
+  </si>
+  <si>
+    <t>R_2wGogXzlaDDqkyt</t>
+  </si>
+  <si>
+    <t>R_1i4YK4q41YvCDuG</t>
+  </si>
+  <si>
+    <t>5f982592be2ea910b23827ed</t>
+  </si>
+  <si>
+    <t>R_2AQO3XvkK301KPu</t>
+  </si>
+  <si>
+    <t>photos 1-5 are half-face selfies</t>
+  </si>
+  <si>
+    <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics</t>
+  </si>
+  <si>
+    <t>replaced photo 1 w/ 31 - original was a screenshot of a video; pre-cropped and potentially reposted (see photos 14 and 30)?; stole pics from google images (photos 25 and 26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaced photo 27 w/ 32 and photo 28 w/ 31 - both had alcohol </t>
+  </si>
+  <si>
+    <t>flatlined RSQ_2b-4b, PerceivedStress_4-8, AQ_46-50; screenshots showed participant uploaded photos on instagram within an hour of submission; replaced photo 28 w/ 31 - had alcohol</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>only has 2 photos where face is shown; has 5 other photos of themselves but is wearing a mask</t>
+  </si>
+  <si>
+    <t>only has 3 photos of themselves</t>
+  </si>
+  <si>
+    <t>replaced photo 30 w/ 31 - 29 and original 30 were identical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1279,6 +1395,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1348,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1401,7 +1525,17 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,13 +1831,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6275,6 +6409,9 @@
       <c r="E82" s="27" t="s">
         <v>307</v>
       </c>
+      <c r="F82" s="29">
+        <v>45082</v>
+      </c>
       <c r="G82" s="27" t="s">
         <v>8</v>
       </c>
@@ -6325,6 +6462,9 @@
       <c r="E83" t="s">
         <v>308</v>
       </c>
+      <c r="F83" s="6">
+        <v>45082</v>
+      </c>
       <c r="G83" t="s">
         <v>8</v>
       </c>
@@ -6375,6 +6515,9 @@
       <c r="E84" t="s">
         <v>309</v>
       </c>
+      <c r="F84" s="6">
+        <v>45082</v>
+      </c>
       <c r="G84" t="s">
         <v>8</v>
       </c>
@@ -6422,6 +6565,9 @@
       <c r="E85" s="22" t="s">
         <v>310</v>
       </c>
+      <c r="F85" s="6">
+        <v>45082</v>
+      </c>
       <c r="G85" t="s">
         <v>8</v>
       </c>
@@ -6472,6 +6618,9 @@
       <c r="E86" s="25" t="s">
         <v>311</v>
       </c>
+      <c r="F86" s="6">
+        <v>45082</v>
+      </c>
       <c r="G86" t="s">
         <v>8</v>
       </c>
@@ -6522,6 +6671,9 @@
       <c r="E87" t="s">
         <v>312</v>
       </c>
+      <c r="F87" s="6">
+        <v>45082</v>
+      </c>
       <c r="G87" t="s">
         <v>8</v>
       </c>
@@ -6569,6 +6721,9 @@
       <c r="E88" t="s">
         <v>313</v>
       </c>
+      <c r="F88" s="6">
+        <v>45082</v>
+      </c>
       <c r="G88" t="s">
         <v>8</v>
       </c>
@@ -6619,6 +6774,9 @@
       <c r="E89" t="s">
         <v>314</v>
       </c>
+      <c r="F89" s="6">
+        <v>45082</v>
+      </c>
       <c r="G89" t="s">
         <v>8</v>
       </c>
@@ -6669,6 +6827,9 @@
       <c r="E90" s="36" t="s">
         <v>315</v>
       </c>
+      <c r="F90" s="6">
+        <v>45082</v>
+      </c>
       <c r="G90" t="s">
         <v>8</v>
       </c>
@@ -6716,6 +6877,9 @@
       <c r="E91" t="s">
         <v>316</v>
       </c>
+      <c r="F91" s="6">
+        <v>45082</v>
+      </c>
       <c r="G91" t="s">
         <v>8</v>
       </c>
@@ -6763,6 +6927,9 @@
       <c r="E92" t="s">
         <v>317</v>
       </c>
+      <c r="F92" s="6">
+        <v>45082</v>
+      </c>
       <c r="G92" t="s">
         <v>8</v>
       </c>
@@ -6807,6 +6974,9 @@
       <c r="E93" s="23" t="s">
         <v>318</v>
       </c>
+      <c r="F93" s="6">
+        <v>45082</v>
+      </c>
       <c r="G93" t="s">
         <v>8</v>
       </c>
@@ -6854,6 +7024,9 @@
       <c r="E94" s="22" t="s">
         <v>319</v>
       </c>
+      <c r="F94" s="6">
+        <v>45082</v>
+      </c>
       <c r="G94" t="s">
         <v>8</v>
       </c>
@@ -6904,6 +7077,9 @@
       <c r="E95" s="25" t="s">
         <v>320</v>
       </c>
+      <c r="F95" s="6">
+        <v>45082</v>
+      </c>
       <c r="G95" t="s">
         <v>8</v>
       </c>
@@ -6954,6 +7130,9 @@
       <c r="E96" t="s">
         <v>321</v>
       </c>
+      <c r="F96" s="6">
+        <v>45082</v>
+      </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
@@ -7004,6 +7183,9 @@
       <c r="E97" s="25" t="s">
         <v>322</v>
       </c>
+      <c r="F97" s="6">
+        <v>45082</v>
+      </c>
       <c r="G97" t="s">
         <v>8</v>
       </c>
@@ -7038,33 +7220,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="6">
-        <v>45118</v>
-      </c>
-      <c r="E98" s="37" t="s">
+      <c r="B98" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C98" s="29">
+        <v>45117</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E98" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="29">
         <v>45117</v>
       </c>
-      <c r="W98" s="4"/>
+      <c r="G98" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="26"/>
+      <c r="J98" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q98" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="W98" s="26"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B99" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="C99" s="6">
-        <v>45119</v>
-      </c>
-      <c r="E99" s="38" t="s">
+        <v>45117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>393</v>
+      </c>
+      <c r="E99" s="43" t="s">
         <v>379</v>
       </c>
       <c r="F99" s="6">
-        <v>45118</v>
+        <v>45117</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7075,168 +7295,404 @@
       <c r="A100" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B100" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="C100" s="6">
-        <v>45120</v>
-      </c>
-      <c r="E100" s="37" t="s">
+        <v>45117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>394</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>380</v>
       </c>
       <c r="F100" s="6">
-        <v>45119</v>
+        <v>45117</v>
+      </c>
+      <c r="G100" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B101" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="C101" s="6">
-        <v>45121</v>
+        <v>45117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>395</v>
       </c>
       <c r="E101" s="37" t="s">
         <v>381</v>
       </c>
       <c r="F101" s="6">
-        <v>45120</v>
+        <v>45117</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B102" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="C102" s="6">
-        <v>45122</v>
+        <v>45117</v>
+      </c>
+      <c r="D102" t="s">
+        <v>396</v>
       </c>
       <c r="E102" s="37" t="s">
         <v>382</v>
       </c>
       <c r="F102" s="6">
-        <v>45121</v>
+        <v>45117</v>
+      </c>
+      <c r="G102" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B103" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="C103" s="6">
-        <v>45123</v>
+        <v>45117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>397</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>383</v>
       </c>
       <c r="F103" s="6">
-        <v>45122</v>
+        <v>45117</v>
+      </c>
+      <c r="G103" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B104" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="C104" s="6">
-        <v>45124</v>
+        <v>45117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>398</v>
       </c>
       <c r="E104" s="37" t="s">
         <v>384</v>
       </c>
       <c r="F104" s="6">
-        <v>45123</v>
+        <v>45117</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B105" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="C105" s="6">
-        <v>45125</v>
-      </c>
-      <c r="E105" s="37" t="s">
+        <v>45117</v>
+      </c>
+      <c r="D105" t="s">
+        <v>399</v>
+      </c>
+      <c r="E105" s="44" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="6">
-        <v>45124</v>
+        <v>45117</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B106" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="C106" s="6">
-        <v>45126</v>
+        <v>45117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>400</v>
       </c>
       <c r="E106" s="37" t="s">
         <v>386</v>
       </c>
       <c r="F106" s="6">
-        <v>45125</v>
+        <v>45117</v>
+      </c>
+      <c r="G106" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B107" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="C107" s="6">
-        <v>45127</v>
+        <v>45117</v>
+      </c>
+      <c r="D107" t="s">
+        <v>401</v>
       </c>
       <c r="E107" s="37" t="s">
         <v>387</v>
       </c>
       <c r="F107" s="6">
-        <v>45126</v>
+        <v>45117</v>
+      </c>
+      <c r="G107" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B108" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="C108" s="6">
-        <v>45128</v>
+        <v>45117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>402</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>388</v>
       </c>
       <c r="F108" s="6">
-        <v>45127</v>
+        <v>45117</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B109" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="C109" s="6">
-        <v>45129</v>
+        <v>45117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>403</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>389</v>
       </c>
       <c r="F109" s="6">
-        <v>45128</v>
+        <v>45117</v>
+      </c>
+      <c r="G109" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B110" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="C110" s="6">
-        <v>45130</v>
+        <v>45117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>404</v>
       </c>
       <c r="E110" s="37" t="s">
         <v>390</v>
       </c>
       <c r="F110" s="6">
-        <v>45129</v>
+        <v>45117</v>
+      </c>
+      <c r="G110" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B111" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="C111" s="6">
-        <v>45131</v>
-      </c>
-      <c r="E111" s="37" t="s">
+        <v>45117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>407</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="F111" s="6">
+        <v>45117</v>
+      </c>
+      <c r="G111" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="6">
+        <v>45117</v>
+      </c>
+      <c r="D112" t="s">
+        <v>406</v>
+      </c>
+      <c r="E112" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="F111" s="6">
-        <v>45130</v>
+      <c r="F112" s="6">
+        <v>45117</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC183D-DCE1-5B4E-914D-119E948A61D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1836C-79E3-0048-9BB6-E5FA41804DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="4000" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2220" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="436">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1326,6 +1339,9 @@
   </si>
   <si>
     <t>replaced photo 30 w/ 31 - 29 and original 30 were identical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1516,9 +1532,6 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1527,7 +1540,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1834,10 +1846,10 @@
   <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3125,7 +3137,7 @@
       <c r="D23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="5">
@@ -3179,7 +3191,7 @@
       <c r="D24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="5">
@@ -5698,7 +5710,7 @@
       <c r="I69" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="33" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="27">
@@ -5977,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6147,7 +6159,7 @@
       <c r="I77" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="33" t="s">
         <v>306</v>
       </c>
       <c r="K77" s="27">
@@ -6201,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6257,7 +6269,7 @@
         <v>7</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -6313,7 +6325,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6422,7 +6434,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K82" s="27">
         <v>1</v>
@@ -6474,8 +6486,8 @@
       <c r="I83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J83" s="15" t="s">
-        <v>7</v>
+      <c r="J83" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -6527,8 +6539,8 @@
       <c r="I84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J84" s="15" t="s">
-        <v>7</v>
+      <c r="J84" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -6630,8 +6642,8 @@
       <c r="I86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J86" s="15" t="s">
-        <v>7</v>
+      <c r="J86" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -6683,8 +6695,8 @@
       <c r="I87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J87" s="15" t="s">
-        <v>7</v>
+      <c r="J87" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -6733,8 +6745,8 @@
       <c r="I88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J88" s="15" t="s">
-        <v>7</v>
+      <c r="J88" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -6786,8 +6798,8 @@
       <c r="I89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="15" t="s">
-        <v>7</v>
+      <c r="J89" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -6824,7 +6836,7 @@
       <c r="D90" t="s">
         <v>329</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>315</v>
       </c>
       <c r="F90" s="6">
@@ -6839,8 +6851,8 @@
       <c r="I90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J90" s="15" t="s">
-        <v>7</v>
+      <c r="J90" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -6889,8 +6901,8 @@
       <c r="I91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="15" t="s">
-        <v>7</v>
+      <c r="J91" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -6939,8 +6951,8 @@
       <c r="I92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J92" s="15" t="s">
-        <v>7</v>
+      <c r="J92" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7089,8 +7101,8 @@
       <c r="I95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J95" s="15" t="s">
-        <v>7</v>
+      <c r="J95" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7142,8 +7154,8 @@
       <c r="I96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J96" s="15" t="s">
-        <v>7</v>
+      <c r="J96" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7195,8 +7207,8 @@
       <c r="I97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>7</v>
+      <c r="J97" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7224,7 +7236,7 @@
       <c r="A98" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="40" t="s">
         <v>410</v>
       </c>
       <c r="C98" s="29">
@@ -7233,7 +7245,7 @@
       <c r="D98" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="37" t="s">
         <v>378</v>
       </c>
       <c r="F98" s="29">
@@ -7246,8 +7258,8 @@
         <v>8</v>
       </c>
       <c r="I98" s="26"/>
-      <c r="J98" s="34" t="s">
-        <v>7</v>
+      <c r="J98" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="Q98" s="26" t="s">
         <v>426</v>
@@ -7267,13 +7279,13 @@
       <c r="D99" t="s">
         <v>393</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="41" t="s">
         <v>379</v>
       </c>
       <c r="F99" s="6">
         <v>45117</v>
       </c>
-      <c r="G99" s="40" t="s">
+      <c r="G99" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -7304,13 +7316,13 @@
       <c r="D100" t="s">
         <v>394</v>
       </c>
-      <c r="E100" s="44" t="s">
+      <c r="E100" s="42" t="s">
         <v>380</v>
       </c>
       <c r="F100" s="6">
         <v>45117</v>
       </c>
-      <c r="G100" s="40" t="s">
+      <c r="G100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -7336,13 +7348,13 @@
       <c r="D101" t="s">
         <v>395</v>
       </c>
-      <c r="E101" s="37" t="s">
+      <c r="E101" s="36" t="s">
         <v>381</v>
       </c>
       <c r="F101" s="6">
         <v>45117</v>
       </c>
-      <c r="G101" s="40" t="s">
+      <c r="G101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -7368,13 +7380,13 @@
       <c r="D102" t="s">
         <v>396</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E102" s="36" t="s">
         <v>382</v>
       </c>
       <c r="F102" s="6">
         <v>45117</v>
       </c>
-      <c r="G102" s="40" t="s">
+      <c r="G102" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -7400,13 +7412,13 @@
       <c r="D103" t="s">
         <v>397</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="36" t="s">
         <v>383</v>
       </c>
       <c r="F103" s="6">
         <v>45117</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="G103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -7432,13 +7444,13 @@
       <c r="D104" t="s">
         <v>398</v>
       </c>
-      <c r="E104" s="37" t="s">
+      <c r="E104" s="36" t="s">
         <v>384</v>
       </c>
       <c r="F104" s="6">
         <v>45117</v>
       </c>
-      <c r="G104" s="40" t="s">
+      <c r="G104" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -7461,20 +7473,20 @@
       <c r="D105" t="s">
         <v>399</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="42" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="6">
         <v>45117</v>
       </c>
-      <c r="G105" s="40" t="s">
+      <c r="G105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="Q105" s="4" t="s">
         <v>430</v>
@@ -7493,13 +7505,13 @@
       <c r="D106" t="s">
         <v>400</v>
       </c>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F106" s="6">
         <v>45117</v>
       </c>
-      <c r="G106" s="40" t="s">
+      <c r="G106" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
@@ -7525,13 +7537,13 @@
       <c r="D107" t="s">
         <v>401</v>
       </c>
-      <c r="E107" s="37" t="s">
+      <c r="E107" s="36" t="s">
         <v>387</v>
       </c>
       <c r="F107" s="6">
         <v>45117</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="G107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -7554,13 +7566,13 @@
       <c r="D108" t="s">
         <v>402</v>
       </c>
-      <c r="E108" s="37" t="s">
+      <c r="E108" s="36" t="s">
         <v>388</v>
       </c>
       <c r="F108" s="6">
         <v>45117</v>
       </c>
-      <c r="G108" s="40" t="s">
+      <c r="G108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -7586,13 +7598,13 @@
       <c r="D109" t="s">
         <v>403</v>
       </c>
-      <c r="E109" s="37" t="s">
+      <c r="E109" s="36" t="s">
         <v>389</v>
       </c>
       <c r="F109" s="6">
         <v>45117</v>
       </c>
-      <c r="G109" s="40" t="s">
+      <c r="G109" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -7615,13 +7627,13 @@
       <c r="D110" t="s">
         <v>404</v>
       </c>
-      <c r="E110" s="37" t="s">
+      <c r="E110" s="36" t="s">
         <v>390</v>
       </c>
       <c r="F110" s="6">
         <v>45117</v>
       </c>
-      <c r="G110" s="40" t="s">
+      <c r="G110" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H110" s="4" t="s">
@@ -7647,13 +7659,13 @@
       <c r="D111" t="s">
         <v>407</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="39" t="s">
         <v>424</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
       </c>
-      <c r="G111" s="40" t="s">
+      <c r="G111" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -7679,13 +7691,13 @@
       <c r="D112" t="s">
         <v>406</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="38" t="s">
         <v>391</v>
       </c>
       <c r="F112" s="6">
         <v>45117</v>
       </c>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H112" s="4" t="s">

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC1836C-79E3-0048-9BB6-E5FA41804DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D5910-B0A0-6148-92FF-9B7D3F007C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="2220" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,9 +1116,6 @@
     <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID, may have done pavlovia task very delayed, missing rejection condition</t>
   </si>
   <si>
-    <t>n (missed 11 trials)</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -1329,9 +1326,6 @@
     <t>flatlined RSQ_2b-4b, PerceivedStress_4-8, AQ_46-50; screenshots showed participant uploaded photos on instagram within an hour of submission; replaced photo 28 w/ 31 - had alcohol</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>only has 2 photos where face is shown; has 5 other photos of themselves but is wearing a mask</t>
   </si>
   <si>
@@ -1341,7 +1335,13 @@
     <t>replaced photo 30 w/ 31 - 29 and original 30 were identical</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
+    <t>not valid</t>
+  </si>
+  <si>
+    <t>invalid (missed 11 trials)</t>
+  </si>
+  <si>
+    <t>don’t run</t>
   </si>
 </sst>
 </file>
@@ -1845,11 +1845,11 @@
   </sheetPr>
   <dimension ref="A1:AB112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1928,7 +1928,7 @@
         <v>39</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
@@ -1943,13 +1943,13 @@
         <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
@@ -2538,7 +2538,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R62" s="4">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R63" s="4">
         <v>1</v>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R66" s="4">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R69" s="26">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R72" s="4">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R74" s="4">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R75" s="4">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R77" s="26">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R81" s="4">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R88" s="4">
         <v>1</v>
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R95" s="4">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R96" s="4">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R97" s="24">
         <v>0</v>
@@ -7237,16 +7237,16 @@
         <v>22</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C98" s="29">
         <v>45117</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F98" s="29">
         <v>45117</v>
@@ -7262,7 +7262,7 @@
         <v>8</v>
       </c>
       <c r="Q98" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W98" s="26"/>
     </row>
@@ -7271,16 +7271,16 @@
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C99" s="6">
         <v>45117</v>
       </c>
       <c r="D99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F99" s="6">
         <v>45117</v>
@@ -7293,10 +7293,10 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7308,16 +7308,16 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C100" s="6">
         <v>45117</v>
       </c>
       <c r="D100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F100" s="6">
         <v>45117</v>
@@ -7329,10 +7329,10 @@
         <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7340,16 +7340,16 @@
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C101" s="6">
         <v>45117</v>
       </c>
       <c r="D101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F101" s="6">
         <v>45117</v>
@@ -7361,10 +7361,10 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7372,16 +7372,16 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C102" s="6">
         <v>45117</v>
       </c>
       <c r="D102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F102" s="6">
         <v>45117</v>
@@ -7393,10 +7393,10 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7404,16 +7404,16 @@
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C103" s="6">
         <v>45117</v>
       </c>
       <c r="D103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F103" s="6">
         <v>45117</v>
@@ -7425,10 +7425,10 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7436,16 +7436,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C104" s="6">
         <v>45117</v>
       </c>
       <c r="D104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F104" s="6">
         <v>45117</v>
@@ -7457,7 +7457,7 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7465,16 +7465,16 @@
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" s="6">
         <v>45117</v>
       </c>
       <c r="D105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F105" s="6">
         <v>45117</v>
@@ -7486,10 +7486,10 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7497,16 +7497,16 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C106" s="6">
         <v>45117</v>
       </c>
       <c r="D106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F106" s="6">
         <v>45117</v>
@@ -7518,10 +7518,10 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7529,16 +7529,16 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C107" s="6">
         <v>45117</v>
       </c>
       <c r="D107" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F107" s="6">
         <v>45117</v>
@@ -7550,7 +7550,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7558,16 +7558,16 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C108" s="6">
         <v>45117</v>
       </c>
       <c r="D108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F108" s="6">
         <v>45117</v>
@@ -7579,10 +7579,10 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7590,16 +7590,16 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C109" s="6">
         <v>45117</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E109" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F109" s="6">
         <v>45117</v>
@@ -7611,7 +7611,7 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7619,16 +7619,16 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C110" s="6">
         <v>45117</v>
       </c>
       <c r="D110" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F110" s="6">
         <v>45117</v>
@@ -7640,10 +7640,10 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7651,16 +7651,16 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C111" s="6">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E111" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7675,7 +7675,7 @@
         <v>7</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7683,16 +7683,16 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C112" s="6">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F112" s="6">
         <v>45117</v>
@@ -7704,7 +7704,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D5910-B0A0-6148-92FF-9B7D3F007C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42CD5AA-ED34-2B49-9D58-6CBB0F1C81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2220" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="2600" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="438">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1341,7 +1341,13 @@
     <t>invalid (missed 11 trials)</t>
   </si>
   <si>
-    <t>don’t run</t>
+    <t>63f519601c333d44a17bb35a</t>
+  </si>
+  <si>
+    <t>R_2v3bo7OVNEr9j45</t>
+  </si>
+  <si>
+    <t>R_1Q0GYy9DCjYMLQs</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1432,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,6 +1481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1488,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1538,16 +1550,23 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,13 +1862,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2538,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -7232,39 +7251,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="26" t="s">
+    <row r="98" spans="1:23" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B98" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="41">
         <v>45117</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="E98" s="37" t="s">
+      <c r="E98" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="41">
         <v>45117</v>
       </c>
-      <c r="G98" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="26"/>
-      <c r="J98" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q98" s="26" t="s">
+      <c r="G98" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="39"/>
+      <c r="J98" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q98" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="W98" s="26"/>
+      <c r="W98" s="39"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
@@ -7279,7 +7298,7 @@
       <c r="D99" t="s">
         <v>392</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="37" t="s">
         <v>378</v>
       </c>
       <c r="F99" s="6">
@@ -7316,7 +7335,7 @@
       <c r="D100" t="s">
         <v>393</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="38" t="s">
         <v>379</v>
       </c>
       <c r="F100" s="6">
@@ -7412,7 +7431,7 @@
       <c r="D103" t="s">
         <v>396</v>
       </c>
-      <c r="E103" s="36" t="s">
+      <c r="E103" s="44" t="s">
         <v>382</v>
       </c>
       <c r="F103" s="6">
@@ -7444,7 +7463,7 @@
       <c r="D104" t="s">
         <v>397</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="44" t="s">
         <v>383</v>
       </c>
       <c r="F104" s="6">
@@ -7473,7 +7492,7 @@
       <c r="D105" t="s">
         <v>398</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="E105" s="38" t="s">
         <v>384</v>
       </c>
       <c r="F105" s="6">
@@ -7505,7 +7524,7 @@
       <c r="D106" t="s">
         <v>399</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="44" t="s">
         <v>385</v>
       </c>
       <c r="F106" s="6">
@@ -7537,7 +7556,7 @@
       <c r="D107" t="s">
         <v>400</v>
       </c>
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="44" t="s">
         <v>386</v>
       </c>
       <c r="F107" s="6">
@@ -7598,7 +7617,7 @@
       <c r="D109" t="s">
         <v>402</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="44" t="s">
         <v>388</v>
       </c>
       <c r="F109" s="6">
@@ -7659,7 +7678,7 @@
       <c r="D111" t="s">
         <v>406</v>
       </c>
-      <c r="E111" s="39" t="s">
+      <c r="E111" s="46" t="s">
         <v>423</v>
       </c>
       <c r="F111" s="6">
@@ -7672,7 +7691,7 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q111" s="4" t="s">
         <v>404</v>
@@ -7691,7 +7710,7 @@
       <c r="D112" t="s">
         <v>405</v>
       </c>
-      <c r="E112" s="38" t="s">
+      <c r="E112" s="45" t="s">
         <v>390</v>
       </c>
       <c r="F112" s="6">
@@ -7705,6 +7724,35 @@
       </c>
       <c r="J112" s="14" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>436</v>
+      </c>
+      <c r="C113" s="6">
+        <v>45117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>437</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" s="6">
+        <v>45117</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42CD5AA-ED34-2B49-9D58-6CBB0F1C81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A43AA-9E9F-4243-80B2-73FDBBFD5143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="2600" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="439">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>R_3jYzykjpVBcFAnP</t>
   </si>
   <si>
-    <t>repeated pre-task survey; two response IDs</t>
-  </si>
-  <si>
     <t>R_2UXdDJQGXcBhZp4</t>
   </si>
   <si>
@@ -1348,6 +1345,12 @@
   </si>
   <si>
     <t>R_1Q0GYy9DCjYMLQs</t>
+  </si>
+  <si>
+    <t>5f985596be2ea910b23827ed</t>
+  </si>
+  <si>
+    <t>repeated pre-task survey; two response IDs: 5f982592be2ea910b23827ed</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1552,21 +1555,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,13 +1859,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6400,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7251,46 +7248,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="39" t="s">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="C98" s="41">
+      <c r="B98" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C98" s="6">
         <v>45117</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" t="s">
         <v>391</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="6">
         <v>45117</v>
       </c>
-      <c r="G98" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="39"/>
-      <c r="J98" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q98" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="W98" s="39"/>
+      <c r="G98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="W98" s="4"/>
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C99" s="6">
         <v>45117</v>
@@ -7312,10 +7309,10 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7327,7 +7324,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C100" s="6">
         <v>45117</v>
@@ -7348,10 +7345,10 @@
         <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7359,7 +7356,7 @@
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C101" s="6">
         <v>45117</v>
@@ -7383,7 +7380,7 @@
         <v>8</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7391,7 +7388,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C102" s="6">
         <v>45117</v>
@@ -7399,7 +7396,7 @@
       <c r="D102" t="s">
         <v>395</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="40" t="s">
         <v>381</v>
       </c>
       <c r="F102" s="6">
@@ -7415,7 +7412,7 @@
         <v>8</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7423,7 +7420,7 @@
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C103" s="6">
         <v>45117</v>
@@ -7431,7 +7428,7 @@
       <c r="D103" t="s">
         <v>396</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="40" t="s">
         <v>382</v>
       </c>
       <c r="F103" s="6">
@@ -7447,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7455,7 +7452,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104" s="6">
         <v>45117</v>
@@ -7463,7 +7460,7 @@
       <c r="D104" t="s">
         <v>397</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E104" s="40" t="s">
         <v>383</v>
       </c>
       <c r="F104" s="6">
@@ -7484,7 +7481,7 @@
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C105" s="6">
         <v>45117</v>
@@ -7505,10 +7502,10 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7516,7 +7513,7 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" s="6">
         <v>45117</v>
@@ -7524,7 +7521,7 @@
       <c r="D106" t="s">
         <v>399</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="40" t="s">
         <v>385</v>
       </c>
       <c r="F106" s="6">
@@ -7540,7 +7537,7 @@
         <v>8</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7548,7 +7545,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C107" s="6">
         <v>45117</v>
@@ -7556,7 +7553,7 @@
       <c r="D107" t="s">
         <v>400</v>
       </c>
-      <c r="E107" s="44" t="s">
+      <c r="E107" s="40" t="s">
         <v>386</v>
       </c>
       <c r="F107" s="6">
@@ -7577,7 +7574,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C108" s="6">
         <v>45117</v>
@@ -7585,7 +7582,7 @@
       <c r="D108" t="s">
         <v>401</v>
       </c>
-      <c r="E108" s="36" t="s">
+      <c r="E108" s="40" t="s">
         <v>387</v>
       </c>
       <c r="F108" s="6">
@@ -7601,7 +7598,7 @@
         <v>8</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7609,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C109" s="6">
         <v>45117</v>
@@ -7617,7 +7614,7 @@
       <c r="D109" t="s">
         <v>402</v>
       </c>
-      <c r="E109" s="44" t="s">
+      <c r="E109" s="40" t="s">
         <v>388</v>
       </c>
       <c r="F109" s="6">
@@ -7638,7 +7635,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C110" s="6">
         <v>45117</v>
@@ -7646,7 +7643,7 @@
       <c r="D110" t="s">
         <v>403</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="40" t="s">
         <v>389</v>
       </c>
       <c r="F110" s="6">
@@ -7662,7 +7659,7 @@
         <v>8</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7670,16 +7667,16 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C111" s="6">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>406</v>
-      </c>
-      <c r="E111" s="46" t="s">
-        <v>423</v>
+        <v>405</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>437</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7694,7 +7691,7 @@
         <v>8</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7702,15 +7699,15 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C112" s="6">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>405</v>
-      </c>
-      <c r="E112" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="41" t="s">
         <v>390</v>
       </c>
       <c r="F112" s="6">
@@ -7728,16 +7725,16 @@
     </row>
     <row r="113" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>437</v>
-      </c>
-      <c r="E113" s="47" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>434</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7753,6 +7750,11 @@
       </c>
       <c r="J113" s="14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E116" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A43AA-9E9F-4243-80B2-73FDBBFD5143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B8067-2805-F043-85AC-084195F896E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2600" windowWidth="22740" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="2040" windowWidth="34300" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="444">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -507,9 +510,6 @@
     <t>60ff33eea57872b7188f12e2</t>
   </si>
   <si>
-    <t>**participants from here on have the updated stress rating question</t>
-  </si>
-  <si>
     <t>608209b96e955ba5201eff25</t>
   </si>
   <si>
@@ -954,9 +954,6 @@
     <t>R_PSa8dbyC520Hu1z</t>
   </si>
   <si>
-    <t>need to contact for 3 new photos of self; only uploaded 2 pics of self</t>
-  </si>
-  <si>
     <t>60ff1a1450c5e5c8fe6922d1</t>
   </si>
   <si>
@@ -1351,13 +1348,34 @@
   </si>
   <si>
     <t>repeated pre-task survey; two response IDs: 5f982592be2ea910b23827ed</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>post task missing</t>
+  </si>
+  <si>
+    <t>posttask missing</t>
+  </si>
+  <si>
+    <t>post task missing need to contact for 3 new photos of self; only uploaded 2 pics of self</t>
+  </si>
+  <si>
+    <t>didn’t finish task</t>
+  </si>
+  <si>
+    <t>didn’t do task</t>
+  </si>
+  <si>
+    <t>**participants from here on have the updated stress rating question; dupliate pre task data, changed in pre-task CSV and will need to be adjusted in all pre-task CSVs moving forward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1434,6 +1452,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1503,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1564,6 +1589,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,10 +1888,10 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1917,7 +1943,7 @@
         <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>20</v>
@@ -1926,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
@@ -1938,13 +1964,13 @@
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
@@ -1959,13 +1985,13 @@
         <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
@@ -2500,7 +2526,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="K11" s="26">
         <v>1</v>
@@ -2554,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>8</v>
+        <v>441</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2570,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
@@ -2773,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="K16" s="26">
         <v>1</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M16" s="26">
         <v>0</v>
@@ -3853,19 +3879,19 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="6">
         <v>44994</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>199</v>
+        <v>163</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>198</v>
       </c>
       <c r="F36" s="10">
         <v>44993</v>
@@ -3896,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>157</v>
+        <v>443</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -3913,16 +3939,16 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="6">
         <v>44994</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>147</v>
@@ -3970,16 +3996,16 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38" s="6">
         <v>44994</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>148</v>
@@ -4013,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R38" s="4">
         <v>1</v>
@@ -4030,16 +4056,16 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="6">
         <v>44994</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>156</v>
@@ -4087,16 +4113,16 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="6">
         <v>44994</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>149</v>
@@ -4130,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R40" s="4">
         <v>1</v>
@@ -4147,16 +4173,16 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="6">
         <v>44994</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>150</v>
@@ -4190,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R41" s="4">
         <v>1</v>
@@ -4207,16 +4233,16 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" s="6">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>151</v>
@@ -4250,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R42" s="4">
         <v>1</v>
@@ -4267,16 +4293,16 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" s="6">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>152</v>
@@ -4324,16 +4350,16 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="6">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>153</v>
@@ -4381,16 +4407,16 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="6">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>154</v>
@@ -4438,16 +4464,16 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="6">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>155</v>
@@ -4495,19 +4521,19 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="6">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F47" s="6">
         <v>44993</v>
@@ -4538,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R47" s="4">
         <v>1</v>
@@ -4555,19 +4581,19 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="6">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" s="6">
         <v>44993</v>
@@ -4598,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R48" s="4">
         <v>1</v>
@@ -4615,19 +4641,19 @@
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C49" s="6">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F49" s="6">
         <v>44993</v>
@@ -4672,19 +4698,19 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="6">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="6">
         <v>44993</v>
@@ -4729,19 +4755,19 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="6">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" s="6">
         <v>44993</v>
@@ -4786,19 +4812,19 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" s="6">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" s="6">
         <v>44993</v>
@@ -4829,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R52" s="4">
         <v>1</v>
@@ -4849,16 +4875,16 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="6">
         <v>45005</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="6">
         <v>45004</v>
@@ -4903,16 +4929,16 @@
         <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="6">
         <v>45005</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="6">
         <v>37334</v>
@@ -4957,16 +4983,16 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="6">
         <v>45005</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F55" s="6">
         <v>37334</v>
@@ -5012,16 +5038,16 @@
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" s="6">
         <v>45005</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F56" s="6">
         <v>37334</v>
@@ -5036,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
@@ -5062,7 +5088,7 @@
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F57" s="6">
         <v>37334</v>
@@ -5077,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
@@ -5090,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R57" s="4">
         <v>0</v>
@@ -5108,16 +5134,16 @@
         <v>95</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="6">
         <v>45005</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" s="6">
         <v>45005</v>
@@ -5162,16 +5188,16 @@
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="6">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F59" s="6">
         <v>45005</v>
@@ -5216,16 +5242,16 @@
         <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C60" s="6">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F60" s="6">
         <v>45004</v>
@@ -5267,19 +5293,19 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" s="6">
         <v>45014</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F61" s="6">
         <v>45014</v>
@@ -5320,19 +5346,19 @@
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="6">
         <v>45014</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F62" s="6">
         <v>45014</v>
@@ -5362,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R62" s="4">
         <v>1</v>
@@ -5376,19 +5402,19 @@
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C63" s="6">
         <v>45014</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" s="6">
         <v>45014</v>
@@ -5412,13 +5438,13 @@
         <v>1</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P63">
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R63" s="4">
         <v>1</v>
@@ -5432,19 +5458,19 @@
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C64" s="6">
         <v>45014</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F64" s="6">
         <v>45014</v>
@@ -5485,19 +5511,19 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C65" s="6">
         <v>45014</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F65" s="6">
         <v>45014</v>
@@ -5538,19 +5564,19 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C66" s="6">
         <v>45014</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F66" s="6">
         <v>45014</v>
@@ -5565,7 +5591,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>8</v>
+        <v>442</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5580,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R66" s="4">
         <v>1</v>
@@ -5594,19 +5620,19 @@
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C67" s="6">
         <v>45014</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F67" s="6">
         <v>45014</v>
@@ -5647,19 +5673,19 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68" s="6">
         <v>45014</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F68" s="6">
         <v>45014</v>
@@ -5700,19 +5726,19 @@
     </row>
     <row r="69" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C69" s="29">
         <v>45014</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F69" s="29">
         <v>45014</v>
@@ -5727,7 +5753,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="K69" s="27">
         <v>1</v>
@@ -5742,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R69" s="26">
         <v>0</v>
@@ -5756,19 +5782,19 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C70" s="6">
         <v>45014</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F70" s="6">
         <v>45014</v>
@@ -5810,19 +5836,19 @@
     </row>
     <row r="71" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="6">
         <v>45014</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F71" s="6">
         <v>45014</v>
@@ -5852,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R71" s="4">
         <v>0</v>
@@ -5866,19 +5892,19 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C72" s="6">
         <v>45014</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F72" s="6">
         <v>45014</v>
@@ -5893,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5908,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R72" s="4">
         <v>0</v>
@@ -5922,19 +5948,19 @@
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C73" s="6">
         <v>45014</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F73" s="6">
         <v>45014</v>
@@ -5964,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R73" s="4">
         <v>0</v>
@@ -5978,19 +6004,19 @@
     </row>
     <row r="74" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" s="6">
         <v>45014</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F74" s="6">
         <v>45014</v>
@@ -6005,7 +6031,7 @@
         <v>7</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6020,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R74" s="4">
         <v>0</v>
@@ -6034,19 +6060,19 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" s="6">
         <v>45014</v>
       </c>
       <c r="D75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F75" s="6">
         <v>45014</v>
@@ -6061,7 +6087,7 @@
         <v>7</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6076,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R75" s="4">
         <v>0</v>
@@ -6090,19 +6116,19 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C76" s="6">
         <v>45014</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F76" s="6">
         <v>45014</v>
@@ -6132,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R76" s="4">
         <v>1</v>
@@ -6147,21 +6173,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="27" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C77" s="29">
         <v>45070</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F77" s="29">
         <v>45070</v>
@@ -6176,7 +6202,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="K77" s="27">
         <v>1</v>
@@ -6191,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R77" s="26">
         <v>0</v>
@@ -6202,19 +6228,19 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C78" s="6">
         <v>45070</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F78" s="6">
         <v>45070</v>
@@ -6258,19 +6284,19 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C79" s="6">
         <v>45070</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F79" s="6">
         <v>45070</v>
@@ -6314,19 +6340,19 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C80" s="6">
         <v>45070</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F80" s="6">
         <v>45070</v>
@@ -6370,19 +6396,19 @@
     </row>
     <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C81" s="6">
         <v>45070</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F81" s="6">
         <v>45070</v>
@@ -6397,7 +6423,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6412,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R81" s="4">
         <v>0</v>
@@ -6426,16 +6452,16 @@
         <v>68</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C82" s="29">
         <v>45082</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F82" s="29">
         <v>45082</v>
@@ -6450,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>8</v>
+        <v>438</v>
       </c>
       <c r="K82" s="27">
         <v>1</v>
@@ -6465,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R82" s="27">
         <v>0</v>
@@ -6479,16 +6505,16 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C83" s="6">
         <v>45082</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F83" s="6">
         <v>45082</v>
@@ -6518,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R83" s="4">
         <v>1</v>
@@ -6532,16 +6558,16 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C84" s="6">
         <v>45082</v>
       </c>
       <c r="D84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F84" s="6">
         <v>45082</v>
@@ -6582,16 +6608,16 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C85" s="6">
         <v>45082</v>
       </c>
       <c r="D85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F85" s="6">
         <v>45082</v>
@@ -6606,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6621,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R85" s="4">
         <v>0</v>
@@ -6635,16 +6661,16 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C86" s="6">
         <v>45082</v>
       </c>
       <c r="D86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F86" s="6">
         <v>45082</v>
@@ -6688,16 +6714,16 @@
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C87" s="6">
         <v>45082</v>
       </c>
       <c r="D87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F87" s="6">
         <v>45082</v>
@@ -6738,16 +6764,16 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C88" s="6">
         <v>45082</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F88" s="6">
         <v>45082</v>
@@ -6777,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R88" s="4">
         <v>1</v>
@@ -6791,16 +6817,16 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C89" s="6">
         <v>45082</v>
       </c>
       <c r="D89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F89" s="6">
         <v>45082</v>
@@ -6830,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R89" s="4">
         <v>1</v>
@@ -6844,16 +6870,16 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C90" s="6">
         <v>45082</v>
       </c>
       <c r="D90" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F90" s="6">
         <v>45082</v>
@@ -6894,16 +6920,16 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C91" s="6">
         <v>45082</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F91" s="6">
         <v>45082</v>
@@ -6944,16 +6970,16 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C92" s="6">
         <v>45082</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F92" s="6">
         <v>45082</v>
@@ -6997,10 +7023,10 @@
         <v>45082</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F93" s="6">
         <v>45082</v>
@@ -7015,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="J93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7041,16 +7067,16 @@
         <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C94" s="6">
         <v>45082</v>
       </c>
       <c r="D94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F94" s="6">
         <v>45082</v>
@@ -7065,7 +7091,7 @@
         <v>7</v>
       </c>
       <c r="J94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7080,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R94" s="4">
         <v>0</v>
@@ -7094,16 +7120,16 @@
         <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C95" s="6">
         <v>45082</v>
       </c>
       <c r="D95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F95" s="6">
         <v>45082</v>
@@ -7118,7 +7144,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7133,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R95" s="4">
         <v>0</v>
@@ -7147,16 +7173,16 @@
         <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C96" s="6">
         <v>45082</v>
       </c>
       <c r="D96" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F96" s="6">
         <v>45082</v>
@@ -7171,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7186,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R96" s="4">
         <v>1</v>
@@ -7200,16 +7226,16 @@
         <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C97" s="6">
         <v>45082</v>
       </c>
       <c r="D97" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F97" s="6">
         <v>45082</v>
@@ -7224,7 +7250,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7239,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R97" s="24">
         <v>0</v>
@@ -7253,16 +7279,16 @@
         <v>22</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C98" s="6">
         <v>45117</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F98" s="6">
         <v>45117</v>
@@ -7275,10 +7301,13 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -7287,16 +7316,16 @@
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C99" s="6">
         <v>45117</v>
       </c>
       <c r="D99" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F99" s="6">
         <v>45117</v>
@@ -7309,10 +7338,13 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7324,16 +7356,16 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C100" s="6">
         <v>45117</v>
       </c>
       <c r="D100" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F100" s="6">
         <v>45117</v>
@@ -7345,10 +7377,13 @@
         <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7356,16 +7391,16 @@
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C101" s="6">
         <v>45117</v>
       </c>
       <c r="D101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F101" s="6">
         <v>45117</v>
@@ -7377,10 +7412,13 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7388,16 +7426,16 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C102" s="6">
         <v>45117</v>
       </c>
       <c r="D102" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F102" s="6">
         <v>45117</v>
@@ -7409,10 +7447,13 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7420,16 +7461,16 @@
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C103" s="6">
         <v>45117</v>
       </c>
       <c r="D103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F103" s="6">
         <v>45117</v>
@@ -7441,10 +7482,13 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7452,16 +7496,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C104" s="6">
         <v>45117</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F104" s="6">
         <v>45117</v>
@@ -7473,7 +7517,10 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7481,16 +7528,16 @@
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C105" s="6">
         <v>45117</v>
       </c>
       <c r="D105" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F105" s="6">
         <v>45117</v>
@@ -7502,10 +7549,13 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7513,16 +7563,16 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C106" s="6">
         <v>45117</v>
       </c>
       <c r="D106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F106" s="6">
         <v>45117</v>
@@ -7534,10 +7584,13 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7545,16 +7598,16 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C107" s="6">
         <v>45117</v>
       </c>
       <c r="D107" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F107" s="6">
         <v>45117</v>
@@ -7566,7 +7619,10 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7574,16 +7630,16 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C108" s="6">
         <v>45117</v>
       </c>
       <c r="D108" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E108" s="40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F108" s="6">
         <v>45117</v>
@@ -7595,10 +7651,13 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7606,16 +7665,16 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C109" s="6">
         <v>45117</v>
       </c>
       <c r="D109" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F109" s="6">
         <v>45117</v>
@@ -7627,7 +7686,10 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7635,16 +7697,16 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C110" s="6">
         <v>45117</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F110" s="6">
         <v>45117</v>
@@ -7656,10 +7718,13 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7667,16 +7732,16 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C111" s="6">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7688,10 +7753,13 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>8</v>
+        <v>437</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7699,16 +7767,16 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C112" s="6">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F112" s="6">
         <v>45117</v>
@@ -7720,21 +7788,24 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7749,15 +7820,19 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B77">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B8067-2805-F043-85AC-084195F896E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA55D77-17AD-0447-8194-8AD19B7926F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30840" yWindow="2040" windowWidth="34300" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA55D77-17AD-0447-8194-8AD19B7926F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E23153-10FB-0F4D-931D-74FE4FE518B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="2040" windowWidth="34300" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34220" yWindow="4260" windowWidth="34300" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="446">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1369,6 +1369,12 @@
   </si>
   <si>
     <t>**participants from here on have the updated stress rating question; dupliate pre task data, changed in pre-task CSV and will need to be adjusted in all pre-task CSVs moving forward</t>
+  </si>
+  <si>
+    <t>no post-task survey showing, need to investigate whether we actually have their data</t>
+  </si>
+  <si>
+    <t>must investigate why post-task not showing up</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1466,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,6 +1521,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1528,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1590,6 +1602,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,10 +1908,10 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M114" sqref="M114"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5129,57 +5149,60 @@
       </c>
       <c r="AA57" s="16"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="46">
         <v>45005</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="46">
         <v>45005</v>
       </c>
-      <c r="G58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="4">
-        <v>1</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="R58" s="4">
-        <v>1</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-      <c r="Y58">
+      <c r="G58" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" s="45">
+        <v>1</v>
+      </c>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45">
+        <v>1</v>
+      </c>
+      <c r="P58" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="R58" s="45">
+        <v>1</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="47">
         <v>32</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E23153-10FB-0F4D-931D-74FE4FE518B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7C17F-1E1F-7F4F-86C0-70A3ABC15CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="4260" windowWidth="34300" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32300" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1907,34 +1907,34 @@
   </sheetPr>
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="103.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="103.33203125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="22" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2567,12 +2567,7 @@
       <c r="W11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="27">
-        <v>23</v>
-      </c>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -2729,12 +2724,7 @@
       <c r="W14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>33</v>
-      </c>
+      <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -2846,12 +2836,7 @@
       <c r="W16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="27">
-        <v>21</v>
-      </c>
+      <c r="X16" s="26"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -3182,9 +3167,7 @@
       <c r="W22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
@@ -3236,9 +3219,7 @@
       <c r="W23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -3398,9 +3379,6 @@
       <c r="W26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
@@ -3563,9 +3541,6 @@
       <c r="W29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
@@ -3617,9 +3592,6 @@
       <c r="W30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
@@ -3779,9 +3751,6 @@
       <c r="W33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -5099,9 +5068,6 @@
       </c>
       <c r="W56" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
       </c>
       <c r="AA56" s="16"/>
     </row>
@@ -5144,9 +5110,6 @@
       <c r="W57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
       <c r="AA57" s="16"/>
     </row>
     <row r="58" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5199,12 +5162,6 @@
       <c r="W58" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="47">
-        <v>32</v>
-      </c>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -5366,6 +5323,9 @@
       <c r="X61">
         <v>0</v>
       </c>
+      <c r="Y61">
+        <v>19</v>
+      </c>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
@@ -5422,6 +5382,9 @@
       <c r="X62">
         <v>0</v>
       </c>
+      <c r="Y62">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
@@ -5476,7 +5439,10 @@
         <v>7</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5531,6 +5497,9 @@
       <c r="X64">
         <v>0</v>
       </c>
+      <c r="Y64">
+        <v>34</v>
+      </c>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
@@ -5584,6 +5553,9 @@
       <c r="X65">
         <v>0</v>
       </c>
+      <c r="Y65">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
@@ -5631,14 +5603,9 @@
       <c r="Q66" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="R66" s="4">
-        <v>1</v>
-      </c>
+      <c r="R66" s="4"/>
       <c r="W66" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5691,7 +5658,10 @@
         <v>7</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5746,6 +5716,9 @@
       <c r="X68">
         <v>0</v>
       </c>
+      <c r="Y68">
+        <v>30</v>
+      </c>
     </row>
     <row r="69" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
@@ -5799,9 +5772,6 @@
       <c r="W69" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X69" s="27">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
@@ -5854,7 +5824,10 @@
         <v>7</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="14" x14ac:dyDescent="0.15">
@@ -5909,9 +5882,6 @@
       <c r="W71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
@@ -5965,9 +5935,6 @@
       <c r="W72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
@@ -6021,9 +5988,6 @@
       <c r="W73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
@@ -6077,9 +6041,6 @@
       <c r="W74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -6133,9 +6094,6 @@
       <c r="W75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
@@ -6417,7 +6375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>289</v>
       </c>
@@ -6470,7 +6428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="26" t="s">
         <v>68</v>
       </c>
@@ -6523,7 +6481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
@@ -6575,8 +6533,14 @@
       <c r="W83" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>68</v>
       </c>
@@ -6625,8 +6589,14 @@
       <c r="W84" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>68</v>
       </c>
@@ -6679,7 +6649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>68</v>
       </c>
@@ -6732,7 +6702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>68</v>
       </c>
@@ -6781,8 +6751,14 @@
       <c r="W87" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>68</v>
       </c>
@@ -6834,8 +6810,14 @@
       <c r="W88" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>68</v>
       </c>
@@ -6887,8 +6869,14 @@
       <c r="W89" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>68</v>
       </c>
@@ -6937,8 +6925,14 @@
       <c r="W90" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
@@ -6987,8 +6981,14 @@
       <c r="W91" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
@@ -7037,8 +7037,14 @@
       <c r="W92" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>68</v>
       </c>
@@ -7085,7 +7091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>68</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>68</v>
       </c>
@@ -7243,8 +7249,14 @@
       <c r="W96" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>68</v>
       </c>
@@ -7296,8 +7308,16 @@
       <c r="W97" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X97">
+        <f>SUM(X2:X96)</f>
+        <v>24</v>
+      </c>
+      <c r="Y97">
+        <f>AVERAGE(Y2:Y96)</f>
+        <v>27.492537313432837</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
@@ -7334,7 +7354,7 @@
       </c>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>22</v>
       </c>
@@ -7371,10 +7391,10 @@
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>22</v>
       </c>
@@ -7409,7 +7429,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>22</v>
       </c>
@@ -7444,7 +7464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
@@ -7479,7 +7499,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>22</v>
       </c>
@@ -7514,7 +7534,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>22</v>
       </c>
@@ -7546,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
@@ -7581,7 +7601,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
@@ -7616,7 +7636,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>22</v>
       </c>
@@ -7648,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>22</v>
       </c>
@@ -7683,7 +7703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>22</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
@@ -7750,7 +7770,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
@@ -7785,7 +7805,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>22</v>
       </c>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7C17F-1E1F-7F4F-86C0-70A3ABC15CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA56A04-FCBF-8646-BF6C-3DFA94B6186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32300" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34060" yWindow="-780" windowWidth="31740" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1308,9 +1308,6 @@
     <t>photos 1-5 are half-face selfies</t>
   </si>
   <si>
-    <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics</t>
-  </si>
-  <si>
     <t>replaced photo 1 w/ 31 - original was a screenshot of a video; pre-cropped and potentially reposted (see photos 14 and 30)?; stole pics from google images (photos 25 and 26)</t>
   </si>
   <si>
@@ -1347,9 +1344,6 @@
     <t>5f985596be2ea910b23827ed</t>
   </si>
   <si>
-    <t>repeated pre-task survey; two response IDs: 5f982592be2ea910b23827ed</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
@@ -1375,6 +1369,12 @@
   </si>
   <si>
     <t>must investigate why post-task not showing up</t>
+  </si>
+  <si>
+    <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics, uploaded new photos of self</t>
+  </si>
+  <si>
+    <t>repeated pre-task survey; two response IDs: 5f982592be2ea910b23827ed, this one wasn't working for some reason</t>
   </si>
 </sst>
 </file>
@@ -1589,18 +1589,12 @@
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1609,6 +1603,12 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,34 +1907,34 @@
   </sheetPr>
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
+      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="103.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="103.33203125" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="23" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,7 +2546,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K11" s="26">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K16" s="26">
         <v>1</v>
@@ -3879,7 +3879,7 @@
       <c r="D36" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="40" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="10">
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -5112,54 +5112,54 @@
       </c>
       <c r="AA57" s="16"/>
     </row>
-    <row r="58" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="45" t="s">
+    <row r="58" spans="1:28" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="42">
         <v>45005</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="46">
+      <c r="F58" s="42">
         <v>45005</v>
       </c>
-      <c r="G58" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="K58" s="45">
-        <v>1</v>
-      </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45">
-        <v>1</v>
-      </c>
-      <c r="P58" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="R58" s="45">
-        <v>1</v>
-      </c>
-      <c r="W58" s="45" t="s">
+      <c r="G58" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" s="41">
+        <v>1</v>
+      </c>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41">
+        <v>1</v>
+      </c>
+      <c r="P58" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="R58" s="41">
+        <v>1</v>
+      </c>
+      <c r="W58" s="41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K69" s="27">
         <v>1</v>
@@ -6183,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K77" s="27">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K82" s="27">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7285,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7321,7 +7321,7 @@
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="37" t="s">
         <v>406</v>
       </c>
       <c r="C98" s="6">
@@ -7330,7 +7330,7 @@
       <c r="D98" t="s">
         <v>389</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="47" t="s">
         <v>375</v>
       </c>
       <c r="F98" s="6">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -7367,7 +7367,7 @@
       <c r="D99" t="s">
         <v>390</v>
       </c>
-      <c r="E99" s="37" t="s">
+      <c r="E99" s="49" t="s">
         <v>376</v>
       </c>
       <c r="F99" s="6">
@@ -7381,13 +7381,13 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7407,7 +7407,7 @@
       <c r="D100" t="s">
         <v>391</v>
       </c>
-      <c r="E100" s="38" t="s">
+      <c r="E100" s="36" t="s">
         <v>377</v>
       </c>
       <c r="F100" s="6">
@@ -7420,13 +7420,13 @@
         <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>430</v>
+        <v>7</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7442,7 +7442,7 @@
       <c r="D101" t="s">
         <v>392</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="47" t="s">
         <v>378</v>
       </c>
       <c r="F101" s="6">
@@ -7455,13 +7455,13 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7477,7 +7477,7 @@
       <c r="D102" t="s">
         <v>393</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="38" t="s">
         <v>379</v>
       </c>
       <c r="F102" s="6">
@@ -7490,13 +7490,13 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7512,7 +7512,7 @@
       <c r="D103" t="s">
         <v>394</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="47" t="s">
         <v>380</v>
       </c>
       <c r="F103" s="6">
@@ -7525,7 +7525,7 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7547,7 +7547,7 @@
       <c r="D104" t="s">
         <v>395</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="47" t="s">
         <v>381</v>
       </c>
       <c r="F104" s="6">
@@ -7560,7 +7560,7 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -7579,7 +7579,7 @@
       <c r="D105" t="s">
         <v>396</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="47" t="s">
         <v>382</v>
       </c>
       <c r="F105" s="6">
@@ -7592,13 +7592,13 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7614,7 +7614,7 @@
       <c r="D106" t="s">
         <v>397</v>
       </c>
-      <c r="E106" s="40" t="s">
+      <c r="E106" s="47" t="s">
         <v>383</v>
       </c>
       <c r="F106" s="6">
@@ -7627,13 +7627,13 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7649,7 +7649,7 @@
       <c r="D107" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="38" t="s">
         <v>384</v>
       </c>
       <c r="F107" s="6">
@@ -7662,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7681,7 +7681,7 @@
       <c r="D108" t="s">
         <v>399</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="38" t="s">
         <v>385</v>
       </c>
       <c r="F108" s="6">
@@ -7694,7 +7694,7 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -7716,7 +7716,7 @@
       <c r="D109" t="s">
         <v>400</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="47" t="s">
         <v>386</v>
       </c>
       <c r="F109" s="6">
@@ -7729,11 +7729,12 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
+      <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
@@ -7748,7 +7749,7 @@
       <c r="D110" t="s">
         <v>401</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="47" t="s">
         <v>387</v>
       </c>
       <c r="F110" s="6">
@@ -7761,13 +7762,13 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7783,8 +7784,8 @@
       <c r="D111" t="s">
         <v>403</v>
       </c>
-      <c r="E111" s="43" t="s">
-        <v>435</v>
+      <c r="E111" s="50" t="s">
+        <v>434</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7793,16 +7794,19 @@
         <v>8</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7818,7 +7822,7 @@
       <c r="D112" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" s="48" t="s">
         <v>388</v>
       </c>
       <c r="F112" s="6">
@@ -7831,7 +7835,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -7839,16 +7843,16 @@
     </row>
     <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>434</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="E113" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7863,16 +7867,14 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="E116" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="K1:K116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7C17F-1E1F-7F4F-86C0-70A3ABC15CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD3E32-90D5-8D46-864C-158B49778FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32300" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="1940" windowWidth="32300" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1308,9 +1295,6 @@
     <t>photos 1-5 are half-face selfies</t>
   </si>
   <si>
-    <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics</t>
-  </si>
-  <si>
     <t>replaced photo 1 w/ 31 - original was a screenshot of a video; pre-cropped and potentially reposted (see photos 14 and 30)?; stole pics from google images (photos 25 and 26)</t>
   </si>
   <si>
@@ -1375,6 +1359,9 @@
   </si>
   <si>
     <t>must investigate why post-task not showing up</t>
+  </si>
+  <si>
+    <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics; new photo upload ID: R_3CHhD7yrhKsI60H - changed names of photos 20 and 28 to reflect original upload ID)</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1608,6 +1595,12 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1908,10 +1901,10 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1920,21 +1913,21 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="103.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="103.33203125" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="23" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,7 +2539,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K11" s="26">
         <v>1</v>
@@ -2595,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2809,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K16" s="26">
         <v>1</v>
@@ -3911,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -5141,7 +5134,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K58" s="45">
         <v>1</v>
@@ -5154,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R58" s="45">
         <v>1</v>
@@ -5586,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5749,7 +5742,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K69" s="27">
         <v>1</v>
@@ -6183,7 +6176,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K77" s="27">
         <v>1</v>
@@ -6404,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6457,7 +6450,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K82" s="27">
         <v>1</v>
@@ -7173,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7226,7 +7219,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7285,7 +7278,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7344,7 +7337,7 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -7381,52 +7374,52 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="52">
         <v>45117</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="53" t="s">
         <v>391</v>
       </c>
       <c r="E100" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="52">
         <v>45117</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>423</v>
+      <c r="G100" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="51" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7455,13 +7448,13 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7490,13 +7483,13 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7525,7 +7518,7 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7560,45 +7553,45 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="52">
         <v>45117</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="53" t="s">
         <v>396</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="52">
         <v>45117</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="4" t="s">
-        <v>426</v>
+      <c r="G105" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="M105" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="51" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7627,13 +7620,13 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7662,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7694,7 +7687,7 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -7729,7 +7722,7 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -7761,13 +7754,13 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7784,7 +7777,7 @@
         <v>403</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7796,13 +7789,13 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7831,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -7839,16 +7832,16 @@
     </row>
     <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7863,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M113">
         <v>0</v>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD3E32-90D5-8D46-864C-158B49778FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9553621-42D3-9240-BEAA-6080B4AB8D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1940" windowWidth="32300" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34800" yWindow="1600" windowWidth="30240" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="454">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1286,9 +1299,6 @@
     <t>R_1i4YK4q41YvCDuG</t>
   </si>
   <si>
-    <t>5f982592be2ea910b23827ed</t>
-  </si>
-  <si>
     <t>R_2AQO3XvkK301KPu</t>
   </si>
   <si>
@@ -1362,6 +1372,33 @@
   </si>
   <si>
     <t>flatlined PerceivedStress_6-10, AQ_22-28, 42-48,  SCS_1-6; all photos originally labelled "Untitled.png"; no self pics; new photo upload ID: R_3CHhD7yrhKsI60H - changed names of photos 20 and 28 to reflect original upload ID)</t>
+  </si>
+  <si>
+    <t>60fec21e36a05990cfa8a715</t>
+  </si>
+  <si>
+    <t>5cab944b41de360017e2c3db</t>
+  </si>
+  <si>
+    <t>5e5e623737be5e1762ad4418</t>
+  </si>
+  <si>
+    <t>63d7ec164d40c184be89bf34</t>
+  </si>
+  <si>
+    <t>6112c911a83cc494df38b468</t>
+  </si>
+  <si>
+    <t>5f0a768d79e052185602759b</t>
+  </si>
+  <si>
+    <t>5c1edaeaafeeef00011588b3</t>
+  </si>
+  <si>
+    <t>6100652c5329da76a962cdb3</t>
+  </si>
+  <si>
+    <t>6282571cf39cd89341a474e9</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,19 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9E46E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1559,50 +1584,44 @@
     <xf numFmtId="11" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,13 +1917,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2513,54 +2532,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>44959</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
-        <v>0</v>
-      </c>
-      <c r="O11" s="27">
+      <c r="G11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
         <v>3</v>
       </c>
-      <c r="P11" s="27">
-        <v>0</v>
-      </c>
-      <c r="R11" s="27">
-        <v>0</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="26"/>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -2588,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2776,60 +2795,60 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="27">
         <v>44967</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="L16" s="26" t="s">
+      <c r="G16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="M16" s="26">
-        <v>0</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27">
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25">
         <v>3</v>
       </c>
-      <c r="P16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="27" t="s">
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="27">
-        <v>0</v>
-      </c>
-      <c r="W16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="X16" s="26"/>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -3175,7 +3194,7 @@
       <c r="D23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="32" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="5">
@@ -3227,7 +3246,7 @@
       <c r="D24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="32" t="s">
         <v>83</v>
       </c>
       <c r="F24" s="5">
@@ -3872,7 +3891,7 @@
       <c r="D36" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="35" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="10">
@@ -3904,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -5105,54 +5124,54 @@
       </c>
       <c r="AA57" s="16"/>
     </row>
-    <row r="58" spans="1:28" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="45" t="s">
+    <row r="58" spans="1:28" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="37">
         <v>45005</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="46">
+      <c r="F58" s="37">
         <v>45005</v>
       </c>
-      <c r="G58" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="K58" s="45">
-        <v>1</v>
-      </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45">
-        <v>1</v>
-      </c>
-      <c r="P58" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="45" t="s">
+      <c r="G58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="R58" s="45">
-        <v>1</v>
-      </c>
-      <c r="W58" s="45" t="s">
+      <c r="K58" s="36">
+        <v>1</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36">
+        <v>1</v>
+      </c>
+      <c r="P58" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="R58" s="36">
+        <v>1</v>
+      </c>
+      <c r="W58" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5579,7 +5598,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5713,56 +5732,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="26" t="s">
+    <row r="69" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="27">
         <v>45014</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="27">
         <v>45014</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J69" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="K69" s="27">
-        <v>1</v>
-      </c>
-      <c r="M69" s="26">
-        <v>0</v>
-      </c>
-      <c r="O69" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="P69" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="26" t="s">
+      <c r="G69" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="K69" s="25">
+        <v>1</v>
+      </c>
+      <c r="M69" s="24">
+        <v>0</v>
+      </c>
+      <c r="O69" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P69" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="R69" s="26">
-        <v>0</v>
-      </c>
-      <c r="W69" s="26" t="s">
+      <c r="R69" s="24">
+        <v>0</v>
+      </c>
+      <c r="W69" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6147,56 +6166,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="27" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A77" s="26" t="s">
+    <row r="77" spans="1:25" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="27">
         <v>45070</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="27">
         <v>45070</v>
       </c>
-      <c r="G77" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="K77" s="27">
-        <v>1</v>
-      </c>
-      <c r="M77" s="27">
-        <v>0</v>
-      </c>
-      <c r="O77" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="P77" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="26" t="s">
+      <c r="G77" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="K77" s="25">
+        <v>1</v>
+      </c>
+      <c r="M77" s="25">
+        <v>0</v>
+      </c>
+      <c r="O77" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P77" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="R77" s="26">
-        <v>0</v>
-      </c>
-      <c r="W77" s="26" t="s">
+      <c r="R77" s="24">
+        <v>0</v>
+      </c>
+      <c r="W77" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6397,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6421,56 +6440,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="26" t="s">
+    <row r="82" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="27">
         <v>45082</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="27">
         <v>45082</v>
       </c>
-      <c r="G82" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="K82" s="27">
-        <v>1</v>
-      </c>
-      <c r="M82" s="27">
-        <v>0</v>
-      </c>
-      <c r="O82" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="P82" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="27" t="s">
+      <c r="G82" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="K82" s="25">
+        <v>1</v>
+      </c>
+      <c r="M82" s="25">
+        <v>0</v>
+      </c>
+      <c r="O82" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P82" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="R82" s="27">
-        <v>0</v>
-      </c>
-      <c r="W82" s="26" t="s">
+      <c r="R82" s="25">
+        <v>0</v>
+      </c>
+      <c r="W82" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6655,7 +6674,7 @@
       <c r="D86" t="s">
         <v>326</v>
       </c>
-      <c r="E86" s="25" t="s">
+      <c r="E86" s="49" t="s">
         <v>309</v>
       </c>
       <c r="F86" s="6">
@@ -6882,7 +6901,7 @@
       <c r="D90" t="s">
         <v>327</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="33" t="s">
         <v>313</v>
       </c>
       <c r="F90" s="6">
@@ -7047,7 +7066,7 @@
       <c r="D93" t="s">
         <v>332</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="42" t="s">
         <v>316</v>
       </c>
       <c r="F93" s="6">
@@ -7097,7 +7116,7 @@
       <c r="D94" t="s">
         <v>333</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="43" t="s">
         <v>317</v>
       </c>
       <c r="F94" s="6">
@@ -7150,7 +7169,7 @@
       <c r="D95" t="s">
         <v>334</v>
       </c>
-      <c r="E95" s="25" t="s">
+      <c r="E95" s="49" t="s">
         <v>318</v>
       </c>
       <c r="F95" s="6">
@@ -7166,7 +7185,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7203,7 +7222,7 @@
       <c r="D96" t="s">
         <v>335</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="43" t="s">
         <v>319</v>
       </c>
       <c r="F96" s="6">
@@ -7219,7 +7238,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7262,7 +7281,7 @@
       <c r="D97" t="s">
         <v>336</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="43" t="s">
         <v>320</v>
       </c>
       <c r="F97" s="6">
@@ -7278,7 +7297,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7292,10 +7311,10 @@
       <c r="P97">
         <v>1</v>
       </c>
-      <c r="Q97" s="24" t="s">
+      <c r="Q97" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="R97" s="24">
+      <c r="R97" s="23">
         <v>0</v>
       </c>
       <c r="W97" s="4" t="s">
@@ -7314,7 +7333,7 @@
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="34" t="s">
         <v>406</v>
       </c>
       <c r="C98" s="6">
@@ -7323,7 +7342,7 @@
       <c r="D98" t="s">
         <v>389</v>
       </c>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="44" t="s">
         <v>375</v>
       </c>
       <c r="F98" s="6">
@@ -7337,13 +7356,13 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -7360,7 +7379,7 @@
       <c r="D99" t="s">
         <v>390</v>
       </c>
-      <c r="E99" s="37" t="s">
+      <c r="E99" s="45" t="s">
         <v>376</v>
       </c>
       <c r="F99" s="6">
@@ -7374,52 +7393,52 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="51" t="s">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="52">
+      <c r="C100" s="6">
         <v>45117</v>
       </c>
-      <c r="D100" s="53" t="s">
+      <c r="D100" t="s">
         <v>391</v>
       </c>
-      <c r="E100" s="38" t="s">
+      <c r="E100" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="F100" s="52">
+      <c r="F100" s="6">
         <v>45117</v>
       </c>
-      <c r="G100" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="51" t="s">
-        <v>445</v>
+      <c r="G100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7435,7 +7454,7 @@
       <c r="D101" t="s">
         <v>392</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="44" t="s">
         <v>378</v>
       </c>
       <c r="F101" s="6">
@@ -7448,13 +7467,13 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7470,7 +7489,7 @@
       <c r="D102" t="s">
         <v>393</v>
       </c>
-      <c r="E102" s="40" t="s">
+      <c r="E102" s="44" t="s">
         <v>379</v>
       </c>
       <c r="F102" s="6">
@@ -7483,13 +7502,13 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7505,7 +7524,7 @@
       <c r="D103" t="s">
         <v>394</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="44" t="s">
         <v>380</v>
       </c>
       <c r="F103" s="6">
@@ -7518,7 +7537,7 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7540,7 +7559,7 @@
       <c r="D104" t="s">
         <v>395</v>
       </c>
-      <c r="E104" s="40" t="s">
+      <c r="E104" s="44" t="s">
         <v>381</v>
       </c>
       <c r="F104" s="6">
@@ -7553,45 +7572,45 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="51" t="s">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C105" s="52">
+      <c r="C105" s="6">
         <v>45117</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" t="s">
         <v>396</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="F105" s="52">
+      <c r="F105" s="6">
         <v>45117</v>
       </c>
-      <c r="G105" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="M105" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="51" t="s">
-        <v>425</v>
+      <c r="G105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7607,7 +7626,7 @@
       <c r="D106" t="s">
         <v>397</v>
       </c>
-      <c r="E106" s="40" t="s">
+      <c r="E106" s="44" t="s">
         <v>383</v>
       </c>
       <c r="F106" s="6">
@@ -7620,13 +7639,13 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7642,7 +7661,7 @@
       <c r="D107" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="44" t="s">
         <v>384</v>
       </c>
       <c r="F107" s="6">
@@ -7655,7 +7674,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7674,7 +7693,7 @@
       <c r="D108" t="s">
         <v>399</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="44" t="s">
         <v>385</v>
       </c>
       <c r="F108" s="6">
@@ -7687,7 +7706,7 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -7709,7 +7728,7 @@
       <c r="D109" t="s">
         <v>400</v>
       </c>
-      <c r="E109" s="40" t="s">
+      <c r="E109" s="44" t="s">
         <v>386</v>
       </c>
       <c r="F109" s="6">
@@ -7722,7 +7741,7 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -7741,7 +7760,7 @@
       <c r="D110" t="s">
         <v>401</v>
       </c>
-      <c r="E110" s="40" t="s">
+      <c r="E110" s="44" t="s">
         <v>387</v>
       </c>
       <c r="F110" s="6">
@@ -7754,13 +7773,13 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7768,7 +7787,7 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C111" s="6">
         <v>45117</v>
@@ -7776,8 +7795,8 @@
       <c r="D111" t="s">
         <v>403</v>
       </c>
-      <c r="E111" s="43" t="s">
-        <v>434</v>
+      <c r="E111" s="47" t="s">
+        <v>433</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7789,13 +7808,13 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7811,7 +7830,7 @@
       <c r="D112" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" s="43" t="s">
         <v>388</v>
       </c>
       <c r="F112" s="6">
@@ -7824,7 +7843,7 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -7832,16 +7851,16 @@
     </row>
     <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>433</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="E113" s="48" t="s">
+        <v>430</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7856,15 +7875,55 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="50" t="s">
+        <v>446</v>
+      </c>
+    </row>
     <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="4" t="s">
-        <v>420</v>
+      <c r="E116" s="50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E118" s="50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" s="50" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melanieruiz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9553621-42D3-9240-BEAA-6080B4AB8D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D706A19A-E2F2-054C-9FFB-C4F93A762AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="1600" windowWidth="30240" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="680" windowWidth="18700" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="473">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1399,6 +1386,63 @@
   </si>
   <si>
     <t>6282571cf39cd89341a474e9</t>
+  </si>
+  <si>
+    <t>flatlined ERQ_14-19</t>
+  </si>
+  <si>
+    <t>flatlined RSQ_3a-8b</t>
+  </si>
+  <si>
+    <t>flatlined AQ_43-50</t>
+  </si>
+  <si>
+    <t>flatlined AQ_3-10, 32-37; SRQ_4-10, 11-16</t>
+  </si>
+  <si>
+    <t>R_1FOFizBSLGs3hr7</t>
+  </si>
+  <si>
+    <t>R_3gUBgmw0IFw10OG</t>
+  </si>
+  <si>
+    <t>R_2QlKAvRyL4IhVvU</t>
+  </si>
+  <si>
+    <t>R_siG9zw67pbWcn6h</t>
+  </si>
+  <si>
+    <t>R_3dFeilkufzyISLD</t>
+  </si>
+  <si>
+    <t>R_24GZodHHORWazNd</t>
+  </si>
+  <si>
+    <t>R_29cvr1gaiZgIYHj</t>
+  </si>
+  <si>
+    <t>R_1MSNuVq8EkIBmD3</t>
+  </si>
+  <si>
+    <t>5c3272172f0f3500010284c0</t>
+  </si>
+  <si>
+    <t>R_2az60KkY9Ah6PKQ</t>
+  </si>
+  <si>
+    <t>only has 2 self photos; switched photo 21 w/ 31</t>
+  </si>
+  <si>
+    <t>5d90298097a2130015f3fa3c</t>
+  </si>
+  <si>
+    <t>R_2dQ4QgA651VxCVW</t>
+  </si>
+  <si>
+    <t>problem w/ last photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same photo uploaded for photos 29-32 </t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1552,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1622,6 +1672,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,10 +1973,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
@@ -6631,7 +6687,7 @@
         <v>8</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>7</v>
@@ -6690,7 +6746,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7185,7 +7241,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7849,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>431</v>
       </c>
@@ -7881,49 +7937,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E114" s="50" t="s">
+    <row r="114" spans="1:17" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="E114" s="51" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="115" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="53">
+        <v>45145</v>
+      </c>
+      <c r="G114" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q114" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>459</v>
+      </c>
       <c r="E115" s="50" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>460</v>
+      </c>
       <c r="E116" s="50" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="117" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>461</v>
+      </c>
       <c r="E117" s="50" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="118" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>462</v>
+      </c>
       <c r="E118" s="50" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="119" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>463</v>
+      </c>
       <c r="E119" s="50" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="120" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>464</v>
+      </c>
       <c r="E120" s="50" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="121" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>465</v>
+      </c>
       <c r="E121" s="50" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="122" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E122" s="50" t="s">
         <v>453</v>
+      </c>
+      <c r="F122" s="6">
+        <v>45145</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>467</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="F123" s="6">
+        <v>45146</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>470</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="F124" s="6">
+        <v>45146</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/Rejection_Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D706A19A-E2F2-054C-9FFB-C4F93A762AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9876B3-9D19-5F46-BD5F-452DCBF1E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="680" windowWidth="18700" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2040" windowWidth="18700" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1295,9 +1308,6 @@
     <t>replaced photo 1 w/ 31 - original was a screenshot of a video; pre-cropped and potentially reposted (see photos 14 and 30)?; stole pics from google images (photos 25 and 26)</t>
   </si>
   <si>
-    <t xml:space="preserve">replaced photo 27 w/ 32 and photo 28 w/ 31 - both had alcohol </t>
-  </si>
-  <si>
     <t>flatlined RSQ_2b-4b, PerceivedStress_4-8, AQ_46-50; screenshots showed participant uploaded photos on instagram within an hour of submission; replaced photo 28 w/ 31 - had alcohol</t>
   </si>
   <si>
@@ -1443,6 +1453,9 @@
   </si>
   <si>
     <t xml:space="preserve">same photo uploaded for photos 29-32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaced photo 27 w/ 32 and photo 28 w/ 31 - both had alcohol; missed 5 choices </t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1661,15 +1674,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1976,10 +1983,10 @@
   <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2614,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K11" s="24">
         <v>1</v>
@@ -2663,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2877,7 +2884,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
@@ -3979,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -5209,7 +5216,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K58" s="36">
         <v>1</v>
@@ -5222,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R58" s="36">
         <v>1</v>
@@ -5654,7 +5661,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5817,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K69" s="25">
         <v>1</v>
@@ -6251,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K77" s="25">
         <v>1</v>
@@ -6472,7 +6479,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6525,7 +6532,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K82" s="25">
         <v>1</v>
@@ -6730,7 +6737,7 @@
       <c r="D86" t="s">
         <v>326</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="45" t="s">
         <v>309</v>
       </c>
       <c r="F86" s="6">
@@ -7122,7 +7129,7 @@
       <c r="D93" t="s">
         <v>332</v>
       </c>
-      <c r="E93" s="42" t="s">
+      <c r="E93" s="33" t="s">
         <v>316</v>
       </c>
       <c r="F93" s="6">
@@ -7172,7 +7179,7 @@
       <c r="D94" t="s">
         <v>333</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" t="s">
         <v>317</v>
       </c>
       <c r="F94" s="6">
@@ -7225,7 +7232,7 @@
       <c r="D95" t="s">
         <v>334</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="45" t="s">
         <v>318</v>
       </c>
       <c r="F95" s="6">
@@ -7278,7 +7285,7 @@
       <c r="D96" t="s">
         <v>335</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="E96" t="s">
         <v>319</v>
       </c>
       <c r="F96" s="6">
@@ -7294,7 +7301,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7337,7 +7344,7 @@
       <c r="D97" t="s">
         <v>336</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="E97" t="s">
         <v>320</v>
       </c>
       <c r="F97" s="6">
@@ -7353,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7398,7 +7405,7 @@
       <c r="D98" t="s">
         <v>389</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="42" t="s">
         <v>375</v>
       </c>
       <c r="F98" s="6">
@@ -7412,7 +7419,10 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -7435,7 +7445,7 @@
       <c r="D99" t="s">
         <v>390</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="43" t="s">
         <v>376</v>
       </c>
       <c r="F99" s="6">
@@ -7449,7 +7459,10 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -7475,7 +7488,7 @@
       <c r="D100" t="s">
         <v>391</v>
       </c>
-      <c r="E100" s="46" t="s">
+      <c r="E100" s="44" t="s">
         <v>377</v>
       </c>
       <c r="F100" s="6">
@@ -7490,11 +7503,14 @@
       <c r="J100" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7510,7 +7526,7 @@
       <c r="D101" t="s">
         <v>392</v>
       </c>
-      <c r="E101" s="44" t="s">
+      <c r="E101" s="42" t="s">
         <v>378</v>
       </c>
       <c r="F101" s="6">
@@ -7523,13 +7539,16 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7545,7 +7564,7 @@
       <c r="D102" t="s">
         <v>393</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="42" t="s">
         <v>379</v>
       </c>
       <c r="F102" s="6">
@@ -7558,13 +7577,16 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7580,7 +7602,7 @@
       <c r="D103" t="s">
         <v>394</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="42" t="s">
         <v>380</v>
       </c>
       <c r="F103" s="6">
@@ -7593,7 +7615,10 @@
         <v>8</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7615,7 +7640,7 @@
       <c r="D104" t="s">
         <v>395</v>
       </c>
-      <c r="E104" s="44" t="s">
+      <c r="E104" s="42" t="s">
         <v>381</v>
       </c>
       <c r="F104" s="6">
@@ -7628,7 +7653,10 @@
         <v>8</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -7647,7 +7675,7 @@
       <c r="D105" t="s">
         <v>396</v>
       </c>
-      <c r="E105" s="46" t="s">
+      <c r="E105" s="44" t="s">
         <v>382</v>
       </c>
       <c r="F105" s="6">
@@ -7660,13 +7688,16 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7682,7 +7713,7 @@
       <c r="D106" t="s">
         <v>397</v>
       </c>
-      <c r="E106" s="44" t="s">
+      <c r="E106" s="42" t="s">
         <v>383</v>
       </c>
       <c r="F106" s="6">
@@ -7695,13 +7726,16 @@
         <v>8</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7717,7 +7751,7 @@
       <c r="D107" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="44" t="s">
+      <c r="E107" s="42" t="s">
         <v>384</v>
       </c>
       <c r="F107" s="6">
@@ -7730,7 +7764,10 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7749,7 +7786,7 @@
       <c r="D108" t="s">
         <v>399</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="42" t="s">
         <v>385</v>
       </c>
       <c r="F108" s="6">
@@ -7762,7 +7799,10 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -7784,7 +7824,7 @@
       <c r="D109" t="s">
         <v>400</v>
       </c>
-      <c r="E109" s="44" t="s">
+      <c r="E109" s="42" t="s">
         <v>386</v>
       </c>
       <c r="F109" s="6">
@@ -7797,7 +7837,10 @@
         <v>8</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -7816,7 +7859,7 @@
       <c r="D110" t="s">
         <v>401</v>
       </c>
-      <c r="E110" s="44" t="s">
+      <c r="E110" s="42" t="s">
         <v>387</v>
       </c>
       <c r="F110" s="6">
@@ -7829,13 +7872,16 @@
         <v>8</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7851,8 +7897,8 @@
       <c r="D111" t="s">
         <v>403</v>
       </c>
-      <c r="E111" s="47" t="s">
-        <v>433</v>
+      <c r="E111" s="34" t="s">
+        <v>432</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7864,13 +7910,16 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7886,7 +7935,7 @@
       <c r="D112" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="43" t="s">
+      <c r="E112" t="s">
         <v>388</v>
       </c>
       <c r="F112" s="6">
@@ -7899,7 +7948,10 @@
         <v>8</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>435</v>
+        <v>8</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -7907,16 +7959,16 @@
     </row>
     <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>432</v>
-      </c>
-      <c r="E113" s="48" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7931,44 +7983,50 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="51" t="s">
+    <row r="114" spans="1:17" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>445</v>
-      </c>
-      <c r="F114" s="53">
+      <c r="B114" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="E114" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F114" s="49">
         <v>45145</v>
       </c>
-      <c r="G114" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J114" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q114" s="52" t="s">
-        <v>454</v>
+      <c r="G114" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="48" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="E115" s="50" t="s">
-        <v>446</v>
+      <c r="B115" t="s">
+        <v>458</v>
+      </c>
+      <c r="E115" s="46" t="s">
+        <v>445</v>
       </c>
       <c r="F115" s="6">
         <v>45145</v>
@@ -7979,19 +8037,22 @@
       <c r="J115" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
       <c r="Q115" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="E116" s="50" t="s">
-        <v>447</v>
+      <c r="B116" t="s">
+        <v>459</v>
+      </c>
+      <c r="E116" s="46" t="s">
+        <v>446</v>
       </c>
       <c r="F116" s="6">
         <v>45145</v>
@@ -8000,21 +8061,24 @@
         <v>8</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>448</v>
+      <c r="B117" t="s">
+        <v>460</v>
+      </c>
+      <c r="E117" s="46" t="s">
+        <v>447</v>
       </c>
       <c r="F117" s="6">
         <v>45145</v>
@@ -8024,17 +8088,20 @@
       </c>
       <c r="J117" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="E118" s="50" t="s">
-        <v>449</v>
+      <c r="B118" t="s">
+        <v>461</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>448</v>
       </c>
       <c r="F118" s="6">
         <v>45145</v>
@@ -8045,19 +8112,22 @@
       <c r="J118" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
       <c r="Q118" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="E119" s="50" t="s">
-        <v>450</v>
+      <c r="B119" t="s">
+        <v>462</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="F119" s="6">
         <v>45145</v>
@@ -8067,17 +8137,20 @@
       </c>
       <c r="J119" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="E120" s="50" t="s">
-        <v>451</v>
+      <c r="B120" t="s">
+        <v>463</v>
+      </c>
+      <c r="E120" s="46" t="s">
+        <v>450</v>
       </c>
       <c r="F120" s="6">
         <v>45145</v>
@@ -8087,17 +8160,20 @@
       </c>
       <c r="J120" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="E121" s="50" t="s">
-        <v>452</v>
+      <c r="B121" t="s">
+        <v>464</v>
+      </c>
+      <c r="E121" s="46" t="s">
+        <v>451</v>
       </c>
       <c r="F121" s="6">
         <v>45145</v>
@@ -8108,16 +8184,19 @@
       <c r="J121" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
       <c r="Q121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="50" t="s">
-        <v>453</v>
+      <c r="E122" s="46" t="s">
+        <v>452</v>
       </c>
       <c r="F122" s="6">
         <v>45145</v>
@@ -8127,6 +8206,9 @@
       </c>
       <c r="J122" s="14" t="s">
         <v>356</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8134,10 +8216,10 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>467</v>
-      </c>
-      <c r="E123" s="50" t="s">
         <v>466</v>
+      </c>
+      <c r="E123" s="46" t="s">
+        <v>465</v>
       </c>
       <c r="F123" s="6">
         <v>45146</v>
@@ -8147,6 +8229,9 @@
       </c>
       <c r="J123" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8154,10 +8239,10 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>470</v>
-      </c>
-      <c r="E124" s="50" t="s">
         <v>469</v>
+      </c>
+      <c r="E124" s="46" t="s">
+        <v>468</v>
       </c>
       <c r="F124" s="6">
         <v>45146</v>
@@ -8166,10 +8251,13 @@
         <v>8</v>
       </c>
       <c r="J124" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="Q124" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9876B3-9D19-5F46-BD5F-452DCBF1E43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD5032-3696-C141-8DB9-C02396AE42EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2040" windowWidth="18700" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="2020" windowWidth="21720" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="477">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1456,6 +1456,18 @@
   </si>
   <si>
     <t xml:space="preserve">replaced photo 27 w/ 32 and photo 28 w/ 31 - both had alcohol; missed 5 choices </t>
+  </si>
+  <si>
+    <t>should have done it</t>
+  </si>
+  <si>
+    <t>missing post task</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>absent photos</t>
   </si>
 </sst>
 </file>
@@ -1980,13 +1992,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB124"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7425,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="4" t="s">
         <v>421</v>
@@ -7621,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="4" t="s">
         <v>405</v>
@@ -7659,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7688,7 +7700,7 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7732,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="4" t="s">
         <v>424</v>
@@ -7843,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7878,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" s="4" t="s">
         <v>472</v>
@@ -7954,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8014,6 +8026,9 @@
       <c r="K114" s="48">
         <v>1</v>
       </c>
+      <c r="M114" s="48">
+        <v>1</v>
+      </c>
       <c r="Q114" s="48" t="s">
         <v>453</v>
       </c>
@@ -8040,6 +8055,9 @@
       <c r="K115">
         <v>1</v>
       </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
       <c r="Q115" s="4" t="s">
         <v>467</v>
       </c>
@@ -8061,9 +8079,12 @@
         <v>8</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="M116">
         <v>0</v>
       </c>
       <c r="Q116" t="s">
@@ -8087,10 +8108,13 @@
         <v>8</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>8</v>
+        <v>474</v>
       </c>
       <c r="K117">
         <v>1</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8115,6 +8139,9 @@
       <c r="K118">
         <v>1</v>
       </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
       <c r="Q118" t="s">
         <v>455</v>
       </c>
@@ -8141,6 +8168,9 @@
       <c r="K119">
         <v>0</v>
       </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
@@ -8164,6 +8194,9 @@
       <c r="K120">
         <v>1</v>
       </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
@@ -8187,6 +8220,9 @@
       <c r="K121">
         <v>1</v>
       </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
       <c r="Q121" t="s">
         <v>456</v>
       </c>
@@ -8205,9 +8241,12 @@
         <v>8</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="M122">
         <v>0</v>
       </c>
     </row>
@@ -8233,6 +8272,9 @@
       <c r="K123">
         <v>1</v>
       </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
@@ -8256,8 +8298,17 @@
       <c r="K124">
         <v>0</v>
       </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
       <c r="Q124" s="4" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K127">
+        <f>SUM(K2:K124)</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD5032-3696-C141-8DB9-C02396AE42EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52057727-90C7-2A4F-9791-D215B44E89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="2020" windowWidth="21720" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="9480" windowWidth="27540" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="475">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -459,9 +459,6 @@
     <t>duplicate photo 16 and 15?, not exact duplicate but close…will check extras, swapped for photo 30</t>
   </si>
   <si>
-    <t>Duplicate photo in photo 16 with Photo 15, swapped photo 31 for photo 16, same duplicate in 17, swapped with photo 32</t>
-  </si>
-  <si>
     <t>maybe duplicate of 16 and 17, drinking alcohol photo 20 - swapped for photo 31</t>
   </si>
   <si>
@@ -1458,16 +1455,13 @@
     <t xml:space="preserve">replaced photo 27 w/ 32 and photo 28 w/ 31 - both had alcohol; missed 5 choices </t>
   </si>
   <si>
-    <t>should have done it</t>
-  </si>
-  <si>
-    <t>missing post task</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
     <t>absent photos</t>
+  </si>
+  <si>
+    <t>Duplicate photo in photo 16 with Photo 15, swapped photo 31 for photo 16, same duplicate in 17, swapped with photo 32, need to copy their prolific ID from post-task column to prolific ID column in post-task csv</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1553,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,12 +1602,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1627,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1691,17 +1679,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1995,10 +1987,10 @@
   <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2044,13 +2036,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>20</v>
@@ -2059,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>1</v>
@@ -2071,13 +2063,13 @@
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
@@ -2092,13 +2084,13 @@
         <v>6</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
@@ -2633,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K11" s="24">
         <v>1</v>
@@ -2682,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2698,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
@@ -2896,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M16" s="24">
         <v>0</v>
@@ -3189,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R21" s="4">
         <v>1</v>
@@ -3404,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="R25" s="4">
         <v>1</v>
@@ -3563,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R28" s="4">
         <v>1</v>
@@ -3607,7 +3599,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -3620,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R29" s="4">
         <v>0</v>
@@ -3722,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R31" s="4">
         <v>1</v>
@@ -3955,19 +3947,19 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="6">
         <v>44994</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="10">
         <v>44993</v>
@@ -3998,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -4015,19 +4007,19 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="6">
         <v>44994</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" s="10">
         <v>44993</v>
@@ -4072,19 +4064,19 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="6">
         <v>44994</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="10">
         <v>44993</v>
@@ -4115,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R38" s="4">
         <v>1</v>
@@ -4132,19 +4124,19 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39" s="6">
         <v>44994</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="10">
         <v>44993</v>
@@ -4189,19 +4181,19 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="6">
         <v>44994</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" s="10">
         <v>44993</v>
@@ -4232,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R40" s="4">
         <v>1</v>
@@ -4249,19 +4241,19 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="6">
         <v>44994</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="10">
         <v>44993</v>
@@ -4292,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R41" s="4">
         <v>1</v>
@@ -4309,19 +4301,19 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="6">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F42" s="10">
         <v>44993</v>
@@ -4352,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R42" s="4">
         <v>1</v>
@@ -4369,19 +4361,19 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" s="6">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="10">
         <v>44993</v>
@@ -4426,19 +4418,19 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="6">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" s="10">
         <v>44993</v>
@@ -4483,19 +4475,19 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="6">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F45" s="10">
         <v>44993</v>
@@ -4540,19 +4532,19 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="6">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F46" s="6">
         <v>44993</v>
@@ -4597,19 +4589,19 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="6">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="6">
         <v>44993</v>
@@ -4640,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R47" s="4">
         <v>1</v>
@@ -4657,19 +4649,19 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48" s="6">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F48" s="6">
         <v>44993</v>
@@ -4700,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R48" s="4">
         <v>1</v>
@@ -4717,19 +4709,19 @@
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" s="6">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="6">
         <v>44993</v>
@@ -4774,19 +4766,19 @@
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50" s="6">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50" s="6">
         <v>44993</v>
@@ -4831,19 +4823,19 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="6">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" s="6">
         <v>44993</v>
@@ -4888,19 +4880,19 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" s="6">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F52" s="6">
         <v>44993</v>
@@ -4931,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R52" s="4">
         <v>1</v>
@@ -4951,16 +4943,16 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="6">
         <v>45005</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" s="6">
         <v>45004</v>
@@ -5005,16 +4997,16 @@
         <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="6">
         <v>45005</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F54" s="6">
         <v>37334</v>
@@ -5059,16 +5051,16 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C55" s="6">
         <v>45005</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F55" s="6">
         <v>37334</v>
@@ -5114,16 +5106,16 @@
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="6">
         <v>45005</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F56" s="6">
         <v>37334</v>
@@ -5138,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
@@ -5161,7 +5153,7 @@
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" s="6">
         <v>37334</v>
@@ -5176,7 +5168,7 @@
         <v>7</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
@@ -5189,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R57" s="4">
         <v>0</v>
@@ -5204,16 +5196,16 @@
         <v>95</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="37">
         <v>45005</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F58" s="37">
         <v>45005</v>
@@ -5228,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K58" s="36">
         <v>1</v>
@@ -5241,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R58" s="36">
         <v>1</v>
@@ -5255,16 +5247,16 @@
         <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C59" s="6">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" s="6">
         <v>45005</v>
@@ -5309,16 +5301,16 @@
         <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="6">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F60" s="6">
         <v>45004</v>
@@ -5360,19 +5352,19 @@
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C61" s="6">
         <v>45014</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="6">
         <v>45014</v>
@@ -5416,19 +5408,19 @@
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C62" s="6">
         <v>45014</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="6">
         <v>45014</v>
@@ -5458,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R62" s="4">
         <v>1</v>
@@ -5475,19 +5467,19 @@
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C63" s="6">
         <v>45014</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" s="6">
         <v>45014</v>
@@ -5511,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P63">
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R63" s="4">
         <v>1</v>
@@ -5534,19 +5526,19 @@
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C64" s="6">
         <v>45014</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" s="6">
         <v>45014</v>
@@ -5590,19 +5582,19 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C65" s="6">
         <v>45014</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" s="6">
         <v>45014</v>
@@ -5646,19 +5638,19 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C66" s="6">
         <v>45014</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F66" s="6">
         <v>45014</v>
@@ -5673,7 +5665,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5688,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R66" s="4"/>
       <c r="W66" s="4" t="s">
@@ -5697,19 +5689,19 @@
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C67" s="6">
         <v>45014</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F67" s="6">
         <v>45014</v>
@@ -5753,19 +5745,19 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C68" s="6">
         <v>45014</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68" s="6">
         <v>45014</v>
@@ -5809,19 +5801,19 @@
     </row>
     <row r="69" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C69" s="27">
         <v>45014</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F69" s="27">
         <v>45014</v>
@@ -5836,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K69" s="25">
         <v>1</v>
@@ -5851,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R69" s="24">
         <v>0</v>
@@ -5862,19 +5854,19 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C70" s="6">
         <v>45014</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F70" s="6">
         <v>45014</v>
@@ -5919,19 +5911,19 @@
     </row>
     <row r="71" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C71" s="6">
         <v>45014</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" s="6">
         <v>45014</v>
@@ -5946,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5961,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R71" s="4">
         <v>0</v>
@@ -5972,19 +5964,19 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="6">
         <v>45014</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F72" s="6">
         <v>45014</v>
@@ -6014,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R72" s="4">
         <v>0</v>
@@ -6025,19 +6017,19 @@
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C73" s="6">
         <v>45014</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="6">
         <v>45014</v>
@@ -6052,7 +6044,7 @@
         <v>7</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6067,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R73" s="4">
         <v>0</v>
@@ -6078,19 +6070,19 @@
     </row>
     <row r="74" spans="1:25" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C74" s="6">
         <v>45014</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F74" s="6">
         <v>45014</v>
@@ -6120,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R74" s="4">
         <v>0</v>
@@ -6131,19 +6123,19 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C75" s="6">
         <v>45014</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F75" s="6">
         <v>45014</v>
@@ -6158,7 +6150,7 @@
         <v>7</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6173,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R75" s="4">
         <v>0</v>
@@ -6184,19 +6176,19 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="6">
         <v>45014</v>
       </c>
       <c r="D76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F76" s="6">
         <v>45014</v>
@@ -6226,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R76" s="4">
         <v>1</v>
@@ -6243,19 +6235,19 @@
     </row>
     <row r="77" spans="1:25" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="27">
         <v>45070</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F77" s="27">
         <v>45070</v>
@@ -6270,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K77" s="25">
         <v>1</v>
@@ -6285,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R77" s="24">
         <v>0</v>
@@ -6296,19 +6288,19 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" s="6">
         <v>45070</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F78" s="6">
         <v>45070</v>
@@ -6352,19 +6344,19 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C79" s="6">
         <v>45070</v>
       </c>
       <c r="D79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F79" s="6">
         <v>45070</v>
@@ -6408,19 +6400,19 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C80" s="6">
         <v>45070</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F80" s="6">
         <v>45070</v>
@@ -6464,19 +6456,19 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C81" s="6">
         <v>45070</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F81" s="6">
         <v>45070</v>
@@ -6491,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6506,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R81" s="4">
         <v>0</v>
@@ -6520,16 +6512,16 @@
         <v>68</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C82" s="27">
         <v>45082</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F82" s="27">
         <v>45082</v>
@@ -6544,7 +6536,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K82" s="25">
         <v>1</v>
@@ -6559,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R82" s="25">
         <v>0</v>
@@ -6573,16 +6565,16 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C83" s="6">
         <v>45082</v>
       </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F83" s="6">
         <v>45082</v>
@@ -6612,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R83" s="4">
         <v>1</v>
@@ -6632,16 +6624,16 @@
         <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C84" s="6">
         <v>45082</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F84" s="6">
         <v>45082</v>
@@ -6688,16 +6680,16 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C85" s="6">
         <v>45082</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F85" s="6">
         <v>45082</v>
@@ -6712,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6727,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R85" s="4">
         <v>0</v>
@@ -6741,16 +6733,16 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C86" s="6">
         <v>45082</v>
       </c>
       <c r="D86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F86" s="6">
         <v>45082</v>
@@ -6794,16 +6786,16 @@
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C87" s="6">
         <v>45082</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F87" s="6">
         <v>45082</v>
@@ -6850,16 +6842,16 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C88" s="6">
         <v>45082</v>
       </c>
       <c r="D88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F88" s="6">
         <v>45082</v>
@@ -6889,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R88" s="4">
         <v>1</v>
@@ -6909,16 +6901,16 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C89" s="6">
         <v>45082</v>
       </c>
       <c r="D89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F89" s="6">
         <v>45082</v>
@@ -6948,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R89" s="4">
         <v>1</v>
@@ -6968,16 +6960,16 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C90" s="6">
         <v>45082</v>
       </c>
       <c r="D90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F90" s="6">
         <v>45082</v>
@@ -7024,16 +7016,16 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C91" s="6">
         <v>45082</v>
       </c>
       <c r="D91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F91" s="6">
         <v>45082</v>
@@ -7080,16 +7072,16 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C92" s="6">
         <v>45082</v>
       </c>
       <c r="D92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F92" s="6">
         <v>45082</v>
@@ -7139,10 +7131,10 @@
         <v>45082</v>
       </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F93" s="6">
         <v>45082</v>
@@ -7157,7 +7149,7 @@
         <v>7</v>
       </c>
       <c r="J93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7183,16 +7175,16 @@
         <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C94" s="6">
         <v>45082</v>
       </c>
       <c r="D94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F94" s="6">
         <v>45082</v>
@@ -7207,7 +7199,7 @@
         <v>7</v>
       </c>
       <c r="J94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7222,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R94" s="4">
         <v>0</v>
@@ -7236,16 +7228,16 @@
         <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" s="6">
         <v>45082</v>
       </c>
       <c r="D95" t="s">
-        <v>334</v>
-      </c>
-      <c r="E95" s="45" t="s">
-        <v>318</v>
+        <v>333</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="F95" s="6">
         <v>45082</v>
@@ -7260,13 +7252,13 @@
         <v>7</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>8</v>
@@ -7275,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R95" s="4">
         <v>0</v>
@@ -7289,16 +7281,16 @@
         <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C96" s="6">
         <v>45082</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F96" s="6">
         <v>45082</v>
@@ -7313,7 +7305,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7328,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R96" s="4">
         <v>1</v>
@@ -7348,16 +7340,16 @@
         <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C97" s="6">
         <v>45082</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F97" s="6">
         <v>45082</v>
@@ -7372,7 +7364,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7387,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R97" s="23">
         <v>0</v>
@@ -7409,16 +7401,16 @@
         <v>22</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C98" s="6">
         <v>45117</v>
       </c>
       <c r="D98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F98" s="6">
         <v>45117</v>
@@ -7439,8 +7431,11 @@
       <c r="M98">
         <v>1</v>
       </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
       <c r="Q98" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -7449,16 +7444,16 @@
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" s="6">
         <v>45117</v>
       </c>
       <c r="D99" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F99" s="6">
         <v>45117</v>
@@ -7471,7 +7466,7 @@
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7479,8 +7474,11 @@
       <c r="M99">
         <v>0</v>
       </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
       <c r="Q99" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R99">
         <f>SUM(R2:R98)</f>
@@ -7492,16 +7490,16 @@
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C100" s="6">
         <v>45117</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>377</v>
+        <v>390</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>376</v>
       </c>
       <c r="F100" s="6">
         <v>45117</v>
@@ -7516,13 +7514,16 @@
         <v>8</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7530,16 +7531,16 @@
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C101" s="6">
         <v>45117</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F101" s="6">
         <v>45117</v>
@@ -7551,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -7559,8 +7560,11 @@
       <c r="M101">
         <v>0</v>
       </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
       <c r="Q101" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7568,16 +7572,16 @@
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C102" s="6">
         <v>45117</v>
       </c>
       <c r="D102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F102" s="6">
         <v>45117</v>
@@ -7589,7 +7593,7 @@
         <v>8</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -7597,8 +7601,11 @@
       <c r="M102">
         <v>0</v>
       </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
       <c r="Q102" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7606,16 +7613,16 @@
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C103" s="6">
         <v>45117</v>
       </c>
       <c r="D103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F103" s="6">
         <v>45117</v>
@@ -7635,8 +7642,11 @@
       <c r="M103">
         <v>1</v>
       </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
       <c r="Q103" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7644,16 +7654,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C104" s="6">
         <v>45117</v>
       </c>
       <c r="D104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F104" s="6">
         <v>45117</v>
@@ -7671,6 +7681,9 @@
         <v>1</v>
       </c>
       <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="P104">
         <v>1</v>
       </c>
     </row>
@@ -7679,16 +7692,16 @@
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C105" s="6">
         <v>45117</v>
       </c>
       <c r="D105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F105" s="6">
         <v>45117</v>
@@ -7700,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7708,8 +7721,11 @@
       <c r="M105">
         <v>0</v>
       </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
       <c r="Q105" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7717,16 +7733,16 @@
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C106" s="6">
         <v>45117</v>
       </c>
       <c r="D106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F106" s="6">
         <v>45117</v>
@@ -7746,8 +7762,11 @@
       <c r="M106">
         <v>1</v>
       </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
       <c r="Q106" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7755,16 +7774,16 @@
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C107" s="6">
         <v>45117</v>
       </c>
       <c r="D107" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F107" s="6">
         <v>45117</v>
@@ -7776,13 +7795,16 @@
         <v>8</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7790,16 +7812,16 @@
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C108" s="6">
         <v>45117</v>
       </c>
       <c r="D108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F108" s="6">
         <v>45117</v>
@@ -7811,7 +7833,7 @@
         <v>8</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7819,8 +7841,11 @@
       <c r="M108">
         <v>0</v>
       </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
       <c r="Q108" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7828,16 +7853,16 @@
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C109" s="6">
         <v>45117</v>
       </c>
       <c r="D109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F109" s="6">
         <v>45117</v>
@@ -7855,6 +7880,9 @@
         <v>1</v>
       </c>
       <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="P109">
         <v>1</v>
       </c>
     </row>
@@ -7863,16 +7891,16 @@
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C110" s="6">
         <v>45117</v>
       </c>
       <c r="D110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F110" s="6">
         <v>45117</v>
@@ -7892,8 +7920,11 @@
       <c r="M110">
         <v>1</v>
       </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
       <c r="Q110" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7901,16 +7932,16 @@
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C111" s="6">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F111" s="6">
         <v>45117</v>
@@ -7922,7 +7953,7 @@
         <v>8</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -7930,8 +7961,11 @@
       <c r="M111">
         <v>0</v>
       </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
       <c r="Q111" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7939,16 +7973,16 @@
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C112" s="6">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F112" s="6">
         <v>45117</v>
@@ -7968,19 +8002,22 @@
       <c r="M112">
         <v>1</v>
       </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C113" s="6">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F113" s="6">
         <v>45117</v>
@@ -7995,7 +8032,7 @@
         <v>7</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -8003,34 +8040,40 @@
       <c r="M113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="47" t="s">
+      <c r="P113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="E114" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="F114" s="49">
+      <c r="B114" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F114" s="6">
         <v>45145</v>
       </c>
-      <c r="G114" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J114" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="K114" s="48">
-        <v>1</v>
-      </c>
-      <c r="M114" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="48" t="s">
-        <v>453</v>
+      <c r="G114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8038,10 +8081,10 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>458</v>
-      </c>
-      <c r="E115" s="46" t="s">
-        <v>445</v>
+        <v>457</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="F115" s="6">
         <v>45145</v>
@@ -8058,8 +8101,11 @@
       <c r="M115">
         <v>1</v>
       </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
       <c r="Q115" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8067,10 +8113,10 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>459</v>
-      </c>
-      <c r="E116" s="46" t="s">
-        <v>446</v>
+        <v>458</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="F116" s="6">
         <v>45145</v>
@@ -8079,7 +8125,7 @@
         <v>8</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8087,8 +8133,11 @@
       <c r="M116">
         <v>0</v>
       </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
       <c r="Q116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8096,10 +8145,10 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>460</v>
-      </c>
-      <c r="E117" s="46" t="s">
-        <v>447</v>
+        <v>459</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="F117" s="6">
         <v>45145</v>
@@ -8108,13 +8157,16 @@
         <v>8</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>474</v>
+        <v>8</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="M117" s="4" t="s">
-        <v>473</v>
+      <c r="M117" s="4">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8122,10 +8174,10 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>461</v>
-      </c>
-      <c r="E118" s="46" t="s">
-        <v>448</v>
+        <v>460</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="F118" s="6">
         <v>45145</v>
@@ -8142,8 +8194,11 @@
       <c r="M118">
         <v>1</v>
       </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
       <c r="Q118" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8151,10 +8206,10 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>462</v>
-      </c>
-      <c r="E119" s="46" t="s">
-        <v>449</v>
+        <v>461</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="F119" s="6">
         <v>45145</v>
@@ -8163,13 +8218,16 @@
         <v>8</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8177,10 +8235,10 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>463</v>
-      </c>
-      <c r="E120" s="46" t="s">
-        <v>450</v>
+        <v>462</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="F120" s="6">
         <v>45145</v>
@@ -8195,6 +8253,9 @@
         <v>1</v>
       </c>
       <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="P120">
         <v>1</v>
       </c>
     </row>
@@ -8203,10 +8264,10 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>464</v>
-      </c>
-      <c r="E121" s="46" t="s">
-        <v>451</v>
+        <v>463</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="F121" s="6">
         <v>45145</v>
@@ -8223,16 +8284,19 @@
       <c r="M121">
         <v>1</v>
       </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
       <c r="Q121" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="46" t="s">
-        <v>452</v>
+      <c r="E122" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F122" s="6">
         <v>45145</v>
@@ -8241,13 +8305,16 @@
         <v>8</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K122">
         <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8255,10 +8322,10 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>466</v>
-      </c>
-      <c r="E123" s="46" t="s">
         <v>465</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="F123" s="6">
         <v>45146</v>
@@ -8273,6 +8340,9 @@
         <v>1</v>
       </c>
       <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="P123">
         <v>1</v>
       </c>
     </row>
@@ -8281,10 +8351,10 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
-      </c>
-      <c r="E124" s="46" t="s">
         <v>468</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="F124" s="6">
         <v>45146</v>
@@ -8293,46 +8363,54 @@
         <v>8</v>
       </c>
       <c r="J124" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127">
         <f>SUM(K2:K124)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="K1:K116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B77">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
+  <conditionalFormatting sqref="B79">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
+  <conditionalFormatting sqref="B80">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
+  <conditionalFormatting sqref="B81">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="E18:E35">
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E35">
+  <conditionalFormatting sqref="E48 E36 E45">
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48 E36 E45">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52057727-90C7-2A4F-9791-D215B44E89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7DACD-0E21-B54D-A14B-4FB2756D32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="9480" windowWidth="27540" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15560" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$K$1:$K$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$J$1:$J$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="476">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1110,12 +1110,6 @@
     <t>ERQ_16-19 same; AQ_8-12 same, found task data, wasn't stored under prolific ID, may have done pavlovia task very delayed, missing rejection condition</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>M=1/F=0</t>
-  </si>
-  <si>
     <t>not in folder??/did not complete the task</t>
   </si>
   <si>
@@ -1462,13 +1456,25 @@
   </si>
   <si>
     <t>Duplicate photo in photo 16 with Photo 15, swapped photo 31 for photo 16, same duplicate in 17, swapped with photo 32, need to copy their prolific ID from post-task column to prolific ID column in post-task csv</t>
+  </si>
+  <si>
+    <t>timebetween</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1545,13 +1551,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1615,18 +1614,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -1665,7 +1662,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1679,93 +1675,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="5" tint="0.59996337778862885"/>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1981,16 +1902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1999,24 +1920,25 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="6" max="6" width="19" style="45" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="103.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="23" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="45" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="21" max="24" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +1954,7 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="44" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -2044,7 +1966,7 @@
       <c r="I1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2056,51 +1978,54 @@
       <c r="M1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="S1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>44873</v>
       </c>
       <c r="D2" t="s">
@@ -2109,7 +2034,7 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="45">
         <v>44872</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2121,7 +2046,7 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K2">
@@ -2130,36 +2055,43 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="O2" s="7">
+      <c r="N2" s="45">
+        <v>44875</v>
+      </c>
+      <c r="O2">
+        <f>_xlfn.DAYS(N2,F2)</f>
+        <v>3</v>
+      </c>
+      <c r="P2" s="6">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>44873</v>
       </c>
       <c r="D3" t="s">
@@ -2168,7 +2100,7 @@
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="45">
         <v>44872</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2180,7 +2112,7 @@
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="4">
@@ -2190,33 +2122,40 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
+      <c r="N3" s="45">
+        <v>44876</v>
+      </c>
       <c r="O3">
+        <f t="shared" ref="O3:O67" si="0">_xlfn.DAYS(N3,F3)</f>
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>44881</v>
       </c>
       <c r="D4" t="s">
@@ -2225,7 +2164,7 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="45">
         <v>44879</v>
       </c>
       <c r="G4" t="s">
@@ -2237,7 +2176,7 @@
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="4">
@@ -2247,33 +2186,40 @@
       <c r="M4" s="4">
         <v>1</v>
       </c>
+      <c r="N4" s="45">
+        <v>44886</v>
+      </c>
       <c r="O4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>44881</v>
       </c>
       <c r="D5" t="s">
@@ -2282,7 +2228,7 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="45">
         <v>44879</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2294,7 +2240,7 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="4">
@@ -2304,33 +2250,40 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
+      <c r="N5" s="45">
+        <v>44887</v>
+      </c>
       <c r="O5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>44881</v>
       </c>
       <c r="D6" t="s">
@@ -2339,7 +2292,7 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="45">
         <v>44879</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2351,7 +2304,7 @@
       <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="4">
@@ -2361,33 +2314,40 @@
       <c r="M6" s="4">
         <v>1</v>
       </c>
+      <c r="N6" s="45">
+        <v>44893</v>
+      </c>
       <c r="O6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>44958</v>
       </c>
       <c r="D7" t="s">
@@ -2396,7 +2356,7 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="45">
         <v>44958</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2408,7 +2368,7 @@
       <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="4">
@@ -2418,23 +2378,30 @@
       <c r="M7" s="4">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y7">
+      <c r="N7" s="45">
+        <v>44963</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2447,7 +2414,7 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="45">
         <v>44959</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2459,7 +2426,7 @@
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="4">
@@ -2469,29 +2436,36 @@
       <c r="M8" s="4">
         <v>1</v>
       </c>
+      <c r="N8" s="45">
+        <v>44963</v>
+      </c>
       <c r="O8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -2504,7 +2478,7 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="45">
         <v>44959</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2516,7 +2490,7 @@
       <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="4">
@@ -2526,26 +2500,33 @@
       <c r="M9" s="4">
         <v>1</v>
       </c>
+      <c r="N9" s="45">
+        <v>44963</v>
+      </c>
       <c r="O9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y9">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z9">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2558,7 +2539,7 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="45">
         <v>44959</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2570,7 +2551,7 @@
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="4">
@@ -2580,75 +2561,87 @@
       <c r="M10" s="4">
         <v>1</v>
       </c>
+      <c r="N10" s="45">
+        <v>44963</v>
+      </c>
       <c r="O10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="46">
         <v>44959</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
+      <c r="G11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-44959</v>
+      </c>
+      <c r="P11" s="23">
         <v>3</v>
       </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="W11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="24"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -2658,10 +2651,10 @@
       <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="45">
         <v>44967</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2673,8 +2666,8 @@
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>437</v>
+      <c r="J12" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2684,22 +2677,26 @@
         <v>1</v>
       </c>
       <c r="O12">
+        <f t="shared" si="0"/>
+        <v>-44967</v>
+      </c>
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
@@ -2709,10 +2706,10 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="45">
         <v>44967</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2724,7 +2721,7 @@
       <c r="I13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="4">
@@ -2734,29 +2731,36 @@
       <c r="M13" s="4">
         <v>1</v>
       </c>
+      <c r="N13" s="45">
+        <v>44968</v>
+      </c>
       <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y13">
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2766,10 +2770,10 @@
       <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="45">
         <v>44967</v>
       </c>
       <c r="G14" t="s">
@@ -2781,7 +2785,7 @@
       <c r="I14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="4">
@@ -2791,21 +2795,33 @@
       <c r="M14" s="4">
         <v>1</v>
       </c>
+      <c r="N14" s="45">
+        <v>44969</v>
+      </c>
       <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>999</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2815,10 +2831,10 @@
       <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="45">
         <v>44967</v>
       </c>
       <c r="G15" t="s">
@@ -2830,7 +2846,7 @@
       <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="4">
@@ -2840,84 +2856,95 @@
       <c r="M15" s="4">
         <v>1</v>
       </c>
+      <c r="N15" s="45">
+        <v>44968</v>
+      </c>
       <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y15">
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="46">
         <v>44967</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K16" s="24">
-        <v>1</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="G16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="M16" s="24">
-        <v>0</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25">
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>-44967</v>
+      </c>
+      <c r="P16" s="23">
         <v>3</v>
       </c>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="23">
+        <v>0</v>
+      </c>
+      <c r="R16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="25">
-        <v>0</v>
-      </c>
-      <c r="W16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="X16" s="24"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="23">
+        <v>0</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="22"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
@@ -2927,10 +2954,10 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="45">
         <v>44967</v>
       </c>
       <c r="G17" t="s">
@@ -2942,7 +2969,7 @@
       <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="4">
@@ -2952,42 +2979,49 @@
       <c r="M17" s="4">
         <v>1</v>
       </c>
+      <c r="N17" s="45">
+        <v>44968</v>
+      </c>
       <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y17">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>44977</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="47">
         <v>44977</v>
       </c>
       <c r="G18" t="s">
@@ -2999,7 +3033,7 @@
       <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="4">
@@ -3009,42 +3043,49 @@
       <c r="M18" s="4">
         <v>1</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="N18" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>96</v>
       </c>
-      <c r="R18" s="4">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18">
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>44977</v>
       </c>
       <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="47">
         <v>44977</v>
       </c>
       <c r="G19" t="s">
@@ -3056,7 +3097,7 @@
       <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K19" s="4">
@@ -3066,39 +3107,46 @@
       <c r="M19" s="4">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y19">
+      <c r="N19" s="45">
+        <v>44981</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>44977</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="47">
         <v>44977</v>
       </c>
       <c r="G20" t="s">
@@ -3110,7 +3158,7 @@
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="4">
@@ -3120,42 +3168,49 @@
       <c r="M20" s="4">
         <v>1</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="N20" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>97</v>
       </c>
-      <c r="R20" s="4">
-        <v>1</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20">
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>44977</v>
       </c>
       <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="47">
         <v>44977</v>
       </c>
       <c r="G21" t="s">
@@ -3167,7 +3222,7 @@
       <c r="I21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="4">
@@ -3177,42 +3232,49 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4" t="s">
+      <c r="N21" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21">
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>44977</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="47">
         <v>44977</v>
       </c>
       <c r="G22" t="s">
@@ -3224,7 +3286,7 @@
       <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="K22" s="4">
@@ -3234,37 +3296,41 @@
       <c r="M22" s="4">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>-44977</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>136</v>
       </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>44977</v>
       </c>
       <c r="D23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="47">
         <v>44977</v>
       </c>
       <c r="G23" t="s">
@@ -3276,7 +3342,7 @@
       <c r="I23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="12" t="s">
         <v>137</v>
       </c>
       <c r="K23" s="4">
@@ -3286,37 +3352,41 @@
       <c r="M23" s="4">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>-44977</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
         <v>135</v>
       </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>44977</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="47">
         <v>44977</v>
       </c>
       <c r="G24" t="s">
@@ -3328,7 +3398,7 @@
       <c r="I24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="4">
@@ -3338,39 +3408,46 @@
       <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
+      <c r="N24" s="45">
+        <v>44982</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>44977</v>
       </c>
       <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="47">
         <v>44977</v>
       </c>
       <c r="G25" t="s">
@@ -3382,7 +3459,7 @@
       <c r="I25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="4">
@@ -3392,42 +3469,49 @@
       <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
+      <c r="N25" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>44977</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="47">
         <v>44977</v>
       </c>
       <c r="G26" t="s">
@@ -3439,7 +3523,7 @@
       <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="12" t="s">
         <v>76</v>
       </c>
       <c r="K26" s="4">
@@ -3449,33 +3533,37 @@
       <c r="M26" s="4">
         <v>0</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>-44977</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>44977</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="47">
         <v>44977</v>
       </c>
       <c r="G27" t="s">
@@ -3487,7 +3575,7 @@
       <c r="I27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="4">
@@ -3497,39 +3585,46 @@
       <c r="M27" s="4">
         <v>1</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>1</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
+      <c r="N27" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>44977</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="47">
         <v>44977</v>
       </c>
       <c r="G28" t="s">
@@ -3541,7 +3636,7 @@
       <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="4">
@@ -3551,42 +3646,49 @@
       <c r="M28" s="4">
         <v>1</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4" t="s">
+      <c r="N28" s="45">
+        <v>44981</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R28" s="4">
-        <v>1</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>44977</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="47">
         <v>44977</v>
       </c>
       <c r="G29" t="s">
@@ -3598,7 +3700,7 @@
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="12" t="s">
         <v>145</v>
       </c>
       <c r="K29" s="4">
@@ -3608,36 +3710,40 @@
       <c r="M29" s="4">
         <v>0</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4" t="s">
+      <c r="O29">
+        <f>_xlfn.DAYS(N29,F29)</f>
+        <v>-44977</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>44977</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="47">
         <v>44977</v>
       </c>
       <c r="G30" t="s">
@@ -3649,7 +3755,7 @@
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="12" t="s">
         <v>137</v>
       </c>
       <c r="K30" s="4">
@@ -3659,36 +3765,40 @@
       <c r="M30" s="4">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>-44977</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>44977</v>
       </c>
       <c r="D31" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="47">
         <v>44977</v>
       </c>
       <c r="G31" t="s">
@@ -3700,7 +3810,7 @@
       <c r="I31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="4">
@@ -3710,42 +3820,49 @@
       <c r="M31" s="4">
         <v>1</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4" t="s">
+      <c r="N31" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="R31" s="4">
-        <v>1</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
+      <c r="S31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>44977</v>
       </c>
       <c r="D32" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="47">
         <v>44977</v>
       </c>
       <c r="G32" t="s">
@@ -3757,7 +3874,7 @@
       <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="4">
@@ -3767,39 +3884,46 @@
       <c r="M32" s="4">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
+      <c r="N32" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>44977</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="47">
         <v>44977</v>
       </c>
       <c r="G33" t="s">
@@ -3811,7 +3935,7 @@
       <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="12" t="s">
         <v>76</v>
       </c>
       <c r="K33" s="4">
@@ -3821,33 +3945,37 @@
       <c r="M33" s="4">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>-44977</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>44977</v>
       </c>
       <c r="D34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="47">
         <v>44977</v>
       </c>
       <c r="G34" t="s">
@@ -3859,7 +3987,7 @@
       <c r="I34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K34" s="4">
@@ -3869,42 +3997,49 @@
       <c r="M34" s="4">
         <v>1</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4" t="s">
+      <c r="N34" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="S34" s="4">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>44977</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="47">
         <v>44977</v>
       </c>
       <c r="G35" t="s">
@@ -3916,7 +4051,7 @@
       <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="4">
@@ -3926,42 +4061,49 @@
       <c r="M35" s="4">
         <v>1</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="N35" s="45">
+        <v>44980</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
         <v>98</v>
       </c>
-      <c r="R35" s="4">
-        <v>1</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B36" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>44994</v>
       </c>
       <c r="D36" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="48">
         <v>44993</v>
       </c>
       <c r="G36" t="s">
@@ -3973,7 +4115,7 @@
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="4">
@@ -3983,45 +4125,52 @@
       <c r="M36" s="4">
         <v>1</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="R36" s="4">
-        <v>1</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
+      <c r="N36" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B37" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>44994</v>
       </c>
       <c r="D37" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="48">
         <v>44993</v>
       </c>
       <c r="G37" t="s">
@@ -4033,7 +4182,7 @@
       <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="4">
@@ -4043,42 +4192,49 @@
       <c r="M37" s="4">
         <v>1</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
+      <c r="N37" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>44994</v>
       </c>
       <c r="D38" t="s">
         <v>164</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="48">
         <v>44993</v>
       </c>
       <c r="G38" t="s">
@@ -4090,7 +4246,7 @@
       <c r="I38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="4">
@@ -4100,45 +4256,52 @@
       <c r="M38" s="4">
         <v>1</v>
       </c>
-      <c r="O38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="s">
+      <c r="N38" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R38" s="4">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>44994</v>
       </c>
       <c r="D39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="48">
         <v>44993</v>
       </c>
       <c r="G39" t="s">
@@ -4150,7 +4313,7 @@
       <c r="I39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="4">
@@ -4160,42 +4323,49 @@
       <c r="M39" s="4">
         <v>1</v>
       </c>
-      <c r="O39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
+      <c r="N39" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O39">
+        <f>_xlfn.DAYS(N39,F39)</f>
+        <v>2</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B40" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>44994</v>
       </c>
       <c r="D40" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="48">
         <v>44993</v>
       </c>
       <c r="G40" t="s">
@@ -4207,7 +4377,7 @@
       <c r="I40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K40" s="4">
@@ -4217,45 +4387,52 @@
       <c r="M40" s="4">
         <v>1</v>
       </c>
-      <c r="O40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="N40" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>44994</v>
       </c>
       <c r="D41" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="48">
         <v>44993</v>
       </c>
       <c r="G41" t="s">
@@ -4267,7 +4444,7 @@
       <c r="I41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="4">
@@ -4277,45 +4454,52 @@
       <c r="M41" s="4">
         <v>1</v>
       </c>
-      <c r="O41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4" t="s">
+      <c r="N41" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="R41" s="4">
-        <v>1</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B42" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="48">
         <v>44993</v>
       </c>
       <c r="G42" t="s">
@@ -4327,7 +4511,7 @@
       <c r="I42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="4">
@@ -4337,45 +4521,52 @@
       <c r="M42" s="4">
         <v>1</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4" t="s">
+      <c r="N42" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="48">
         <v>44993</v>
       </c>
       <c r="G43" t="s">
@@ -4387,7 +4578,7 @@
       <c r="I43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="4">
@@ -4397,42 +4588,49 @@
       <c r="M43" s="4">
         <v>1</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
+      <c r="N43" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B44" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="48">
         <v>44993</v>
       </c>
       <c r="G44" t="s">
@@ -4444,7 +4642,7 @@
       <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="4">
@@ -4454,42 +4652,49 @@
       <c r="M44" s="4">
         <v>1</v>
       </c>
-      <c r="O44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
+      <c r="N44" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="48">
         <v>44993</v>
       </c>
       <c r="G45" t="s">
@@ -4501,7 +4706,7 @@
       <c r="I45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="4">
@@ -4511,42 +4716,49 @@
       <c r="M45" s="4">
         <v>1</v>
       </c>
-      <c r="O45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="R45" s="4">
-        <v>1</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
+      <c r="N45" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="45">
         <v>44993</v>
       </c>
       <c r="G46" t="s">
@@ -4558,7 +4770,7 @@
       <c r="I46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="4">
@@ -4568,42 +4780,49 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
-      <c r="O46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="R46" s="4">
-        <v>1</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
+      <c r="N46" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="45">
         <v>44993</v>
       </c>
       <c r="G47" t="s">
@@ -4615,7 +4834,7 @@
       <c r="I47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="4">
@@ -4625,45 +4844,52 @@
       <c r="M47" s="4">
         <v>1</v>
       </c>
-      <c r="O47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="N47" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" t="s">
         <v>200</v>
       </c>
-      <c r="R47" s="4">
-        <v>1</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="45">
         <v>44993</v>
       </c>
       <c r="G48" t="s">
@@ -4675,7 +4901,7 @@
       <c r="I48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="4">
@@ -4685,45 +4911,52 @@
       <c r="M48" s="4">
         <v>1</v>
       </c>
-      <c r="O48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4" t="s">
+      <c r="N48" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R48" s="4">
-        <v>1</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
+      <c r="S48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="45">
         <v>44993</v>
       </c>
       <c r="G49" t="s">
@@ -4735,7 +4968,7 @@
       <c r="I49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K49" s="4">
@@ -4745,42 +4978,49 @@
       <c r="M49" s="4">
         <v>1</v>
       </c>
-      <c r="O49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4">
-        <v>1</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
+      <c r="N49" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B50" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="45">
         <v>44993</v>
       </c>
       <c r="G50" t="s">
@@ -4792,7 +5032,7 @@
       <c r="I50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="4">
@@ -4802,42 +5042,49 @@
       <c r="M50" s="4">
         <v>1</v>
       </c>
-      <c r="O50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="R50" s="4">
-        <v>1</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
+      <c r="N50" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
         <v>178</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="45">
         <v>44993</v>
       </c>
       <c r="G51" t="s">
@@ -4849,7 +5096,7 @@
       <c r="I51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="4">
@@ -4859,42 +5106,49 @@
       <c r="M51" s="4">
         <v>1</v>
       </c>
-      <c r="O51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
-        <v>1</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
+      <c r="N51" s="45">
+        <v>44995</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4">
+        <v>1</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B52" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="45">
         <v>44993</v>
       </c>
       <c r="G52" t="s">
@@ -4906,7 +5160,7 @@
       <c r="I52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="4">
@@ -4916,45 +5170,52 @@
       <c r="M52" s="4">
         <v>1</v>
       </c>
-      <c r="O52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4" t="s">
+      <c r="N52" s="45">
+        <v>44997</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="R52" s="4">
-        <v>1</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
+      <c r="S52" s="4">
+        <v>1</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>45005</v>
       </c>
       <c r="D53" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="45">
         <v>45004</v>
       </c>
       <c r="G53" t="s">
@@ -4966,7 +5227,7 @@
       <c r="I53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K53" s="4">
@@ -4976,40 +5237,47 @@
       <c r="M53" s="4">
         <v>1</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="R53" s="4">
-        <v>1</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4">
+      <c r="N53" s="45">
+        <v>45006</v>
+      </c>
+      <c r="O53">
+        <f>_xlfn.DAYS(N53,F53)</f>
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>45005</v>
       </c>
       <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="6">
-        <v>37334</v>
+      <c r="F54" s="45">
+        <v>45004</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -5020,7 +5288,7 @@
       <c r="I54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="4">
@@ -5030,40 +5298,47 @@
       <c r="M54" s="4">
         <v>1</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
-        <v>1</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="4">
+      <c r="N54" s="45">
+        <v>45006</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>45005</v>
       </c>
       <c r="D55" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="6">
-        <v>37334</v>
+      <c r="F55" s="45">
+        <v>45004</v>
       </c>
       <c r="G55" t="s">
         <v>8</v>
@@ -5074,7 +5349,7 @@
       <c r="I55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K55" s="4">
@@ -5084,40 +5359,47 @@
       <c r="M55" s="4">
         <v>1</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="R55" s="4">
-        <v>1</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X55">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="4">
+      <c r="N55" s="45">
+        <v>45006</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="4">
         <v>28</v>
       </c>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>45005</v>
       </c>
       <c r="D56" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="45">
         <v>37334</v>
       </c>
       <c r="G56" t="s">
@@ -5129,7 +5411,7 @@
       <c r="I56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="12" t="s">
         <v>229</v>
       </c>
       <c r="K56" s="4">
@@ -5139,23 +5421,27 @@
       <c r="M56" s="4">
         <v>0</v>
       </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4">
-        <v>0</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA56" s="16"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>-37334</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="14"/>
+    </row>
+    <row r="57" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="E57" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="45">
         <v>37334</v>
       </c>
       <c r="G57" t="s">
@@ -5167,7 +5453,7 @@
       <c r="I57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="12" t="s">
         <v>228</v>
       </c>
       <c r="K57" s="4">
@@ -5177,88 +5463,97 @@
       <c r="M57" s="4">
         <v>0</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="4" t="s">
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>-37334</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="R57" s="4">
-        <v>0</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA57" s="16"/>
-    </row>
-    <row r="58" spans="1:28" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="36" t="s">
+      <c r="S57" s="4">
+        <v>0</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="14"/>
+    </row>
+    <row r="58" spans="1:29" s="35" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="34">
         <v>45005</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="49">
         <v>45005</v>
       </c>
-      <c r="G58" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="K58" s="36">
-        <v>1</v>
-      </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36">
-        <v>1</v>
-      </c>
-      <c r="P58" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="R58" s="36">
-        <v>1</v>
-      </c>
-      <c r="W58" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G58" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" s="33">
+        <v>1</v>
+      </c>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33">
+        <v>1</v>
+      </c>
+      <c r="N58" s="49"/>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>-45005</v>
+      </c>
+      <c r="Q58" s="35">
+        <v>1</v>
+      </c>
+      <c r="R58" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="S58" s="33">
+        <v>1</v>
+      </c>
+      <c r="X58" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>227</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="45">
         <v>45005</v>
       </c>
       <c r="G59" t="s">
@@ -5270,7 +5565,7 @@
       <c r="I59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="4">
@@ -5280,39 +5575,46 @@
       <c r="M59" s="4">
         <v>1</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="R59" s="4">
-        <v>1</v>
-      </c>
-      <c r="W59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
+      <c r="N59" s="45">
+        <v>45006</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="S59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="45">
         <v>45004</v>
       </c>
       <c r="G60" t="s">
@@ -5324,7 +5626,7 @@
       <c r="I60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="4">
@@ -5334,39 +5636,46 @@
       <c r="M60" s="4">
         <v>1</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="R60" s="4">
-        <v>1</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
+      <c r="N60" s="45">
+        <v>45007</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B61" t="s">
         <v>267</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>45014</v>
       </c>
       <c r="D61" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="45">
         <v>45014</v>
       </c>
       <c r="G61" t="s">
@@ -5378,7 +5687,7 @@
       <c r="I61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="4">
@@ -5387,42 +5696,49 @@
       <c r="M61" s="4">
         <v>1</v>
       </c>
-      <c r="O61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="R61" s="4">
-        <v>1</v>
-      </c>
-      <c r="W61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
+      <c r="N61" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>45014</v>
       </c>
       <c r="D62" t="s">
         <v>250</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="45">
         <v>45014</v>
       </c>
       <c r="G62" t="s">
@@ -5434,7 +5750,7 @@
       <c r="I62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="4">
@@ -5443,45 +5759,52 @@
       <c r="M62" s="4">
         <v>1</v>
       </c>
-      <c r="O62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="R62" s="4">
-        <v>1</v>
-      </c>
-      <c r="W62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
+      <c r="N62" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="S62" s="4">
+        <v>1</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B63" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>45014</v>
       </c>
       <c r="D63" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="45">
         <v>45014</v>
       </c>
       <c r="G63" t="s">
@@ -5493,7 +5816,7 @@
       <c r="I63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K63" s="4">
@@ -5502,45 +5825,52 @@
       <c r="M63" s="4">
         <v>1</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="N63" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P63" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="R63" s="4">
-        <v>1</v>
-      </c>
-      <c r="W63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X63">
-        <v>1</v>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="S63" s="4">
+        <v>1</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B64" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>45014</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="45">
         <v>45014</v>
       </c>
       <c r="G64" t="s">
@@ -5552,7 +5882,7 @@
       <c r="I64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="4">
@@ -5561,42 +5891,49 @@
       <c r="M64" s="4">
         <v>1</v>
       </c>
-      <c r="O64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="R64" s="4">
-        <v>1</v>
-      </c>
-      <c r="W64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
+      <c r="N64" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4">
+        <v>1</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B65" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>45014</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="45">
         <v>45014</v>
       </c>
       <c r="G65" t="s">
@@ -5608,7 +5945,7 @@
       <c r="I65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="4">
@@ -5617,42 +5954,49 @@
       <c r="M65" s="4">
         <v>1</v>
       </c>
-      <c r="O65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="R65" s="4">
-        <v>1</v>
-      </c>
-      <c r="W65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
+      <c r="N65" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B66" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>45014</v>
       </c>
       <c r="D66" t="s">
         <v>255</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="45">
         <v>45014</v>
       </c>
       <c r="G66" t="s">
@@ -5664,8 +6008,8 @@
       <c r="I66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>438</v>
+      <c r="J66" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -5673,37 +6017,41 @@
       <c r="M66" s="4">
         <v>1</v>
       </c>
-      <c r="O66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="R66" s="4"/>
-      <c r="W66" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O66">
+        <f>_xlfn.DAYS(N66,F66)</f>
+        <v>-45014</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="X66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>45014</v>
       </c>
       <c r="D67" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="45">
         <v>45014</v>
       </c>
       <c r="G67" t="s">
@@ -5715,7 +6063,7 @@
       <c r="I67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K67">
@@ -5724,42 +6072,49 @@
       <c r="M67" s="4">
         <v>1</v>
       </c>
-      <c r="O67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="R67" s="4">
-        <v>1</v>
-      </c>
-      <c r="W67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X67">
-        <v>1</v>
+      <c r="N67" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>45014</v>
       </c>
       <c r="D68" t="s">
         <v>257</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="45">
         <v>45014</v>
       </c>
       <c r="G68" t="s">
@@ -5771,7 +6126,7 @@
       <c r="I68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K68">
@@ -5780,95 +6135,107 @@
       <c r="M68" s="4">
         <v>1</v>
       </c>
-      <c r="O68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="R68" s="4">
-        <v>1</v>
-      </c>
-      <c r="W68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
+      <c r="N68" s="45">
+        <v>45069</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68:O76" si="1">_xlfn.DAYS(N68,F68)</f>
+        <v>55</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="24" t="s">
+    <row r="69" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="25">
         <v>45014</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="46">
         <v>45014</v>
       </c>
-      <c r="G69" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J69" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="K69" s="25">
-        <v>1</v>
-      </c>
-      <c r="M69" s="24">
-        <v>0</v>
-      </c>
-      <c r="O69" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P69" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="R69" s="24">
-        <v>0</v>
-      </c>
-      <c r="W69" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G69" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="K69" s="23">
+        <v>1</v>
+      </c>
+      <c r="M69" s="22">
+        <v>0</v>
+      </c>
+      <c r="N69" s="46"/>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P69" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q69" s="23">
+        <v>1</v>
+      </c>
+      <c r="R69" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="S69" s="22">
+        <v>0</v>
+      </c>
+      <c r="X69" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>45014</v>
       </c>
       <c r="D70" t="s">
         <v>259</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="45">
         <v>45014</v>
       </c>
       <c r="G70" t="s">
@@ -5880,7 +6247,7 @@
       <c r="I70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J70" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K70">
@@ -5889,43 +6256,50 @@
       <c r="M70" s="4">
         <v>1</v>
       </c>
-      <c r="O70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4">
-        <v>1</v>
-      </c>
-      <c r="W70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X70">
-        <v>1</v>
+      <c r="N70" s="45">
+        <v>45016</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4">
+        <v>1</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:26" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B71" t="s">
         <v>277</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>45014</v>
       </c>
       <c r="D71" t="s">
         <v>260</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="45">
         <v>45014</v>
       </c>
       <c r="G71" t="s">
@@ -5937,7 +6311,7 @@
       <c r="I71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="14" t="s">
+      <c r="J71" s="12" t="s">
         <v>145</v>
       </c>
       <c r="K71">
@@ -5946,39 +6320,43 @@
       <c r="M71" s="4">
         <v>0</v>
       </c>
-      <c r="O71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
         <v>285</v>
       </c>
-      <c r="R71" s="4">
-        <v>0</v>
-      </c>
-      <c r="W71" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S71" s="4">
+        <v>0</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B72" t="s">
         <v>278</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>45014</v>
       </c>
       <c r="D72" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="45">
         <v>45014</v>
       </c>
       <c r="G72" t="s">
@@ -5990,7 +6368,7 @@
       <c r="I72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="J72" s="12" t="s">
         <v>76</v>
       </c>
       <c r="K72">
@@ -5999,39 +6377,43 @@
       <c r="M72" s="4">
         <v>0</v>
       </c>
-      <c r="O72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="R72" s="4">
-        <v>0</v>
-      </c>
-      <c r="W72" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+      <c r="X72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B73" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>45014</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="45">
         <v>45014</v>
       </c>
       <c r="G73" t="s">
@@ -6043,7 +6425,7 @@
       <c r="I73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="12" t="s">
         <v>145</v>
       </c>
       <c r="K73">
@@ -6052,39 +6434,43 @@
       <c r="M73" s="4">
         <v>0</v>
       </c>
-      <c r="O73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="s">
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
         <v>283</v>
       </c>
-      <c r="R73" s="4">
-        <v>0</v>
-      </c>
-      <c r="W73" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="14" x14ac:dyDescent="0.15">
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B74" t="s">
         <v>280</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>45014</v>
       </c>
       <c r="D74" t="s">
         <v>263</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="45">
         <v>45014</v>
       </c>
       <c r="G74" t="s">
@@ -6096,7 +6482,7 @@
       <c r="I74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="14" t="s">
+      <c r="J74" s="12" t="s">
         <v>76</v>
       </c>
       <c r="K74">
@@ -6105,39 +6491,43 @@
       <c r="M74" s="4">
         <v>0</v>
       </c>
-      <c r="O74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="R74" s="4">
-        <v>0</v>
-      </c>
-      <c r="W74" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0</v>
+      </c>
+      <c r="X74" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B75" t="s">
         <v>281</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>45014</v>
       </c>
       <c r="D75" t="s">
         <v>264</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="45">
         <v>45014</v>
       </c>
       <c r="G75" t="s">
@@ -6149,7 +6539,7 @@
       <c r="I75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="12" t="s">
         <v>284</v>
       </c>
       <c r="K75">
@@ -6158,30 +6548,34 @@
       <c r="M75" s="4">
         <v>0</v>
       </c>
-      <c r="O75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="R75" s="4">
-        <v>0</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O75">
+        <f t="shared" si="1"/>
+        <v>-45014</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B76" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>45014</v>
       </c>
       <c r="D76" t="s">
@@ -6190,7 +6584,7 @@
       <c r="E76" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="45">
         <v>45014</v>
       </c>
       <c r="G76" t="s">
@@ -6202,7 +6596,7 @@
       <c r="I76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J76" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K76">
@@ -6211,89 +6605,101 @@
       <c r="M76">
         <v>1</v>
       </c>
-      <c r="O76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="4" t="s">
+      <c r="N76" s="45">
+        <v>45057</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="R76" s="4">
-        <v>1</v>
-      </c>
-      <c r="W76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
+      <c r="S76" s="4">
+        <v>1</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="25" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A77" s="24" t="s">
+    <row r="77" spans="1:26" s="23" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="25">
         <v>45070</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77" s="46">
         <v>45070</v>
       </c>
-      <c r="G77" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="K77" s="25">
-        <v>1</v>
-      </c>
-      <c r="M77" s="25">
-        <v>0</v>
-      </c>
-      <c r="O77" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P77" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="R77" s="24">
-        <v>0</v>
-      </c>
-      <c r="W77" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G77" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="K77" s="23">
+        <v>1</v>
+      </c>
+      <c r="M77" s="23">
+        <v>0</v>
+      </c>
+      <c r="N77" s="46"/>
+      <c r="O77">
+        <f>_xlfn.DAYS(N77,F77)</f>
+        <v>-45070</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="23">
+        <v>1</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="S77" s="22">
+        <v>0</v>
+      </c>
+      <c r="X77" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B78" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <v>45070</v>
       </c>
       <c r="D78" t="s">
@@ -6302,7 +6708,7 @@
       <c r="E78" t="s">
         <v>290</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="45">
         <v>45070</v>
       </c>
       <c r="G78" t="s">
@@ -6314,7 +6720,7 @@
       <c r="I78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J78" s="14" t="s">
+      <c r="J78" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K78">
@@ -6323,33 +6729,40 @@
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="O78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="R78" s="4">
-        <v>1</v>
-      </c>
-      <c r="W78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X78">
-        <v>1</v>
+      <c r="N78" s="45">
+        <v>45077</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O124" si="2">_xlfn.DAYS(N78,F78)</f>
+        <v>7</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="S78" s="4">
+        <v>1</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B79" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>45070</v>
       </c>
       <c r="D79" t="s">
@@ -6358,7 +6771,7 @@
       <c r="E79" t="s">
         <v>291</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="45">
         <v>45070</v>
       </c>
       <c r="G79" t="s">
@@ -6370,7 +6783,7 @@
       <c r="I79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J79" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K79">
@@ -6379,33 +6792,40 @@
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="O79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="R79" s="4">
-        <v>1</v>
-      </c>
-      <c r="W79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
+      <c r="N79" s="45">
+        <v>45077</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B80" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>45070</v>
       </c>
       <c r="D80" t="s">
@@ -6414,7 +6834,7 @@
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="45">
         <v>45070</v>
       </c>
       <c r="G80" t="s">
@@ -6426,7 +6846,7 @@
       <c r="I80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J80" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K80">
@@ -6435,33 +6855,40 @@
       <c r="M80">
         <v>1</v>
       </c>
-      <c r="O80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="R80" s="4">
-        <v>1</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
+      <c r="N80" s="45">
+        <v>45077</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="S80" s="4">
+        <v>1</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B81" t="s">
         <v>303</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>45070</v>
       </c>
       <c r="D81" t="s">
@@ -6470,7 +6897,7 @@
       <c r="E81" t="s">
         <v>293</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="45">
         <v>45070</v>
       </c>
       <c r="G81" t="s">
@@ -6482,8 +6909,8 @@
       <c r="I81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J81" s="14" t="s">
-        <v>427</v>
+      <c r="J81" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6491,83 +6918,92 @@
       <c r="M81">
         <v>1</v>
       </c>
-      <c r="O81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="R81" s="4">
-        <v>0</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="24" t="s">
+      <c r="O81">
+        <f t="shared" si="2"/>
+        <v>-45070</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="25">
         <v>45082</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="46">
         <v>45082</v>
       </c>
-      <c r="G82" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="K82" s="25">
-        <v>1</v>
-      </c>
-      <c r="M82" s="25">
-        <v>0</v>
-      </c>
-      <c r="O82" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P82" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="25" t="s">
+      <c r="G82" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="K82" s="23">
+        <v>1</v>
+      </c>
+      <c r="M82" s="23">
+        <v>0</v>
+      </c>
+      <c r="N82" s="46"/>
+      <c r="O82">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P82" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q82" s="23">
+        <v>1</v>
+      </c>
+      <c r="R82" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="R82" s="25">
-        <v>0</v>
-      </c>
-      <c r="W82" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S82" s="23">
+        <v>0</v>
+      </c>
+      <c r="X82" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B83" t="s">
         <v>337</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>45082</v>
       </c>
       <c r="D83" t="s">
@@ -6576,7 +7012,7 @@
       <c r="E83" t="s">
         <v>305</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="45">
         <v>45082</v>
       </c>
       <c r="G83" t="s">
@@ -6588,7 +7024,7 @@
       <c r="I83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J83" s="14" t="s">
+      <c r="J83" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K83">
@@ -6597,36 +7033,43 @@
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="O83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83" t="s">
+      <c r="N83" s="45">
+        <v>45086</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
         <v>354</v>
       </c>
-      <c r="R83" s="4">
-        <v>1</v>
-      </c>
-      <c r="W83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X83">
-        <v>1</v>
+      <c r="S83" s="4">
+        <v>1</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B84" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>45082</v>
       </c>
       <c r="D84" t="s">
@@ -6635,7 +7078,7 @@
       <c r="E84" t="s">
         <v>306</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="45">
         <v>45082</v>
       </c>
       <c r="G84" t="s">
@@ -6647,7 +7090,7 @@
       <c r="I84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J84" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K84">
@@ -6656,42 +7099,49 @@
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="O84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="R84" s="4">
-        <v>1</v>
-      </c>
-      <c r="W84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
+      <c r="N84" s="45">
+        <v>45091</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B85" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>45082</v>
       </c>
       <c r="D85" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="45">
         <v>45082</v>
       </c>
       <c r="G85" t="s">
@@ -6712,39 +7162,43 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="O85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85" t="s">
+      <c r="O85">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85" t="s">
         <v>353</v>
       </c>
-      <c r="R85" s="4">
-        <v>0</v>
-      </c>
-      <c r="W85" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+      <c r="X85" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B86" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>45082</v>
       </c>
       <c r="D86" t="s">
         <v>325</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="45">
         <v>45082</v>
       </c>
       <c r="G86" t="s">
@@ -6756,7 +7210,7 @@
       <c r="I86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J86" s="14" t="s">
+      <c r="J86" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K86">
@@ -6765,30 +7219,34 @@
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="O86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="4" t="s">
+      <c r="O86">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R86" s="4">
-        <v>0</v>
-      </c>
-      <c r="W86" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S86" s="4">
+        <v>0</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B87" t="s">
         <v>340</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>45082</v>
       </c>
       <c r="D87" t="s">
@@ -6797,7 +7255,7 @@
       <c r="E87" t="s">
         <v>309</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="45">
         <v>45082</v>
       </c>
       <c r="G87" t="s">
@@ -6809,7 +7267,7 @@
       <c r="I87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J87" s="14" t="s">
+      <c r="J87" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K87">
@@ -6818,33 +7276,40 @@
       <c r="M87">
         <v>1</v>
       </c>
-      <c r="O87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="R87" s="4">
-        <v>1</v>
-      </c>
-      <c r="W87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
+      <c r="N87" s="45">
+        <v>45098</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="S87" s="4">
+        <v>1</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B88" t="s">
         <v>341</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>45082</v>
       </c>
       <c r="D88" t="s">
@@ -6853,7 +7318,7 @@
       <c r="E88" t="s">
         <v>310</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="45">
         <v>45082</v>
       </c>
       <c r="G88" t="s">
@@ -6865,7 +7330,7 @@
       <c r="I88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K88">
@@ -6874,36 +7339,43 @@
       <c r="M88">
         <v>1</v>
       </c>
-      <c r="O88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="R88" s="4">
-        <v>1</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X88">
-        <v>1</v>
+      <c r="N88" s="45">
+        <v>45093</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="S88" s="4">
+        <v>1</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B89" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>45082</v>
       </c>
       <c r="D89" t="s">
@@ -6912,7 +7384,7 @@
       <c r="E89" t="s">
         <v>311</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="45">
         <v>45082</v>
       </c>
       <c r="G89" t="s">
@@ -6924,7 +7396,7 @@
       <c r="I89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J89" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K89">
@@ -6933,45 +7405,52 @@
       <c r="M89">
         <v>1</v>
       </c>
-      <c r="O89" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89" t="s">
+      <c r="N89" s="45">
+        <v>45095</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s">
         <v>351</v>
       </c>
-      <c r="R89" s="4">
-        <v>1</v>
-      </c>
-      <c r="W89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
+      <c r="S89" s="4">
+        <v>1</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B90" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>45082</v>
       </c>
       <c r="D90" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="45">
         <v>45082</v>
       </c>
       <c r="G90" t="s">
@@ -6983,7 +7462,7 @@
       <c r="I90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J90" s="14" t="s">
+      <c r="J90" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K90">
@@ -6992,33 +7471,40 @@
       <c r="M90">
         <v>1</v>
       </c>
-      <c r="O90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="R90" s="4">
-        <v>1</v>
-      </c>
-      <c r="W90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
+      <c r="N90" s="45">
+        <v>45093</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="S90" s="4">
+        <v>1</v>
+      </c>
+      <c r="X90" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B91" t="s">
         <v>345</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>45082</v>
       </c>
       <c r="D91" t="s">
@@ -7027,7 +7513,7 @@
       <c r="E91" t="s">
         <v>313</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="45">
         <v>45082</v>
       </c>
       <c r="G91" t="s">
@@ -7039,7 +7525,7 @@
       <c r="I91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J91" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K91">
@@ -7048,33 +7534,40 @@
       <c r="M91">
         <v>1</v>
       </c>
-      <c r="O91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="R91" s="4">
-        <v>1</v>
-      </c>
-      <c r="W91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
+      <c r="N91" s="45">
+        <v>45090</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="S91" s="4">
+        <v>1</v>
+      </c>
+      <c r="X91" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>344</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>45082</v>
       </c>
       <c r="D92" t="s">
@@ -7083,7 +7576,7 @@
       <c r="E92" t="s">
         <v>314</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="45">
         <v>45082</v>
       </c>
       <c r="G92" t="s">
@@ -7095,7 +7588,7 @@
       <c r="I92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="J92" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K92">
@@ -7104,39 +7597,46 @@
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="O92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="R92" s="4">
-        <v>1</v>
-      </c>
-      <c r="W92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
+      <c r="N92" s="45">
+        <v>45093</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="S92" s="4">
+        <v>1</v>
+      </c>
+      <c r="X92" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>45082</v>
       </c>
       <c r="D93" t="s">
         <v>331</v>
       </c>
-      <c r="E93" s="33" t="s">
+      <c r="E93" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="45">
         <v>45082</v>
       </c>
       <c r="G93" t="s">
@@ -7157,27 +7657,31 @@
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="O93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="R93" s="4">
-        <v>0</v>
-      </c>
-      <c r="W93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O93">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0</v>
+      </c>
+      <c r="X93" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>346</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>45082</v>
       </c>
       <c r="D94" t="s">
@@ -7186,7 +7690,7 @@
       <c r="E94" t="s">
         <v>316</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="45">
         <v>45082</v>
       </c>
       <c r="G94" t="s">
@@ -7207,39 +7711,43 @@
       <c r="M94">
         <v>0</v>
       </c>
-      <c r="O94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94" t="s">
+      <c r="O94">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94" t="s">
         <v>353</v>
       </c>
-      <c r="R94" s="4">
-        <v>0</v>
-      </c>
-      <c r="W94" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S94" s="4">
+        <v>0</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B95" t="s">
         <v>347</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>45082</v>
       </c>
       <c r="D95" t="s">
         <v>333</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E95" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="45">
         <v>45082</v>
       </c>
       <c r="G95" t="s">
@@ -7251,7 +7759,7 @@
       <c r="I95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J95" s="14" t="s">
+      <c r="J95" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K95">
@@ -7260,30 +7768,34 @@
       <c r="M95">
         <v>1</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="R95" s="4">
-        <v>0</v>
-      </c>
-      <c r="W95" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O95">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0</v>
+      </c>
+      <c r="X95" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B96" t="s">
         <v>348</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <v>45082</v>
       </c>
       <c r="D96" t="s">
@@ -7292,7 +7804,7 @@
       <c r="E96" t="s">
         <v>318</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="45">
         <v>45082</v>
       </c>
       <c r="G96" t="s">
@@ -7304,8 +7816,8 @@
       <c r="I96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J96" s="14" t="s">
-        <v>433</v>
+      <c r="J96" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7313,36 +7825,40 @@
       <c r="M96">
         <v>1</v>
       </c>
-      <c r="O96" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="R96" s="4">
-        <v>1</v>
-      </c>
-      <c r="W96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
+      <c r="O96">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="S96" s="4">
+        <v>1</v>
+      </c>
+      <c r="X96" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B97" t="s">
         <v>349</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <v>45082</v>
       </c>
       <c r="D97" t="s">
@@ -7351,7 +7867,7 @@
       <c r="E97" t="s">
         <v>319</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="45">
         <v>45082</v>
       </c>
       <c r="G97" t="s">
@@ -7363,8 +7879,8 @@
       <c r="I97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J97" s="14" t="s">
-        <v>433</v>
+      <c r="J97" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7372,47 +7888,51 @@
       <c r="M97">
         <v>0</v>
       </c>
-      <c r="O97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="R97" s="23">
-        <v>0</v>
-      </c>
-      <c r="W97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X97">
-        <f>SUM(X2:X96)</f>
-        <v>24</v>
+      <c r="O97">
+        <f t="shared" si="2"/>
+        <v>-45082</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="S97" s="21">
+        <v>0</v>
+      </c>
+      <c r="X97" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="Y97">
-        <f>AVERAGE(Y2:Y96)</f>
-        <v>27.492537313432837</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>SUM(Y2:Y96)</f>
+        <v>1023</v>
+      </c>
+      <c r="Z97">
+        <f>AVERAGE(Z2:Z96)</f>
+        <v>41.779411764705884</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="B98" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C98" s="5">
         <v>45117</v>
       </c>
       <c r="D98" t="s">
-        <v>388</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="F98" s="6">
+        <v>386</v>
+      </c>
+      <c r="E98" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="F98" s="45">
         <v>45117</v>
       </c>
       <c r="G98" s="4" t="s">
@@ -7422,7 +7942,7 @@
         <v>8</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="14" t="s">
+      <c r="J98" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K98">
@@ -7431,31 +7951,44 @@
       <c r="M98">
         <v>1</v>
       </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="W98" s="4"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N98" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="X98" s="4"/>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C99" s="6">
+        <v>404</v>
+      </c>
+      <c r="C99" s="5">
         <v>45117</v>
       </c>
       <c r="D99" t="s">
-        <v>389</v>
-      </c>
-      <c r="E99" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="F99" s="6">
+        <v>387</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="F99" s="45">
         <v>45117</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -7465,8 +7998,8 @@
         <v>7</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="14" t="s">
-        <v>426</v>
+      <c r="J99" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7474,34 +8007,38 @@
       <c r="M99">
         <v>0</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="R99">
-        <f>SUM(R2:R98)</f>
+      <c r="O99">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="S99">
+        <f>SUM(S2:S98)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C100" s="6">
+        <v>405</v>
+      </c>
+      <c r="C100" s="5">
         <v>45117</v>
       </c>
       <c r="D100" t="s">
-        <v>390</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="F100" s="6">
+        <v>388</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F100" s="45">
         <v>45117</v>
       </c>
       <c r="G100" s="4" t="s">
@@ -7519,30 +8056,43 @@
       <c r="M100">
         <v>1</v>
       </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N100" s="45">
+        <v>45153</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C101" s="6">
+        <v>406</v>
+      </c>
+      <c r="C101" s="5">
         <v>45117</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
-      </c>
-      <c r="E101" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="F101" s="6">
+        <v>389</v>
+      </c>
+      <c r="E101" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101" s="45">
         <v>45117</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -7551,8 +8101,8 @@
       <c r="H101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="14" t="s">
-        <v>433</v>
+      <c r="J101" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -7560,30 +8110,34 @@
       <c r="M101">
         <v>0</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O101">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C102" s="6">
+        <v>407</v>
+      </c>
+      <c r="C102" s="5">
         <v>45117</v>
       </c>
       <c r="D102" t="s">
-        <v>392</v>
-      </c>
-      <c r="E102" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="F102" s="6">
+        <v>390</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="F102" s="45">
         <v>45117</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -7592,8 +8146,8 @@
       <c r="H102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="14" t="s">
-        <v>433</v>
+      <c r="J102" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -7601,30 +8155,34 @@
       <c r="M102">
         <v>0</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O102">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C103" s="6">
+        <v>408</v>
+      </c>
+      <c r="C103" s="5">
         <v>45117</v>
       </c>
       <c r="D103" t="s">
-        <v>393</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="F103" s="6">
+        <v>391</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" s="45">
         <v>45117</v>
       </c>
       <c r="G103" s="4" t="s">
@@ -7633,7 +8191,7 @@
       <c r="H103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J103" s="14" t="s">
+      <c r="J103" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K103">
@@ -7642,30 +8200,43 @@
       <c r="M103">
         <v>1</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N103" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C104" s="6">
+        <v>409</v>
+      </c>
+      <c r="C104" s="5">
         <v>45117</v>
       </c>
       <c r="D104" t="s">
-        <v>394</v>
-      </c>
-      <c r="E104" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="F104" s="6">
+        <v>392</v>
+      </c>
+      <c r="E104" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="F104" s="45">
         <v>45117</v>
       </c>
       <c r="G104" s="4" t="s">
@@ -7674,7 +8245,7 @@
       <c r="H104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J104" s="14" t="s">
+      <c r="J104" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K104">
@@ -7683,27 +8254,40 @@
       <c r="M104">
         <v>1</v>
       </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N104" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O104">
+        <f>_xlfn.DAYS(N104,F104)</f>
+        <v>17</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C105" s="6">
+        <v>410</v>
+      </c>
+      <c r="C105" s="5">
         <v>45117</v>
       </c>
       <c r="D105" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="F105" s="6">
+        <v>393</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="F105" s="45">
         <v>45117</v>
       </c>
       <c r="G105" s="4" t="s">
@@ -7712,8 +8296,8 @@
       <c r="H105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J105" s="14" t="s">
-        <v>472</v>
+      <c r="J105" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7721,30 +8305,34 @@
       <c r="M105">
         <v>0</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O105">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C106" s="6">
+        <v>411</v>
+      </c>
+      <c r="C106" s="5">
         <v>45117</v>
       </c>
       <c r="D106" t="s">
-        <v>396</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="F106" s="6">
+        <v>394</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F106" s="45">
         <v>45117</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -7753,7 +8341,7 @@
       <c r="H106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J106" s="14" t="s">
+      <c r="J106" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K106">
@@ -7762,30 +8350,43 @@
       <c r="M106">
         <v>1</v>
       </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N106" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C107" s="6">
+        <v>412</v>
+      </c>
+      <c r="C107" s="5">
         <v>45117</v>
       </c>
       <c r="D107" t="s">
-        <v>397</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" s="6">
+        <v>395</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="F107" s="45">
         <v>45117</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -7794,8 +8395,8 @@
       <c r="H107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="14" t="s">
-        <v>433</v>
+      <c r="J107" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -7803,27 +8404,31 @@
       <c r="M107">
         <v>0</v>
       </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O107">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C108" s="6">
+        <v>413</v>
+      </c>
+      <c r="C108" s="5">
         <v>45117</v>
       </c>
       <c r="D108" t="s">
-        <v>398</v>
-      </c>
-      <c r="E108" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="F108" s="6">
+        <v>396</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="F108" s="45">
         <v>45117</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -7832,8 +8437,8 @@
       <c r="H108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J108" s="14" t="s">
-        <v>433</v>
+      <c r="J108" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7841,30 +8446,34 @@
       <c r="M108">
         <v>0</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O108">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C109" s="6">
+        <v>414</v>
+      </c>
+      <c r="C109" s="5">
         <v>45117</v>
       </c>
       <c r="D109" t="s">
-        <v>399</v>
-      </c>
-      <c r="E109" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="F109" s="6">
+        <v>397</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109" s="45">
         <v>45117</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -7873,7 +8482,7 @@
       <c r="H109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J109" s="14" t="s">
+      <c r="J109" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K109">
@@ -7882,27 +8491,40 @@
       <c r="M109">
         <v>1</v>
       </c>
-      <c r="P109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N109" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C110" s="6">
+        <v>415</v>
+      </c>
+      <c r="C110" s="5">
         <v>45117</v>
       </c>
       <c r="D110" t="s">
-        <v>400</v>
-      </c>
-      <c r="E110" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="F110" s="6">
+        <v>398</v>
+      </c>
+      <c r="E110" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="F110" s="45">
         <v>45117</v>
       </c>
       <c r="G110" s="4" t="s">
@@ -7911,7 +8533,7 @@
       <c r="H110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J110" s="14" t="s">
+      <c r="J110" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K110">
@@ -7920,71 +8542,88 @@
       <c r="M110">
         <v>1</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N110" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>999</v>
+      </c>
+      <c r="Z110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C111" s="6">
+        <v>417</v>
+      </c>
+      <c r="C111" s="5">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>402</v>
-      </c>
-      <c r="E111" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F111" s="45">
+        <v>45117</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F111" s="6">
-        <v>45117</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J111" s="14" t="s">
-        <v>433</v>
-      </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O111">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C112" s="6">
+        <v>416</v>
+      </c>
+      <c r="C112" s="5">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
-      </c>
-      <c r="F112" s="6">
+        <v>385</v>
+      </c>
+      <c r="F112" s="45">
         <v>45117</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -7993,7 +8632,7 @@
       <c r="H112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J112" s="14" t="s">
+      <c r="J112" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K112">
@@ -8002,24 +8641,37 @@
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N112" s="45">
+        <v>45134</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>429</v>
-      </c>
-      <c r="C113" s="6">
+        <v>427</v>
+      </c>
+      <c r="C113" s="5">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F113" s="6">
+        <v>426</v>
+      </c>
+      <c r="F113" s="45">
         <v>45117</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -8031,8 +8683,8 @@
       <c r="I113" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J113" s="14" t="s">
-        <v>433</v>
+      <c r="J113" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -8040,27 +8692,31 @@
       <c r="M113">
         <v>0</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O113">
+        <f t="shared" si="2"/>
+        <v>-45117</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F114" s="6">
+        <v>441</v>
+      </c>
+      <c r="F114" s="45">
         <v>45145</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J114" s="14" t="s">
+      <c r="J114" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K114">
@@ -8069,30 +8725,43 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N114" s="45">
+        <v>45146</v>
+      </c>
+      <c r="O114">
+        <f>_xlfn.DAYS(N114,F114)</f>
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F115" s="6">
+        <v>442</v>
+      </c>
+      <c r="F115" s="45">
         <v>45145</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J115" s="14" t="s">
+      <c r="J115" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K115">
@@ -8101,31 +8770,44 @@
       <c r="M115">
         <v>1</v>
       </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N115" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F116" s="6">
+        <v>443</v>
+      </c>
+      <c r="F116" s="45">
         <v>45145</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J116" s="14" t="s">
-        <v>472</v>
+      <c r="J116" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8133,30 +8815,34 @@
       <c r="M116">
         <v>0</v>
       </c>
-      <c r="P116">
-        <v>1</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O116">
+        <f t="shared" si="2"/>
+        <v>-45145</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F117" s="6">
+        <v>444</v>
+      </c>
+      <c r="F117" s="45">
         <v>45145</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J117" s="14" t="s">
+      <c r="J117" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K117">
@@ -8165,27 +8851,40 @@
       <c r="M117" s="4">
         <v>1</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N117" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F118" s="6">
+        <v>445</v>
+      </c>
+      <c r="F118" s="45">
         <v>45145</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J118" s="14" t="s">
+      <c r="J118" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K118">
@@ -8194,30 +8893,43 @@
       <c r="M118">
         <v>1</v>
       </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N118" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F119" s="6">
+        <v>446</v>
+      </c>
+      <c r="F119" s="45">
         <v>45145</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J119" s="14" t="s">
+      <c r="J119" s="12" t="s">
         <v>229</v>
       </c>
       <c r="K119">
@@ -8226,27 +8938,31 @@
       <c r="M119">
         <v>0</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O119">
+        <f t="shared" si="2"/>
+        <v>-45145</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F120" s="6">
+        <v>447</v>
+      </c>
+      <c r="F120" s="45">
         <v>45145</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J120" s="14" t="s">
+      <c r="J120" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K120">
@@ -8255,27 +8971,40 @@
       <c r="M120">
         <v>1</v>
       </c>
-      <c r="P120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N120" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F121" s="6">
+        <v>448</v>
+      </c>
+      <c r="F121" s="45">
         <v>45145</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J121" s="14" t="s">
+      <c r="J121" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K121">
@@ -8284,28 +9013,41 @@
       <c r="M121">
         <v>1</v>
       </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N121" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F122" s="6">
+        <v>449</v>
+      </c>
+      <c r="F122" s="45">
         <v>45145</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J122" s="14" t="s">
-        <v>473</v>
+      <c r="J122" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -8313,27 +9055,31 @@
       <c r="M122">
         <v>0</v>
       </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O122">
+        <f t="shared" si="2"/>
+        <v>-45145</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F123" s="6">
+        <v>462</v>
+      </c>
+      <c r="F123" s="45">
         <v>45146</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J123" s="14" t="s">
+      <c r="J123" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K123">
@@ -8342,76 +9088,111 @@
       <c r="M123">
         <v>1</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N123" s="45">
+        <v>45147</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B124" t="s">
+        <v>466</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F124" s="45">
+        <v>45146</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="2"/>
+        <v>-45146</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="F124" s="6">
-        <v>45146</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J124" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="P124">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127">
         <f>SUM(K2:K124)</f>
         <v>90</v>
       </c>
     </row>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>413</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F128" s="45">
+        <v>45117</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" s="45">
+        <v>45163</v>
+      </c>
+      <c r="O128">
+        <f t="shared" ref="O128" si="3">_xlfn.DAYS(N128,F128)</f>
+        <v>46</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="K1:K116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E35">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48 E36 E45">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"y"</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="J1:J127" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7DACD-0E21-B54D-A14B-4FB2756D32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FB54AE-0B74-0043-9126-0EDE6DB35D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15560" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="860" windowWidth="27040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="477">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1465,6 +1465,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>R_1Hd8XOFedTRZIbl</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1682,6 +1685,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1908,25 +1915,25 @@
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="45" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="45" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
@@ -8868,48 +8875,62 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:26" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="C118"/>
+      <c r="D118" t="s">
+        <v>476</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="F118" s="45">
+      <c r="F118" s="51">
         <v>45145</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J118" s="12" t="s">
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118" s="52" t="s">
         <v>8</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118" s="45">
+      <c r="L118"/>
+      <c r="M118" s="42">
+        <v>1</v>
+      </c>
+      <c r="N118" s="51">
         <v>45147</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="42">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="P118"/>
       <c r="Q118">
         <v>1</v>
       </c>
       <c r="R118" t="s">
         <v>452</v>
       </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="42">
         <v>28</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FB54AE-0B74-0043-9126-0EDE6DB35D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381C001-A9BC-2B49-B387-75996707D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="860" windowWidth="27040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34820" yWindow="5660" windowWidth="27040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -1909,16 +1909,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1937,12 +1937,12 @@
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="45" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="21" max="24" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="21" max="24" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2594,7 +2594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>44</v>
       </c>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="Y11" s="22"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
         <v>68</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>95</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>95</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>95</v>
       </c>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="AB56" s="14"/>
     </row>
-    <row r="57" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="E57" t="s">
         <v>209</v>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="AB57" s="14"/>
     </row>
-    <row r="58" spans="1:29" s="35" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="33" t="s">
         <v>95</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>198</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="22" t="s">
         <v>198</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>198</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>198</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>198</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>198</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>198</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="23" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:26" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="22" t="s">
         <v>288</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>288</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="22" t="s">
         <v>68</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>68</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>68</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>68</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>68</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>68</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>68</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>22</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>22</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>22</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>22</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>427</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>22</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>22</v>
       </c>
@@ -9162,9 +9162,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127">
         <f>SUM(K2:K124)</f>
         <v>90</v>
@@ -9207,13 +9205,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J127" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="J1:J127" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381C001-A9BC-2B49-B387-75996707D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332B708-E664-C447-B7E4-F36E2F2DABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34820" yWindow="5660" windowWidth="27040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="380" windowWidth="22760" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="473">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>attention_checks</t>
-  </si>
-  <si>
-    <t>total_completed</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>total_complete</t>
-  </si>
-  <si>
-    <t>total_incomplete</t>
   </si>
   <si>
     <t>n</t>
@@ -1125,9 +1113,6 @@
     <t>didn't do task but has post-survey data</t>
   </si>
   <si>
-    <t>included in analysis 6/17/23</t>
-  </si>
-  <si>
     <t>flatlined from AQ_19-22 and SCS_1-6; double check no duplicate post task data</t>
   </si>
   <si>
@@ -1152,9 +1137,6 @@
     <t xml:space="preserve">missed 11 choice opportunities, cannot use data </t>
   </si>
   <si>
-    <t>useable</t>
-  </si>
-  <si>
     <t>60ea57c074a703877f04330b</t>
   </si>
   <si>
@@ -1468,6 +1450,12 @@
   </si>
   <si>
     <t>R_1Hd8XOFedTRZIbl</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>cant find it</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1546,16 +1534,8 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,37 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9E46E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1641,23 +1591,17 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1665,30 +1609,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,13 +1849,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
+      <selection pane="bottomRight" activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1927,134 +1864,117 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="45" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19" style="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="45" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" customWidth="1"/>
-    <col min="21" max="24" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="30" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>44873</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="45">
+        <v>10</v>
+      </c>
+      <c r="F2" s="30">
         <v>44872</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2062,7 +1982,7 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="30">
         <v>44875</v>
       </c>
       <c r="O2">
@@ -2076,51 +1996,48 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+        <v>17</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="5">
         <v>44873</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="45">
+        <v>12</v>
+      </c>
+      <c r="F3" s="30">
         <v>44872</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
@@ -2129,7 +2046,7 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="30">
         <v>44876</v>
       </c>
       <c r="O3">
@@ -2142,49 +2059,46 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z3">
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>44881</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="45">
+        <v>22</v>
+      </c>
+      <c r="F4" s="30">
         <v>44879</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
@@ -2193,7 +2107,7 @@
       <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="30">
         <v>44886</v>
       </c>
       <c r="O4">
@@ -2206,49 +2120,46 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
         <v>44881</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="45">
+        <v>23</v>
+      </c>
+      <c r="F5" s="30">
         <v>44879</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -2257,7 +2168,7 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="30">
         <v>44887</v>
       </c>
       <c r="O5">
@@ -2270,49 +2181,46 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>44881</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="45">
+        <v>24</v>
+      </c>
+      <c r="F6" s="30">
         <v>44879</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -2321,7 +2229,7 @@
       <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="30">
         <v>44893</v>
       </c>
       <c r="O6">
@@ -2334,49 +2242,46 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>44958</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="45">
+        <v>32</v>
+      </c>
+      <c r="F7" s="30">
         <v>44958</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
@@ -2385,7 +2290,7 @@
       <c r="M7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="30">
         <v>44963</v>
       </c>
       <c r="O7">
@@ -2395,46 +2300,43 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="45">
+        <v>29</v>
+      </c>
+      <c r="F8" s="30">
         <v>44959</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
@@ -2443,7 +2345,7 @@
       <c r="M8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="30">
         <v>44963</v>
       </c>
       <c r="O8">
@@ -2457,48 +2359,45 @@
         <v>0</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S8" s="4">
-        <v>1</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="45">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30">
         <v>44959</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
@@ -2507,7 +2406,7 @@
       <c r="M9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="30">
         <v>44963</v>
       </c>
       <c r="O9">
@@ -2523,43 +2422,40 @@
       <c r="S9" s="4">
         <v>1</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z9">
+      <c r="T9">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="45">
+        <v>31</v>
+      </c>
+      <c r="F10" s="30">
         <v>44959</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -2568,7 +2464,7 @@
       <c r="M10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="30">
         <v>44963</v>
       </c>
       <c r="O10">
@@ -2582,99 +2478,90 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="46">
+      <c r="U10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="31">
         <v>44959</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46"/>
+      <c r="G11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11">
         <f t="shared" si="0"/>
         <v>-44959</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="17">
         <v>3</v>
       </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="X11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="45">
+        <v>50</v>
+      </c>
+      <c r="F12" s="30">
         <v>44967</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -2694,42 +2581,36 @@
         <v>0</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="45">
+        <v>51</v>
+      </c>
+      <c r="F13" s="30">
         <v>44967</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -2738,7 +2619,7 @@
       <c r="M13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="30">
         <v>44968</v>
       </c>
       <c r="O13">
@@ -2752,48 +2633,45 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S13" s="4">
         <v>1</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z13">
+      <c r="T13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="45">
+        <v>52</v>
+      </c>
+      <c r="F14" s="30">
         <v>44967</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -2802,7 +2680,7 @@
       <c r="M14" s="4">
         <v>1</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="30">
         <v>44969</v>
       </c>
       <c r="O14">
@@ -2816,45 +2694,42 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>1</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="4">
         <v>999</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="T14" s="4">
         <v>999</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="45">
+        <v>53</v>
+      </c>
+      <c r="F15" s="30">
         <v>44967</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -2863,7 +2738,7 @@
       <c r="M15" s="4">
         <v>1</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="30">
         <v>44968</v>
       </c>
       <c r="O15">
@@ -2877,107 +2752,98 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S15" s="4">
         <v>1</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15">
+      <c r="T15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="U15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="31">
         <v>44967</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="50"/>
+      <c r="G16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34"/>
       <c r="O16">
         <f t="shared" si="0"/>
         <v>-44967</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="17">
         <v>3</v>
       </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="X16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y16" s="22"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="45">
+        <v>55</v>
+      </c>
+      <c r="F17" s="30">
         <v>44967</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4">
         <v>1</v>
@@ -2986,7 +2852,7 @@
       <c r="M17" s="4">
         <v>1</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="30">
         <v>44968</v>
       </c>
       <c r="O17">
@@ -3002,46 +2868,43 @@
       <c r="S17" s="4">
         <v>1</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z17">
+      <c r="T17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="5">
         <v>44977</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="47">
+        <v>73</v>
+      </c>
+      <c r="F18" s="32">
         <v>44977</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -3050,7 +2913,7 @@
       <c r="M18" s="4">
         <v>1</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="30">
         <v>44980</v>
       </c>
       <c r="O18">
@@ -3061,51 +2924,48 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S18" s="4">
-        <v>1</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="5">
         <v>44977</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="47">
+        <v>74</v>
+      </c>
+      <c r="F19" s="32">
         <v>44977</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -3114,7 +2974,7 @@
       <c r="M19" s="4">
         <v>1</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="30">
         <v>44981</v>
       </c>
       <c r="O19">
@@ -3127,46 +2987,43 @@
       <c r="S19" s="4">
         <v>1</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z19">
+      <c r="T19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5">
         <v>44977</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="47">
+        <v>75</v>
+      </c>
+      <c r="F20" s="32">
         <v>44977</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -3175,7 +3032,7 @@
       <c r="M20" s="4">
         <v>1</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="30">
         <v>44980</v>
       </c>
       <c r="O20">
@@ -3186,51 +3043,48 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="S20" s="4">
-        <v>1</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5">
         <v>44977</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="47">
+        <v>76</v>
+      </c>
+      <c r="F21" s="32">
         <v>44977</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -3239,7 +3093,7 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="30">
         <v>44980</v>
       </c>
       <c r="O21">
@@ -3250,51 +3104,48 @@
         <v>0</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5">
         <v>44977</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="47">
+        <v>77</v>
+      </c>
+      <c r="F22" s="32">
         <v>44977</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -3311,46 +3162,40 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="5">
         <v>44977</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="47">
+        <v>101</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="32">
         <v>44977</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -3367,46 +3212,40 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>135</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" s="5">
         <v>44977</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="47">
+        <v>102</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="32">
         <v>44977</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -3415,7 +3254,7 @@
       <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="30">
         <v>44982</v>
       </c>
       <c r="O24">
@@ -3425,49 +3264,46 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C25" s="5">
         <v>44977</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="47">
+        <v>80</v>
+      </c>
+      <c r="F25" s="32">
         <v>44977</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K25" s="4">
         <v>1</v>
@@ -3476,7 +3312,7 @@
       <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="30">
         <v>44980</v>
       </c>
       <c r="O25">
@@ -3487,51 +3323,48 @@
         <v>0</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
+        <v>466</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" s="5">
         <v>44977</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="47">
+        <v>81</v>
+      </c>
+      <c r="F26" s="32">
         <v>44977</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
@@ -3547,43 +3380,37 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C27" s="5">
         <v>44977</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="47">
+        <v>82</v>
+      </c>
+      <c r="F27" s="32">
         <v>44977</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K27" s="4">
         <v>1</v>
@@ -3592,7 +3419,7 @@
       <c r="M27" s="4">
         <v>1</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="30">
         <v>44980</v>
       </c>
       <c r="O27">
@@ -3602,49 +3429,46 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="S27" s="4">
-        <v>1</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5">
         <v>44977</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="47">
+        <v>83</v>
+      </c>
+      <c r="F28" s="32">
         <v>44977</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K28" s="4">
         <v>1</v>
@@ -3653,7 +3477,7 @@
       <c r="M28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="30">
         <v>44981</v>
       </c>
       <c r="O28">
@@ -3664,51 +3488,48 @@
         <v>0</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
+        <v>139</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" s="5">
         <v>44977</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="47">
+        <v>84</v>
+      </c>
+      <c r="F29" s="32">
         <v>44977</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
@@ -3725,45 +3546,39 @@
         <v>0</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="5">
         <v>44977</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="47">
+        <v>85</v>
+      </c>
+      <c r="F30" s="32">
         <v>44977</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
@@ -3780,45 +3595,39 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>138</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" s="5">
         <v>44977</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="47">
+        <v>86</v>
+      </c>
+      <c r="F31" s="32">
         <v>44977</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K31" s="4">
         <v>1</v>
@@ -3827,7 +3636,7 @@
       <c r="M31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="30">
         <v>44980</v>
       </c>
       <c r="O31">
@@ -3838,51 +3647,48 @@
         <v>0</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
+        <v>138</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" s="5">
         <v>44977</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="47">
+        <v>87</v>
+      </c>
+      <c r="F32" s="32">
         <v>44977</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K32" s="4">
         <v>1</v>
@@ -3891,7 +3697,7 @@
       <c r="M32" s="4">
         <v>1</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="30">
         <v>44980</v>
       </c>
       <c r="O32">
@@ -3901,49 +3707,46 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="S32" s="4">
-        <v>1</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" s="5">
         <v>44977</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="47">
+        <v>88</v>
+      </c>
+      <c r="F33" s="32">
         <v>44977</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
@@ -3959,43 +3762,37 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C34" s="5">
         <v>44977</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="47">
+        <v>89</v>
+      </c>
+      <c r="F34" s="32">
         <v>44977</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K34" s="4">
         <v>1</v>
@@ -4004,7 +3801,7 @@
       <c r="M34" s="4">
         <v>1</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="30">
         <v>44980</v>
       </c>
       <c r="O34">
@@ -4015,51 +3812,48 @@
         <v>0</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S34" s="4">
-        <v>1</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
+        <v>135</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C35" s="5">
         <v>44977</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="47">
+        <v>90</v>
+      </c>
+      <c r="F35" s="32">
         <v>44977</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K35" s="4">
         <v>1</v>
@@ -4068,7 +3862,7 @@
       <c r="M35" s="4">
         <v>1</v>
       </c>
-      <c r="N35" s="45">
+      <c r="N35" s="30">
         <v>44980</v>
       </c>
       <c r="O35">
@@ -4079,51 +3873,48 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>98</v>
-      </c>
-      <c r="S35" s="4">
-        <v>1</v>
-      </c>
-      <c r="X35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
+        <v>94</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C36" s="5">
         <v>44994</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="48">
+        <v>193</v>
+      </c>
+      <c r="F36" s="33">
         <v>44993</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K36" s="4">
         <v>1</v>
@@ -4132,7 +3923,7 @@
       <c r="M36" s="4">
         <v>1</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="30">
         <v>44995</v>
       </c>
       <c r="O36">
@@ -4140,57 +3931,54 @@
         <v>2</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="S36" s="4">
-        <v>1</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
+        <v>431</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C37" s="5">
         <v>44994</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="48">
+        <v>142</v>
+      </c>
+      <c r="F37" s="33">
         <v>44993</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
@@ -4199,7 +3987,7 @@
       <c r="M37" s="4">
         <v>1</v>
       </c>
-      <c r="N37" s="45">
+      <c r="N37" s="30">
         <v>44995</v>
       </c>
       <c r="O37">
@@ -4207,54 +3995,51 @@
         <v>2</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
-      <c r="S37" s="4">
-        <v>1</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C38" s="5">
         <v>44994</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="48">
+        <v>143</v>
+      </c>
+      <c r="F38" s="33">
         <v>44993</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
@@ -4263,7 +4048,7 @@
       <c r="M38" s="4">
         <v>1</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="30">
         <v>44995</v>
       </c>
       <c r="O38">
@@ -4271,57 +4056,54 @@
         <v>2</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="S38" s="4">
-        <v>1</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38">
+        <v>171</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C39" s="5">
         <v>44994</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="48">
+        <v>151</v>
+      </c>
+      <c r="F39" s="33">
         <v>44993</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
@@ -4330,7 +4112,7 @@
       <c r="M39" s="4">
         <v>1</v>
       </c>
-      <c r="N39" s="45">
+      <c r="N39" s="30">
         <v>44995</v>
       </c>
       <c r="O39">
@@ -4338,54 +4120,51 @@
         <v>2</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
-      <c r="S39" s="4">
-        <v>1</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C40" s="5">
         <v>44994</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" s="48">
+        <v>144</v>
+      </c>
+      <c r="F40" s="33">
         <v>44993</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
@@ -4394,7 +4173,7 @@
       <c r="M40" s="4">
         <v>1</v>
       </c>
-      <c r="N40" s="45">
+      <c r="N40" s="30">
         <v>44995</v>
       </c>
       <c r="O40">
@@ -4402,57 +4181,54 @@
         <v>2</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="S40" s="4">
-        <v>1</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
-      </c>
-      <c r="Z40">
+        <v>195</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U40" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C41" s="5">
         <v>44994</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="48">
+        <v>145</v>
+      </c>
+      <c r="F41" s="33">
         <v>44993</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K41" s="4">
         <v>1</v>
@@ -4461,7 +4237,7 @@
       <c r="M41" s="4">
         <v>1</v>
       </c>
-      <c r="N41" s="45">
+      <c r="N41" s="30">
         <v>44995</v>
       </c>
       <c r="O41">
@@ -4469,57 +4245,54 @@
         <v>2</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="S41" s="4">
-        <v>1</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
+        <v>200</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C42" s="5">
         <v>44994</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="48">
+        <v>146</v>
+      </c>
+      <c r="F42" s="33">
         <v>44993</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K42" s="4">
         <v>1</v>
@@ -4528,7 +4301,7 @@
       <c r="M42" s="4">
         <v>1</v>
       </c>
-      <c r="N42" s="45">
+      <c r="N42" s="30">
         <v>44995</v>
       </c>
       <c r="O42">
@@ -4536,57 +4309,54 @@
         <v>2</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
+        <v>199</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C43" s="5">
         <v>44994</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F43" s="48">
+        <v>147</v>
+      </c>
+      <c r="F43" s="33">
         <v>44993</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K43" s="4">
         <v>1</v>
@@ -4595,7 +4365,7 @@
       <c r="M43" s="4">
         <v>1</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="30">
         <v>44995</v>
       </c>
       <c r="O43">
@@ -4603,54 +4373,51 @@
         <v>2</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
-      <c r="S43" s="4">
-        <v>1</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U43" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C44" s="5">
         <v>44994</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="48">
+        <v>148</v>
+      </c>
+      <c r="F44" s="33">
         <v>44993</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K44" s="4">
         <v>1</v>
@@ -4659,7 +4426,7 @@
       <c r="M44" s="4">
         <v>1</v>
       </c>
-      <c r="N44" s="45">
+      <c r="N44" s="30">
         <v>44995</v>
       </c>
       <c r="O44">
@@ -4667,54 +4434,51 @@
         <v>2</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
-      <c r="S44" s="4">
-        <v>1</v>
-      </c>
-      <c r="X44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="Z44">
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U44" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C45" s="5">
         <v>44994</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="48">
+        <v>149</v>
+      </c>
+      <c r="F45" s="33">
         <v>44993</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K45" s="4">
         <v>1</v>
@@ -4723,7 +4487,7 @@
       <c r="M45" s="4">
         <v>1</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="30">
         <v>44995</v>
       </c>
       <c r="O45">
@@ -4731,54 +4495,51 @@
         <v>2</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
-      <c r="S45" s="4">
-        <v>1</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C46" s="5">
         <v>44994</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="45">
+        <v>150</v>
+      </c>
+      <c r="F46" s="30">
         <v>44993</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K46" s="4">
         <v>1</v>
@@ -4787,7 +4548,7 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="30">
         <v>44995</v>
       </c>
       <c r="O46">
@@ -4795,54 +4556,51 @@
         <v>2</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
-      <c r="S46" s="4">
-        <v>1</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U46" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C47" s="5">
         <v>44994</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="45">
+        <v>152</v>
+      </c>
+      <c r="F47" s="30">
         <v>44993</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K47" s="4">
         <v>1</v>
@@ -4851,7 +4609,7 @@
       <c r="M47" s="4">
         <v>1</v>
       </c>
-      <c r="N47" s="45">
+      <c r="N47" s="30">
         <v>44995</v>
       </c>
       <c r="O47">
@@ -4859,57 +4617,54 @@
         <v>2</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>200</v>
-      </c>
-      <c r="S47" s="4">
-        <v>1</v>
-      </c>
-      <c r="X47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
+        <v>196</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C48" s="5">
         <v>44994</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="45">
+        <v>153</v>
+      </c>
+      <c r="F48" s="30">
         <v>44993</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K48" s="4">
         <v>1</v>
@@ -4918,7 +4673,7 @@
       <c r="M48" s="4">
         <v>1</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="30">
         <v>44995</v>
       </c>
       <c r="O48">
@@ -4926,57 +4681,54 @@
         <v>2</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="S48" s="4">
-        <v>1</v>
-      </c>
-      <c r="X48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48">
+        <v>198</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C49" s="5">
         <v>44994</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="45">
+        <v>156</v>
+      </c>
+      <c r="F49" s="30">
         <v>44993</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K49" s="4">
         <v>1</v>
@@ -4985,7 +4737,7 @@
       <c r="M49" s="4">
         <v>1</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="30">
         <v>44995</v>
       </c>
       <c r="O49">
@@ -4993,54 +4745,51 @@
         <v>2</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q49">
         <v>1</v>
       </c>
-      <c r="S49" s="4">
-        <v>1</v>
-      </c>
-      <c r="X49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5">
         <v>44994</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="45">
+        <v>155</v>
+      </c>
+      <c r="F50" s="30">
         <v>44993</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K50" s="4">
         <v>1</v>
@@ -5049,7 +4798,7 @@
       <c r="M50" s="4">
         <v>1</v>
       </c>
-      <c r="N50" s="45">
+      <c r="N50" s="30">
         <v>44995</v>
       </c>
       <c r="O50">
@@ -5057,54 +4806,51 @@
         <v>2</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
-      <c r="S50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U50" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C51" s="5">
         <v>44994</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="45">
+        <v>154</v>
+      </c>
+      <c r="F51" s="30">
         <v>44993</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K51" s="4">
         <v>1</v>
@@ -5113,7 +4859,7 @@
       <c r="M51" s="4">
         <v>1</v>
       </c>
-      <c r="N51" s="45">
+      <c r="N51" s="30">
         <v>44995</v>
       </c>
       <c r="O51">
@@ -5121,54 +4867,51 @@
         <v>2</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
-      <c r="S51" s="4">
-        <v>1</v>
-      </c>
-      <c r="X51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U51" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C52" s="5">
         <v>44994</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="45">
+        <v>157</v>
+      </c>
+      <c r="F52" s="30">
         <v>44993</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" s="4">
         <v>1</v>
@@ -5177,7 +4920,7 @@
       <c r="M52" s="4">
         <v>1</v>
       </c>
-      <c r="N52" s="45">
+      <c r="N52" s="30">
         <v>44997</v>
       </c>
       <c r="O52">
@@ -5185,57 +4928,54 @@
         <v>4</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="S52" s="4">
-        <v>1</v>
-      </c>
-      <c r="X52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-      <c r="Z52">
+        <v>197</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C53" s="5">
         <v>45005</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="45">
+        <v>201</v>
+      </c>
+      <c r="F53" s="30">
         <v>45004</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K53" s="4">
         <v>1</v>
@@ -5244,7 +4984,7 @@
       <c r="M53" s="4">
         <v>1</v>
       </c>
-      <c r="N53" s="45">
+      <c r="N53" s="30">
         <v>45006</v>
       </c>
       <c r="O53">
@@ -5254,49 +4994,46 @@
       <c r="Q53">
         <v>1</v>
       </c>
-      <c r="S53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="4">
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U53" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C54" s="5">
         <v>45005</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" s="45">
+        <v>202</v>
+      </c>
+      <c r="F54" s="30">
         <v>45004</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K54" s="4">
         <v>1</v>
@@ -5305,7 +5042,7 @@
       <c r="M54" s="4">
         <v>1</v>
       </c>
-      <c r="N54" s="45">
+      <c r="N54" s="30">
         <v>45006</v>
       </c>
       <c r="O54">
@@ -5315,49 +5052,46 @@
       <c r="Q54">
         <v>1</v>
       </c>
-      <c r="S54" s="4">
-        <v>1</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="4">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U54" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C55" s="5">
         <v>45005</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="45">
+        <v>203</v>
+      </c>
+      <c r="F55" s="30">
         <v>45004</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K55" s="4">
         <v>1</v>
@@ -5366,7 +5100,7 @@
       <c r="M55" s="4">
         <v>1</v>
       </c>
-      <c r="N55" s="45">
+      <c r="N55" s="30">
         <v>45006</v>
       </c>
       <c r="O55">
@@ -5376,50 +5110,47 @@
       <c r="Q55">
         <v>1</v>
       </c>
-      <c r="S55" s="4">
-        <v>1</v>
-      </c>
-      <c r="X55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="4">
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
         <v>28</v>
       </c>
-      <c r="AC55" s="4"/>
-    </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C56" s="5">
         <v>45005</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="45">
+        <v>204</v>
+      </c>
+      <c r="F56" s="30">
         <v>37334</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
@@ -5435,33 +5166,27 @@
       <c r="Q56">
         <v>1</v>
       </c>
-      <c r="S56" s="4">
-        <v>0</v>
-      </c>
-      <c r="X56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB56" s="14"/>
-    </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V56" s="14"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="E57" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="45">
+        <v>205</v>
+      </c>
+      <c r="F57" s="30">
         <v>37334</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
@@ -5478,102 +5203,90 @@
         <v>1</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0</v>
-      </c>
-      <c r="X57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB57" s="14"/>
-    </row>
-    <row r="58" spans="1:29" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="34">
+        <v>206</v>
+      </c>
+      <c r="V57" s="14"/>
+    </row>
+    <row r="58" spans="1:23" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="19">
         <v>45005</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="F58" s="49">
+      <c r="D58" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="31">
         <v>45005</v>
       </c>
-      <c r="G58" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="K58" s="33">
-        <v>1</v>
-      </c>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33">
-        <v>1</v>
-      </c>
-      <c r="N58" s="49"/>
-      <c r="O58">
+      <c r="G58" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="K58" s="16">
+        <v>1</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16">
+        <v>1</v>
+      </c>
+      <c r="N58" s="31"/>
+      <c r="O58" s="17">
         <f t="shared" si="0"/>
         <v>-45005</v>
       </c>
-      <c r="Q58" s="35">
-        <v>1</v>
-      </c>
-      <c r="R58" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="S58" s="33">
-        <v>1</v>
-      </c>
-      <c r="X58" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q58" s="17">
+        <v>1</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C59" s="5">
         <v>45005</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" s="45">
+        <v>208</v>
+      </c>
+      <c r="F59" s="30">
         <v>45005</v>
       </c>
       <c r="G59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K59" s="4">
         <v>1</v>
@@ -5582,7 +5295,7 @@
       <c r="M59" s="4">
         <v>1</v>
       </c>
-      <c r="N59" s="45">
+      <c r="N59" s="30">
         <v>45006</v>
       </c>
       <c r="O59">
@@ -5592,49 +5305,46 @@
       <c r="Q59">
         <v>1</v>
       </c>
-      <c r="S59" s="4">
-        <v>1</v>
-      </c>
-      <c r="X59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C60" s="5">
         <v>45005</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F60" s="45">
+        <v>215</v>
+      </c>
+      <c r="F60" s="30">
         <v>45004</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K60" s="4">
         <v>1</v>
@@ -5643,7 +5353,7 @@
       <c r="M60" s="4">
         <v>1</v>
       </c>
-      <c r="N60" s="45">
+      <c r="N60" s="30">
         <v>45007</v>
       </c>
       <c r="O60">
@@ -5653,49 +5363,46 @@
       <c r="Q60">
         <v>1</v>
       </c>
-      <c r="S60" s="4">
-        <v>1</v>
-      </c>
-      <c r="X60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U60" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C61" s="5">
         <v>45014</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F61" s="45">
+        <v>230</v>
+      </c>
+      <c r="F61" s="30">
         <v>45014</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K61" s="4">
         <v>1</v>
@@ -5703,7 +5410,7 @@
       <c r="M61" s="4">
         <v>1</v>
       </c>
-      <c r="N61" s="45">
+      <c r="N61" s="30">
         <v>45016</v>
       </c>
       <c r="O61">
@@ -5711,54 +5418,51 @@
         <v>2</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
-      <c r="S61" s="4">
-        <v>1</v>
-      </c>
-      <c r="X61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U61" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C62" s="5">
         <v>45014</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62" s="45">
+        <v>231</v>
+      </c>
+      <c r="F62" s="30">
         <v>45014</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K62" s="4">
         <v>1</v>
@@ -5766,7 +5470,7 @@
       <c r="M62" s="4">
         <v>1</v>
       </c>
-      <c r="N62" s="45">
+      <c r="N62" s="30">
         <v>45016</v>
       </c>
       <c r="O62">
@@ -5774,57 +5478,54 @@
         <v>2</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="S62" s="4">
-        <v>1</v>
-      </c>
-      <c r="X62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
+        <v>362</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U62" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C63" s="5">
         <v>45014</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F63" s="45">
+        <v>232</v>
+      </c>
+      <c r="F63" s="30">
         <v>45014</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K63" s="4">
         <v>1</v>
@@ -5832,7 +5533,7 @@
       <c r="M63" s="4">
         <v>1</v>
       </c>
-      <c r="N63" s="45">
+      <c r="N63" s="30">
         <v>45016</v>
       </c>
       <c r="O63">
@@ -5840,57 +5541,54 @@
         <v>2</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="S63" s="4">
-        <v>1</v>
-      </c>
-      <c r="X63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-      <c r="Z63">
+        <v>363</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C64" s="5">
         <v>45014</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F64" s="45">
+        <v>233</v>
+      </c>
+      <c r="F64" s="30">
         <v>45014</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K64" s="4">
         <v>1</v>
@@ -5898,7 +5596,7 @@
       <c r="M64" s="4">
         <v>1</v>
       </c>
-      <c r="N64" s="45">
+      <c r="N64" s="30">
         <v>45016</v>
       </c>
       <c r="O64">
@@ -5906,54 +5604,51 @@
         <v>2</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
-      <c r="S64" s="4">
-        <v>1</v>
-      </c>
-      <c r="X64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C65" s="5">
         <v>45014</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="45">
+        <v>234</v>
+      </c>
+      <c r="F65" s="30">
         <v>45014</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K65" s="4">
         <v>1</v>
@@ -5961,7 +5656,7 @@
       <c r="M65" s="4">
         <v>1</v>
       </c>
-      <c r="N65" s="45">
+      <c r="N65" s="30">
         <v>45016</v>
       </c>
       <c r="O65">
@@ -5969,54 +5664,51 @@
         <v>2</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
-      <c r="S65" s="4">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U65" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C66" s="5">
         <v>45014</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="45">
+        <v>251</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="30">
         <v>45014</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
@@ -6029,49 +5721,45 @@
         <v>-45014</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="S66" s="4"/>
-      <c r="X66" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C67" s="5">
         <v>45014</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F67" s="45">
+        <v>236</v>
+      </c>
+      <c r="F67" s="30">
         <v>45014</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6079,7 +5767,7 @@
       <c r="M67" s="4">
         <v>1</v>
       </c>
-      <c r="N67" s="45">
+      <c r="N67" s="30">
         <v>45016</v>
       </c>
       <c r="O67">
@@ -6087,54 +5775,51 @@
         <v>2</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <v>1</v>
       </c>
-      <c r="S67" s="4">
-        <v>1</v>
-      </c>
-      <c r="X67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-      <c r="Z67">
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U67" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C68" s="5">
         <v>45014</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="45">
+        <v>237</v>
+      </c>
+      <c r="F68" s="30">
         <v>45014</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6142,7 +5827,7 @@
       <c r="M68" s="4">
         <v>1</v>
       </c>
-      <c r="N68" s="45">
+      <c r="N68" s="30">
         <v>45069</v>
       </c>
       <c r="O68">
@@ -6150,112 +5835,103 @@
         <v>55</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
-      <c r="S68" s="4">
-        <v>1</v>
-      </c>
-      <c r="X68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="25">
+      <c r="U68" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="19">
         <v>45014</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F69" s="46">
+      <c r="D69" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="31">
         <v>45014</v>
       </c>
-      <c r="G69" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J69" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="K69" s="23">
-        <v>1</v>
-      </c>
-      <c r="M69" s="22">
-        <v>0</v>
-      </c>
-      <c r="N69" s="46"/>
+      <c r="G69" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" s="17">
+        <v>1</v>
+      </c>
+      <c r="M69" s="16">
+        <v>0</v>
+      </c>
+      <c r="N69" s="31"/>
       <c r="O69">
         <f t="shared" si="1"/>
         <v>-45014</v>
       </c>
-      <c r="P69" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q69" s="23">
-        <v>1</v>
-      </c>
-      <c r="R69" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="S69" s="22">
-        <v>0</v>
-      </c>
-      <c r="X69" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="17">
+        <v>1</v>
+      </c>
+      <c r="R69" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C70" s="5">
         <v>45014</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F70" s="45">
+        <v>239</v>
+      </c>
+      <c r="F70" s="30">
         <v>45014</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6263,7 +5939,7 @@
       <c r="M70" s="4">
         <v>1</v>
       </c>
-      <c r="N70" s="45">
+      <c r="N70" s="30">
         <v>45016</v>
       </c>
       <c r="O70">
@@ -6271,55 +5947,52 @@
         <v>2</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" s="4"/>
-      <c r="S70" s="4">
-        <v>1</v>
-      </c>
-      <c r="X70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70">
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="U70" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C71" s="5">
         <v>45014</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F71" s="45">
+        <v>256</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="30">
         <v>45014</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6332,51 +6005,45 @@
         <v>-45014</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71" t="s">
-        <v>285</v>
-      </c>
-      <c r="S71" s="4">
-        <v>0</v>
-      </c>
-      <c r="X71" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C72" s="5">
         <v>45014</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F72" s="45">
+        <v>257</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="30">
         <v>45014</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6389,51 +6056,45 @@
         <v>-45014</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="S72" s="4">
-        <v>0</v>
-      </c>
-      <c r="X72" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C73" s="5">
         <v>45014</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="45">
+        <v>258</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="30">
         <v>45014</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6446,51 +6107,45 @@
         <v>-45014</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>283</v>
-      </c>
-      <c r="S73" s="4">
-        <v>0</v>
-      </c>
-      <c r="X73" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C74" s="5">
         <v>45014</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="F74" s="45">
+        <v>259</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F74" s="30">
         <v>45014</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6503,51 +6158,45 @@
         <v>-45014</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="S74" s="4">
-        <v>0</v>
-      </c>
-      <c r="X74" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C75" s="5">
         <v>45014</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" s="45">
+        <v>260</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" s="30">
         <v>45014</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6560,51 +6209,45 @@
         <v>-45014</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="S75" s="4">
-        <v>0</v>
-      </c>
-      <c r="X75" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C76" s="5">
         <v>45014</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F76" s="45">
+        <v>261</v>
+      </c>
+      <c r="F76" s="30">
         <v>45014</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -6612,7 +6255,7 @@
       <c r="M76">
         <v>1</v>
       </c>
-      <c r="N76" s="45">
+      <c r="N76" s="30">
         <v>45057</v>
       </c>
       <c r="O76">
@@ -6620,115 +6263,106 @@
         <v>43</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="S76" s="4">
-        <v>1</v>
-      </c>
-      <c r="X76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
+        <v>283</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A77" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C77" s="25">
+      <c r="U76" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="19">
         <v>45070</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="46">
+      <c r="D77" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="31">
         <v>45070</v>
       </c>
-      <c r="G77" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="K77" s="23">
-        <v>1</v>
-      </c>
-      <c r="M77" s="23">
-        <v>0</v>
-      </c>
-      <c r="N77" s="46"/>
+      <c r="G77" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K77" s="17">
+        <v>1</v>
+      </c>
+      <c r="M77" s="17">
+        <v>0</v>
+      </c>
+      <c r="N77" s="31"/>
       <c r="O77">
         <f>_xlfn.DAYS(N77,F77)</f>
         <v>-45070</v>
       </c>
-      <c r="P77" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q77" s="23">
-        <v>1</v>
-      </c>
-      <c r="R77" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="S77" s="22">
-        <v>0</v>
-      </c>
-      <c r="X77" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P77" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q77" s="17">
+        <v>1</v>
+      </c>
+      <c r="R77" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C78" s="5">
         <v>45070</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>290</v>
-      </c>
-      <c r="F78" s="45">
+        <v>286</v>
+      </c>
+      <c r="F78" s="30">
         <v>45070</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6736,7 +6370,7 @@
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78" s="45">
+      <c r="N78" s="30">
         <v>45077</v>
       </c>
       <c r="O78">
@@ -6744,54 +6378,51 @@
         <v>7</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>1</v>
       </c>
-      <c r="S78" s="4">
-        <v>1</v>
-      </c>
-      <c r="X78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y78">
-        <v>1</v>
-      </c>
-      <c r="Z78">
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U78" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C79" s="5">
         <v>45070</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
-      </c>
-      <c r="F79" s="45">
+        <v>287</v>
+      </c>
+      <c r="F79" s="30">
         <v>45070</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -6799,7 +6430,7 @@
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79" s="45">
+      <c r="N79" s="30">
         <v>45077</v>
       </c>
       <c r="O79">
@@ -6807,54 +6438,51 @@
         <v>7</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>1</v>
       </c>
-      <c r="S79" s="4">
-        <v>1</v>
-      </c>
-      <c r="X79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U79" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C80" s="5">
         <v>45070</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="F80" s="45">
+        <v>288</v>
+      </c>
+      <c r="F80" s="30">
         <v>45070</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6862,7 +6490,7 @@
       <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" s="45">
+      <c r="N80" s="30">
         <v>45077</v>
       </c>
       <c r="O80">
@@ -6870,54 +6498,51 @@
         <v>7</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
-      <c r="S80" s="4">
-        <v>1</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
         <v>28</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U80" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C81" s="5">
         <v>45070</v>
       </c>
       <c r="D81" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
-      </c>
-      <c r="F81" s="45">
+        <v>289</v>
+      </c>
+      <c r="F81" s="30">
         <v>45070</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -6930,109 +6555,97 @@
         <v>-45070</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q81">
         <v>1</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="S81" s="4">
-        <v>0</v>
-      </c>
-      <c r="X81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="C82" s="25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" s="19">
         <v>45082</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F82" s="46">
+      <c r="D82" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="31">
         <v>45082</v>
       </c>
-      <c r="G82" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="K82" s="23">
-        <v>1</v>
-      </c>
-      <c r="M82" s="23">
-        <v>0</v>
-      </c>
-      <c r="N82" s="46"/>
+      <c r="G82" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="K82" s="17">
+        <v>1</v>
+      </c>
+      <c r="M82" s="17">
+        <v>0</v>
+      </c>
+      <c r="N82" s="31"/>
       <c r="O82">
         <f t="shared" si="2"/>
         <v>-45082</v>
       </c>
-      <c r="P82" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q82" s="23">
-        <v>1</v>
-      </c>
-      <c r="R82" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="S82" s="23">
-        <v>0</v>
-      </c>
-      <c r="X82" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P82" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="17">
+        <v>1</v>
+      </c>
+      <c r="R82" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C83" s="5">
         <v>45082</v>
       </c>
       <c r="D83" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
-      </c>
-      <c r="F83" s="45">
+        <v>301</v>
+      </c>
+      <c r="F83" s="30">
         <v>45082</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -7040,7 +6653,7 @@
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="N83" s="45">
+      <c r="N83" s="30">
         <v>45086</v>
       </c>
       <c r="O83">
@@ -7048,57 +6661,54 @@
         <v>4</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q83">
         <v>1</v>
       </c>
       <c r="R83" t="s">
-        <v>354</v>
-      </c>
-      <c r="S83" s="4">
-        <v>1</v>
-      </c>
-      <c r="X83" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y83">
-        <v>1</v>
-      </c>
-      <c r="Z83">
+        <v>350</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U83" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C84" s="5">
         <v>45082</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
-      </c>
-      <c r="F84" s="45">
+        <v>302</v>
+      </c>
+      <c r="F84" s="30">
         <v>45082</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -7106,7 +6716,7 @@
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="N84" s="45">
+      <c r="N84" s="30">
         <v>45091</v>
       </c>
       <c r="O84">
@@ -7114,54 +6724,51 @@
         <v>9</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q84">
         <v>1</v>
       </c>
-      <c r="S84" s="4">
-        <v>1</v>
-      </c>
-      <c r="X84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U84" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C85" s="5">
         <v>45082</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="F85" s="45">
+        <v>316</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="30">
         <v>45082</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -7174,51 +6781,45 @@
         <v>-45082</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85" t="s">
-        <v>353</v>
-      </c>
-      <c r="S85" s="4">
-        <v>0</v>
-      </c>
-      <c r="X85" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C86" s="5">
         <v>45082</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="F86" s="45">
+        <v>321</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="F86" s="30">
         <v>45082</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7231,51 +6832,45 @@
         <v>-45082</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q86">
         <v>1</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S86" s="4">
-        <v>0</v>
-      </c>
-      <c r="X86" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C87" s="5">
         <v>45082</v>
       </c>
       <c r="D87" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
-      </c>
-      <c r="F87" s="45">
+        <v>305</v>
+      </c>
+      <c r="F87" s="30">
         <v>45082</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -7283,7 +6878,7 @@
       <c r="M87">
         <v>1</v>
       </c>
-      <c r="N87" s="45">
+      <c r="N87" s="30">
         <v>45098</v>
       </c>
       <c r="O87">
@@ -7291,54 +6886,51 @@
         <v>16</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q87">
         <v>1</v>
       </c>
-      <c r="S87" s="4">
-        <v>1</v>
-      </c>
-      <c r="X87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
-      </c>
-      <c r="Z87">
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U87" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C88" s="5">
         <v>45082</v>
       </c>
       <c r="D88" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E88" t="s">
-        <v>310</v>
-      </c>
-      <c r="F88" s="45">
+        <v>306</v>
+      </c>
+      <c r="F88" s="30">
         <v>45082</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -7346,7 +6938,7 @@
       <c r="M88">
         <v>1</v>
       </c>
-      <c r="N88" s="45">
+      <c r="N88" s="30">
         <v>45093</v>
       </c>
       <c r="O88">
@@ -7354,57 +6946,54 @@
         <v>11</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>1</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="S88" s="4">
-        <v>1</v>
-      </c>
-      <c r="X88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-      <c r="Z88">
+        <v>358</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U88" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C89" s="5">
         <v>45082</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
-      </c>
-      <c r="F89" s="45">
+        <v>307</v>
+      </c>
+      <c r="F89" s="30">
         <v>45082</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -7412,7 +7001,7 @@
       <c r="M89">
         <v>1</v>
       </c>
-      <c r="N89" s="45">
+      <c r="N89" s="30">
         <v>45095</v>
       </c>
       <c r="O89">
@@ -7420,57 +7009,54 @@
         <v>13</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>351</v>
-      </c>
-      <c r="S89" s="4">
-        <v>1</v>
-      </c>
-      <c r="X89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
-      </c>
-      <c r="Z89">
+        <v>347</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U89" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C90" s="5">
         <v>45082</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="F90" s="45">
+        <v>322</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" s="30">
         <v>45082</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7478,7 +7064,7 @@
       <c r="M90">
         <v>1</v>
       </c>
-      <c r="N90" s="45">
+      <c r="N90" s="30">
         <v>45093</v>
       </c>
       <c r="O90">
@@ -7486,54 +7072,51 @@
         <v>11</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q90">
         <v>1</v>
       </c>
-      <c r="S90" s="4">
-        <v>1</v>
-      </c>
-      <c r="X90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U90" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C91" s="5">
         <v>45082</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
-      </c>
-      <c r="F91" s="45">
+        <v>309</v>
+      </c>
+      <c r="F91" s="30">
         <v>45082</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -7541,7 +7124,7 @@
       <c r="M91">
         <v>1</v>
       </c>
-      <c r="N91" s="45">
+      <c r="N91" s="30">
         <v>45090</v>
       </c>
       <c r="O91">
@@ -7549,54 +7132,51 @@
         <v>8</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q91">
         <v>1</v>
       </c>
-      <c r="S91" s="4">
-        <v>1</v>
-      </c>
-      <c r="X91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C92" s="5">
         <v>45082</v>
       </c>
       <c r="D92" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
-      </c>
-      <c r="F92" s="45">
+        <v>310</v>
+      </c>
+      <c r="F92" s="30">
         <v>45082</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K92">
         <v>1</v>
@@ -7604,7 +7184,7 @@
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N92" s="30">
         <v>45093</v>
       </c>
       <c r="O92">
@@ -7612,51 +7192,48 @@
         <v>11</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q92">
         <v>1</v>
       </c>
-      <c r="S92" s="4">
-        <v>1</v>
-      </c>
-      <c r="X92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U92" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C93" s="5">
         <v>45082</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="F93" s="45">
+        <v>327</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F93" s="30">
         <v>45082</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7669,48 +7246,42 @@
         <v>-45082</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q93">
         <v>1</v>
       </c>
-      <c r="S93" s="4">
-        <v>0</v>
-      </c>
-      <c r="X93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C94" s="5">
         <v>45082</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
-      </c>
-      <c r="F94" s="45">
+        <v>312</v>
+      </c>
+      <c r="F94" s="30">
         <v>45082</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7723,51 +7294,45 @@
         <v>-45082</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q94">
         <v>1</v>
       </c>
       <c r="R94" t="s">
-        <v>353</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0</v>
-      </c>
-      <c r="X94" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C95" s="5">
         <v>45082</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="F95" s="45">
+        <v>329</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="30">
         <v>45082</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7780,51 +7345,45 @@
         <v>-45082</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="S95" s="4">
-        <v>0</v>
-      </c>
-      <c r="X95" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C96" s="5">
         <v>45082</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E96" t="s">
-        <v>318</v>
-      </c>
-      <c r="F96" s="45">
+        <v>314</v>
+      </c>
+      <c r="F96" s="30">
         <v>45082</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7837,57 +7396,51 @@
         <v>-45082</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="S96" s="4">
-        <v>1</v>
-      </c>
-      <c r="X96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
+        <v>360</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C97" s="5">
         <v>45082</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
-      </c>
-      <c r="F97" s="45">
+        <v>315</v>
+      </c>
+      <c r="F97" s="30">
         <v>45082</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -7900,57 +7453,51 @@
         <v>-45082</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
-      <c r="R97" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="S97" s="21">
-        <v>0</v>
-      </c>
-      <c r="X97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y97">
-        <f>SUM(Y2:Y96)</f>
+      <c r="R97" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="S97">
+        <f>SUM(S2:S96)</f>
         <v>1023</v>
       </c>
-      <c r="Z97">
-        <f>AVERAGE(Z2:Z96)</f>
+      <c r="T97">
+        <f>AVERAGE(T2:T96)</f>
         <v>41.779411764705884</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>403</v>
+        <v>18</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="C98" s="5">
         <v>45117</v>
       </c>
       <c r="D98" t="s">
-        <v>386</v>
-      </c>
-      <c r="E98" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="F98" s="45">
+        <v>380</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="F98" s="30">
         <v>45117</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -7958,7 +7505,7 @@
       <c r="M98">
         <v>1</v>
       </c>
-      <c r="N98" s="45">
+      <c r="N98" s="30">
         <v>45134</v>
       </c>
       <c r="O98">
@@ -7969,44 +7516,46 @@
         <v>1</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="X98" s="4"/>
-      <c r="Y98">
-        <v>1</v>
-      </c>
-      <c r="Z98">
+        <v>412</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U98" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C99" s="5">
         <v>45117</v>
       </c>
       <c r="D99" t="s">
-        <v>387</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="F99" s="45">
+        <v>381</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="F99" s="30">
         <v>45117</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -8022,40 +7571,36 @@
         <v>1</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="S99">
-        <f>SUM(S2:S98)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C100" s="5">
         <v>45117</v>
       </c>
       <c r="D100" t="s">
-        <v>388</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="F100" s="45">
+        <v>382</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="F100" s="30">
         <v>45117</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -8063,7 +7608,7 @@
       <c r="M100">
         <v>1</v>
       </c>
-      <c r="N100" s="45">
+      <c r="N100" s="30">
         <v>45153</v>
       </c>
       <c r="O100">
@@ -8074,42 +7619,45 @@
         <v>1</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
+        <v>434</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U100" s="28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C101" s="5">
         <v>45117</v>
       </c>
       <c r="D101" t="s">
-        <v>389</v>
-      </c>
-      <c r="E101" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="F101" s="45">
+        <v>383</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F101" s="30">
         <v>45117</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8125,36 +7673,36 @@
         <v>1</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C102" s="5">
         <v>45117</v>
       </c>
       <c r="D102" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="F102" s="45">
+        <v>384</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="30">
         <v>45117</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8170,36 +7718,36 @@
         <v>1</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C103" s="5">
         <v>45117</v>
       </c>
       <c r="D103" t="s">
-        <v>391</v>
-      </c>
-      <c r="E103" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="F103" s="45">
+        <v>385</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="F103" s="30">
         <v>45117</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -8207,7 +7755,7 @@
       <c r="M103">
         <v>1</v>
       </c>
-      <c r="N103" s="45">
+      <c r="N103" s="30">
         <v>45134</v>
       </c>
       <c r="O103">
@@ -8218,42 +7766,45 @@
         <v>1</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y103">
-        <v>0</v>
-      </c>
-      <c r="Z103">
+        <v>396</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U103" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C104" s="5">
         <v>45117</v>
       </c>
       <c r="D104" t="s">
-        <v>392</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="F104" s="45">
+        <v>386</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="F104" s="30">
         <v>45117</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -8261,7 +7812,7 @@
       <c r="M104">
         <v>1</v>
       </c>
-      <c r="N104" s="45">
+      <c r="N104" s="30">
         <v>45134</v>
       </c>
       <c r="O104">
@@ -8271,40 +7822,43 @@
       <c r="Q104">
         <v>1</v>
       </c>
-      <c r="Y104">
-        <v>0</v>
-      </c>
-      <c r="Z104">
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U104" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C105" s="5">
         <v>45117</v>
       </c>
       <c r="D105" t="s">
-        <v>393</v>
-      </c>
-      <c r="E105" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="F105" s="45">
+        <v>387</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="F105" s="30">
         <v>45117</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8320,36 +7874,36 @@
         <v>1</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C106" s="5">
         <v>45117</v>
       </c>
       <c r="D106" t="s">
-        <v>394</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="F106" s="45">
+        <v>388</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" s="30">
         <v>45117</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -8357,7 +7911,7 @@
       <c r="M106">
         <v>1</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N106" s="30">
         <v>45134</v>
       </c>
       <c r="O106">
@@ -8368,42 +7922,45 @@
         <v>1</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
-      </c>
-      <c r="Z106">
+        <v>415</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U106" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C107" s="5">
         <v>45117</v>
       </c>
       <c r="D107" t="s">
-        <v>395</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="F107" s="45">
+        <v>389</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F107" s="30">
         <v>45117</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -8419,33 +7976,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C108" s="5">
         <v>45117</v>
       </c>
       <c r="D108" t="s">
-        <v>396</v>
-      </c>
-      <c r="E108" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="F108" s="45">
+        <v>390</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="F108" s="30">
         <v>45117</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -8461,36 +8018,36 @@
         <v>1</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C109" s="5">
         <v>45117</v>
       </c>
       <c r="D109" t="s">
-        <v>397</v>
-      </c>
-      <c r="E109" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="F109" s="45">
+        <v>391</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" s="30">
         <v>45117</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -8498,7 +8055,7 @@
       <c r="M109">
         <v>1</v>
       </c>
-      <c r="N109" s="45">
+      <c r="N109" s="30">
         <v>45134</v>
       </c>
       <c r="O109">
@@ -8508,40 +8065,43 @@
       <c r="Q109">
         <v>1</v>
       </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
         <v>35</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U109" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C110" s="5">
         <v>45117</v>
       </c>
       <c r="D110" t="s">
-        <v>398</v>
-      </c>
-      <c r="E110" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="F110" s="45">
+        <v>392</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F110" s="30">
         <v>45117</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J110" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -8549,7 +8109,7 @@
       <c r="M110">
         <v>1</v>
       </c>
-      <c r="N110" s="45">
+      <c r="N110" s="30">
         <v>45134</v>
       </c>
       <c r="O110">
@@ -8560,87 +8120,99 @@
         <v>1</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y110" s="4">
+        <v>463</v>
+      </c>
+      <c r="S110" s="4">
         <v>999</v>
       </c>
-      <c r="Z110">
+      <c r="T110">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C111" s="5">
         <v>45117</v>
       </c>
       <c r="D111" t="s">
-        <v>400</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="F111" s="45">
+        <v>394</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" s="30">
         <v>45117</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>431</v>
+        <v>4</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N111" s="30">
+        <v>45174</v>
       </c>
       <c r="O111">
         <f t="shared" si="2"/>
-        <v>-45117</v>
+        <v>57</v>
       </c>
       <c r="Q111">
         <v>1</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="S111" s="4">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>23</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C112" s="5">
         <v>45117</v>
       </c>
       <c r="D112" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s">
-        <v>385</v>
-      </c>
-      <c r="F112" s="45">
+        <v>379</v>
+      </c>
+      <c r="F112" s="30">
         <v>45117</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -8648,7 +8220,7 @@
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="N112" s="45">
+      <c r="N112" s="30">
         <v>45134</v>
       </c>
       <c r="O112">
@@ -8658,40 +8230,43 @@
       <c r="Q112">
         <v>1</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U112" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C113" s="5">
         <v>45117</v>
       </c>
       <c r="D113" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F113" s="45">
+        <v>420</v>
+      </c>
+      <c r="F113" s="30">
         <v>45117</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -8707,24 +8282,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F114" s="45">
+        <v>435</v>
+      </c>
+      <c r="F114" s="30">
         <v>45145</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -8732,7 +8307,7 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="N114" s="45">
+      <c r="N114" s="30">
         <v>45146</v>
       </c>
       <c r="O114">
@@ -8743,33 +8318,36 @@
         <v>1</v>
       </c>
       <c r="R114" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
+        <v>444</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U114" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F115" s="45">
+        <v>436</v>
+      </c>
+      <c r="F115" s="30">
         <v>45145</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -8777,7 +8355,7 @@
       <c r="M115">
         <v>1</v>
       </c>
-      <c r="N115" s="45">
+      <c r="N115" s="30">
         <v>45147</v>
       </c>
       <c r="O115">
@@ -8788,33 +8366,36 @@
         <v>1</v>
       </c>
       <c r="R115" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>30</v>
+      </c>
+      <c r="U115" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F116" s="30">
+        <v>45145</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" t="s">
-        <v>456</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F116" s="45">
-        <v>45145</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>470</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8830,27 +8411,27 @@
         <v>1</v>
       </c>
       <c r="R116" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" t="s">
-        <v>457</v>
-      </c>
       <c r="E117" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F117" s="45">
+        <v>438</v>
+      </c>
+      <c r="F117" s="30">
         <v>45145</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -8858,7 +8439,7 @@
       <c r="M117" s="4">
         <v>1</v>
       </c>
-      <c r="N117" s="45">
+      <c r="N117" s="30">
         <v>45147</v>
       </c>
       <c r="O117">
@@ -8868,90 +8449,85 @@
       <c r="Q117">
         <v>1</v>
       </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="C118"/>
-      <c r="D118" t="s">
-        <v>476</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="F118" s="51">
+      <c r="U117" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="F118" s="37">
         <v>45145</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118"/>
-      <c r="M118" s="42">
-        <v>1</v>
-      </c>
-      <c r="N118" s="51">
+      <c r="G118" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J118" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118" s="36">
+        <v>1</v>
+      </c>
+      <c r="M118" s="36">
+        <v>1</v>
+      </c>
+      <c r="N118" s="37">
         <v>45147</v>
       </c>
-      <c r="O118" s="42">
+      <c r="O118" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P118"/>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118" t="s">
-        <v>452</v>
-      </c>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="42">
+      <c r="Q118" s="36">
+        <v>1</v>
+      </c>
+      <c r="R118" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="S118" s="36">
+        <v>0</v>
+      </c>
+      <c r="T118" s="36">
         <v>28</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U118" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F119" s="45">
+        <v>440</v>
+      </c>
+      <c r="F119" s="30">
         <v>45145</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -8967,24 +8543,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F120" s="45">
+        <v>441</v>
+      </c>
+      <c r="F120" s="30">
         <v>45145</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -8992,7 +8568,7 @@
       <c r="M120">
         <v>1</v>
       </c>
-      <c r="N120" s="45">
+      <c r="N120" s="30">
         <v>45147</v>
       </c>
       <c r="O120">
@@ -9002,31 +8578,34 @@
       <c r="Q120">
         <v>1</v>
       </c>
-      <c r="Y120">
-        <v>1</v>
-      </c>
-      <c r="Z120">
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U120" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F121" s="45">
+        <v>442</v>
+      </c>
+      <c r="F121" s="30">
         <v>45145</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -9034,7 +8613,7 @@
       <c r="M121">
         <v>1</v>
       </c>
-      <c r="N121" s="45">
+      <c r="N121" s="30">
         <v>45147</v>
       </c>
       <c r="O121">
@@ -9045,30 +8624,33 @@
         <v>1</v>
       </c>
       <c r="R121" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y121">
-        <v>1</v>
-      </c>
-      <c r="Z121">
+        <v>447</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U121" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F122" s="45">
+        <v>443</v>
+      </c>
+      <c r="F122" s="30">
         <v>45145</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -9084,24 +8666,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F123" s="45">
+        <v>456</v>
+      </c>
+      <c r="F123" s="30">
         <v>45146</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -9109,7 +8691,7 @@
       <c r="M123">
         <v>1</v>
       </c>
-      <c r="N123" s="45">
+      <c r="N123" s="30">
         <v>45147</v>
       </c>
       <c r="O123">
@@ -9119,31 +8701,34 @@
       <c r="Q123">
         <v>1</v>
       </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
         <v>35</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U123" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="F124" s="45">
+        <v>459</v>
+      </c>
+      <c r="F124" s="30">
         <v>45146</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -9159,35 +8744,35 @@
         <v>1</v>
       </c>
       <c r="R124" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127">
         <f>SUM(K2:K124)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B128" t="s">
-        <v>413</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="F128" s="45">
+        <v>407</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F128" s="30">
         <v>45117</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M128">
         <v>1</v>
       </c>
-      <c r="N128" s="45">
+      <c r="N128" s="30">
         <v>45163</v>
       </c>
       <c r="O128">
@@ -9197,10 +8782,10 @@
       <c r="Q128">
         <v>1</v>
       </c>
-      <c r="Y128">
-        <v>0</v>
-      </c>
-      <c r="Z128">
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
         <v>25</v>
       </c>
     </row>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332B708-E664-C447-B7E4-F36E2F2DABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9CE6D-CDF4-1747-85F0-87BD46E937D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="380" windowWidth="22760" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="473">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1567,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1617,15 +1617,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,10 +1844,10 @@
   <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U100" sqref="U100"/>
+      <selection pane="bottomRight" activeCell="U129" sqref="U129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5692,7 +5684,7 @@
       <c r="D66" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="8" t="s">
         <v>235</v>
       </c>
       <c r="F66" s="30">
@@ -5976,7 +5968,7 @@
       <c r="D71" t="s">
         <v>256</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="24" t="s">
         <v>240</v>
       </c>
       <c r="F71" s="30">
@@ -6027,7 +6019,7 @@
       <c r="D72" t="s">
         <v>257</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="8" t="s">
         <v>241</v>
       </c>
       <c r="F72" s="30">
@@ -6078,7 +6070,7 @@
       <c r="D73" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F73" s="30">
@@ -6129,7 +6121,7 @@
       <c r="D74" t="s">
         <v>259</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F74" s="30">
@@ -6180,7 +6172,7 @@
       <c r="D75" t="s">
         <v>260</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="8" t="s">
         <v>244</v>
       </c>
       <c r="F75" s="30">
@@ -6752,7 +6744,7 @@
       <c r="D85" t="s">
         <v>316</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" t="s">
         <v>303</v>
       </c>
       <c r="F85" s="30">
@@ -6803,7 +6795,7 @@
       <c r="D86" t="s">
         <v>321</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" t="s">
         <v>304</v>
       </c>
       <c r="F86" s="30">
@@ -7316,7 +7308,7 @@
       <c r="D95" t="s">
         <v>329</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="4" t="s">
         <v>313</v>
       </c>
       <c r="F95" s="30">
@@ -7541,7 +7533,7 @@
       <c r="D99" t="s">
         <v>381</v>
       </c>
-      <c r="E99" s="39" t="s">
+      <c r="E99" s="35" t="s">
         <v>367</v>
       </c>
       <c r="F99" s="30">
@@ -8459,54 +8451,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="35" t="s">
+    <row r="118" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" t="s">
         <v>452</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" t="s">
         <v>470</v>
       </c>
-      <c r="E118" s="35" t="s">
+      <c r="E118" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="30">
         <v>45145</v>
       </c>
-      <c r="G118" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K118" s="36">
-        <v>1</v>
-      </c>
-      <c r="M118" s="36">
-        <v>1</v>
-      </c>
-      <c r="N118" s="37">
+      <c r="G118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" s="30">
         <v>45147</v>
       </c>
-      <c r="O118" s="36">
+      <c r="O118">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q118" s="36">
-        <v>1</v>
-      </c>
-      <c r="R118" s="36" t="s">
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118" t="s">
         <v>446</v>
       </c>
-      <c r="S118" s="36">
-        <v>0</v>
-      </c>
-      <c r="T118" s="36">
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
         <v>28</v>
       </c>
-      <c r="U118" s="35" t="s">
+      <c r="U118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8787,6 +8779,9 @@
       </c>
       <c r="T128">
         <v>25</v>
+      </c>
+      <c r="U128" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB9CE6D-CDF4-1747-85F0-87BD46E937D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452ABA76-C7AE-5A40-BB63-8CAA3F027FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="380" windowWidth="22760" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10600" yWindow="100" windowWidth="22760" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$J$1:$J$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pilottotalparticipant_list!$J$1:$J$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="473">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1455,7 +1455,7 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>cant find it</t>
+    <t>Debriefed</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1610,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1618,11 +1617,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1844,10 +1855,10 @@
   <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U129" sqref="U129"/>
+      <selection pane="bottomRight" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1856,7 +1867,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="29" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
@@ -1864,7 +1875,7 @@
     <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="30" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="29" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
@@ -1872,7 +1883,7 @@
     <col min="19" max="20" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1899,7 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1912,7 +1923,7 @@
       <c r="M1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1936,8 +1947,11 @@
       <c r="U1" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1967,7 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>44872</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1974,7 +1988,7 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="29">
         <v>44875</v>
       </c>
       <c r="O2">
@@ -1999,8 +2013,11 @@
       <c r="U2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2033,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>44872</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2038,7 +2055,7 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="29">
         <v>44876</v>
       </c>
       <c r="O3">
@@ -2060,8 +2077,11 @@
       <c r="U3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2077,7 +2097,7 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>44879</v>
       </c>
       <c r="G4" t="s">
@@ -2099,7 +2119,7 @@
       <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="29">
         <v>44886</v>
       </c>
       <c r="O4">
@@ -2121,8 +2141,11 @@
       <c r="U4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2135,10 +2158,10 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>44879</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2160,7 +2183,7 @@
       <c r="M5" s="4">
         <v>1</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="29">
         <v>44887</v>
       </c>
       <c r="O5">
@@ -2182,8 +2205,11 @@
       <c r="U5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +2225,7 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>44879</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2221,7 +2247,7 @@
       <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="29">
         <v>44893</v>
       </c>
       <c r="O6">
@@ -2243,8 +2269,11 @@
       <c r="U6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +2289,7 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>44958</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2282,7 +2311,7 @@
       <c r="M7" s="4">
         <v>1</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="29">
         <v>44963</v>
       </c>
       <c r="O7">
@@ -2301,8 +2330,11 @@
       <c r="U7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -2315,7 +2347,7 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>44959</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2337,7 +2369,7 @@
       <c r="M8" s="4">
         <v>1</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="29">
         <v>44963</v>
       </c>
       <c r="O8">
@@ -2362,8 +2394,11 @@
       <c r="U8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2411,7 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>44959</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2398,7 +2433,7 @@
       <c r="M9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="29">
         <v>44963</v>
       </c>
       <c r="O9">
@@ -2420,8 +2455,11 @@
       <c r="U9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -2434,7 +2472,7 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>44959</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2456,7 +2494,7 @@
       <c r="M10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="29">
         <v>44963</v>
       </c>
       <c r="O10">
@@ -2478,8 +2516,11 @@
       <c r="U10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
@@ -2492,7 +2533,7 @@
       <c r="E11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>44959</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -2514,7 +2555,7 @@
       <c r="M11" s="16">
         <v>0</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="30"/>
       <c r="O11">
         <f t="shared" si="0"/>
         <v>-44959</v>
@@ -2527,7 +2568,7 @@
       </c>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -2540,7 +2581,7 @@
       <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>44967</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2576,7 +2617,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -2589,7 +2630,7 @@
       <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>44967</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2611,7 +2652,7 @@
       <c r="M13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="29">
         <v>44968</v>
       </c>
       <c r="O13">
@@ -2636,8 +2677,11 @@
       <c r="U13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -2650,7 +2694,7 @@
       <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>44967</v>
       </c>
       <c r="G14" t="s">
@@ -2672,7 +2716,7 @@
       <c r="M14" s="4">
         <v>1</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="29">
         <v>44969</v>
       </c>
       <c r="O14">
@@ -2694,8 +2738,11 @@
       <c r="U14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -2708,7 +2755,7 @@
       <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>44967</v>
       </c>
       <c r="G15" t="s">
@@ -2730,7 +2777,7 @@
       <c r="M15" s="4">
         <v>1</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="29">
         <v>44968</v>
       </c>
       <c r="O15">
@@ -2755,8 +2802,11 @@
       <c r="U15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>64</v>
       </c>
@@ -2769,7 +2819,7 @@
       <c r="E16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>44967</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -2793,7 +2843,7 @@
       <c r="M16" s="16">
         <v>0</v>
       </c>
-      <c r="N16" s="34"/>
+      <c r="N16" s="33"/>
       <c r="O16">
         <f t="shared" si="0"/>
         <v>-44967</v>
@@ -2809,7 +2859,7 @@
       </c>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2822,7 +2872,7 @@
       <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>44967</v>
       </c>
       <c r="G17" t="s">
@@ -2844,7 +2894,7 @@
       <c r="M17" s="4">
         <v>1</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="29">
         <v>44968</v>
       </c>
       <c r="O17">
@@ -2866,8 +2916,11 @@
       <c r="U17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2883,7 +2936,7 @@
       <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>44977</v>
       </c>
       <c r="G18" t="s">
@@ -2905,7 +2958,7 @@
       <c r="M18" s="4">
         <v>1</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="29">
         <v>44980</v>
       </c>
       <c r="O18">
@@ -2927,8 +2980,11 @@
       <c r="U18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -2944,7 +3000,7 @@
       <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>44977</v>
       </c>
       <c r="G19" t="s">
@@ -2966,7 +3022,7 @@
       <c r="M19" s="4">
         <v>1</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="29">
         <v>44981</v>
       </c>
       <c r="O19">
@@ -2985,8 +3041,11 @@
       <c r="U19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
@@ -3002,7 +3061,7 @@
       <c r="E20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>44977</v>
       </c>
       <c r="G20" t="s">
@@ -3024,7 +3083,7 @@
       <c r="M20" s="4">
         <v>1</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="29">
         <v>44980</v>
       </c>
       <c r="O20">
@@ -3046,8 +3105,11 @@
       <c r="U20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -3063,7 +3125,7 @@
       <c r="E21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>44977</v>
       </c>
       <c r="G21" t="s">
@@ -3085,7 +3147,7 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="29">
         <v>44980</v>
       </c>
       <c r="O21">
@@ -3107,8 +3169,11 @@
       <c r="U21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
@@ -3124,7 +3189,7 @@
       <c r="E22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>44977</v>
       </c>
       <c r="G22" t="s">
@@ -3158,7 +3223,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>91</v>
       </c>
@@ -3174,7 +3239,7 @@
       <c r="E23" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>44977</v>
       </c>
       <c r="G23" t="s">
@@ -3208,7 +3273,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>91</v>
       </c>
@@ -3224,7 +3289,7 @@
       <c r="E24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>44977</v>
       </c>
       <c r="G24" t="s">
@@ -3246,7 +3311,7 @@
       <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="29">
         <v>44982</v>
       </c>
       <c r="O24">
@@ -3265,8 +3330,11 @@
       <c r="U24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -3282,7 +3350,7 @@
       <c r="E25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>44977</v>
       </c>
       <c r="G25" t="s">
@@ -3304,7 +3372,7 @@
       <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="29">
         <v>44980</v>
       </c>
       <c r="O25">
@@ -3326,8 +3394,11 @@
       <c r="U25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -3343,7 +3414,7 @@
       <c r="E26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>44977</v>
       </c>
       <c r="G26" t="s">
@@ -3373,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -3389,7 +3460,7 @@
       <c r="E27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <v>44977</v>
       </c>
       <c r="G27" t="s">
@@ -3411,7 +3482,7 @@
       <c r="M27" s="4">
         <v>1</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="29">
         <v>44980</v>
       </c>
       <c r="O27">
@@ -3430,8 +3501,11 @@
       <c r="U27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
@@ -3447,7 +3521,7 @@
       <c r="E28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
         <v>44977</v>
       </c>
       <c r="G28" t="s">
@@ -3469,7 +3543,7 @@
       <c r="M28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="29">
         <v>44981</v>
       </c>
       <c r="O28">
@@ -3491,8 +3565,11 @@
       <c r="U28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -3508,7 +3585,7 @@
       <c r="E29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>44977</v>
       </c>
       <c r="G29" t="s">
@@ -3541,7 +3618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
@@ -3557,7 +3634,7 @@
       <c r="E30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <v>44977</v>
       </c>
       <c r="G30" t="s">
@@ -3590,7 +3667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -3606,7 +3683,7 @@
       <c r="E31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>44977</v>
       </c>
       <c r="G31" t="s">
@@ -3628,7 +3705,7 @@
       <c r="M31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="29">
         <v>44980</v>
       </c>
       <c r="O31">
@@ -3650,8 +3727,11 @@
       <c r="U31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3667,7 +3747,7 @@
       <c r="E32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>44977</v>
       </c>
       <c r="G32" t="s">
@@ -3689,7 +3769,7 @@
       <c r="M32" s="4">
         <v>1</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="29">
         <v>44980</v>
       </c>
       <c r="O32">
@@ -3708,8 +3788,11 @@
       <c r="U32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -3725,7 +3808,7 @@
       <c r="E33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>44977</v>
       </c>
       <c r="G33" t="s">
@@ -3755,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>91</v>
       </c>
@@ -3771,7 +3854,7 @@
       <c r="E34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>44977</v>
       </c>
       <c r="G34" t="s">
@@ -3793,7 +3876,7 @@
       <c r="M34" s="4">
         <v>1</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="29">
         <v>44980</v>
       </c>
       <c r="O34">
@@ -3815,8 +3898,11 @@
       <c r="U34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -3832,7 +3918,7 @@
       <c r="E35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>44977</v>
       </c>
       <c r="G35" t="s">
@@ -3854,7 +3940,7 @@
       <c r="M35" s="4">
         <v>1</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="29">
         <v>44980</v>
       </c>
       <c r="O35">
@@ -3876,8 +3962,11 @@
       <c r="U35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
@@ -3893,7 +3982,7 @@
       <c r="E36" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <v>44993</v>
       </c>
       <c r="G36" t="s">
@@ -3915,7 +4004,7 @@
       <c r="M36" s="4">
         <v>1</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="29">
         <v>44995</v>
       </c>
       <c r="O36">
@@ -3940,8 +4029,11 @@
       <c r="U36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>194</v>
       </c>
@@ -3957,7 +4049,7 @@
       <c r="E37" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="32">
         <v>44993</v>
       </c>
       <c r="G37" t="s">
@@ -3979,7 +4071,7 @@
       <c r="M37" s="4">
         <v>1</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="29">
         <v>44995</v>
       </c>
       <c r="O37">
@@ -4001,8 +4093,11 @@
       <c r="U37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>194</v>
       </c>
@@ -4018,7 +4113,7 @@
       <c r="E38" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="32">
         <v>44993</v>
       </c>
       <c r="G38" t="s">
@@ -4040,7 +4135,7 @@
       <c r="M38" s="4">
         <v>1</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="29">
         <v>44995</v>
       </c>
       <c r="O38">
@@ -4065,8 +4160,11 @@
       <c r="U38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V38" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>194</v>
       </c>
@@ -4082,7 +4180,7 @@
       <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="32">
         <v>44993</v>
       </c>
       <c r="G39" t="s">
@@ -4104,7 +4202,7 @@
       <c r="M39" s="4">
         <v>1</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="29">
         <v>44995</v>
       </c>
       <c r="O39">
@@ -4126,8 +4224,11 @@
       <c r="U39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>194</v>
       </c>
@@ -4143,7 +4244,7 @@
       <c r="E40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="32">
         <v>44993</v>
       </c>
       <c r="G40" t="s">
@@ -4165,7 +4266,7 @@
       <c r="M40" s="4">
         <v>1</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="29">
         <v>44995</v>
       </c>
       <c r="O40">
@@ -4190,8 +4291,11 @@
       <c r="U40" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V40" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>194</v>
       </c>
@@ -4207,7 +4311,7 @@
       <c r="E41" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="32">
         <v>44993</v>
       </c>
       <c r="G41" t="s">
@@ -4229,7 +4333,7 @@
       <c r="M41" s="4">
         <v>1</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="29">
         <v>44995</v>
       </c>
       <c r="O41">
@@ -4254,8 +4358,11 @@
       <c r="U41" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>194</v>
       </c>
@@ -4271,7 +4378,7 @@
       <c r="E42" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <v>44993</v>
       </c>
       <c r="G42" t="s">
@@ -4293,7 +4400,7 @@
       <c r="M42" s="4">
         <v>1</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="29">
         <v>44995</v>
       </c>
       <c r="O42">
@@ -4318,8 +4425,11 @@
       <c r="U42" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -4335,7 +4445,7 @@
       <c r="E43" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="32">
         <v>44993</v>
       </c>
       <c r="G43" t="s">
@@ -4357,7 +4467,7 @@
       <c r="M43" s="4">
         <v>1</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="29">
         <v>44995</v>
       </c>
       <c r="O43">
@@ -4379,8 +4489,11 @@
       <c r="U43" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V43" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -4396,7 +4509,7 @@
       <c r="E44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="32">
         <v>44993</v>
       </c>
       <c r="G44" t="s">
@@ -4418,7 +4531,7 @@
       <c r="M44" s="4">
         <v>1</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="29">
         <v>44995</v>
       </c>
       <c r="O44">
@@ -4440,8 +4553,11 @@
       <c r="U44" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V44" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>194</v>
       </c>
@@ -4457,7 +4573,7 @@
       <c r="E45" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <v>44993</v>
       </c>
       <c r="G45" t="s">
@@ -4479,7 +4595,7 @@
       <c r="M45" s="4">
         <v>1</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="29">
         <v>44995</v>
       </c>
       <c r="O45">
@@ -4501,8 +4617,11 @@
       <c r="U45" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -4518,7 +4637,7 @@
       <c r="E46" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <v>44993</v>
       </c>
       <c r="G46" t="s">
@@ -4540,7 +4659,7 @@
       <c r="M46" s="4">
         <v>1</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="29">
         <v>44995</v>
       </c>
       <c r="O46">
@@ -4562,8 +4681,11 @@
       <c r="U46" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V46" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -4579,7 +4701,7 @@
       <c r="E47" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <v>44993</v>
       </c>
       <c r="G47" t="s">
@@ -4601,7 +4723,7 @@
       <c r="M47" s="4">
         <v>1</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="29">
         <v>44995</v>
       </c>
       <c r="O47">
@@ -4626,8 +4748,11 @@
       <c r="U47" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>194</v>
       </c>
@@ -4643,7 +4768,7 @@
       <c r="E48" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <v>44993</v>
       </c>
       <c r="G48" t="s">
@@ -4665,7 +4790,7 @@
       <c r="M48" s="4">
         <v>1</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="29">
         <v>44995</v>
       </c>
       <c r="O48">
@@ -4690,6 +4815,9 @@
       <c r="U48" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V48" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -4707,7 +4835,7 @@
       <c r="E49" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <v>44993</v>
       </c>
       <c r="G49" t="s">
@@ -4729,7 +4857,7 @@
       <c r="M49" s="4">
         <v>1</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="29">
         <v>44995</v>
       </c>
       <c r="O49">
@@ -4751,6 +4879,9 @@
       <c r="U49" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V49" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
@@ -4768,7 +4899,7 @@
       <c r="E50" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="29">
         <v>44993</v>
       </c>
       <c r="G50" t="s">
@@ -4790,7 +4921,7 @@
       <c r="M50" s="4">
         <v>1</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="29">
         <v>44995</v>
       </c>
       <c r="O50">
@@ -4812,6 +4943,9 @@
       <c r="U50" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V50" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
@@ -4829,7 +4963,7 @@
       <c r="E51" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <v>44993</v>
       </c>
       <c r="G51" t="s">
@@ -4851,7 +4985,7 @@
       <c r="M51" s="4">
         <v>1</v>
       </c>
-      <c r="N51" s="30">
+      <c r="N51" s="29">
         <v>44995</v>
       </c>
       <c r="O51">
@@ -4873,6 +5007,9 @@
       <c r="U51" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V51" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
@@ -4890,7 +5027,7 @@
       <c r="E52" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="29">
         <v>44993</v>
       </c>
       <c r="G52" t="s">
@@ -4912,7 +5049,7 @@
       <c r="M52" s="4">
         <v>1</v>
       </c>
-      <c r="N52" s="30">
+      <c r="N52" s="29">
         <v>44997</v>
       </c>
       <c r="O52">
@@ -4935,6 +5072,9 @@
         <v>30</v>
       </c>
       <c r="U52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4954,7 +5094,7 @@
       <c r="E53" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="29">
         <v>45004</v>
       </c>
       <c r="G53" t="s">
@@ -4976,7 +5116,7 @@
       <c r="M53" s="4">
         <v>1</v>
       </c>
-      <c r="N53" s="30">
+      <c r="N53" s="29">
         <v>45006</v>
       </c>
       <c r="O53">
@@ -4995,6 +5135,9 @@
       <c r="U53" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V53" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
@@ -5012,7 +5155,7 @@
       <c r="E54" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="29">
         <v>45004</v>
       </c>
       <c r="G54" t="s">
@@ -5034,7 +5177,7 @@
       <c r="M54" s="4">
         <v>1</v>
       </c>
-      <c r="N54" s="30">
+      <c r="N54" s="29">
         <v>45006</v>
       </c>
       <c r="O54">
@@ -5053,6 +5196,9 @@
       <c r="U54" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V54" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
@@ -5070,7 +5216,7 @@
       <c r="E55" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="29">
         <v>45004</v>
       </c>
       <c r="G55" t="s">
@@ -5092,7 +5238,7 @@
       <c r="M55" s="4">
         <v>1</v>
       </c>
-      <c r="N55" s="30">
+      <c r="N55" s="29">
         <v>45006</v>
       </c>
       <c r="O55">
@@ -5111,6 +5257,9 @@
       <c r="U55" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V55" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="W55" s="4"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,7 +5278,7 @@
       <c r="E56" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="29">
         <v>37334</v>
       </c>
       <c r="G56" t="s">
@@ -5165,7 +5314,7 @@
       <c r="E57" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="29">
         <v>37334</v>
       </c>
       <c r="G57" t="s">
@@ -5215,7 +5364,7 @@
       <c r="E58" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="30">
         <v>45005</v>
       </c>
       <c r="G58" s="17" t="s">
@@ -5237,7 +5386,7 @@
       <c r="M58" s="16">
         <v>1</v>
       </c>
-      <c r="N58" s="31"/>
+      <c r="N58" s="30"/>
       <c r="O58" s="17">
         <f t="shared" si="0"/>
         <v>-45005</v>
@@ -5265,7 +5414,7 @@
       <c r="E59" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="29">
         <v>45005</v>
       </c>
       <c r="G59" t="s">
@@ -5287,7 +5436,7 @@
       <c r="M59" s="4">
         <v>1</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="29">
         <v>45006</v>
       </c>
       <c r="O59">
@@ -5304,6 +5453,9 @@
         <v>21</v>
       </c>
       <c r="U59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5323,7 +5475,7 @@
       <c r="E60" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="29">
         <v>45004</v>
       </c>
       <c r="G60" t="s">
@@ -5345,7 +5497,7 @@
       <c r="M60" s="4">
         <v>1</v>
       </c>
-      <c r="N60" s="30">
+      <c r="N60" s="29">
         <v>45007</v>
       </c>
       <c r="O60">
@@ -5364,6 +5516,9 @@
       <c r="U60" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V60" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
@@ -5381,7 +5536,7 @@
       <c r="E61" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <v>45014</v>
       </c>
       <c r="G61" t="s">
@@ -5402,7 +5557,7 @@
       <c r="M61" s="4">
         <v>1</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N61" s="29">
         <v>45016</v>
       </c>
       <c r="O61">
@@ -5424,6 +5579,9 @@
       <c r="U61" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V61" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
@@ -5441,7 +5599,7 @@
       <c r="E62" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="29">
         <v>45014</v>
       </c>
       <c r="G62" t="s">
@@ -5462,7 +5620,7 @@
       <c r="M62" s="4">
         <v>1</v>
       </c>
-      <c r="N62" s="30">
+      <c r="N62" s="29">
         <v>45016</v>
       </c>
       <c r="O62">
@@ -5487,6 +5645,9 @@
       <c r="U62" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V62" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
@@ -5504,7 +5665,7 @@
       <c r="E63" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="29">
         <v>45014</v>
       </c>
       <c r="G63" t="s">
@@ -5525,7 +5686,7 @@
       <c r="M63" s="4">
         <v>1</v>
       </c>
-      <c r="N63" s="30">
+      <c r="N63" s="29">
         <v>45016</v>
       </c>
       <c r="O63">
@@ -5550,6 +5711,9 @@
       <c r="U63" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V63" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
@@ -5567,7 +5731,7 @@
       <c r="E64" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="29">
         <v>45014</v>
       </c>
       <c r="G64" t="s">
@@ -5588,7 +5752,7 @@
       <c r="M64" s="4">
         <v>1</v>
       </c>
-      <c r="N64" s="30">
+      <c r="N64" s="29">
         <v>45016</v>
       </c>
       <c r="O64">
@@ -5610,8 +5774,11 @@
       <c r="U64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
@@ -5627,7 +5794,7 @@
       <c r="E65" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="29">
         <v>45014</v>
       </c>
       <c r="G65" t="s">
@@ -5648,7 +5815,7 @@
       <c r="M65" s="4">
         <v>1</v>
       </c>
-      <c r="N65" s="30">
+      <c r="N65" s="29">
         <v>45016</v>
       </c>
       <c r="O65">
@@ -5670,8 +5837,11 @@
       <c r="U65" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V65" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -5687,7 +5857,7 @@
       <c r="E66" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="29">
         <v>45014</v>
       </c>
       <c r="G66" t="s">
@@ -5722,7 +5892,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>194</v>
       </c>
@@ -5738,7 +5908,7 @@
       <c r="E67" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="29">
         <v>45014</v>
       </c>
       <c r="G67" t="s">
@@ -5759,7 +5929,7 @@
       <c r="M67" s="4">
         <v>1</v>
       </c>
-      <c r="N67" s="30">
+      <c r="N67" s="29">
         <v>45016</v>
       </c>
       <c r="O67">
@@ -5781,8 +5951,11 @@
       <c r="U67" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V67" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>194</v>
       </c>
@@ -5798,7 +5971,7 @@
       <c r="E68" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="29">
         <v>45014</v>
       </c>
       <c r="G68" t="s">
@@ -5819,7 +5992,7 @@
       <c r="M68" s="4">
         <v>1</v>
       </c>
-      <c r="N68" s="30">
+      <c r="N68" s="29">
         <v>45069</v>
       </c>
       <c r="O68">
@@ -5841,8 +6014,11 @@
       <c r="U68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V68" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>194</v>
       </c>
@@ -5858,7 +6034,7 @@
       <c r="E69" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="30">
         <v>45014</v>
       </c>
       <c r="G69" s="17" t="s">
@@ -5879,7 +6055,7 @@
       <c r="M69" s="16">
         <v>0</v>
       </c>
-      <c r="N69" s="31"/>
+      <c r="N69" s="30"/>
       <c r="O69">
         <f t="shared" si="1"/>
         <v>-45014</v>
@@ -5894,7 +6070,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>194</v>
       </c>
@@ -5910,7 +6086,7 @@
       <c r="E70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="29">
         <v>45014</v>
       </c>
       <c r="G70" t="s">
@@ -5931,7 +6107,7 @@
       <c r="M70" s="4">
         <v>1</v>
       </c>
-      <c r="N70" s="30">
+      <c r="N70" s="29">
         <v>45016</v>
       </c>
       <c r="O70">
@@ -5954,8 +6130,11 @@
       <c r="U70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="V70" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>194</v>
       </c>
@@ -5971,7 +6150,7 @@
       <c r="E71" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="29">
         <v>45014</v>
       </c>
       <c r="G71" t="s">
@@ -6006,7 +6185,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>194</v>
       </c>
@@ -6022,7 +6201,7 @@
       <c r="E72" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="29">
         <v>45014</v>
       </c>
       <c r="G72" t="s">
@@ -6057,7 +6236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>194</v>
       </c>
@@ -6073,7 +6252,7 @@
       <c r="E73" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="29">
         <v>45014</v>
       </c>
       <c r="G73" t="s">
@@ -6108,7 +6287,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
@@ -6124,7 +6303,7 @@
       <c r="E74" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="30">
+      <c r="F74" s="29">
         <v>45014</v>
       </c>
       <c r="G74" t="s">
@@ -6159,7 +6338,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>194</v>
       </c>
@@ -6175,7 +6354,7 @@
       <c r="E75" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="29">
         <v>45014</v>
       </c>
       <c r="G75" t="s">
@@ -6210,7 +6389,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>194</v>
       </c>
@@ -6226,7 +6405,7 @@
       <c r="E76" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="29">
         <v>45014</v>
       </c>
       <c r="G76" t="s">
@@ -6247,7 +6426,7 @@
       <c r="M76">
         <v>1</v>
       </c>
-      <c r="N76" s="30">
+      <c r="N76" s="29">
         <v>45057</v>
       </c>
       <c r="O76">
@@ -6272,8 +6451,11 @@
       <c r="U76" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="V76" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>284</v>
       </c>
@@ -6289,7 +6471,7 @@
       <c r="E77" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="30">
         <v>45070</v>
       </c>
       <c r="G77" s="17" t="s">
@@ -6310,7 +6492,7 @@
       <c r="M77" s="17">
         <v>0</v>
       </c>
-      <c r="N77" s="31"/>
+      <c r="N77" s="30"/>
       <c r="O77">
         <f>_xlfn.DAYS(N77,F77)</f>
         <v>-45070</v>
@@ -6325,7 +6507,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>284</v>
       </c>
@@ -6341,7 +6523,7 @@
       <c r="E78" t="s">
         <v>286</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="29">
         <v>45070</v>
       </c>
       <c r="G78" t="s">
@@ -6362,7 +6544,7 @@
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78" s="30">
+      <c r="N78" s="29">
         <v>45077</v>
       </c>
       <c r="O78">
@@ -6384,8 +6566,11 @@
       <c r="U78" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V78" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>284</v>
       </c>
@@ -6401,7 +6586,7 @@
       <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="29">
         <v>45070</v>
       </c>
       <c r="G79" t="s">
@@ -6422,7 +6607,7 @@
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79" s="30">
+      <c r="N79" s="29">
         <v>45077</v>
       </c>
       <c r="O79">
@@ -6444,8 +6629,11 @@
       <c r="U79" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V79" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>284</v>
       </c>
@@ -6461,7 +6649,7 @@
       <c r="E80" t="s">
         <v>288</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="29">
         <v>45070</v>
       </c>
       <c r="G80" t="s">
@@ -6482,7 +6670,7 @@
       <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" s="30">
+      <c r="N80" s="29">
         <v>45077</v>
       </c>
       <c r="O80">
@@ -6504,8 +6692,11 @@
       <c r="U80" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V80" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>284</v>
       </c>
@@ -6521,7 +6712,7 @@
       <c r="E81" t="s">
         <v>289</v>
       </c>
-      <c r="F81" s="30">
+      <c r="F81" s="29">
         <v>45070</v>
       </c>
       <c r="G81" t="s">
@@ -6556,7 +6747,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
         <v>64</v>
       </c>
@@ -6572,7 +6763,7 @@
       <c r="E82" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="30">
         <v>45082</v>
       </c>
       <c r="G82" s="17" t="s">
@@ -6593,7 +6784,7 @@
       <c r="M82" s="17">
         <v>0</v>
       </c>
-      <c r="N82" s="31"/>
+      <c r="N82" s="30"/>
       <c r="O82">
         <f t="shared" si="2"/>
         <v>-45082</v>
@@ -6608,7 +6799,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -6624,7 +6815,7 @@
       <c r="E83" t="s">
         <v>301</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="29">
         <v>45082</v>
       </c>
       <c r="G83" t="s">
@@ -6645,7 +6836,7 @@
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="N83" s="30">
+      <c r="N83" s="29">
         <v>45086</v>
       </c>
       <c r="O83">
@@ -6670,8 +6861,11 @@
       <c r="U83" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V83" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
@@ -6687,7 +6881,7 @@
       <c r="E84" t="s">
         <v>302</v>
       </c>
-      <c r="F84" s="30">
+      <c r="F84" s="29">
         <v>45082</v>
       </c>
       <c r="G84" t="s">
@@ -6708,7 +6902,7 @@
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="N84" s="30">
+      <c r="N84" s="29">
         <v>45091</v>
       </c>
       <c r="O84">
@@ -6730,8 +6924,11 @@
       <c r="U84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V84" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>64</v>
       </c>
@@ -6747,7 +6944,7 @@
       <c r="E85" t="s">
         <v>303</v>
       </c>
-      <c r="F85" s="30">
+      <c r="F85" s="29">
         <v>45082</v>
       </c>
       <c r="G85" t="s">
@@ -6782,7 +6979,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>64</v>
       </c>
@@ -6798,7 +6995,7 @@
       <c r="E86" t="s">
         <v>304</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="29">
         <v>45082</v>
       </c>
       <c r="G86" t="s">
@@ -6833,7 +7030,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>64</v>
       </c>
@@ -6849,7 +7046,7 @@
       <c r="E87" t="s">
         <v>305</v>
       </c>
-      <c r="F87" s="30">
+      <c r="F87" s="29">
         <v>45082</v>
       </c>
       <c r="G87" t="s">
@@ -6870,7 +7067,7 @@
       <c r="M87">
         <v>1</v>
       </c>
-      <c r="N87" s="30">
+      <c r="N87" s="29">
         <v>45098</v>
       </c>
       <c r="O87">
@@ -6892,8 +7089,11 @@
       <c r="U87" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V87" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -6909,7 +7109,7 @@
       <c r="E88" t="s">
         <v>306</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="29">
         <v>45082</v>
       </c>
       <c r="G88" t="s">
@@ -6930,7 +7130,7 @@
       <c r="M88">
         <v>1</v>
       </c>
-      <c r="N88" s="30">
+      <c r="N88" s="29">
         <v>45093</v>
       </c>
       <c r="O88">
@@ -6955,8 +7155,11 @@
       <c r="U88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V88" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>64</v>
       </c>
@@ -6972,7 +7175,7 @@
       <c r="E89" t="s">
         <v>307</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="29">
         <v>45082</v>
       </c>
       <c r="G89" t="s">
@@ -6993,7 +7196,7 @@
       <c r="M89">
         <v>1</v>
       </c>
-      <c r="N89" s="30">
+      <c r="N89" s="29">
         <v>45095</v>
       </c>
       <c r="O89">
@@ -7018,8 +7221,11 @@
       <c r="U89" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V89" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>64</v>
       </c>
@@ -7035,7 +7241,7 @@
       <c r="E90" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F90" s="30">
+      <c r="F90" s="29">
         <v>45082</v>
       </c>
       <c r="G90" t="s">
@@ -7056,7 +7262,7 @@
       <c r="M90">
         <v>1</v>
       </c>
-      <c r="N90" s="30">
+      <c r="N90" s="29">
         <v>45093</v>
       </c>
       <c r="O90">
@@ -7078,8 +7284,11 @@
       <c r="U90" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V90" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>64</v>
       </c>
@@ -7095,7 +7304,7 @@
       <c r="E91" t="s">
         <v>309</v>
       </c>
-      <c r="F91" s="30">
+      <c r="F91" s="29">
         <v>45082</v>
       </c>
       <c r="G91" t="s">
@@ -7116,7 +7325,7 @@
       <c r="M91">
         <v>1</v>
       </c>
-      <c r="N91" s="30">
+      <c r="N91" s="29">
         <v>45090</v>
       </c>
       <c r="O91">
@@ -7138,8 +7347,11 @@
       <c r="U91" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V91" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>64</v>
       </c>
@@ -7155,7 +7367,7 @@
       <c r="E92" t="s">
         <v>310</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="29">
         <v>45082</v>
       </c>
       <c r="G92" t="s">
@@ -7176,7 +7388,7 @@
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92" s="30">
+      <c r="N92" s="29">
         <v>45093</v>
       </c>
       <c r="O92">
@@ -7198,8 +7410,11 @@
       <c r="U92" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V92" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>64</v>
       </c>
@@ -7212,7 +7427,7 @@
       <c r="E93" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="F93" s="30">
+      <c r="F93" s="29">
         <v>45082</v>
       </c>
       <c r="G93" t="s">
@@ -7244,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>64</v>
       </c>
@@ -7260,7 +7475,7 @@
       <c r="E94" t="s">
         <v>312</v>
       </c>
-      <c r="F94" s="30">
+      <c r="F94" s="29">
         <v>45082</v>
       </c>
       <c r="G94" t="s">
@@ -7295,7 +7510,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>64</v>
       </c>
@@ -7311,7 +7526,7 @@
       <c r="E95" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F95" s="30">
+      <c r="F95" s="29">
         <v>45082</v>
       </c>
       <c r="G95" t="s">
@@ -7346,7 +7561,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>64</v>
       </c>
@@ -7362,7 +7577,7 @@
       <c r="E96" t="s">
         <v>314</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="29">
         <v>45082</v>
       </c>
       <c r="G96" t="s">
@@ -7403,7 +7618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>64</v>
       </c>
@@ -7419,7 +7634,7 @@
       <c r="E97" t="s">
         <v>315</v>
       </c>
-      <c r="F97" s="30">
+      <c r="F97" s="29">
         <v>45082</v>
       </c>
       <c r="G97" t="s">
@@ -7462,7 +7677,7 @@
         <v>41.779411764705884</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>18</v>
       </c>
@@ -7478,7 +7693,7 @@
       <c r="E98" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="29">
         <v>45117</v>
       </c>
       <c r="G98" s="4" t="s">
@@ -7497,7 +7712,7 @@
       <c r="M98">
         <v>1</v>
       </c>
-      <c r="N98" s="30">
+      <c r="N98" s="29">
         <v>45134</v>
       </c>
       <c r="O98">
@@ -7519,8 +7734,11 @@
       <c r="U98" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V98" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>18</v>
       </c>
@@ -7533,10 +7751,10 @@
       <c r="D99" t="s">
         <v>381</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E99" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="29">
         <v>45117</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -7566,7 +7784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>18</v>
       </c>
@@ -7582,7 +7800,7 @@
       <c r="E100" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="29">
         <v>45117</v>
       </c>
       <c r="G100" s="4" t="s">
@@ -7600,7 +7818,7 @@
       <c r="M100">
         <v>1</v>
       </c>
-      <c r="N100" s="30">
+      <c r="N100" s="29">
         <v>45153</v>
       </c>
       <c r="O100">
@@ -7619,11 +7837,14 @@
       <c r="T100">
         <v>32</v>
       </c>
-      <c r="U100" s="28" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U100" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>18</v>
       </c>
@@ -7639,7 +7860,7 @@
       <c r="E101" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="29">
         <v>45117</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -7668,7 +7889,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>18</v>
       </c>
@@ -7684,7 +7905,7 @@
       <c r="E102" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="F102" s="30">
+      <c r="F102" s="29">
         <v>45117</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -7713,7 +7934,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>18</v>
       </c>
@@ -7729,7 +7950,7 @@
       <c r="E103" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="29">
         <v>45117</v>
       </c>
       <c r="G103" s="4" t="s">
@@ -7747,7 +7968,7 @@
       <c r="M103">
         <v>1</v>
       </c>
-      <c r="N103" s="30">
+      <c r="N103" s="29">
         <v>45134</v>
       </c>
       <c r="O103">
@@ -7769,8 +7990,11 @@
       <c r="U103" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V103" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>18</v>
       </c>
@@ -7786,7 +8010,7 @@
       <c r="E104" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="29">
         <v>45117</v>
       </c>
       <c r="G104" s="4" t="s">
@@ -7804,7 +8028,7 @@
       <c r="M104">
         <v>1</v>
       </c>
-      <c r="N104" s="30">
+      <c r="N104" s="29">
         <v>45134</v>
       </c>
       <c r="O104">
@@ -7823,8 +8047,11 @@
       <c r="U104" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V104" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>18</v>
       </c>
@@ -7840,7 +8067,7 @@
       <c r="E105" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="29">
         <v>45117</v>
       </c>
       <c r="G105" s="4" t="s">
@@ -7869,7 +8096,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>18</v>
       </c>
@@ -7885,7 +8112,7 @@
       <c r="E106" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="29">
         <v>45117</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -7903,7 +8130,7 @@
       <c r="M106">
         <v>1</v>
       </c>
-      <c r="N106" s="30">
+      <c r="N106" s="29">
         <v>45134</v>
       </c>
       <c r="O106">
@@ -7925,8 +8152,11 @@
       <c r="U106" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V106" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +8172,7 @@
       <c r="E107" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="F107" s="30">
+      <c r="F107" s="29">
         <v>45117</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -7968,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>18</v>
       </c>
@@ -7984,7 +8214,7 @@
       <c r="E108" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="F108" s="30">
+      <c r="F108" s="29">
         <v>45117</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -8013,7 +8243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>18</v>
       </c>
@@ -8029,7 +8259,7 @@
       <c r="E109" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="F109" s="30">
+      <c r="F109" s="29">
         <v>45117</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -8047,7 +8277,7 @@
       <c r="M109">
         <v>1</v>
       </c>
-      <c r="N109" s="30">
+      <c r="N109" s="29">
         <v>45134</v>
       </c>
       <c r="O109">
@@ -8066,8 +8296,11 @@
       <c r="U109" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V109" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>18</v>
       </c>
@@ -8083,7 +8316,7 @@
       <c r="E110" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="F110" s="30">
+      <c r="F110" s="29">
         <v>45117</v>
       </c>
       <c r="G110" s="4" t="s">
@@ -8101,7 +8334,7 @@
       <c r="M110">
         <v>1</v>
       </c>
-      <c r="N110" s="30">
+      <c r="N110" s="29">
         <v>45134</v>
       </c>
       <c r="O110">
@@ -8120,8 +8353,14 @@
       <c r="T110">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>18</v>
       </c>
@@ -8137,7 +8376,7 @@
       <c r="E111" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F111" s="30">
+      <c r="F111" s="29">
         <v>45117</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -8155,7 +8394,7 @@
       <c r="M111">
         <v>1</v>
       </c>
-      <c r="N111" s="30">
+      <c r="N111" s="29">
         <v>45174</v>
       </c>
       <c r="O111">
@@ -8177,8 +8416,11 @@
       <c r="U111" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V111" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>18</v>
       </c>
@@ -8194,7 +8436,7 @@
       <c r="E112" t="s">
         <v>379</v>
       </c>
-      <c r="F112" s="30">
+      <c r="F112" s="29">
         <v>45117</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -8212,7 +8454,7 @@
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="N112" s="30">
+      <c r="N112" s="29">
         <v>45134</v>
       </c>
       <c r="O112">
@@ -8231,8 +8473,11 @@
       <c r="U112" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V112" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>421</v>
       </c>
@@ -8245,7 +8490,7 @@
       <c r="E113" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F113" s="30">
+      <c r="F113" s="29">
         <v>45117</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -8274,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>18</v>
       </c>
@@ -8284,7 +8529,7 @@
       <c r="E114" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F114" s="30">
+      <c r="F114" s="29">
         <v>45145</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -8299,7 +8544,7 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="N114" s="30">
+      <c r="N114" s="29">
         <v>45146</v>
       </c>
       <c r="O114">
@@ -8321,8 +8566,11 @@
       <c r="U114" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V114" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -8332,7 +8580,7 @@
       <c r="E115" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F115" s="30">
+      <c r="F115" s="29">
         <v>45145</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -8347,7 +8595,7 @@
       <c r="M115">
         <v>1</v>
       </c>
-      <c r="N115" s="30">
+      <c r="N115" s="29">
         <v>45147</v>
       </c>
       <c r="O115">
@@ -8369,8 +8617,11 @@
       <c r="U115" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V115" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>18</v>
       </c>
@@ -8380,7 +8631,7 @@
       <c r="E116" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F116" s="30">
+      <c r="F116" s="29">
         <v>45145</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -8406,7 +8657,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>18</v>
       </c>
@@ -8416,7 +8667,7 @@
       <c r="E117" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F117" s="30">
+      <c r="F117" s="29">
         <v>45145</v>
       </c>
       <c r="G117" s="4" t="s">
@@ -8431,7 +8682,7 @@
       <c r="M117" s="4">
         <v>1</v>
       </c>
-      <c r="N117" s="30">
+      <c r="N117" s="29">
         <v>45147</v>
       </c>
       <c r="O117">
@@ -8450,8 +8701,11 @@
       <c r="U117" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V117" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>18</v>
       </c>
@@ -8464,7 +8718,7 @@
       <c r="E118" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="30">
+      <c r="F118" s="29">
         <v>45145</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -8479,7 +8733,7 @@
       <c r="M118">
         <v>1</v>
       </c>
-      <c r="N118" s="30">
+      <c r="N118" s="29">
         <v>45147</v>
       </c>
       <c r="O118">
@@ -8501,8 +8755,11 @@
       <c r="U118" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V118" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>18</v>
       </c>
@@ -8512,7 +8769,7 @@
       <c r="E119" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F119" s="30">
+      <c r="F119" s="29">
         <v>45145</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -8535,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>18</v>
       </c>
@@ -8545,7 +8802,7 @@
       <c r="E120" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F120" s="30">
+      <c r="F120" s="29">
         <v>45145</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -8560,7 +8817,7 @@
       <c r="M120">
         <v>1</v>
       </c>
-      <c r="N120" s="30">
+      <c r="N120" s="29">
         <v>45147</v>
       </c>
       <c r="O120">
@@ -8579,8 +8836,11 @@
       <c r="U120" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V120" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>18</v>
       </c>
@@ -8590,7 +8850,7 @@
       <c r="E121" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F121" s="30">
+      <c r="F121" s="29">
         <v>45145</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -8605,7 +8865,7 @@
       <c r="M121">
         <v>1</v>
       </c>
-      <c r="N121" s="30">
+      <c r="N121" s="29">
         <v>45147</v>
       </c>
       <c r="O121">
@@ -8627,15 +8887,18 @@
       <c r="U121" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V121" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F122" s="30">
+      <c r="F122" s="29">
         <v>45145</v>
       </c>
       <c r="G122" s="4" t="s">
@@ -8658,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
@@ -8668,7 +8931,7 @@
       <c r="E123" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F123" s="30">
+      <c r="F123" s="29">
         <v>45146</v>
       </c>
       <c r="G123" s="4" t="s">
@@ -8683,7 +8946,7 @@
       <c r="M123">
         <v>1</v>
       </c>
-      <c r="N123" s="30">
+      <c r="N123" s="29">
         <v>45147</v>
       </c>
       <c r="O123">
@@ -8702,8 +8965,11 @@
       <c r="U123" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V123" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>18</v>
       </c>
@@ -8713,7 +8979,7 @@
       <c r="E124" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F124" s="30">
+      <c r="F124" s="29">
         <v>45146</v>
       </c>
       <c r="G124" s="4" t="s">
@@ -8739,13 +9005,13 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K127">
         <f>SUM(K2:K124)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>18</v>
       </c>
@@ -8755,7 +9021,7 @@
       <c r="E128" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="F128" s="30">
+      <c r="F128" s="29">
         <v>45117</v>
       </c>
       <c r="J128" s="12" t="s">
@@ -8764,7 +9030,7 @@
       <c r="M128">
         <v>1</v>
       </c>
-      <c r="N128" s="30">
+      <c r="N128" s="29">
         <v>45163</v>
       </c>
       <c r="O128">
@@ -8783,9 +9049,12 @@
       <c r="U128" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="V128" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J127" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="J1:J128" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/participantlist.xlsx
+++ b/participantlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/Rejection_Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452ABA76-C7AE-5A40-BB63-8CAA3F027FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A03D0B-3699-F843-9D37-301633EA2866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="100" windowWidth="22760" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8320" yWindow="0" windowWidth="18300" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilottotalparticipant_list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="484">
   <si>
     <t>pavlovia_task</t>
   </si>
@@ -1456,6 +1456,39 @@
   </si>
   <si>
     <t>Debriefed</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>South East Asian</t>
+  </si>
+  <si>
+    <t>Caribbean/Asian</t>
+  </si>
+  <si>
+    <t>Latino/Hispanic</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>East Asian</t>
+  </si>
+  <si>
+    <t>Native American</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1617,23 +1650,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1852,13 +1873,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W128"/>
+  <dimension ref="A1:W131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143"/>
+      <selection pane="bottomRight" activeCell="O128" sqref="O128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1867,23 +1888,23 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="29" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="29" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="29" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="103.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="29" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="103.33203125" customWidth="1"/>
+    <col min="19" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1950,8 +1971,11 @@
       <c r="V1" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W1" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2016,8 +2040,11 @@
       <c r="V2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W2" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2080,8 +2107,11 @@
       <c r="V3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2144,8 +2174,11 @@
       <c r="V4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2208,8 +2241,11 @@
       <c r="V5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2272,8 +2308,11 @@
       <c r="V6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W6" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2333,8 +2372,11 @@
       <c r="V7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -2397,8 +2439,11 @@
       <c r="V8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -2458,8 +2503,11 @@
       <c r="V9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -2519,8 +2567,11 @@
       <c r="V10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
@@ -2568,7 +2619,7 @@
       </c>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -2617,7 +2668,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -2680,8 +2731,11 @@
       <c r="V13" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -2741,8 +2795,11 @@
       <c r="V14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W14" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -2805,8 +2862,11 @@
       <c r="V15" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>64</v>
       </c>
@@ -2859,7 +2919,7 @@
       </c>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2919,8 +2979,11 @@
       <c r="V17" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2983,8 +3046,11 @@
       <c r="V18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W18" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -3044,8 +3110,11 @@
       <c r="V19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W19" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
@@ -3108,8 +3177,11 @@
       <c r="V20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W20" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -3172,8 +3244,11 @@
       <c r="V21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
@@ -3223,7 +3298,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>91</v>
       </c>
@@ -3273,7 +3348,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>91</v>
       </c>
@@ -3333,8 +3408,11 @@
       <c r="V24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W24" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -3397,8 +3475,11 @@
       <c r="V25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W25" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
@@ -3444,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -3504,8 +3585,11 @@
       <c r="V27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
@@ -3568,8 +3652,11 @@
       <c r="V28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W28" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -3618,7 +3705,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
@@ -3667,7 +3754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -3730,8 +3817,11 @@
       <c r="V31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W31" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3791,8 +3881,11 @@
       <c r="V32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W32" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -3838,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>91</v>
       </c>
@@ -3901,8 +3994,11 @@
       <c r="V34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W34" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>91</v>
       </c>
@@ -3965,8 +4061,11 @@
       <c r="V35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W35" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
@@ -4032,8 +4131,11 @@
       <c r="V36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W36" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>194</v>
       </c>
@@ -4096,8 +4198,11 @@
       <c r="V37" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W37" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>194</v>
       </c>
@@ -4163,8 +4268,11 @@
       <c r="V38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W38" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>194</v>
       </c>
@@ -4227,8 +4335,11 @@
       <c r="V39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W39" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>194</v>
       </c>
@@ -4294,8 +4405,11 @@
       <c r="V40" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W40" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>194</v>
       </c>
@@ -4361,8 +4475,11 @@
       <c r="V41" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W41" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>194</v>
       </c>
@@ -4428,8 +4545,11 @@
       <c r="V42" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W42" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -4492,8 +4612,11 @@
       <c r="V43" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W43" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -4556,8 +4679,11 @@
       <c r="V44" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>194</v>
       </c>
@@ -4620,8 +4746,11 @@
       <c r="V45" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W45" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>194</v>
       </c>
@@ -4684,8 +4813,11 @@
       <c r="V46" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W46" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -4751,8 +4883,11 @@
       <c r="V47" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W47" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>194</v>
       </c>
@@ -4818,6 +4953,9 @@
       <c r="V48" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W48" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -4882,6 +5020,9 @@
       <c r="V49" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W49" s="4" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
@@ -4946,6 +5087,9 @@
       <c r="V50" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W50" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
@@ -5010,6 +5154,9 @@
       <c r="V51" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W51" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
@@ -5077,6 +5224,9 @@
       <c r="V52" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W52" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
@@ -5138,6 +5288,9 @@
       <c r="V53" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W53" s="4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
@@ -5199,6 +5352,9 @@
       <c r="V54" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W54" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
@@ -5260,7 +5416,9 @@
       <c r="V55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W55" s="4"/>
+      <c r="W55" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -5458,6 +5616,9 @@
       <c r="V59" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W59" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
@@ -5519,6 +5680,9 @@
       <c r="V60" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W60" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
@@ -5582,6 +5746,9 @@
       <c r="V61" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W61" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
@@ -5648,6 +5815,9 @@
       <c r="V62" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W62" s="4" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
@@ -5714,6 +5884,9 @@
       <c r="V63" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W63" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
@@ -5777,8 +5950,11 @@
       <c r="V64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W64" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
@@ -5840,8 +6016,11 @@
       <c r="V65" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W65" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -5892,7 +6071,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>194</v>
       </c>
@@ -5954,8 +6133,11 @@
       <c r="V67" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W67" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>194</v>
       </c>
@@ -6017,8 +6199,11 @@
       <c r="V68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W68" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>194</v>
       </c>
@@ -6070,7 +6255,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>194</v>
       </c>
@@ -6133,8 +6318,11 @@
       <c r="V70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+      <c r="W70" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>194</v>
       </c>
@@ -6185,7 +6373,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>194</v>
       </c>
@@ -6236,7 +6424,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>194</v>
       </c>
@@ -6287,7 +6475,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>194</v>
       </c>
@@ -6338,7 +6526,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>194</v>
       </c>
@@ -6389,7 +6577,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>194</v>
       </c>
@@ -6454,8 +6642,11 @@
       <c r="V76" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="W76" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>284</v>
       </c>
@@ -6507,7 +6698,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>284</v>
       </c>
@@ -6569,8 +6760,11 @@
       <c r="V78" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W78" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>284</v>
       </c>
@@ -6632,8 +6826,11 @@
       <c r="V79" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W79" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>284</v>
       </c>
@@ -6695,8 +6892,11 @@
       <c r="V80" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W80" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>284</v>
       </c>
@@ -6747,7 +6947,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
         <v>64</v>
       </c>
@@ -6799,7 +6999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -6864,8 +7064,11 @@
       <c r="V83" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W83" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
@@ -6927,8 +7130,11 @@
       <c r="V84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W84" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>64</v>
       </c>
@@ -6979,7 +7185,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>64</v>
       </c>
@@ -7030,7 +7236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>64</v>
       </c>
@@ -7092,8 +7298,11 @@
       <c r="V87" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W87" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -7158,8 +7367,11 @@
       <c r="V88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W88" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>64</v>
       </c>
@@ -7224,8 +7436,11 @@
       <c r="V89" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W89" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>64</v>
       </c>
@@ -7287,8 +7502,11 @@
       <c r="V90" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W90" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>64</v>
       </c>
@@ -7350,8 +7568,11 @@
       <c r="V91" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W91" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>64</v>
       </c>
@@ -7413,8 +7634,11 @@
       <c r="V92" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W92" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>64</v>
       </c>
@@ -7459,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>64</v>
       </c>
@@ -7510,7 +7734,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>64</v>
       </c>
@@ -7561,7 +7785,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>64</v>
       </c>
@@ -7618,7 +7842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>64</v>
       </c>
@@ -7677,7 +7901,7 @@
         <v>41.779411764705884</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>18</v>
       </c>
@@ -7737,8 +7961,11 @@
       <c r="V98" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W98" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>18</v>
       </c>
@@ -7784,7 +8011,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>18</v>
       </c>
@@ -7837,14 +8064,17 @@
       <c r="T100">
         <v>32</v>
       </c>
-      <c r="U100" s="35" t="s">
+      <c r="U100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="V100" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W100" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>18</v>
       </c>
@@ -7889,7 +8119,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>18</v>
       </c>
@@ -7934,7 +8164,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>18</v>
       </c>
@@ -7993,8 +8223,11 @@
       <c r="V103" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W103" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>18</v>
       </c>
@@ -8050,8 +8283,11 @@
       <c r="V104" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W104" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>18</v>
       </c>
@@ -8096,7 +8332,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>18</v>
       </c>
@@ -8155,8 +8391,11 @@
       <c r="V106" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W106" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>18</v>
       </c>
@@ -8198,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>18</v>
       </c>
@@ -8243,7 +8482,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>18</v>
       </c>
@@ -8299,8 +8538,11 @@
       <c r="V109" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W109" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>18</v>
       </c>
@@ -8359,8 +8601,11 @@
       <c r="V110" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W110" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>18</v>
       </c>
@@ -8419,8 +8664,11 @@
       <c r="V111" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W111" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>18</v>
       </c>
@@ -8476,8 +8724,11 @@
       <c r="V112" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W112" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>421</v>
       </c>
@@ -8519,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>18</v>
       </c>
@@ -8569,8 +8820,11 @@
       <c r="V114" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W114" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>18</v>
       </c>
@@ -8620,8 +8874,11 @@
       <c r="V115" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W115" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>18</v>
       </c>
@@ -8657,7 +8914,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>18</v>
       </c>
@@ -8704,8 +8961,11 @@
       <c r="V117" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W117" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>18</v>
       </c>
@@ -8758,8 +9018,11 @@
       <c r="V118" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W118" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>18</v>
       </c>
@@ -8792,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>18</v>
       </c>
@@ -8839,8 +9102,11 @@
       <c r="V120" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W120" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>18</v>
       </c>
@@ -8890,8 +9156,11 @@
       <c r="V121" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W121" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>18</v>
       </c>
@@ -8921,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
@@ -8968,8 +9237,11 @@
       <c r="V123" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W123" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>18</v>
       </c>
@@ -9005,53 +9277,63 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F125" s="29">
+        <v>45117</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" s="29">
+        <v>45163</v>
+      </c>
+      <c r="O125">
+        <f t="shared" ref="O125" si="3">_xlfn.DAYS(N125,F125)</f>
+        <v>46</v>
+  